--- a/Unknown_Platypus/Table/SkillTable.xlsx
+++ b/Unknown_Platypus/Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujaeyoung/Work/platypus/Table/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55858479-23CA-F042-BCCD-0436647D586C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65350AAF-3EE9-43B6-95DD-D2525DBC526C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43020" yWindow="5420" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -691,7 +691,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1243,51 +1243,51 @@
   <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.125" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.125" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.125" style="3" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.125" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.125" style="3" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.125" style="3" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.125" style="3" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.5" style="3" customWidth="1"/>
-    <col min="35" max="37" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" customFormat="1" ht="17">
+    <row r="1" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:34" customFormat="1" ht="17">
+    <row r="2" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>100001</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" customFormat="1" ht="17">
+    <row r="3" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>100002</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:34" customFormat="1" ht="17">
+    <row r="4" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>100003</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:34" customFormat="1" ht="17">
+    <row r="5" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>100004</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:34" customFormat="1" ht="17">
+    <row r="6" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>100005</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:34" customFormat="1" ht="17">
+    <row r="7" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>100006</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" customFormat="1" ht="17">
+    <row r="8" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>100007</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:34" customFormat="1" ht="17">
+    <row r="9" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>100008</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:34" customFormat="1" ht="17">
+    <row r="10" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>100009</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:34" customFormat="1" ht="17">
+    <row r="11" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>100010</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:34" customFormat="1" ht="17">
+    <row r="12" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>100011</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" customFormat="1" ht="17">
+    <row r="13" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>100012</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:34" customFormat="1" ht="17">
+    <row r="14" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>100013</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:34" customFormat="1" ht="17">
+    <row r="15" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>100014</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="16" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>100015</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="17" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>100016</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="18" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>100017</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="19" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>100018</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="20" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>100019</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="21" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>100020</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="22" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>100021</v>
       </c>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="AH22"/>
     </row>
-    <row r="23" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="23" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>100022</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="24" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>100023</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="25" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>100024</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="26" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>100025</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="27" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>100026</v>
       </c>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="AH27"/>
     </row>
-    <row r="28" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="28" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>100027</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="29" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>100028</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="30" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>100029</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="31" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>100030</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="32" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>100031</v>
       </c>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="AH32"/>
     </row>
-    <row r="33" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="33" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>100032</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="34" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>100033</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="35" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>100034</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="36" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>100035</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="37" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>100036</v>
       </c>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="AH37"/>
     </row>
-    <row r="38" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="38" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>100037</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="39" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>100038</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="40" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>100039</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="41" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>100040</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="42" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>100041</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>121</v>
       </c>
       <c r="K42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>5</v>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="AH42"/>
     </row>
-    <row r="43" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="43" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>100042</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="44" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>100043</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="45" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>100044</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="46" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>100045</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="47" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>100046</v>
       </c>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="AH47"/>
     </row>
-    <row r="48" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="48" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>100047</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="49" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>100048</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="50" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>100049</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="51" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>100050</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="52" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>100051</v>
       </c>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="AH52"/>
     </row>
-    <row r="53" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="53" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>100052</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="54" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>100053</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="55" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>100054</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="56" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>100055</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="57" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>100056</v>
       </c>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="AH57"/>
     </row>
-    <row r="58" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="58" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>100057</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="59" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>100058</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="60" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>100059</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="61" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>100060</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="62" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>100061</v>
       </c>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="AH62"/>
     </row>
-    <row r="63" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="63" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>100062</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="64" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>100063</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="65" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>100064</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="66" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>100065</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="67" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>100066</v>
       </c>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="AH67"/>
     </row>
-    <row r="68" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="68" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>100067</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="69" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>100068</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="70" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>100069</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="71" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>100070</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="72" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>100071</v>
       </c>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="AH72"/>
     </row>
-    <row r="73" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="73" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>100072</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="74" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>100073</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="75" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>100074</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:34" s="14" customFormat="1" ht="16" customHeight="1">
+    <row r="76" spans="1:34" s="14" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>100075</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:34" s="14" customFormat="1" ht="16" customHeight="1">
+    <row r="77" spans="1:34" s="14" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>100076</v>
       </c>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="AH77"/>
     </row>
-    <row r="78" spans="1:34" s="14" customFormat="1" ht="16" customHeight="1">
+    <row r="78" spans="1:34" s="14" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>100077</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:34" s="14" customFormat="1" ht="16" customHeight="1">
+    <row r="79" spans="1:34" s="14" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>100078</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:34" s="14" customFormat="1" ht="16" customHeight="1">
+    <row r="80" spans="1:34" s="14" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>100079</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="81" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>100080</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="82" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>100081</v>
       </c>
@@ -7347,7 +7347,7 @@
       </c>
       <c r="AH82"/>
     </row>
-    <row r="83" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="83" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>100082</v>
       </c>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="AH83"/>
     </row>
-    <row r="84" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="84" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>100083</v>
       </c>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="AH84"/>
     </row>
-    <row r="85" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="85" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>100084</v>
       </c>
@@ -7563,7 +7563,7 @@
       </c>
       <c r="AH85"/>
     </row>
-    <row r="86" spans="1:34" s="14" customFormat="1" ht="17">
+    <row r="86" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>100085</v>
       </c>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="AH86"/>
     </row>
-    <row r="87" spans="1:34" ht="17">
+    <row r="87" spans="1:34" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>200001</v>
       </c>
@@ -7710,29 +7710,29 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="49.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="49.625" customWidth="1"/>
+    <col min="6" max="6" width="32.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="18" thickBot="1"/>
-    <row r="6" spans="3:5">
+    <row r="5" spans="3:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="3:5" ht="72">
+    <row r="7" spans="3:5" ht="66" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="72">
+    <row r="8" spans="3:5" ht="66" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>68</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="126">
+    <row r="9" spans="3:5" ht="115.5" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>75</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="3:5" ht="18">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>53</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="3:5">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>4</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>6</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" s="9" t="s">
         <v>51</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="3:5">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16" s="9" t="s">
         <v>8</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="9" t="s">
         <v>9</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="9" t="s">
         <v>57</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="9" t="s">
         <v>11</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="9" t="s">
         <v>12</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="90">
+    <row r="21" spans="3:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="C21" s="9" t="s">
         <v>59</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="108">
+    <row r="22" spans="3:5" ht="99" x14ac:dyDescent="0.3">
       <c r="C22" s="9" t="s">
         <v>36</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="54">
+    <row r="23" spans="3:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C23" s="9" t="s">
         <v>37</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="108">
+    <row r="24" spans="3:5" ht="99" x14ac:dyDescent="0.3">
       <c r="C24" s="9" t="s">
         <v>60</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="19" thickBot="1">
+    <row r="25" spans="3:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="10" t="s">
         <v>38</v>
       </c>

--- a/Unknown_Platypus/Table/SkillTable.xlsx
+++ b/Unknown_Platypus/Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65350AAF-3EE9-43B6-95DD-D2525DBC526C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88117B70-4546-4880-8D3E-AC515407F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="150">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -612,70 +612,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20001, 20006, 20017, 20031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001, 20011, 20016, 20021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001, 20006, 20026, 20046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001, 20021, 20036, 20051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001, 20006, 20021, 20046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001,20026, 20046, 20056</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001,20026, 20036, 20041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001, 20011, 20061, 20071</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001, 20046, 20061, 20066</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001, 20011, 20031, 20056</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001, 20011, 20031, 20046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001, 20016, 20021, 20026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001, 20026, 20061, 20066</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001, 20031, 20036, 20041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001, 20016, 20036, 20041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001, 20017, 20021, 20051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>감마전류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -684,6 +620,10 @@
   </si>
   <si>
     <t>Skill_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001, 20006, 20061, 20051</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1532,9 +1472,6 @@
       <c r="W3" s="3">
         <v>0</v>
       </c>
-      <c r="AH3" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="4" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -1606,9 +1543,6 @@
       <c r="W4" s="3">
         <v>0</v>
       </c>
-      <c r="AH4" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="5" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -1680,9 +1614,6 @@
       <c r="W5" s="3">
         <v>0</v>
       </c>
-      <c r="AH5" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="6" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -1754,9 +1685,6 @@
       <c r="W6" s="3">
         <v>0</v>
       </c>
-      <c r="AH6" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="7" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -1899,9 +1827,6 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-      <c r="AH8" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="9" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -1973,9 +1898,6 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-      <c r="AH9" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="10" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -2047,9 +1969,6 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-      <c r="AH10" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="11" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -2121,9 +2040,6 @@
       <c r="W11" s="3">
         <v>0</v>
       </c>
-      <c r="AH11" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="12" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -2267,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="AH13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2341,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="AH14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2415,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="AH15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2489,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="AH16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2633,9 +2549,7 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-      <c r="AH18" t="s">
-        <v>151</v>
-      </c>
+      <c r="AH18"/>
     </row>
     <row r="19" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -2707,9 +2621,7 @@
       <c r="W19" s="3">
         <v>0</v>
       </c>
-      <c r="AH19" t="s">
-        <v>151</v>
-      </c>
+      <c r="AH19"/>
     </row>
     <row r="20" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -2781,9 +2693,7 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-      <c r="AH20" t="s">
-        <v>151</v>
-      </c>
+      <c r="AH20"/>
     </row>
     <row r="21" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -2855,9 +2765,7 @@
       <c r="W21" s="3">
         <v>0</v>
       </c>
-      <c r="AH21" t="s">
-        <v>151</v>
-      </c>
+      <c r="AH21"/>
     </row>
     <row r="22" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
@@ -3001,9 +2909,7 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-      <c r="AH23" t="s">
-        <v>149</v>
-      </c>
+      <c r="AH23"/>
     </row>
     <row r="24" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
@@ -3075,9 +2981,7 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="AH24" t="s">
-        <v>149</v>
-      </c>
+      <c r="AH24"/>
     </row>
     <row r="25" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -3149,9 +3053,7 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-      <c r="AH25" t="s">
-        <v>149</v>
-      </c>
+      <c r="AH25"/>
     </row>
     <row r="26" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
@@ -3223,9 +3125,7 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-      <c r="AH26" t="s">
-        <v>149</v>
-      </c>
+      <c r="AH26"/>
     </row>
     <row r="27" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -3369,9 +3269,7 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-      <c r="AH28" t="s">
-        <v>150</v>
-      </c>
+      <c r="AH28"/>
     </row>
     <row r="29" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -3443,9 +3341,7 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-      <c r="AH29" t="s">
-        <v>150</v>
-      </c>
+      <c r="AH29"/>
     </row>
     <row r="30" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
@@ -3517,9 +3413,7 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-      <c r="AH30" t="s">
-        <v>150</v>
-      </c>
+      <c r="AH30"/>
     </row>
     <row r="31" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
@@ -3591,9 +3485,7 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-      <c r="AH31" t="s">
-        <v>150</v>
-      </c>
+      <c r="AH31"/>
     </row>
     <row r="32" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
@@ -3737,9 +3629,7 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-      <c r="AH33" t="s">
-        <v>152</v>
-      </c>
+      <c r="AH33"/>
     </row>
     <row r="34" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
@@ -3811,9 +3701,7 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-      <c r="AH34" t="s">
-        <v>152</v>
-      </c>
+      <c r="AH34"/>
     </row>
     <row r="35" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
@@ -3885,9 +3773,7 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-      <c r="AH35" t="s">
-        <v>152</v>
-      </c>
+      <c r="AH35"/>
     </row>
     <row r="36" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
@@ -3959,9 +3845,7 @@
       <c r="W36" s="3">
         <v>0</v>
       </c>
-      <c r="AH36" t="s">
-        <v>152</v>
-      </c>
+      <c r="AH36"/>
     </row>
     <row r="37" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
@@ -4105,9 +3989,7 @@
       <c r="W38" s="3">
         <v>0</v>
       </c>
-      <c r="AH38" t="s">
-        <v>154</v>
-      </c>
+      <c r="AH38"/>
     </row>
     <row r="39" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
@@ -4179,9 +4061,7 @@
       <c r="W39" s="3">
         <v>0</v>
       </c>
-      <c r="AH39" t="s">
-        <v>154</v>
-      </c>
+      <c r="AH39"/>
     </row>
     <row r="40" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
@@ -4253,9 +4133,7 @@
       <c r="W40" s="3">
         <v>0</v>
       </c>
-      <c r="AH40" t="s">
-        <v>154</v>
-      </c>
+      <c r="AH40"/>
     </row>
     <row r="41" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
@@ -4327,9 +4205,7 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-      <c r="AH41" t="s">
-        <v>154</v>
-      </c>
+      <c r="AH41"/>
     </row>
     <row r="42" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
@@ -4473,9 +4349,7 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="AH43" t="s">
-        <v>155</v>
-      </c>
+      <c r="AH43"/>
     </row>
     <row r="44" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
@@ -4547,9 +4421,7 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-      <c r="AH44" t="s">
-        <v>155</v>
-      </c>
+      <c r="AH44"/>
     </row>
     <row r="45" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
@@ -4621,9 +4493,7 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="AH45" t="s">
-        <v>155</v>
-      </c>
+      <c r="AH45"/>
     </row>
     <row r="46" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
@@ -4695,9 +4565,7 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-      <c r="AH46" t="s">
-        <v>155</v>
-      </c>
+      <c r="AH46"/>
     </row>
     <row r="47" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
@@ -4841,9 +4709,7 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="AH48" t="s">
-        <v>156</v>
-      </c>
+      <c r="AH48"/>
     </row>
     <row r="49" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
@@ -4915,9 +4781,7 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-      <c r="AH49" t="s">
-        <v>156</v>
-      </c>
+      <c r="AH49"/>
     </row>
     <row r="50" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
@@ -4989,9 +4853,7 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-      <c r="AH50" t="s">
-        <v>156</v>
-      </c>
+      <c r="AH50"/>
     </row>
     <row r="51" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
@@ -5063,9 +4925,7 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-      <c r="AH51" t="s">
-        <v>156</v>
-      </c>
+      <c r="AH51"/>
     </row>
     <row r="52" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
@@ -5209,9 +5069,7 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-      <c r="AH53" t="s">
-        <v>157</v>
-      </c>
+      <c r="AH53"/>
     </row>
     <row r="54" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
@@ -5283,9 +5141,7 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-      <c r="AH54" t="s">
-        <v>157</v>
-      </c>
+      <c r="AH54"/>
     </row>
     <row r="55" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
@@ -5357,9 +5213,7 @@
       <c r="W55" s="3">
         <v>0</v>
       </c>
-      <c r="AH55" t="s">
-        <v>157</v>
-      </c>
+      <c r="AH55"/>
     </row>
     <row r="56" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
@@ -5431,9 +5285,7 @@
       <c r="W56" s="3">
         <v>0</v>
       </c>
-      <c r="AH56" t="s">
-        <v>157</v>
-      </c>
+      <c r="AH56"/>
     </row>
     <row r="57" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
@@ -5577,9 +5429,7 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-      <c r="AH58" t="s">
-        <v>158</v>
-      </c>
+      <c r="AH58"/>
     </row>
     <row r="59" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
@@ -5651,9 +5501,7 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-      <c r="AH59" t="s">
-        <v>158</v>
-      </c>
+      <c r="AH59"/>
     </row>
     <row r="60" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
@@ -5725,9 +5573,7 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-      <c r="AH60" t="s">
-        <v>158</v>
-      </c>
+      <c r="AH60"/>
     </row>
     <row r="61" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
@@ -5799,9 +5645,7 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-      <c r="AH61" t="s">
-        <v>158</v>
-      </c>
+      <c r="AH61"/>
     </row>
     <row r="62" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
@@ -5945,9 +5789,7 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-      <c r="AH63" t="s">
-        <v>153</v>
-      </c>
+      <c r="AH63"/>
     </row>
     <row r="64" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
@@ -6019,9 +5861,7 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-      <c r="AH64" t="s">
-        <v>153</v>
-      </c>
+      <c r="AH64"/>
     </row>
     <row r="65" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -6093,9 +5933,7 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-      <c r="AH65" t="s">
-        <v>153</v>
-      </c>
+      <c r="AH65"/>
     </row>
     <row r="66" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
@@ -6167,9 +6005,7 @@
       <c r="W66" s="3">
         <v>0</v>
       </c>
-      <c r="AH66" t="s">
-        <v>153</v>
-      </c>
+      <c r="AH66"/>
     </row>
     <row r="67" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
@@ -6313,9 +6149,7 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-      <c r="AH68" t="s">
-        <v>161</v>
-      </c>
+      <c r="AH68"/>
     </row>
     <row r="69" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
@@ -6387,9 +6221,7 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-      <c r="AH69" t="s">
-        <v>161</v>
-      </c>
+      <c r="AH69"/>
     </row>
     <row r="70" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
@@ -6461,9 +6293,7 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-      <c r="AH70" t="s">
-        <v>161</v>
-      </c>
+      <c r="AH70"/>
     </row>
     <row r="71" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
@@ -6535,9 +6365,7 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-      <c r="AH71" t="s">
-        <v>161</v>
-      </c>
+      <c r="AH71"/>
     </row>
     <row r="72" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
@@ -6681,9 +6509,7 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-      <c r="AH73" t="s">
-        <v>159</v>
-      </c>
+      <c r="AH73"/>
     </row>
     <row r="74" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
@@ -6755,9 +6581,7 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-      <c r="AH74" t="s">
-        <v>159</v>
-      </c>
+      <c r="AH74"/>
     </row>
     <row r="75" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
@@ -6829,9 +6653,7 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-      <c r="AH75" t="s">
-        <v>159</v>
-      </c>
+      <c r="AH75"/>
     </row>
     <row r="76" spans="1:34" s="14" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
@@ -6903,9 +6725,7 @@
       <c r="W76" s="3">
         <v>0</v>
       </c>
-      <c r="AH76" t="s">
-        <v>159</v>
-      </c>
+      <c r="AH76"/>
     </row>
     <row r="77" spans="1:34" s="14" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
@@ -7049,9 +6869,7 @@
       <c r="W78" s="3">
         <v>0</v>
       </c>
-      <c r="AH78" t="s">
-        <v>160</v>
-      </c>
+      <c r="AH78"/>
     </row>
     <row r="79" spans="1:34" s="14" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
@@ -7123,9 +6941,7 @@
       <c r="W79" s="3">
         <v>0</v>
       </c>
-      <c r="AH79" t="s">
-        <v>160</v>
-      </c>
+      <c r="AH79"/>
     </row>
     <row r="80" spans="1:34" s="14" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
@@ -7197,9 +7013,7 @@
       <c r="W80" s="3">
         <v>0</v>
       </c>
-      <c r="AH80" t="s">
-        <v>160</v>
-      </c>
+      <c r="AH80"/>
     </row>
     <row r="81" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
@@ -7271,16 +7085,14 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-      <c r="AH81" t="s">
-        <v>160</v>
-      </c>
+      <c r="AH81"/>
     </row>
     <row r="82" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>100081</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C82">
         <v>17</v>
@@ -7304,7 +7116,7 @@
         <v>300163</v>
       </c>
       <c r="J82" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -7328,7 +7140,7 @@
         <v>3</v>
       </c>
       <c r="R82" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="S82" s="3" t="s">
         <v>71</v>
@@ -7352,7 +7164,7 @@
         <v>100082</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C83">
         <v>17</v>
@@ -7376,7 +7188,7 @@
         <v>300164</v>
       </c>
       <c r="J83" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -7400,7 +7212,7 @@
         <v>3</v>
       </c>
       <c r="R83" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>71</v>
@@ -7424,7 +7236,7 @@
         <v>100083</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C84">
         <v>17</v>
@@ -7448,7 +7260,7 @@
         <v>300165</v>
       </c>
       <c r="J84" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="K84">
         <v>3</v>
@@ -7472,7 +7284,7 @@
         <v>3</v>
       </c>
       <c r="R84" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="S84" s="3" t="s">
         <v>71</v>
@@ -7496,7 +7308,7 @@
         <v>100084</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C85">
         <v>17</v>
@@ -7520,7 +7332,7 @@
         <v>300166</v>
       </c>
       <c r="J85" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="K85">
         <v>4</v>
@@ -7544,7 +7356,7 @@
         <v>3</v>
       </c>
       <c r="R85" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="S85" s="3" t="s">
         <v>71</v>
@@ -7568,7 +7380,7 @@
         <v>100085</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C86">
         <v>17</v>
@@ -7592,7 +7404,7 @@
         <v>300167</v>
       </c>
       <c r="J86" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="K86">
         <v>5</v>
@@ -7616,7 +7428,7 @@
         <v>3</v>
       </c>
       <c r="R86" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="S86" s="3" t="s">
         <v>71</v>
@@ -7707,7 +7519,7 @@
   <dimension ref="C4:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Unknown_Platypus/Table/SkillTable.xlsx
+++ b/Unknown_Platypus/Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88117B70-4546-4880-8D3E-AC515407F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E71493-C4FD-4C44-BD48-229552C28246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="151">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -624,6 +624,10 @@
   </si>
   <si>
     <t>20001, 20006, 20061, 20051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001, 20011, 20021, 20046</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2478,6 +2482,9 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
+      <c r="AH17" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="18" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -2549,7 +2556,9 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-      <c r="AH18"/>
+      <c r="AH18" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="19" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -2621,7 +2630,9 @@
       <c r="W19" s="3">
         <v>0</v>
       </c>
-      <c r="AH19"/>
+      <c r="AH19" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="20" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -2693,7 +2704,9 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-      <c r="AH20"/>
+      <c r="AH20" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="21" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">

--- a/Unknown_Platypus/Table/SkillTable.xlsx
+++ b/Unknown_Platypus/Table/SkillTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E71493-C4FD-4C44-BD48-229552C28246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C2495D-4183-42A8-BF53-B8CB19D5DD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -635,7 +635,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,8 +685,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,8 +713,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -849,13 +868,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,8 +941,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="메모" xfId="1" builtinId="10"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2045,740 +2107,740 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="12" spans="1:34" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
         <v>100011</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="C12" s="21">
+        <v>3</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="22">
         <v>300021</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="22">
         <v>300022</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="22">
         <v>300023</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>2</v>
-      </c>
-      <c r="Q12">
-        <v>5</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
+      <c r="L12" s="21">
+        <v>3</v>
+      </c>
+      <c r="M12" s="21">
+        <v>1</v>
+      </c>
+      <c r="N12" s="21">
+        <v>1</v>
+      </c>
+      <c r="O12" s="21">
+        <v>1</v>
+      </c>
+      <c r="P12" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>5</v>
+      </c>
+      <c r="R12" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V12" s="3">
-        <v>1</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="S12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="U12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="V12" s="20">
+        <v>1</v>
+      </c>
+      <c r="W12" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
         <v>100012</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="C13" s="21">
+        <v>3</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="22">
         <v>300021</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="22">
         <v>300022</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="22">
         <v>300024</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>3</v>
-      </c>
-      <c r="Q13">
-        <v>6</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="K13" s="21">
+        <v>2</v>
+      </c>
+      <c r="L13" s="21">
+        <v>3</v>
+      </c>
+      <c r="M13" s="21">
+        <v>1</v>
+      </c>
+      <c r="N13" s="21">
+        <v>1</v>
+      </c>
+      <c r="O13" s="21">
+        <v>1</v>
+      </c>
+      <c r="P13" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>5</v>
+      </c>
+      <c r="R13" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V13" s="3">
+      <c r="S13" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="T13" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="U13" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="V13" s="20">
         <v>1.5</v>
       </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="W13" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row r="14" spans="1:34" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
         <v>100013</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="C14" s="21">
+        <v>3</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="22">
         <v>300021</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="22">
         <v>300022</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="22">
         <v>300025</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
+      <c r="K14" s="21">
+        <v>3</v>
+      </c>
+      <c r="L14" s="21">
+        <v>3</v>
+      </c>
+      <c r="M14" s="21">
+        <v>1</v>
+      </c>
+      <c r="N14" s="21">
+        <v>1</v>
+      </c>
+      <c r="O14" s="21">
+        <v>1</v>
+      </c>
+      <c r="P14" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>5</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="S14" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="T14" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="U14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="V14" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="W14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>100014</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="21">
+        <v>3</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="22">
+        <v>300021</v>
+      </c>
+      <c r="H15" s="22">
+        <v>300022</v>
+      </c>
+      <c r="I15" s="22">
+        <v>300026</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="21">
         <v>4</v>
       </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="L15" s="21">
+        <v>3</v>
+      </c>
+      <c r="M15" s="21">
+        <v>1</v>
+      </c>
+      <c r="N15" s="21">
+        <v>1</v>
+      </c>
+      <c r="O15" s="21">
+        <v>1</v>
+      </c>
+      <c r="P15" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>5</v>
+      </c>
+      <c r="R15" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="S15" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="T15" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="U15" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="V15" s="20">
+        <v>2</v>
+      </c>
+      <c r="W15" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
+        <v>100015</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="21">
+        <v>3</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="22">
+        <v>300021</v>
+      </c>
+      <c r="H16" s="22">
+        <v>300022</v>
+      </c>
+      <c r="I16" s="22">
+        <v>300027</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" s="21">
+        <v>5</v>
+      </c>
+      <c r="L16" s="21">
+        <v>3</v>
+      </c>
+      <c r="M16" s="21">
+        <v>5</v>
+      </c>
+      <c r="N16" s="21">
+        <v>1</v>
+      </c>
+      <c r="O16" s="21">
+        <v>1</v>
+      </c>
+      <c r="P16" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>5</v>
+      </c>
+      <c r="R16" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="S16" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="T16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="U16" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="V16" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="W16" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>100016</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="18">
+        <v>300031</v>
+      </c>
+      <c r="H17" s="18">
+        <v>300032</v>
+      </c>
+      <c r="I17" s="18">
+        <v>300033</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="17">
+        <v>3</v>
+      </c>
+      <c r="M17" s="17">
+        <v>2</v>
+      </c>
+      <c r="N17" s="17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="19">
+        <v>5</v>
+      </c>
+      <c r="P17" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>3</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="V17" s="16">
+        <v>1</v>
+      </c>
+      <c r="W17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="17"/>
+    </row>
+    <row r="18" spans="1:34" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>100017</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="17">
+        <v>4</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="18">
+        <v>300031</v>
+      </c>
+      <c r="H18" s="18">
+        <v>300032</v>
+      </c>
+      <c r="I18" s="18">
+        <v>300034</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="17">
+        <v>2</v>
+      </c>
+      <c r="L18" s="17">
+        <v>3</v>
+      </c>
+      <c r="M18" s="17">
+        <v>2</v>
+      </c>
+      <c r="N18" s="17">
+        <v>1</v>
+      </c>
+      <c r="O18" s="19">
+        <v>5</v>
+      </c>
+      <c r="P18" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>3</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="V18" s="16">
         <v>1.5</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>100014</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="15">
-        <v>300021</v>
-      </c>
-      <c r="H15" s="15">
-        <v>300022</v>
-      </c>
-      <c r="I15" s="15">
-        <v>300026</v>
-      </c>
-      <c r="J15" t="s">
-        <v>120</v>
-      </c>
-      <c r="K15">
+      <c r="W18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>100018</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="17">
         <v>4</v>
       </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>5</v>
-      </c>
-      <c r="Q15">
-        <v>7</v>
-      </c>
-      <c r="R15" t="s">
-        <v>100</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V15" s="3">
-        <v>2</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>100015</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="15">
-        <v>300021</v>
-      </c>
-      <c r="H16" s="15">
-        <v>300022</v>
-      </c>
-      <c r="I16" s="15">
-        <v>300027</v>
-      </c>
-      <c r="J16" t="s">
-        <v>120</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>6</v>
-      </c>
-      <c r="Q16">
-        <v>7</v>
-      </c>
-      <c r="R16" t="s">
-        <v>100</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V16" s="3">
+      <c r="D19" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="18">
+        <v>300031</v>
+      </c>
+      <c r="H19" s="18">
+        <v>300032</v>
+      </c>
+      <c r="I19" s="18">
+        <v>300035</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" s="17">
+        <v>3</v>
+      </c>
+      <c r="L19" s="17">
+        <v>3</v>
+      </c>
+      <c r="M19" s="17">
+        <v>2</v>
+      </c>
+      <c r="N19" s="17">
+        <v>1</v>
+      </c>
+      <c r="O19" s="19">
+        <v>5</v>
+      </c>
+      <c r="P19" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>3</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="V19" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="W19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>100019</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="17">
+        <v>4</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="18">
+        <v>300031</v>
+      </c>
+      <c r="H20" s="18">
+        <v>300032</v>
+      </c>
+      <c r="I20" s="18">
+        <v>300036</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="17">
+        <v>4</v>
+      </c>
+      <c r="L20" s="17">
+        <v>3</v>
+      </c>
+      <c r="M20" s="17">
+        <v>2</v>
+      </c>
+      <c r="N20" s="17">
+        <v>1</v>
+      </c>
+      <c r="O20" s="19">
+        <v>5</v>
+      </c>
+      <c r="P20" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>3</v>
+      </c>
+      <c r="R20" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="V20" s="16">
+        <v>2</v>
+      </c>
+      <c r="W20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>100020</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="17">
+        <v>4</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="18">
+        <v>300031</v>
+      </c>
+      <c r="H21" s="18">
+        <v>300032</v>
+      </c>
+      <c r="I21" s="18">
+        <v>300037</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="17">
+        <v>5</v>
+      </c>
+      <c r="L21" s="17">
+        <v>3</v>
+      </c>
+      <c r="M21" s="17">
+        <v>4</v>
+      </c>
+      <c r="N21" s="17">
+        <v>1</v>
+      </c>
+      <c r="O21" s="19">
+        <v>5</v>
+      </c>
+      <c r="P21" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>3</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="V21" s="16">
         <v>2.5</v>
       </c>
-      <c r="W16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>100016</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="15">
-        <v>300031</v>
-      </c>
-      <c r="H17" s="15">
-        <v>300032</v>
-      </c>
-      <c r="I17" s="15">
-        <v>300033</v>
-      </c>
-      <c r="J17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17" s="14">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>0.5</v>
-      </c>
-      <c r="Q17">
-        <v>5</v>
-      </c>
-      <c r="R17" t="s">
-        <v>102</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="W21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="17" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>100017</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="15">
-        <v>300031</v>
-      </c>
-      <c r="H18" s="15">
-        <v>300032</v>
-      </c>
-      <c r="I18" s="15">
-        <v>300034</v>
-      </c>
-      <c r="J18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18" s="14">
-        <v>2</v>
-      </c>
-      <c r="P18">
-        <v>0.5</v>
-      </c>
-      <c r="Q18">
-        <v>5</v>
-      </c>
-      <c r="R18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V18" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>100018</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="15">
-        <v>300031</v>
-      </c>
-      <c r="H19" s="15">
-        <v>300032</v>
-      </c>
-      <c r="I19" s="15">
-        <v>300035</v>
-      </c>
-      <c r="J19" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19" s="14">
-        <v>3</v>
-      </c>
-      <c r="P19">
-        <v>0.5</v>
-      </c>
-      <c r="Q19">
-        <v>4</v>
-      </c>
-      <c r="R19" t="s">
-        <v>102</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V19" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="W19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>100019</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="15">
-        <v>300031</v>
-      </c>
-      <c r="H20" s="15">
-        <v>300032</v>
-      </c>
-      <c r="I20" s="15">
-        <v>300036</v>
-      </c>
-      <c r="J20" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20" s="14">
-        <v>4</v>
-      </c>
-      <c r="P20">
-        <v>0.5</v>
-      </c>
-      <c r="Q20">
-        <v>4</v>
-      </c>
-      <c r="R20" t="s">
-        <v>102</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V20" s="3">
-        <v>2</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>100020</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="15">
-        <v>300031</v>
-      </c>
-      <c r="H21" s="15">
-        <v>300032</v>
-      </c>
-      <c r="I21" s="15">
-        <v>300037</v>
-      </c>
-      <c r="J21" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21" s="14">
-        <v>5</v>
-      </c>
-      <c r="P21">
-        <v>0.5</v>
-      </c>
-      <c r="Q21">
-        <v>3.5</v>
-      </c>
-      <c r="R21" t="s">
-        <v>102</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V21" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH21"/>
     </row>
     <row r="22" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
@@ -7531,8 +7593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C4:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Unknown_Platypus/Table/SkillTable.xlsx
+++ b/Unknown_Platypus/Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C2495D-4183-42A8-BF53-B8CB19D5DD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863156A3-3D61-49DE-862D-8F62F4BD21EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,7 +627,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20001, 20011, 20021, 20046</t>
+    <t>20001, 20011, 20021, 20026</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2518,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P17" s="17">
         <v>5</v>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P18" s="17">
         <v>5</v>
@@ -2664,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P19" s="17">
         <v>5</v>
@@ -2738,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P20" s="17">
         <v>5</v>
@@ -2812,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P21" s="17">
         <v>5</v>

--- a/Unknown_Platypus/Table/SkillTable.xlsx
+++ b/Unknown_Platypus/Table/SkillTable.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF70BB8-8080-4848-A337-EADC9798F93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="테이블 설명" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="테이블 설명" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="142">
   <si>
     <t>index</t>
   </si>
@@ -464,50 +473,72 @@
   <si>
     <t>효과 지속 시간 (초)</t>
   </si>
+  <si>
+    <t>20001, 20016, 20031, 20016</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -533,9 +564,27 @@
         <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FFDAE3F3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
@@ -549,8 +598,10 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFB2B2B2"/>
       </right>
@@ -560,6 +611,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -574,85 +626,102 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -842,31 +911,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AJ87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="7" max="7" width="27.0"/>
-    <col customWidth="1" min="21" max="21" width="24.5"/>
-    <col customWidth="1" min="22" max="22" width="18.38"/>
-    <col customWidth="1" min="23" max="23" width="19.38"/>
-    <col customWidth="1" min="24" max="24" width="22.25"/>
-    <col customWidth="1" min="25" max="25" width="17.5"/>
-    <col customWidth="1" min="26" max="26" width="22.75"/>
-    <col customWidth="1" min="28" max="28" width="29.25"/>
-    <col customWidth="1" min="29" max="29" width="23.88"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" customWidth="1"/>
+    <col min="22" max="22" width="18.42578125" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" customWidth="1"/>
+    <col min="24" max="24" width="22.28515625" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" customWidth="1"/>
+    <col min="26" max="26" width="22.7109375" customWidth="1"/>
+    <col min="28" max="28" width="29.28515625" customWidth="1"/>
+    <col min="29" max="29" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -974,15 +1046,15 @@
       </c>
       <c r="AJ1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>100001.0</v>
+        <v>100001</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
@@ -997,37 +1069,37 @@
         <v>39</v>
       </c>
       <c r="H2" s="1">
-        <v>300001.0</v>
+        <v>300001</v>
       </c>
       <c r="I2" s="1">
-        <v>300002.0</v>
+        <v>300002</v>
       </c>
       <c r="J2" s="1">
-        <v>300003.0</v>
+        <v>300003</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>41</v>
@@ -1042,10 +1114,10 @@
         <v>44</v>
       </c>
       <c r="W2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
@@ -1060,15 +1132,15 @@
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>100002.0</v>
+        <v>100002</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -1083,37 +1155,37 @@
         <v>39</v>
       </c>
       <c r="H3" s="1">
-        <v>300001.0</v>
+        <v>300001</v>
       </c>
       <c r="I3" s="1">
-        <v>300002.0</v>
+        <v>300002</v>
       </c>
       <c r="J3" s="1">
-        <v>300004.0</v>
+        <v>300004</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>41</v>
@@ -1131,7 +1203,7 @@
         <v>1.5</v>
       </c>
       <c r="X3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
@@ -1146,15 +1218,15 @@
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>100003.0</v>
+        <v>100003</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>36</v>
@@ -1169,37 +1241,37 @@
         <v>39</v>
       </c>
       <c r="H4" s="1">
-        <v>300001.0</v>
+        <v>300001</v>
       </c>
       <c r="I4" s="1">
-        <v>300002.0</v>
+        <v>300002</v>
       </c>
       <c r="J4" s="1">
-        <v>300005.0</v>
+        <v>300005</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>41</v>
@@ -1217,7 +1289,7 @@
         <v>1.5</v>
       </c>
       <c r="X4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
@@ -1232,15 +1304,15 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>100004.0</v>
+        <v>100004</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>36</v>
@@ -1255,37 +1327,37 @@
         <v>39</v>
       </c>
       <c r="H5" s="1">
-        <v>300001.0</v>
+        <v>300001</v>
       </c>
       <c r="I5" s="1">
-        <v>300002.0</v>
+        <v>300002</v>
       </c>
       <c r="J5" s="1">
-        <v>300006.0</v>
+        <v>300006</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>41</v>
@@ -1300,10 +1372,10 @@
         <v>44</v>
       </c>
       <c r="W5" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
@@ -1318,15 +1390,15 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>100005.0</v>
+        <v>100005</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>36</v>
@@ -1341,37 +1413,37 @@
         <v>39</v>
       </c>
       <c r="H6" s="1">
-        <v>300001.0</v>
+        <v>300001</v>
       </c>
       <c r="I6" s="1">
-        <v>300002.0</v>
+        <v>300002</v>
       </c>
       <c r="J6" s="1">
-        <v>300007.0</v>
+        <v>300007</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M6" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>41</v>
@@ -1389,7 +1461,7 @@
         <v>2.5</v>
       </c>
       <c r="X6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
@@ -1404,15 +1476,15 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>100006.0</v>
+        <v>100006</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>36</v>
@@ -1427,37 +1499,37 @@
         <v>49</v>
       </c>
       <c r="H7" s="1">
-        <v>300011.0</v>
+        <v>300011</v>
       </c>
       <c r="I7" s="1">
-        <v>300012.0</v>
+        <v>300012</v>
       </c>
       <c r="J7" s="1">
-        <v>300013.0</v>
+        <v>300013</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>51</v>
@@ -1472,25 +1544,25 @@
         <v>44</v>
       </c>
       <c r="W7" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="Y7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="Z7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AA7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB7" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="AC7" s="4">
-        <v>0.0</v>
+      <c r="AB7" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
@@ -1500,15 +1572,15 @@
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>100007.0</v>
+        <v>100007</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>36</v>
@@ -1523,37 +1595,37 @@
         <v>49</v>
       </c>
       <c r="H8" s="1">
-        <v>300011.0</v>
+        <v>300011</v>
       </c>
       <c r="I8" s="1">
-        <v>300012.0</v>
+        <v>300012</v>
       </c>
       <c r="J8" s="1">
-        <v>300014.0</v>
+        <v>300014</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>51</v>
@@ -1571,22 +1643,22 @@
         <v>1.5</v>
       </c>
       <c r="X8" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="Y8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="Z8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB8" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="AC8" s="4">
-        <v>0.0</v>
+      <c r="AB8" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -1596,15 +1668,15 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>100008.0</v>
+        <v>100008</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>36</v>
@@ -1619,37 +1691,37 @@
         <v>49</v>
       </c>
       <c r="H9" s="1">
-        <v>300011.0</v>
+        <v>300011</v>
       </c>
       <c r="I9" s="1">
-        <v>300012.0</v>
+        <v>300012</v>
       </c>
       <c r="J9" s="1">
-        <v>300015.0</v>
+        <v>300015</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>51</v>
@@ -1667,22 +1739,22 @@
         <v>1.5</v>
       </c>
       <c r="X9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="Y9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Z9" s="4" t="s">
+      <c r="Z9" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB9" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="AC9" s="4">
-        <v>0.0</v>
+      <c r="AB9" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
@@ -1692,15 +1764,15 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>100009.0</v>
+        <v>100009</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
@@ -1715,37 +1787,37 @@
         <v>49</v>
       </c>
       <c r="H10" s="1">
-        <v>300011.0</v>
+        <v>300011</v>
       </c>
       <c r="I10" s="1">
-        <v>300012.0</v>
+        <v>300012</v>
       </c>
       <c r="J10" s="1">
-        <v>300016.0</v>
+        <v>300016</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L10" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M10" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R10" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>51</v>
@@ -1760,25 +1832,25 @@
         <v>44</v>
       </c>
       <c r="W10" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X10" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="Y10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="Z10" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB10" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>0.0</v>
+      <c r="AB10" s="2">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -1788,15 +1860,15 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>100010.0</v>
+        <v>100010</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>36</v>
@@ -1811,37 +1883,37 @@
         <v>49</v>
       </c>
       <c r="H11" s="1">
-        <v>300011.0</v>
+        <v>300011</v>
       </c>
       <c r="I11" s="1">
-        <v>300012.0</v>
+        <v>300012</v>
       </c>
       <c r="J11" s="1">
-        <v>300017.0</v>
+        <v>300017</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L11" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M11" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R11" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>51</v>
@@ -1859,22 +1931,22 @@
         <v>2.5</v>
       </c>
       <c r="X11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="Y11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Z11" s="4" t="s">
+      <c r="Z11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AA11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB11" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="AC11" s="4">
-        <v>0.0</v>
+      <c r="AB11" s="2">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -1884,891 +1956,891 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
     </row>
-    <row r="12">
-      <c r="A12" s="5">
-        <v>100011.0</v>
-      </c>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>100011</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="6">
-        <v>300021.0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>300022.0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>300023.0</v>
-      </c>
-      <c r="K12" s="6" t="s">
+      <c r="H12" s="5">
+        <v>300021</v>
+      </c>
+      <c r="I12" s="5">
+        <v>300022</v>
+      </c>
+      <c r="J12" s="5">
+        <v>300023</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="M12" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O12" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="R12" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="S12" s="6" t="s">
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>3</v>
+      </c>
+      <c r="R12" s="5">
+        <v>5</v>
+      </c>
+      <c r="S12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="U12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="V12" s="5" t="s">
+      <c r="V12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W12" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="X12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5">
-        <v>100012.0</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="W12" s="4">
+        <v>1</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+    </row>
+    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>100012</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="6">
-        <v>300021.0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>300022.0</v>
-      </c>
-      <c r="J13" s="6">
-        <v>300024.0</v>
-      </c>
-      <c r="K13" s="6" t="s">
+      <c r="H13" s="5">
+        <v>300021</v>
+      </c>
+      <c r="I13" s="5">
+        <v>300022</v>
+      </c>
+      <c r="J13" s="5">
+        <v>300024</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="M13" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="N13" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O13" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="R13" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="S13" s="6" t="s">
+      <c r="L13" s="5">
+        <v>2</v>
+      </c>
+      <c r="M13" s="5">
+        <v>3</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>3</v>
+      </c>
+      <c r="R13" s="5">
+        <v>5</v>
+      </c>
+      <c r="S13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="T13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="U13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="V13" s="5" t="s">
+      <c r="V13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W13" s="5">
+      <c r="W13" s="4">
         <v>1.5</v>
       </c>
-      <c r="X13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="6" t="s">
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AJ13" s="6"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5">
-        <v>100013.0</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="AJ13" s="5"/>
+    </row>
+    <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>100013</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="6">
-        <v>300021.0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>300022.0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>300025.0</v>
-      </c>
-      <c r="K14" s="6" t="s">
+      <c r="H14" s="5">
+        <v>300021</v>
+      </c>
+      <c r="I14" s="5">
+        <v>300022</v>
+      </c>
+      <c r="J14" s="5">
+        <v>300025</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="R14" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="S14" s="6" t="s">
+      <c r="L14" s="5">
+        <v>3</v>
+      </c>
+      <c r="M14" s="5">
+        <v>3</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1</v>
+      </c>
+      <c r="P14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>3</v>
+      </c>
+      <c r="R14" s="5">
+        <v>5</v>
+      </c>
+      <c r="S14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="U14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="V14" s="5" t="s">
+      <c r="V14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14" s="4">
         <v>1.5</v>
       </c>
-      <c r="X14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="6" t="s">
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AJ14" s="6"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5">
-        <v>100014.0</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="AJ14" s="5"/>
+    </row>
+    <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>100014</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="6">
-        <v>300021.0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>300022.0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>300026.0</v>
-      </c>
-      <c r="K15" s="6" t="s">
+      <c r="H15" s="5">
+        <v>300021</v>
+      </c>
+      <c r="I15" s="5">
+        <v>300022</v>
+      </c>
+      <c r="J15" s="5">
+        <v>300026</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="N15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="R15" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="S15" s="6" t="s">
+      <c r="L15" s="5">
+        <v>4</v>
+      </c>
+      <c r="M15" s="5">
+        <v>3</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>3</v>
+      </c>
+      <c r="R15" s="5">
+        <v>5</v>
+      </c>
+      <c r="S15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="V15" s="5" t="s">
+      <c r="V15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W15" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="X15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="6" t="s">
+      <c r="W15" s="4">
+        <v>2</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AJ15" s="6"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="5">
-        <v>100015.0</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="AJ15" s="5"/>
+    </row>
+    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>100015</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="6">
-        <v>300021.0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>300022.0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>300027.0</v>
-      </c>
-      <c r="K16" s="6" t="s">
+      <c r="H16" s="5">
+        <v>300021</v>
+      </c>
+      <c r="I16" s="5">
+        <v>300022</v>
+      </c>
+      <c r="J16" s="5">
+        <v>300027</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="R16" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="S16" s="6" t="s">
+      <c r="L16" s="5">
+        <v>5</v>
+      </c>
+      <c r="M16" s="5">
+        <v>3</v>
+      </c>
+      <c r="N16" s="5">
+        <v>5</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>3</v>
+      </c>
+      <c r="R16" s="5">
+        <v>5</v>
+      </c>
+      <c r="S16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="T16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U16" s="5" t="s">
+      <c r="U16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="V16" s="5" t="s">
+      <c r="V16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W16" s="5">
+      <c r="W16" s="4">
         <v>2.5</v>
       </c>
-      <c r="X16" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="6" t="s">
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AJ16" s="6"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="8">
-        <v>100016.0</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="AJ16" s="5"/>
+    </row>
+    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>100016</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="8">
+        <v>4</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="9">
-        <v>300031.0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>300032.0</v>
-      </c>
-      <c r="J17" s="9">
-        <v>300033.0</v>
-      </c>
-      <c r="K17" s="9" t="s">
+      <c r="H17" s="8">
+        <v>300031</v>
+      </c>
+      <c r="I17" s="8">
+        <v>300032</v>
+      </c>
+      <c r="J17" s="8">
+        <v>300033</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="O17" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="P17" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="R17" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="S17" s="9" t="s">
+      <c r="L17" s="8">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8">
+        <v>3</v>
+      </c>
+      <c r="N17" s="8">
+        <v>2</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1</v>
+      </c>
+      <c r="P17" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>5</v>
+      </c>
+      <c r="R17" s="8">
+        <v>3</v>
+      </c>
+      <c r="S17" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="T17" s="8" t="s">
+      <c r="T17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="U17" s="8" t="s">
+      <c r="U17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="V17" s="8" t="s">
+      <c r="V17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="W17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="X17" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="11"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="8">
-        <v>100017.0</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="W17" s="7">
+        <v>1</v>
+      </c>
+      <c r="X17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="10"/>
+    </row>
+    <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>100017</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="8">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="9">
-        <v>300031.0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>300032.0</v>
-      </c>
-      <c r="J18" s="9">
-        <v>300034.0</v>
-      </c>
-      <c r="K18" s="9" t="s">
+      <c r="H18" s="8">
+        <v>300031</v>
+      </c>
+      <c r="I18" s="8">
+        <v>300032</v>
+      </c>
+      <c r="J18" s="8">
+        <v>300034</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="O18" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="P18" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="R18" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="S18" s="9" t="s">
+      <c r="L18" s="8">
+        <v>2</v>
+      </c>
+      <c r="M18" s="8">
+        <v>3</v>
+      </c>
+      <c r="N18" s="8">
+        <v>2</v>
+      </c>
+      <c r="O18" s="8">
+        <v>1</v>
+      </c>
+      <c r="P18" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>5</v>
+      </c>
+      <c r="R18" s="8">
+        <v>3</v>
+      </c>
+      <c r="S18" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="T18" s="8" t="s">
+      <c r="T18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="U18" s="8" t="s">
+      <c r="U18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="8" t="s">
+      <c r="V18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="W18" s="8">
+      <c r="W18" s="7">
         <v>1.5</v>
       </c>
-      <c r="X18" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="9" t="s">
+      <c r="X18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AJ18" s="13"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8">
-        <v>100018.0</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="AJ18" s="12"/>
+    </row>
+    <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>100018</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="8">
+        <v>4</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="9">
-        <v>300031.0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>300032.0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>300035.0</v>
-      </c>
-      <c r="K19" s="9" t="s">
+      <c r="H19" s="8">
+        <v>300031</v>
+      </c>
+      <c r="I19" s="8">
+        <v>300032</v>
+      </c>
+      <c r="J19" s="8">
+        <v>300035</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="M19" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="N19" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="O19" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="P19" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="R19" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="S19" s="9" t="s">
+      <c r="L19" s="8">
+        <v>3</v>
+      </c>
+      <c r="M19" s="8">
+        <v>3</v>
+      </c>
+      <c r="N19" s="8">
+        <v>2</v>
+      </c>
+      <c r="O19" s="8">
+        <v>1</v>
+      </c>
+      <c r="P19" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>5</v>
+      </c>
+      <c r="R19" s="8">
+        <v>3</v>
+      </c>
+      <c r="S19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="T19" s="8" t="s">
+      <c r="T19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="U19" s="8" t="s">
+      <c r="U19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="V19" s="8" t="s">
+      <c r="V19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="W19" s="8">
+      <c r="W19" s="7">
         <v>1.5</v>
       </c>
-      <c r="X19" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="9" t="s">
+      <c r="X19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AJ19" s="13"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="8">
-        <v>100019.0</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="AJ19" s="12"/>
+    </row>
+    <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>100019</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="8">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="9">
-        <v>300031.0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>300032.0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>300036.0</v>
-      </c>
-      <c r="K20" s="9" t="s">
+      <c r="H20" s="8">
+        <v>300031</v>
+      </c>
+      <c r="I20" s="8">
+        <v>300032</v>
+      </c>
+      <c r="J20" s="8">
+        <v>300036</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="M20" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="O20" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="P20" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="R20" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="S20" s="9" t="s">
+      <c r="L20" s="8">
+        <v>4</v>
+      </c>
+      <c r="M20" s="8">
+        <v>3</v>
+      </c>
+      <c r="N20" s="8">
+        <v>2</v>
+      </c>
+      <c r="O20" s="8">
+        <v>1</v>
+      </c>
+      <c r="P20" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>5</v>
+      </c>
+      <c r="R20" s="8">
+        <v>3</v>
+      </c>
+      <c r="S20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="T20" s="8" t="s">
+      <c r="T20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="U20" s="8" t="s">
+      <c r="U20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="V20" s="8" t="s">
+      <c r="V20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="W20" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="X20" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="9" t="s">
+      <c r="W20" s="7">
+        <v>2</v>
+      </c>
+      <c r="X20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AJ20" s="13"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="8">
-        <v>100020.0</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="AJ20" s="12"/>
+    </row>
+    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>100020</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="8">
+        <v>4</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="9">
-        <v>300031.0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>300032.0</v>
-      </c>
-      <c r="J21" s="9">
-        <v>300037.0</v>
-      </c>
-      <c r="K21" s="9" t="s">
+      <c r="H21" s="8">
+        <v>300031</v>
+      </c>
+      <c r="I21" s="8">
+        <v>300032</v>
+      </c>
+      <c r="J21" s="8">
+        <v>300037</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="M21" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="O21" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="P21" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="R21" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="S21" s="9" t="s">
+      <c r="L21" s="8">
+        <v>5</v>
+      </c>
+      <c r="M21" s="8">
+        <v>3</v>
+      </c>
+      <c r="N21" s="8">
+        <v>4</v>
+      </c>
+      <c r="O21" s="8">
+        <v>1</v>
+      </c>
+      <c r="P21" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>5</v>
+      </c>
+      <c r="R21" s="8">
+        <v>3</v>
+      </c>
+      <c r="S21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="T21" s="8" t="s">
+      <c r="T21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="U21" s="8" t="s">
+      <c r="U21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="V21" s="8" t="s">
+      <c r="V21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="W21" s="8">
+      <c r="W21" s="7">
         <v>2.5</v>
       </c>
-      <c r="X21" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="9" t="s">
+      <c r="X21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AJ21" s="13"/>
-    </row>
-    <row r="22">
+      <c r="AJ21" s="12"/>
+    </row>
+    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>100021.0</v>
+        <v>100021</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>36</v>
@@ -2779,41 +2851,41 @@
       <c r="F22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H22" s="1">
-        <v>300041.0</v>
+        <v>300041</v>
       </c>
       <c r="I22" s="1">
-        <v>300042.0</v>
+        <v>300042</v>
       </c>
       <c r="J22" s="1">
-        <v>300043.0</v>
+        <v>300043</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P22" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P22" s="13">
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R22" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>69</v>
@@ -2828,10 +2900,10 @@
         <v>44</v>
       </c>
       <c r="W22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
@@ -2845,15 +2917,15 @@
       <c r="AH22" s="2"/>
       <c r="AJ22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>100022.0</v>
+        <v>100022</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>36</v>
@@ -2864,41 +2936,41 @@
       <c r="F23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="1">
-        <v>300041.0</v>
+        <v>300041</v>
       </c>
       <c r="I23" s="1">
-        <v>300042.0</v>
+        <v>300042</v>
       </c>
       <c r="J23" s="1">
-        <v>300044.0</v>
+        <v>300044</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L23" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M23" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P23" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P23" s="13">
+        <v>1</v>
       </c>
       <c r="Q23" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R23" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>69</v>
@@ -2916,7 +2988,7 @@
         <v>1.5</v>
       </c>
       <c r="X23" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
@@ -2930,15 +3002,15 @@
       <c r="AH23" s="2"/>
       <c r="AJ23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>100023.0</v>
+        <v>100023</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>36</v>
@@ -2949,41 +3021,41 @@
       <c r="F24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H24" s="1">
-        <v>300041.0</v>
+        <v>300041</v>
       </c>
       <c r="I24" s="1">
-        <v>300042.0</v>
+        <v>300042</v>
       </c>
       <c r="J24" s="1">
-        <v>300045.0</v>
+        <v>300045</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L24" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M24" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P24" s="14">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P24" s="13">
+        <v>1</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R24" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>69</v>
@@ -3001,7 +3073,7 @@
         <v>1.5</v>
       </c>
       <c r="X24" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
@@ -3015,15 +3087,15 @@
       <c r="AH24" s="2"/>
       <c r="AJ24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>100024.0</v>
+        <v>100024</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>36</v>
@@ -3034,41 +3106,41 @@
       <c r="F25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H25" s="1">
-        <v>300041.0</v>
+        <v>300041</v>
       </c>
       <c r="I25" s="1">
-        <v>300042.0</v>
+        <v>300042</v>
       </c>
       <c r="J25" s="1">
-        <v>300046.0</v>
+        <v>300046</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L25" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M25" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P25" s="14">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P25" s="13">
+        <v>1</v>
       </c>
       <c r="Q25" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R25" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>69</v>
@@ -3083,10 +3155,10 @@
         <v>44</v>
       </c>
       <c r="W25" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X25" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
@@ -3100,15 +3172,15 @@
       <c r="AH25" s="2"/>
       <c r="AJ25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>100025.0</v>
+        <v>100025</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>36</v>
@@ -3119,41 +3191,41 @@
       <c r="F26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H26" s="1">
-        <v>300041.0</v>
+        <v>300041</v>
       </c>
       <c r="I26" s="1">
-        <v>300042.0</v>
+        <v>300042</v>
       </c>
       <c r="J26" s="1">
-        <v>300047.0</v>
+        <v>300047</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L26" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M26" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="P26" s="14">
-        <v>1.0</v>
+        <v>3</v>
+      </c>
+      <c r="P26" s="13">
+        <v>1</v>
       </c>
       <c r="Q26" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="R26" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>69</v>
@@ -3171,7 +3243,7 @@
         <v>2.5</v>
       </c>
       <c r="X26" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
@@ -3185,15 +3257,15 @@
       <c r="AH26" s="2"/>
       <c r="AJ26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>100026.0</v>
+        <v>100026</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C27" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>36</v>
@@ -3204,41 +3276,41 @@
       <c r="F27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H27" s="1">
-        <v>300051.0</v>
+        <v>300051</v>
       </c>
       <c r="I27" s="1">
-        <v>300052.0</v>
+        <v>300052</v>
       </c>
       <c r="J27" s="1">
-        <v>300053.0</v>
+        <v>300053</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P27" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P27" s="13">
+        <v>1</v>
       </c>
       <c r="Q27" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R27" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>72</v>
@@ -3253,10 +3325,10 @@
         <v>44</v>
       </c>
       <c r="W27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
@@ -3270,15 +3342,15 @@
       <c r="AH27" s="2"/>
       <c r="AJ27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>100027.0</v>
+        <v>100027</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>36</v>
@@ -3289,41 +3361,41 @@
       <c r="F28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H28" s="1">
-        <v>300051.0</v>
+        <v>300051</v>
       </c>
       <c r="I28" s="1">
-        <v>300052.0</v>
+        <v>300052</v>
       </c>
       <c r="J28" s="1">
-        <v>300054.0</v>
+        <v>300054</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M28" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P28" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P28" s="13">
+        <v>1</v>
       </c>
       <c r="Q28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R28" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>72</v>
@@ -3341,7 +3413,7 @@
         <v>1.5</v>
       </c>
       <c r="X28" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
@@ -3355,15 +3427,15 @@
       <c r="AH28" s="2"/>
       <c r="AJ28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>100028.0</v>
+        <v>100028</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C29" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>36</v>
@@ -3374,41 +3446,41 @@
       <c r="F29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H29" s="1">
-        <v>300051.0</v>
+        <v>300051</v>
       </c>
       <c r="I29" s="1">
-        <v>300052.0</v>
+        <v>300052</v>
       </c>
       <c r="J29" s="1">
-        <v>300055.0</v>
+        <v>300055</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L29" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M29" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N29" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O29" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P29" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P29" s="13">
+        <v>1</v>
       </c>
       <c r="Q29" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R29" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>72</v>
@@ -3426,7 +3498,7 @@
         <v>1.5</v>
       </c>
       <c r="X29" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
@@ -3440,15 +3512,15 @@
       <c r="AH29" s="2"/>
       <c r="AJ29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>100029.0</v>
+        <v>100029</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>36</v>
@@ -3459,41 +3531,41 @@
       <c r="F30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H30" s="1">
-        <v>300051.0</v>
+        <v>300051</v>
       </c>
       <c r="I30" s="1">
-        <v>300052.0</v>
+        <v>300052</v>
       </c>
       <c r="J30" s="1">
-        <v>300056.0</v>
+        <v>300056</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L30" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M30" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N30" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O30" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P30" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P30" s="13">
+        <v>1</v>
       </c>
       <c r="Q30" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R30" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>72</v>
@@ -3508,10 +3580,10 @@
         <v>44</v>
       </c>
       <c r="W30" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X30" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
@@ -3525,15 +3597,15 @@
       <c r="AH30" s="2"/>
       <c r="AJ30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>100030.0</v>
+        <v>100030</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>36</v>
@@ -3544,41 +3616,41 @@
       <c r="F31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H31" s="1">
-        <v>300051.0</v>
+        <v>300051</v>
       </c>
       <c r="I31" s="1">
-        <v>300052.0</v>
+        <v>300052</v>
       </c>
       <c r="J31" s="1">
-        <v>300057.0</v>
+        <v>300057</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L31" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M31" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N31" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O31" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P31" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P31" s="13">
+        <v>1</v>
       </c>
       <c r="Q31" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R31" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>72</v>
@@ -3596,7 +3668,7 @@
         <v>2.5</v>
       </c>
       <c r="X31" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
@@ -3610,15 +3682,15 @@
       <c r="AH31" s="2"/>
       <c r="AJ31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>100031.0</v>
+        <v>100031</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>36</v>
@@ -3629,41 +3701,41 @@
       <c r="F32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H32" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="I32" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="J32" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P32" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P32" s="13">
+        <v>1</v>
       </c>
       <c r="Q32" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R32" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>75</v>
@@ -3678,10 +3750,10 @@
         <v>44</v>
       </c>
       <c r="W32" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
@@ -3695,15 +3767,15 @@
       <c r="AH32" s="2"/>
       <c r="AJ32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>100032.0</v>
+        <v>100032</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>36</v>
@@ -3714,41 +3786,41 @@
       <c r="F33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H33" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="I33" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="J33" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L33" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M33" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P33" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P33" s="13">
+        <v>1</v>
       </c>
       <c r="Q33" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R33" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>75</v>
@@ -3766,7 +3838,7 @@
         <v>1.5</v>
       </c>
       <c r="X33" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
@@ -3780,15 +3852,15 @@
       <c r="AH33" s="2"/>
       <c r="AJ33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>100033.0</v>
+        <v>100033</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>36</v>
@@ -3799,41 +3871,41 @@
       <c r="F34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H34" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="I34" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="J34" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L34" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M34" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N34" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O34" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P34" s="14">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P34" s="13">
+        <v>1</v>
       </c>
       <c r="Q34" s="1">
         <v>3.5</v>
       </c>
       <c r="R34" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>75</v>
@@ -3851,7 +3923,7 @@
         <v>1.5</v>
       </c>
       <c r="X34" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
@@ -3865,15 +3937,15 @@
       <c r="AH34" s="2"/>
       <c r="AJ34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>100034.0</v>
+        <v>100034</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>36</v>
@@ -3884,41 +3956,41 @@
       <c r="F35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H35" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="I35" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="J35" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L35" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M35" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N35" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O35" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P35" s="14">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P35" s="13">
+        <v>1</v>
       </c>
       <c r="Q35" s="1">
         <v>3.5</v>
       </c>
       <c r="R35" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>75</v>
@@ -3933,10 +4005,10 @@
         <v>44</v>
       </c>
       <c r="W35" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X35" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
@@ -3950,15 +4022,15 @@
       <c r="AH35" s="2"/>
       <c r="AJ35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>100035.0</v>
+        <v>100035</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C36" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>36</v>
@@ -3969,41 +4041,41 @@
       <c r="F36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H36" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="I36" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="J36" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L36" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M36" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N36" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O36" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="P36" s="14">
-        <v>1.0</v>
+        <v>3</v>
+      </c>
+      <c r="P36" s="13">
+        <v>1</v>
       </c>
       <c r="Q36" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R36" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>75</v>
@@ -4021,7 +4093,7 @@
         <v>2.5</v>
       </c>
       <c r="X36" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
@@ -4035,15 +4107,15 @@
       <c r="AH36" s="2"/>
       <c r="AJ36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>100036.0</v>
+        <v>100036</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>36</v>
@@ -4054,41 +4126,41 @@
       <c r="F37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H37" s="1">
-        <v>300071.0</v>
+        <v>300071</v>
       </c>
       <c r="I37" s="1">
-        <v>300072.0</v>
+        <v>300072</v>
       </c>
       <c r="J37" s="1">
-        <v>300073.0</v>
+        <v>300073</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P37" s="14">
-        <v>4.0</v>
+        <v>1</v>
+      </c>
+      <c r="P37" s="13">
+        <v>4</v>
       </c>
       <c r="Q37" s="1">
         <v>1.2</v>
       </c>
       <c r="R37" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>78</v>
@@ -4106,7 +4178,7 @@
         <v>0.4</v>
       </c>
       <c r="X37" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
@@ -4120,15 +4192,15 @@
       <c r="AH37" s="2"/>
       <c r="AJ37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>100037.0</v>
+        <v>100037</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C38" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>36</v>
@@ -4139,41 +4211,41 @@
       <c r="F38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H38" s="1">
-        <v>300071.0</v>
+        <v>300071</v>
       </c>
       <c r="I38" s="1">
-        <v>300072.0</v>
+        <v>300072</v>
       </c>
       <c r="J38" s="1">
-        <v>300074.0</v>
+        <v>300074</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L38" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M38" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P38" s="14">
-        <v>4.0</v>
+        <v>1</v>
+      </c>
+      <c r="P38" s="13">
+        <v>4</v>
       </c>
       <c r="Q38" s="1">
         <v>1.2</v>
       </c>
       <c r="R38" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>78</v>
@@ -4191,7 +4263,7 @@
         <v>0.4</v>
       </c>
       <c r="X38" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
@@ -4205,15 +4277,15 @@
       <c r="AH38" s="2"/>
       <c r="AJ38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>100038.0</v>
+        <v>100038</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C39" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>36</v>
@@ -4224,41 +4296,41 @@
       <c r="F39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H39" s="1">
-        <v>300071.0</v>
+        <v>300071</v>
       </c>
       <c r="I39" s="1">
-        <v>300072.0</v>
+        <v>300072</v>
       </c>
       <c r="J39" s="1">
-        <v>300075.0</v>
+        <v>300075</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L39" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M39" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N39" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O39" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P39" s="14">
-        <v>5.0</v>
+        <v>1</v>
+      </c>
+      <c r="P39" s="13">
+        <v>5</v>
       </c>
       <c r="Q39" s="1">
         <v>1.6</v>
       </c>
       <c r="R39" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>78</v>
@@ -4276,7 +4348,7 @@
         <v>0.4</v>
       </c>
       <c r="X39" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
@@ -4290,15 +4362,15 @@
       <c r="AH39" s="2"/>
       <c r="AJ39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>100039.0</v>
+        <v>100039</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>36</v>
@@ -4309,41 +4381,41 @@
       <c r="F40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H40" s="1">
-        <v>300071.0</v>
+        <v>300071</v>
       </c>
       <c r="I40" s="1">
-        <v>300072.0</v>
+        <v>300072</v>
       </c>
       <c r="J40" s="1">
-        <v>300076.0</v>
+        <v>300076</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L40" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M40" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N40" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O40" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P40" s="14">
-        <v>5.0</v>
+        <v>1</v>
+      </c>
+      <c r="P40" s="13">
+        <v>5</v>
       </c>
       <c r="Q40" s="1">
         <v>1.6</v>
       </c>
       <c r="R40" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>78</v>
@@ -4361,7 +4433,7 @@
         <v>0.4</v>
       </c>
       <c r="X40" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
@@ -4375,15 +4447,15 @@
       <c r="AH40" s="2"/>
       <c r="AJ40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>100040.0</v>
+        <v>100040</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>36</v>
@@ -4394,41 +4466,41 @@
       <c r="F41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H41" s="1">
-        <v>300071.0</v>
+        <v>300071</v>
       </c>
       <c r="I41" s="1">
-        <v>300072.0</v>
+        <v>300072</v>
       </c>
       <c r="J41" s="1">
-        <v>300077.0</v>
+        <v>300077</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L41" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M41" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N41" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O41" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P41" s="14">
-        <v>6.0</v>
+        <v>1</v>
+      </c>
+      <c r="P41" s="13">
+        <v>6</v>
       </c>
       <c r="Q41" s="1">
         <v>1.5</v>
       </c>
       <c r="R41" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>78</v>
@@ -4446,7 +4518,7 @@
         <v>0.4</v>
       </c>
       <c r="X41" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
@@ -4460,15 +4532,15 @@
       <c r="AH41" s="2"/>
       <c r="AJ41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>100041.0</v>
+        <v>100041</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C42" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>36</v>
@@ -4479,41 +4551,41 @@
       <c r="F42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H42" s="1">
-        <v>300081.0</v>
+        <v>300081</v>
       </c>
       <c r="I42" s="1">
-        <v>300082.0</v>
+        <v>300082</v>
       </c>
       <c r="J42" s="1">
-        <v>300083.0</v>
+        <v>300083</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N42" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O42" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="P42" s="14">
-        <v>10.0</v>
+        <v>3</v>
+      </c>
+      <c r="P42" s="13">
+        <v>10</v>
       </c>
       <c r="Q42" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>81</v>
@@ -4528,10 +4600,10 @@
         <v>44</v>
       </c>
       <c r="W42" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X42" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
@@ -4545,15 +4617,15 @@
       <c r="AH42" s="2"/>
       <c r="AJ42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>100042.0</v>
+        <v>100042</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C43" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>36</v>
@@ -4564,41 +4636,41 @@
       <c r="F43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H43" s="1">
-        <v>300081.0</v>
+        <v>300081</v>
       </c>
       <c r="I43" s="1">
-        <v>300082.0</v>
+        <v>300082</v>
       </c>
       <c r="J43" s="1">
-        <v>300084.0</v>
+        <v>300084</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L43" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M43" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P43" s="14">
-        <v>4.0</v>
+        <v>1</v>
+      </c>
+      <c r="P43" s="13">
+        <v>4</v>
       </c>
       <c r="Q43" s="1">
         <v>1.2</v>
       </c>
       <c r="R43" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S43" s="1" t="s">
         <v>81</v>
@@ -4616,7 +4688,7 @@
         <v>1.5</v>
       </c>
       <c r="X43" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
@@ -4630,15 +4702,15 @@
       <c r="AH43" s="2"/>
       <c r="AJ43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>100043.0</v>
+        <v>100043</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C44" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>36</v>
@@ -4649,41 +4721,41 @@
       <c r="F44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H44" s="1">
-        <v>300081.0</v>
+        <v>300081</v>
       </c>
       <c r="I44" s="1">
-        <v>300082.0</v>
+        <v>300082</v>
       </c>
       <c r="J44" s="1">
-        <v>300085.0</v>
+        <v>300085</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L44" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M44" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N44" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O44" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P44" s="14">
-        <v>5.0</v>
+        <v>1</v>
+      </c>
+      <c r="P44" s="13">
+        <v>5</v>
       </c>
       <c r="Q44" s="1">
         <v>1.6</v>
       </c>
       <c r="R44" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>81</v>
@@ -4701,7 +4773,7 @@
         <v>1.5</v>
       </c>
       <c r="X44" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
@@ -4715,15 +4787,15 @@
       <c r="AH44" s="2"/>
       <c r="AJ44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>100044.0</v>
+        <v>100044</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C45" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>36</v>
@@ -4734,41 +4806,41 @@
       <c r="F45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H45" s="1">
-        <v>300081.0</v>
+        <v>300081</v>
       </c>
       <c r="I45" s="1">
-        <v>300082.0</v>
+        <v>300082</v>
       </c>
       <c r="J45" s="1">
-        <v>300086.0</v>
+        <v>300086</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L45" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M45" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N45" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O45" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P45" s="14">
-        <v>5.0</v>
+        <v>1</v>
+      </c>
+      <c r="P45" s="13">
+        <v>5</v>
       </c>
       <c r="Q45" s="1">
         <v>1.6</v>
       </c>
       <c r="R45" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>81</v>
@@ -4783,10 +4855,10 @@
         <v>44</v>
       </c>
       <c r="W45" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X45" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
@@ -4800,15 +4872,15 @@
       <c r="AH45" s="2"/>
       <c r="AJ45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>100045.0</v>
+        <v>100045</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C46" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>36</v>
@@ -4819,41 +4891,41 @@
       <c r="F46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H46" s="1">
-        <v>300081.0</v>
+        <v>300081</v>
       </c>
       <c r="I46" s="1">
-        <v>300082.0</v>
+        <v>300082</v>
       </c>
       <c r="J46" s="1">
-        <v>300087.0</v>
+        <v>300087</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L46" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M46" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N46" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O46" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P46" s="14">
-        <v>6.0</v>
+        <v>1</v>
+      </c>
+      <c r="P46" s="13">
+        <v>6</v>
       </c>
       <c r="Q46" s="1">
         <v>1.5</v>
       </c>
       <c r="R46" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>81</v>
@@ -4871,7 +4943,7 @@
         <v>2.5</v>
       </c>
       <c r="X46" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
@@ -4885,15 +4957,15 @@
       <c r="AH46" s="2"/>
       <c r="AJ46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>100046.0</v>
+        <v>100046</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C47" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>36</v>
@@ -4904,41 +4976,41 @@
       <c r="F47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H47" s="1">
-        <v>300091.0</v>
+        <v>300091</v>
       </c>
       <c r="I47" s="1">
-        <v>300092.0</v>
+        <v>300092</v>
       </c>
       <c r="J47" s="1">
-        <v>300093.0</v>
+        <v>300093</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P47" s="14">
-        <v>4.0</v>
+        <v>1</v>
+      </c>
+      <c r="P47" s="13">
+        <v>4</v>
       </c>
       <c r="Q47" s="1">
         <v>0.3</v>
       </c>
       <c r="R47" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>84</v>
@@ -4953,10 +5025,10 @@
         <v>44</v>
       </c>
       <c r="W47" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X47" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
@@ -4970,15 +5042,15 @@
       <c r="AH47" s="2"/>
       <c r="AJ47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>100047.0</v>
+        <v>100047</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C48" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>36</v>
@@ -4989,41 +5061,41 @@
       <c r="F48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H48" s="1">
-        <v>300091.0</v>
+        <v>300091</v>
       </c>
       <c r="I48" s="1">
-        <v>300092.0</v>
+        <v>300092</v>
       </c>
       <c r="J48" s="1">
-        <v>300094.0</v>
+        <v>300094</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L48" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M48" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N48" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O48" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P48" s="14">
-        <v>4.0</v>
+        <v>1</v>
+      </c>
+      <c r="P48" s="13">
+        <v>4</v>
       </c>
       <c r="Q48" s="1">
         <v>0.3</v>
       </c>
       <c r="R48" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>84</v>
@@ -5041,7 +5113,7 @@
         <v>1.5</v>
       </c>
       <c r="X48" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
@@ -5055,15 +5127,15 @@
       <c r="AH48" s="2"/>
       <c r="AJ48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>100048.0</v>
+        <v>100048</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C49" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>36</v>
@@ -5074,41 +5146,41 @@
       <c r="F49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H49" s="1">
-        <v>300091.0</v>
+        <v>300091</v>
       </c>
       <c r="I49" s="1">
-        <v>300092.0</v>
+        <v>300092</v>
       </c>
       <c r="J49" s="1">
-        <v>300095.0</v>
+        <v>300095</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L49" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M49" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N49" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O49" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P49" s="14">
-        <v>5.0</v>
+        <v>1</v>
+      </c>
+      <c r="P49" s="13">
+        <v>5</v>
       </c>
       <c r="Q49" s="1">
         <v>0.3</v>
       </c>
       <c r="R49" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>84</v>
@@ -5126,7 +5198,7 @@
         <v>1.5</v>
       </c>
       <c r="X49" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
@@ -5140,15 +5212,15 @@
       <c r="AH49" s="2"/>
       <c r="AJ49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>100049.0</v>
+        <v>100049</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>36</v>
@@ -5159,41 +5231,41 @@
       <c r="F50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H50" s="1">
-        <v>300091.0</v>
+        <v>300091</v>
       </c>
       <c r="I50" s="1">
-        <v>300092.0</v>
+        <v>300092</v>
       </c>
       <c r="J50" s="1">
-        <v>300096.0</v>
+        <v>300096</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L50" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M50" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N50" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O50" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P50" s="14">
-        <v>5.0</v>
+        <v>1</v>
+      </c>
+      <c r="P50" s="13">
+        <v>5</v>
       </c>
       <c r="Q50" s="1">
         <v>0.3</v>
       </c>
       <c r="R50" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S50" s="1" t="s">
         <v>84</v>
@@ -5208,10 +5280,10 @@
         <v>44</v>
       </c>
       <c r="W50" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X50" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
@@ -5225,15 +5297,15 @@
       <c r="AH50" s="2"/>
       <c r="AJ50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>100050.0</v>
+        <v>100050</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C51" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>36</v>
@@ -5244,41 +5316,41 @@
       <c r="F51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H51" s="1">
-        <v>300091.0</v>
+        <v>300091</v>
       </c>
       <c r="I51" s="1">
-        <v>300092.0</v>
+        <v>300092</v>
       </c>
       <c r="J51" s="1">
-        <v>300097.0</v>
+        <v>300097</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L51" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M51" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N51" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O51" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P51" s="14">
-        <v>6.0</v>
+        <v>1</v>
+      </c>
+      <c r="P51" s="13">
+        <v>6</v>
       </c>
       <c r="Q51" s="1">
         <v>0.3</v>
       </c>
       <c r="R51" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>84</v>
@@ -5296,7 +5368,7 @@
         <v>2.5</v>
       </c>
       <c r="X51" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
@@ -5310,15 +5382,15 @@
       <c r="AH51" s="2"/>
       <c r="AJ51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>100051.0</v>
+        <v>100051</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C52" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>36</v>
@@ -5329,41 +5401,41 @@
       <c r="F52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H52" s="1">
-        <v>300101.0</v>
+        <v>300101</v>
       </c>
       <c r="I52" s="1">
-        <v>300102.0</v>
+        <v>300102</v>
       </c>
       <c r="J52" s="1">
-        <v>300103.0</v>
+        <v>300103</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O52" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P52" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P52" s="13">
+        <v>1</v>
       </c>
       <c r="Q52" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R52" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>87</v>
@@ -5378,10 +5450,10 @@
         <v>44</v>
       </c>
       <c r="W52" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X52" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
@@ -5395,15 +5467,15 @@
       <c r="AH52" s="2"/>
       <c r="AJ52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>100052.0</v>
+        <v>100052</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C53" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>36</v>
@@ -5414,41 +5486,41 @@
       <c r="F53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H53" s="1">
-        <v>300101.0</v>
+        <v>300101</v>
       </c>
       <c r="I53" s="1">
-        <v>300102.0</v>
+        <v>300102</v>
       </c>
       <c r="J53" s="1">
-        <v>300104.0</v>
+        <v>300104</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L53" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M53" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O53" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P53" s="14">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P53" s="13">
+        <v>1</v>
       </c>
       <c r="Q53" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="R53" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>87</v>
@@ -5463,10 +5535,10 @@
         <v>44</v>
       </c>
       <c r="W53" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X53" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
@@ -5480,15 +5552,15 @@
       <c r="AH53" s="2"/>
       <c r="AJ53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>100053.0</v>
+        <v>100053</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C54" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>36</v>
@@ -5499,41 +5571,41 @@
       <c r="F54" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H54" s="1">
-        <v>300101.0</v>
+        <v>300101</v>
       </c>
       <c r="I54" s="1">
-        <v>300102.0</v>
+        <v>300102</v>
       </c>
       <c r="J54" s="1">
-        <v>300105.0</v>
+        <v>300105</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L54" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M54" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O54" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="P54" s="14">
-        <v>1.0</v>
+        <v>3</v>
+      </c>
+      <c r="P54" s="13">
+        <v>1</v>
       </c>
       <c r="Q54" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="R54" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>87</v>
@@ -5548,10 +5620,10 @@
         <v>44</v>
       </c>
       <c r="W54" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X54" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
@@ -5565,15 +5637,15 @@
       <c r="AH54" s="2"/>
       <c r="AJ54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>100054.0</v>
+        <v>100054</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C55" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>36</v>
@@ -5584,41 +5656,41 @@
       <c r="F55" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H55" s="1">
-        <v>300101.0</v>
+        <v>300101</v>
       </c>
       <c r="I55" s="1">
-        <v>300102.0</v>
+        <v>300102</v>
       </c>
       <c r="J55" s="1">
-        <v>300106.0</v>
+        <v>300106</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L55" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M55" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="P55" s="14">
-        <v>1.0</v>
+        <v>4</v>
+      </c>
+      <c r="P55" s="13">
+        <v>1</v>
       </c>
       <c r="Q55" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="R55" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>87</v>
@@ -5633,10 +5705,10 @@
         <v>44</v>
       </c>
       <c r="W55" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X55" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
@@ -5650,15 +5722,15 @@
       <c r="AH55" s="2"/>
       <c r="AJ55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>100055.0</v>
+        <v>100055</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C56" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>36</v>
@@ -5669,41 +5741,41 @@
       <c r="F56" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H56" s="1">
-        <v>300101.0</v>
+        <v>300101</v>
       </c>
       <c r="I56" s="1">
-        <v>300102.0</v>
+        <v>300102</v>
       </c>
       <c r="J56" s="1">
-        <v>300107.0</v>
+        <v>300107</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L56" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M56" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N56" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="P56" s="14">
-        <v>1.0</v>
+        <v>4</v>
+      </c>
+      <c r="P56" s="13">
+        <v>1</v>
       </c>
       <c r="Q56" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="R56" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>87</v>
@@ -5718,10 +5790,10 @@
         <v>44</v>
       </c>
       <c r="W56" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X56" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
@@ -5735,15 +5807,15 @@
       <c r="AH56" s="2"/>
       <c r="AJ56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>100056.0</v>
+        <v>100056</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C57" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>36</v>
@@ -5754,41 +5826,41 @@
       <c r="F57" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H57" s="1">
-        <v>300111.0</v>
+        <v>300111</v>
       </c>
       <c r="I57" s="1">
-        <v>300112.0</v>
+        <v>300112</v>
       </c>
       <c r="J57" s="1">
-        <v>300113.0</v>
+        <v>300113</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O57" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P57" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P57" s="13">
+        <v>1</v>
       </c>
       <c r="Q57" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>90</v>
@@ -5803,10 +5875,10 @@
         <v>44</v>
       </c>
       <c r="W57" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X57" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
@@ -5820,15 +5892,15 @@
       <c r="AH57" s="2"/>
       <c r="AJ57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>100057.0</v>
+        <v>100057</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C58" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>36</v>
@@ -5839,41 +5911,41 @@
       <c r="F58" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H58" s="1">
-        <v>300111.0</v>
+        <v>300111</v>
       </c>
       <c r="I58" s="1">
-        <v>300112.0</v>
+        <v>300112</v>
       </c>
       <c r="J58" s="1">
-        <v>300114.0</v>
+        <v>300114</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L58" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M58" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O58" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P58" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P58" s="13">
+        <v>1</v>
       </c>
       <c r="Q58" s="1">
         <v>3.5</v>
       </c>
       <c r="R58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S58" s="1" t="s">
         <v>90</v>
@@ -5888,10 +5960,10 @@
         <v>44</v>
       </c>
       <c r="W58" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X58" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
@@ -5905,15 +5977,15 @@
       <c r="AH58" s="2"/>
       <c r="AJ58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>100058.0</v>
+        <v>100058</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C59" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>36</v>
@@ -5924,41 +5996,41 @@
       <c r="F59" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H59" s="1">
-        <v>300111.0</v>
+        <v>300111</v>
       </c>
       <c r="I59" s="1">
-        <v>300112.0</v>
+        <v>300112</v>
       </c>
       <c r="J59" s="1">
-        <v>300115.0</v>
+        <v>300115</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L59" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M59" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N59" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O59" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P59" s="14">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P59" s="13">
+        <v>1</v>
       </c>
       <c r="Q59" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>90</v>
@@ -5973,10 +6045,10 @@
         <v>44</v>
       </c>
       <c r="W59" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X59" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
@@ -5990,15 +6062,15 @@
       <c r="AH59" s="2"/>
       <c r="AJ59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>100059.0</v>
+        <v>100059</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C60" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>36</v>
@@ -6009,41 +6081,41 @@
       <c r="F60" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H60" s="1">
-        <v>300111.0</v>
+        <v>300111</v>
       </c>
       <c r="I60" s="1">
-        <v>300112.0</v>
+        <v>300112</v>
       </c>
       <c r="J60" s="1">
-        <v>300116.0</v>
+        <v>300116</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L60" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M60" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N60" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O60" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P60" s="14">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P60" s="13">
+        <v>1</v>
       </c>
       <c r="Q60" s="1">
         <v>6.5</v>
       </c>
       <c r="R60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S60" s="1" t="s">
         <v>90</v>
@@ -6058,10 +6130,10 @@
         <v>44</v>
       </c>
       <c r="W60" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X60" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
@@ -6075,15 +6147,15 @@
       <c r="AH60" s="2"/>
       <c r="AJ60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>100060.0</v>
+        <v>100060</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C61" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>36</v>
@@ -6094,41 +6166,41 @@
       <c r="F61" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G61" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H61" s="1">
-        <v>300111.0</v>
+        <v>300111</v>
       </c>
       <c r="I61" s="1">
-        <v>300112.0</v>
+        <v>300112</v>
       </c>
       <c r="J61" s="1">
-        <v>300117.0</v>
+        <v>300117</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L61" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M61" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O61" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="P61" s="14">
-        <v>1.0</v>
+        <v>3</v>
+      </c>
+      <c r="P61" s="13">
+        <v>1</v>
       </c>
       <c r="Q61" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="R61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S61" s="1" t="s">
         <v>90</v>
@@ -6143,10 +6215,10 @@
         <v>44</v>
       </c>
       <c r="W61" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X61" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
@@ -6160,15 +6232,15 @@
       <c r="AH61" s="2"/>
       <c r="AJ61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>100061.0</v>
+        <v>100061</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C62" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>36</v>
@@ -6179,41 +6251,41 @@
       <c r="F62" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H62" s="1">
-        <v>300121.0</v>
+        <v>300121</v>
       </c>
       <c r="I62" s="1">
-        <v>300122.0</v>
+        <v>300122</v>
       </c>
       <c r="J62" s="1">
-        <v>300123.0</v>
+        <v>300123</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L62" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N62" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O62" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P62" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P62" s="13">
+        <v>1</v>
       </c>
       <c r="Q62" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S62" s="1" t="s">
         <v>93</v>
@@ -6228,10 +6300,10 @@
         <v>44</v>
       </c>
       <c r="W62" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X62" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
@@ -6245,15 +6317,15 @@
       <c r="AH62" s="2"/>
       <c r="AJ62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>100062.0</v>
+        <v>100062</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C63" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>36</v>
@@ -6264,41 +6336,41 @@
       <c r="F63" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G63" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H63" s="1">
-        <v>300121.0</v>
+        <v>300121</v>
       </c>
       <c r="I63" s="1">
-        <v>300122.0</v>
+        <v>300122</v>
       </c>
       <c r="J63" s="1">
-        <v>300124.0</v>
+        <v>300124</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L63" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M63" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N63" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O63" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P63" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P63" s="13">
+        <v>1</v>
       </c>
       <c r="Q63" s="1">
         <v>3.5</v>
       </c>
       <c r="R63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>93</v>
@@ -6313,10 +6385,10 @@
         <v>44</v>
       </c>
       <c r="W63" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X63" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
@@ -6330,15 +6402,15 @@
       <c r="AH63" s="2"/>
       <c r="AJ63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>100063.0</v>
+        <v>100063</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C64" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>36</v>
@@ -6349,41 +6421,41 @@
       <c r="F64" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H64" s="1">
-        <v>300121.0</v>
+        <v>300121</v>
       </c>
       <c r="I64" s="1">
-        <v>300122.0</v>
+        <v>300122</v>
       </c>
       <c r="J64" s="1">
-        <v>300125.0</v>
+        <v>300125</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L64" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M64" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N64" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O64" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P64" s="14">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P64" s="13">
+        <v>1</v>
       </c>
       <c r="Q64" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S64" s="1" t="s">
         <v>93</v>
@@ -6398,10 +6470,10 @@
         <v>44</v>
       </c>
       <c r="W64" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X64" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
@@ -6415,15 +6487,15 @@
       <c r="AH64" s="2"/>
       <c r="AJ64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>100064.0</v>
+        <v>100064</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C65" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>36</v>
@@ -6434,41 +6506,41 @@
       <c r="F65" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H65" s="1">
-        <v>300121.0</v>
+        <v>300121</v>
       </c>
       <c r="I65" s="1">
-        <v>300122.0</v>
+        <v>300122</v>
       </c>
       <c r="J65" s="1">
-        <v>300126.0</v>
+        <v>300126</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L65" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M65" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N65" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O65" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P65" s="14">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P65" s="13">
+        <v>1</v>
       </c>
       <c r="Q65" s="1">
         <v>6.5</v>
       </c>
       <c r="R65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>93</v>
@@ -6483,10 +6555,10 @@
         <v>44</v>
       </c>
       <c r="W65" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X65" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
@@ -6500,15 +6572,15 @@
       <c r="AH65" s="2"/>
       <c r="AJ65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>100065.0</v>
+        <v>100065</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C66" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>36</v>
@@ -6519,41 +6591,41 @@
       <c r="F66" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H66" s="1">
-        <v>300121.0</v>
+        <v>300121</v>
       </c>
       <c r="I66" s="1">
-        <v>300122.0</v>
+        <v>300122</v>
       </c>
       <c r="J66" s="1">
-        <v>300127.0</v>
+        <v>300127</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L66" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M66" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N66" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O66" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="P66" s="14">
-        <v>1.0</v>
+        <v>3</v>
+      </c>
+      <c r="P66" s="13">
+        <v>1</v>
       </c>
       <c r="Q66" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="R66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S66" s="1" t="s">
         <v>93</v>
@@ -6568,10 +6640,10 @@
         <v>44</v>
       </c>
       <c r="W66" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X66" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
@@ -6585,15 +6657,15 @@
       <c r="AH66" s="2"/>
       <c r="AJ66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>100066.0</v>
+        <v>100066</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C67" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>36</v>
@@ -6604,41 +6676,41 @@
       <c r="F67" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H67" s="1">
-        <v>300131.0</v>
+        <v>300131</v>
       </c>
       <c r="I67" s="1">
-        <v>300132.0</v>
+        <v>300132</v>
       </c>
       <c r="J67" s="1">
-        <v>300133.0</v>
+        <v>300133</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L67" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N67" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O67" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P67" s="14">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P67" s="13">
+        <v>1</v>
       </c>
       <c r="Q67" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R67" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>96</v>
@@ -6653,10 +6725,10 @@
         <v>44</v>
       </c>
       <c r="W67" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X67" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
@@ -6670,15 +6742,15 @@
       <c r="AH67" s="2"/>
       <c r="AJ67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>100067.0</v>
+        <v>100067</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C68" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>36</v>
@@ -6689,41 +6761,41 @@
       <c r="F68" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H68" s="1">
-        <v>300131.0</v>
+        <v>300131</v>
       </c>
       <c r="I68" s="1">
-        <v>300132.0</v>
+        <v>300132</v>
       </c>
       <c r="J68" s="1">
-        <v>300134.0</v>
+        <v>300134</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L68" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M68" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N68" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O68" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="P68" s="14">
-        <v>1.0</v>
+        <v>4</v>
+      </c>
+      <c r="P68" s="13">
+        <v>1</v>
       </c>
       <c r="Q68" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R68" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S68" s="1" t="s">
         <v>96</v>
@@ -6738,10 +6810,10 @@
         <v>44</v>
       </c>
       <c r="W68" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X68" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
@@ -6755,15 +6827,15 @@
       <c r="AH68" s="2"/>
       <c r="AJ68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>100068.0</v>
+        <v>100068</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C69" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>36</v>
@@ -6774,41 +6846,41 @@
       <c r="F69" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G69" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H69" s="1">
-        <v>300131.0</v>
+        <v>300131</v>
       </c>
       <c r="I69" s="1">
-        <v>300132.0</v>
+        <v>300132</v>
       </c>
       <c r="J69" s="1">
-        <v>300135.0</v>
+        <v>300135</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L69" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M69" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N69" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O69" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="P69" s="14">
-        <v>1.0</v>
+        <v>6</v>
+      </c>
+      <c r="P69" s="13">
+        <v>1</v>
       </c>
       <c r="Q69" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R69" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S69" s="1" t="s">
         <v>96</v>
@@ -6823,10 +6895,10 @@
         <v>44</v>
       </c>
       <c r="W69" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X69" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
@@ -6840,15 +6912,15 @@
       <c r="AH69" s="2"/>
       <c r="AJ69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>100069.0</v>
+        <v>100069</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C70" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>36</v>
@@ -6859,41 +6931,41 @@
       <c r="F70" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G70" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H70" s="1">
-        <v>300131.0</v>
+        <v>300131</v>
       </c>
       <c r="I70" s="1">
-        <v>300132.0</v>
+        <v>300132</v>
       </c>
       <c r="J70" s="1">
-        <v>300136.0</v>
+        <v>300136</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L70" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M70" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N70" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O70" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="P70" s="14">
-        <v>1.0</v>
+        <v>8</v>
+      </c>
+      <c r="P70" s="13">
+        <v>1</v>
       </c>
       <c r="Q70" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R70" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S70" s="1" t="s">
         <v>96</v>
@@ -6908,10 +6980,10 @@
         <v>44</v>
       </c>
       <c r="W70" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X70" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
@@ -6925,15 +6997,15 @@
       <c r="AH70" s="2"/>
       <c r="AJ70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>100070.0</v>
+        <v>100070</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C71" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>36</v>
@@ -6944,41 +7016,41 @@
       <c r="F71" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G71" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H71" s="1">
-        <v>300131.0</v>
+        <v>300131</v>
       </c>
       <c r="I71" s="1">
-        <v>300132.0</v>
+        <v>300132</v>
       </c>
       <c r="J71" s="1">
-        <v>300137.0</v>
+        <v>300137</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L71" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M71" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N71" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O71" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="P71" s="14">
-        <v>1.0</v>
+        <v>8</v>
+      </c>
+      <c r="P71" s="13">
+        <v>1</v>
       </c>
       <c r="Q71" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R71" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S71" s="1" t="s">
         <v>96</v>
@@ -6993,10 +7065,10 @@
         <v>44</v>
       </c>
       <c r="W71" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X71" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
@@ -7010,15 +7082,15 @@
       <c r="AH71" s="2"/>
       <c r="AJ71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>100071.0</v>
+        <v>100071</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C72" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>36</v>
@@ -7029,41 +7101,41 @@
       <c r="F72" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G72" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H72" s="1">
-        <v>300141.0</v>
+        <v>300141</v>
       </c>
       <c r="I72" s="1">
-        <v>300142.0</v>
+        <v>300142</v>
       </c>
       <c r="J72" s="1">
-        <v>300143.0</v>
+        <v>300143</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L72" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M72" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N72" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O72" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P72" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P72" s="13">
+        <v>1</v>
       </c>
       <c r="Q72" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R72" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S72" s="1" t="s">
         <v>99</v>
@@ -7078,10 +7150,10 @@
         <v>44</v>
       </c>
       <c r="W72" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X72" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
@@ -7095,15 +7167,15 @@
       <c r="AH72" s="2"/>
       <c r="AJ72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>100072.0</v>
+        <v>100072</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C73" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>36</v>
@@ -7114,41 +7186,41 @@
       <c r="F73" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G73" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H73" s="1">
-        <v>300141.0</v>
+        <v>300141</v>
       </c>
       <c r="I73" s="1">
-        <v>300142.0</v>
+        <v>300142</v>
       </c>
       <c r="J73" s="1">
-        <v>300144.0</v>
+        <v>300144</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L73" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M73" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N73" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O73" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P73" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P73" s="13">
+        <v>1</v>
       </c>
       <c r="Q73" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="R73" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="S73" s="1" t="s">
         <v>99</v>
@@ -7163,10 +7235,10 @@
         <v>44</v>
       </c>
       <c r="W73" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X73" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
@@ -7180,15 +7252,15 @@
       <c r="AH73" s="2"/>
       <c r="AJ73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>100073.0</v>
+        <v>100073</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C74" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>36</v>
@@ -7199,41 +7271,41 @@
       <c r="F74" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H74" s="1">
-        <v>300141.0</v>
+        <v>300141</v>
       </c>
       <c r="I74" s="1">
-        <v>300142.0</v>
+        <v>300142</v>
       </c>
       <c r="J74" s="1">
-        <v>300145.0</v>
+        <v>300145</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L74" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M74" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N74" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O74" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P74" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P74" s="13">
+        <v>1</v>
       </c>
       <c r="Q74" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="R74" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="S74" s="1" t="s">
         <v>99</v>
@@ -7248,10 +7320,10 @@
         <v>44</v>
       </c>
       <c r="W74" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="X74" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
@@ -7265,15 +7337,15 @@
       <c r="AH74" s="2"/>
       <c r="AJ74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>100074.0</v>
+        <v>100074</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C75" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>36</v>
@@ -7284,41 +7356,41 @@
       <c r="F75" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G75" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H75" s="1">
-        <v>300141.0</v>
+        <v>300141</v>
       </c>
       <c r="I75" s="1">
-        <v>300142.0</v>
+        <v>300142</v>
       </c>
       <c r="J75" s="1">
-        <v>300146.0</v>
+        <v>300146</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L75" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M75" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N75" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O75" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P75" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P75" s="13">
+        <v>1</v>
       </c>
       <c r="Q75" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="R75" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="S75" s="1" t="s">
         <v>99</v>
@@ -7333,10 +7405,10 @@
         <v>44</v>
       </c>
       <c r="W75" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X75" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
@@ -7350,15 +7422,15 @@
       <c r="AH75" s="2"/>
       <c r="AJ75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>100075.0</v>
+        <v>100075</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C76" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>36</v>
@@ -7369,41 +7441,41 @@
       <c r="F76" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H76" s="1">
-        <v>300141.0</v>
+        <v>300141</v>
       </c>
       <c r="I76" s="1">
-        <v>300142.0</v>
+        <v>300142</v>
       </c>
       <c r="J76" s="1">
-        <v>300147.0</v>
+        <v>300147</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L76" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M76" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N76" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O76" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P76" s="14">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P76" s="13">
+        <v>1</v>
       </c>
       <c r="Q76" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="R76" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="S76" s="1" t="s">
         <v>99</v>
@@ -7418,10 +7490,10 @@
         <v>44</v>
       </c>
       <c r="W76" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X76" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
@@ -7435,440 +7507,452 @@
       <c r="AH76" s="2"/>
       <c r="AJ76" s="2"/>
     </row>
-    <row r="77">
-      <c r="A77" s="3">
-        <v>100076.0</v>
-      </c>
-      <c r="B77" s="3" t="s">
+    <row r="77" spans="1:36" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="20">
+        <v>100076</v>
+      </c>
+      <c r="B77" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="C77" s="21">
+        <v>16</v>
+      </c>
+      <c r="D77" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H77" s="1">
-        <v>300151.0</v>
-      </c>
-      <c r="I77" s="1">
-        <v>300152.0</v>
-      </c>
-      <c r="J77" s="1">
-        <v>300153.0</v>
-      </c>
-      <c r="K77" s="1" t="s">
+      <c r="H77" s="21">
+        <v>300151</v>
+      </c>
+      <c r="I77" s="21">
+        <v>300152</v>
+      </c>
+      <c r="J77" s="21">
+        <v>300153</v>
+      </c>
+      <c r="K77" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="L77" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="M77" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N77" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="O77" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P77" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="Q77" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="R77" s="1">
+      <c r="L77" s="21">
+        <v>1</v>
+      </c>
+      <c r="M77" s="21">
+        <v>5</v>
+      </c>
+      <c r="N77" s="21">
+        <v>1</v>
+      </c>
+      <c r="O77" s="21">
+        <v>1</v>
+      </c>
+      <c r="P77" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="21">
+        <v>7</v>
+      </c>
+      <c r="R77" s="21">
         <v>9.5</v>
       </c>
-      <c r="S77" s="1" t="s">
+      <c r="S77" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="T77" s="3" t="s">
+      <c r="T77" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="U77" s="3" t="s">
+      <c r="U77" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="V77" s="3" t="s">
+      <c r="V77" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="W77" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="X77" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
-      <c r="AB77" s="2"/>
-      <c r="AC77" s="2"/>
-      <c r="AD77" s="2"/>
-      <c r="AE77" s="2"/>
-      <c r="AF77" s="2"/>
-      <c r="AG77" s="2"/>
-      <c r="AH77" s="2"/>
-      <c r="AJ77" s="2"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="3">
-        <v>100077.0</v>
-      </c>
-      <c r="B78" s="3" t="s">
+      <c r="W77" s="20">
+        <v>1</v>
+      </c>
+      <c r="X77" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="24"/>
+      <c r="Z77" s="24"/>
+      <c r="AA77" s="24"/>
+      <c r="AB77" s="24"/>
+      <c r="AC77" s="24"/>
+      <c r="AD77" s="24"/>
+      <c r="AE77" s="24"/>
+      <c r="AF77" s="24"/>
+      <c r="AG77" s="24"/>
+      <c r="AH77" s="24"/>
+      <c r="AJ77" s="24"/>
+    </row>
+    <row r="78" spans="1:36" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="20">
+        <v>100077</v>
+      </c>
+      <c r="B78" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C78" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="C78" s="21">
+        <v>16</v>
+      </c>
+      <c r="D78" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G78" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H78" s="1">
-        <v>300151.0</v>
-      </c>
-      <c r="I78" s="1">
-        <v>300152.0</v>
-      </c>
-      <c r="J78" s="1">
-        <v>300154.0</v>
-      </c>
-      <c r="K78" s="1" t="s">
+      <c r="H78" s="21">
+        <v>300151</v>
+      </c>
+      <c r="I78" s="21">
+        <v>300152</v>
+      </c>
+      <c r="J78" s="21">
+        <v>300154</v>
+      </c>
+      <c r="K78" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="L78" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="M78" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N78" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="O78" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P78" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="Q78" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="R78" s="1">
+      <c r="L78" s="21">
+        <v>2</v>
+      </c>
+      <c r="M78" s="21">
+        <v>5</v>
+      </c>
+      <c r="N78" s="21">
+        <v>1</v>
+      </c>
+      <c r="O78" s="21">
+        <v>1</v>
+      </c>
+      <c r="P78" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="21">
+        <v>12</v>
+      </c>
+      <c r="R78" s="21">
         <v>14.5</v>
       </c>
-      <c r="S78" s="1" t="s">
+      <c r="S78" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="T78" s="3" t="s">
+      <c r="T78" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="U78" s="3" t="s">
+      <c r="U78" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="V78" s="3" t="s">
+      <c r="V78" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="W78" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="X78" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
-      <c r="AA78" s="2"/>
-      <c r="AB78" s="2"/>
-      <c r="AC78" s="2"/>
-      <c r="AD78" s="2"/>
-      <c r="AE78" s="2"/>
-      <c r="AF78" s="2"/>
-      <c r="AG78" s="2"/>
-      <c r="AH78" s="2"/>
-      <c r="AJ78" s="2"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="3">
-        <v>100078.0</v>
-      </c>
-      <c r="B79" s="3" t="s">
+      <c r="W78" s="20">
+        <v>2</v>
+      </c>
+      <c r="X78" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="24"/>
+      <c r="Z78" s="24"/>
+      <c r="AA78" s="24"/>
+      <c r="AB78" s="24"/>
+      <c r="AC78" s="24"/>
+      <c r="AD78" s="24"/>
+      <c r="AE78" s="24"/>
+      <c r="AF78" s="24"/>
+      <c r="AG78" s="24"/>
+      <c r="AH78" s="24"/>
+      <c r="AI78" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ78" s="24"/>
+    </row>
+    <row r="79" spans="1:36" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="20">
+        <v>100078</v>
+      </c>
+      <c r="B79" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="C79" s="21">
+        <v>16</v>
+      </c>
+      <c r="D79" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="G79" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H79" s="1">
-        <v>300151.0</v>
-      </c>
-      <c r="I79" s="1">
-        <v>300152.0</v>
-      </c>
-      <c r="J79" s="1">
-        <v>300155.0</v>
-      </c>
-      <c r="K79" s="1" t="s">
+      <c r="H79" s="21">
+        <v>300151</v>
+      </c>
+      <c r="I79" s="21">
+        <v>300152</v>
+      </c>
+      <c r="J79" s="21">
+        <v>300155</v>
+      </c>
+      <c r="K79" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="L79" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="M79" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N79" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="O79" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P79" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="Q79" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="R79" s="1">
+      <c r="L79" s="21">
+        <v>3</v>
+      </c>
+      <c r="M79" s="21">
+        <v>5</v>
+      </c>
+      <c r="N79" s="21">
+        <v>1</v>
+      </c>
+      <c r="O79" s="21">
+        <v>1</v>
+      </c>
+      <c r="P79" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="21">
+        <v>17</v>
+      </c>
+      <c r="R79" s="21">
         <v>19.5</v>
       </c>
-      <c r="S79" s="1" t="s">
+      <c r="S79" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="T79" s="3" t="s">
+      <c r="T79" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="U79" s="3" t="s">
+      <c r="U79" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="V79" s="3" t="s">
+      <c r="V79" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="W79" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="X79" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
-      <c r="AA79" s="2"/>
-      <c r="AB79" s="2"/>
-      <c r="AC79" s="2"/>
-      <c r="AD79" s="2"/>
-      <c r="AE79" s="2"/>
-      <c r="AF79" s="2"/>
-      <c r="AG79" s="2"/>
-      <c r="AH79" s="2"/>
-      <c r="AJ79" s="2"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="3">
-        <v>100079.0</v>
-      </c>
-      <c r="B80" s="3" t="s">
+      <c r="W79" s="20">
+        <v>3</v>
+      </c>
+      <c r="X79" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="24"/>
+      <c r="Z79" s="24"/>
+      <c r="AA79" s="24"/>
+      <c r="AB79" s="24"/>
+      <c r="AC79" s="24"/>
+      <c r="AD79" s="24"/>
+      <c r="AE79" s="24"/>
+      <c r="AF79" s="24"/>
+      <c r="AG79" s="24"/>
+      <c r="AH79" s="24"/>
+      <c r="AI79" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ79" s="24"/>
+    </row>
+    <row r="80" spans="1:36" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="20">
+        <v>100079</v>
+      </c>
+      <c r="B80" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C80" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="C80" s="21">
+        <v>16</v>
+      </c>
+      <c r="D80" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G80" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H80" s="1">
-        <v>300151.0</v>
-      </c>
-      <c r="I80" s="1">
-        <v>300152.0</v>
-      </c>
-      <c r="J80" s="1">
-        <v>300156.0</v>
-      </c>
-      <c r="K80" s="1" t="s">
+      <c r="H80" s="21">
+        <v>300151</v>
+      </c>
+      <c r="I80" s="21">
+        <v>300152</v>
+      </c>
+      <c r="J80" s="21">
+        <v>300156</v>
+      </c>
+      <c r="K80" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="L80" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="M80" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N80" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="O80" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P80" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="Q80" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="R80" s="1">
+      <c r="L80" s="21">
+        <v>4</v>
+      </c>
+      <c r="M80" s="21">
+        <v>5</v>
+      </c>
+      <c r="N80" s="21">
+        <v>1</v>
+      </c>
+      <c r="O80" s="21">
+        <v>1</v>
+      </c>
+      <c r="P80" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="21">
+        <v>22</v>
+      </c>
+      <c r="R80" s="21">
         <v>24.5</v>
       </c>
-      <c r="S80" s="1" t="s">
+      <c r="S80" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="T80" s="3" t="s">
+      <c r="T80" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="U80" s="3" t="s">
+      <c r="U80" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="V80" s="3" t="s">
+      <c r="V80" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="W80" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="X80" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
-      <c r="AA80" s="2"/>
-      <c r="AB80" s="2"/>
-      <c r="AC80" s="2"/>
-      <c r="AD80" s="2"/>
-      <c r="AE80" s="2"/>
-      <c r="AF80" s="2"/>
-      <c r="AG80" s="2"/>
-      <c r="AH80" s="2"/>
-      <c r="AJ80" s="2"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="3">
-        <v>100080.0</v>
-      </c>
-      <c r="B81" s="3" t="s">
+      <c r="W80" s="20">
+        <v>4</v>
+      </c>
+      <c r="X80" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="24"/>
+      <c r="Z80" s="24"/>
+      <c r="AA80" s="24"/>
+      <c r="AB80" s="24"/>
+      <c r="AC80" s="24"/>
+      <c r="AD80" s="24"/>
+      <c r="AE80" s="24"/>
+      <c r="AF80" s="24"/>
+      <c r="AG80" s="24"/>
+      <c r="AH80" s="24"/>
+      <c r="AI80" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ80" s="24"/>
+    </row>
+    <row r="81" spans="1:36" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="20">
+        <v>100080</v>
+      </c>
+      <c r="B81" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C81" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="C81" s="21">
+        <v>16</v>
+      </c>
+      <c r="D81" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G81" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H81" s="1">
-        <v>300151.0</v>
-      </c>
-      <c r="I81" s="1">
-        <v>300152.0</v>
-      </c>
-      <c r="J81" s="1">
-        <v>300157.0</v>
-      </c>
-      <c r="K81" s="1" t="s">
+      <c r="H81" s="21">
+        <v>300151</v>
+      </c>
+      <c r="I81" s="21">
+        <v>300152</v>
+      </c>
+      <c r="J81" s="21">
+        <v>300157</v>
+      </c>
+      <c r="K81" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="L81" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="M81" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N81" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="O81" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P81" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="Q81" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="R81" s="1">
+      <c r="L81" s="21">
+        <v>5</v>
+      </c>
+      <c r="M81" s="21">
+        <v>5</v>
+      </c>
+      <c r="N81" s="21">
+        <v>1</v>
+      </c>
+      <c r="O81" s="21">
+        <v>1</v>
+      </c>
+      <c r="P81" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="21">
+        <v>27</v>
+      </c>
+      <c r="R81" s="21">
         <v>29.5</v>
       </c>
-      <c r="S81" s="1" t="s">
+      <c r="S81" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="T81" s="3" t="s">
+      <c r="T81" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="U81" s="3" t="s">
+      <c r="U81" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="V81" s="3" t="s">
+      <c r="V81" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="W81" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="X81" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="Y81" s="2"/>
-      <c r="Z81" s="2"/>
-      <c r="AA81" s="2"/>
-      <c r="AB81" s="2"/>
-      <c r="AC81" s="2"/>
-      <c r="AD81" s="2"/>
-      <c r="AE81" s="2"/>
-      <c r="AF81" s="2"/>
-      <c r="AG81" s="2"/>
-      <c r="AH81" s="2"/>
-      <c r="AJ81" s="2"/>
-    </row>
-    <row r="82">
+      <c r="W81" s="20">
+        <v>5</v>
+      </c>
+      <c r="X81" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="24"/>
+      <c r="Z81" s="24"/>
+      <c r="AA81" s="24"/>
+      <c r="AB81" s="24"/>
+      <c r="AC81" s="24"/>
+      <c r="AD81" s="24"/>
+      <c r="AE81" s="24"/>
+      <c r="AF81" s="24"/>
+      <c r="AG81" s="24"/>
+      <c r="AH81" s="24"/>
+      <c r="AI81" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ81" s="24"/>
+    </row>
+    <row r="82" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>100081.0</v>
+        <v>100081</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C82" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>36</v>
@@ -7879,41 +7963,41 @@
       <c r="F82" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G82" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H82" s="1">
-        <v>300161.0</v>
+        <v>300161</v>
       </c>
       <c r="I82" s="1">
-        <v>300162.0</v>
+        <v>300162</v>
       </c>
       <c r="J82" s="1">
-        <v>300163.0</v>
+        <v>300163</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>104</v>
       </c>
       <c r="L82" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M82" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N82" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O82" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="P82" s="14">
-        <v>1.0</v>
+        <v>3</v>
+      </c>
+      <c r="P82" s="13">
+        <v>1</v>
       </c>
       <c r="Q82" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R82" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S82" s="1" t="s">
         <v>105</v>
@@ -7928,10 +8012,10 @@
         <v>44</v>
       </c>
       <c r="W82" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X82" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
@@ -7945,15 +8029,15 @@
       <c r="AH82" s="2"/>
       <c r="AJ82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <v>100082.0</v>
+        <v>100082</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C83" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>36</v>
@@ -7964,41 +8048,41 @@
       <c r="F83" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G83" s="6" t="s">
+      <c r="G83" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H83" s="1">
-        <v>300161.0</v>
+        <v>300161</v>
       </c>
       <c r="I83" s="1">
-        <v>300162.0</v>
+        <v>300162</v>
       </c>
       <c r="J83" s="1">
-        <v>300164.0</v>
+        <v>300164</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>104</v>
       </c>
       <c r="L83" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M83" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N83" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O83" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="P83" s="14">
-        <v>1.0</v>
+        <v>4</v>
+      </c>
+      <c r="P83" s="13">
+        <v>1</v>
       </c>
       <c r="Q83" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R83" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S83" s="1" t="s">
         <v>105</v>
@@ -8013,10 +8097,10 @@
         <v>44</v>
       </c>
       <c r="W83" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X83" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
@@ -8030,15 +8114,15 @@
       <c r="AH83" s="2"/>
       <c r="AJ83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
-        <v>100083.0</v>
+        <v>100083</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C84" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>36</v>
@@ -8049,41 +8133,41 @@
       <c r="F84" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G84" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H84" s="1">
-        <v>300161.0</v>
+        <v>300161</v>
       </c>
       <c r="I84" s="1">
-        <v>300162.0</v>
+        <v>300162</v>
       </c>
       <c r="J84" s="1">
-        <v>300165.0</v>
+        <v>300165</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>104</v>
       </c>
       <c r="L84" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M84" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N84" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O84" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="P84" s="14">
-        <v>1.0</v>
+        <v>5</v>
+      </c>
+      <c r="P84" s="13">
+        <v>1</v>
       </c>
       <c r="Q84" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R84" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S84" s="1" t="s">
         <v>105</v>
@@ -8098,10 +8182,10 @@
         <v>44</v>
       </c>
       <c r="W84" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="X84" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
@@ -8115,15 +8199,15 @@
       <c r="AH84" s="2"/>
       <c r="AJ84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
-        <v>100084.0</v>
+        <v>100084</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C85" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>36</v>
@@ -8134,41 +8218,41 @@
       <c r="F85" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="G85" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H85" s="1">
-        <v>300161.0</v>
+        <v>300161</v>
       </c>
       <c r="I85" s="1">
-        <v>300162.0</v>
+        <v>300162</v>
       </c>
       <c r="J85" s="1">
-        <v>300166.0</v>
+        <v>300166</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>104</v>
       </c>
       <c r="L85" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M85" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N85" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O85" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="P85" s="14">
-        <v>1.0</v>
+        <v>6</v>
+      </c>
+      <c r="P85" s="13">
+        <v>1</v>
       </c>
       <c r="Q85" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R85" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S85" s="1" t="s">
         <v>105</v>
@@ -8183,10 +8267,10 @@
         <v>44</v>
       </c>
       <c r="W85" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X85" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
@@ -8200,15 +8284,15 @@
       <c r="AH85" s="2"/>
       <c r="AJ85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
-        <v>100085.0</v>
+        <v>100085</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C86" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>36</v>
@@ -8219,41 +8303,41 @@
       <c r="F86" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H86" s="1">
-        <v>300161.0</v>
+        <v>300161</v>
       </c>
       <c r="I86" s="1">
-        <v>300162.0</v>
+        <v>300162</v>
       </c>
       <c r="J86" s="1">
-        <v>300167.0</v>
+        <v>300167</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>104</v>
       </c>
       <c r="L86" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M86" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N86" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O86" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="P86" s="14">
-        <v>1.0</v>
+        <v>7</v>
+      </c>
+      <c r="P86" s="13">
+        <v>1</v>
       </c>
       <c r="Q86" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R86" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S86" s="1" t="s">
         <v>105</v>
@@ -8268,10 +8352,10 @@
         <v>44</v>
       </c>
       <c r="W86" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X86" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
@@ -8285,15 +8369,15 @@
       <c r="AH86" s="2"/>
       <c r="AJ86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:36" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>200001.0</v>
+        <v>200001</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C87" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>107</v>
@@ -8311,25 +8395,25 @@
       <c r="I87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M87" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N87" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O87" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="P87" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q87" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R87" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S87" s="3" t="s">
         <v>109</v>
@@ -8344,10 +8428,10 @@
         <v>44</v>
       </c>
       <c r="W87" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X87" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
@@ -8363,247 +8447,251 @@
       <c r="AJ87" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8611,6 +8699,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Unknown_Platypus/Table/SkillTable.xlsx
+++ b/Unknown_Platypus/Table/SkillTable.xlsx
@@ -1,27 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF70BB8-8080-4848-A337-EADC9798F93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="테이블 설명" sheetId="2" r:id="rId2"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="테이블 설명" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="143">
   <si>
     <t>index</t>
   </si>
@@ -330,6 +321,12 @@
   </si>
   <si>
     <t>MecaTurretSkill</t>
+  </si>
+  <si>
+    <t>cooltime</t>
+  </si>
+  <si>
+    <t>20001, 20016, 20031, 20016</t>
   </si>
   <si>
     <t>감마전류</t>
@@ -473,72 +470,54 @@
   <si>
     <t>효과 지속 시간 (초)</t>
   </si>
-  <si>
-    <t>20001, 20016, 20031, 20016</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="7">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -554,6 +533,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD2F2DB"/>
+        <bgColor rgb="FFD2F2DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
@@ -564,27 +549,9 @@
         <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor rgb="FFDAE3F3"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
@@ -598,10 +565,8 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FFB2B2B2"/>
       </right>
@@ -611,7 +576,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -626,102 +590,111 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="27">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -911,34 +884,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="21" max="21" width="24.42578125" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" customWidth="1"/>
-    <col min="24" max="24" width="22.28515625" customWidth="1"/>
-    <col min="25" max="25" width="17.42578125" customWidth="1"/>
-    <col min="26" max="26" width="22.7109375" customWidth="1"/>
-    <col min="28" max="28" width="29.28515625" customWidth="1"/>
-    <col min="29" max="29" width="23.85546875" customWidth="1"/>
+    <col customWidth="1" min="7" max="7" width="27.0"/>
+    <col customWidth="1" min="21" max="21" width="24.5"/>
+    <col customWidth="1" min="22" max="22" width="18.38"/>
+    <col customWidth="1" min="23" max="23" width="19.38"/>
+    <col customWidth="1" min="24" max="24" width="22.25"/>
+    <col customWidth="1" min="25" max="25" width="17.5"/>
+    <col customWidth="1" min="26" max="26" width="22.75"/>
+    <col customWidth="1" min="28" max="28" width="29.25"/>
+    <col customWidth="1" min="29" max="29" width="23.88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1046,15 +1019,15 @@
       </c>
       <c r="AJ1" s="2"/>
     </row>
-    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="3">
-        <v>100001</v>
+        <v>100001.0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
@@ -1069,37 +1042,37 @@
         <v>39</v>
       </c>
       <c r="H2" s="1">
-        <v>300001</v>
+        <v>300001.0</v>
       </c>
       <c r="I2" s="1">
-        <v>300002</v>
+        <v>300002.0</v>
       </c>
       <c r="J2" s="1">
-        <v>300003</v>
+        <v>300003.0</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M2" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q2" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="R2" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>41</v>
@@ -1114,10 +1087,10 @@
         <v>44</v>
       </c>
       <c r="W2" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X2" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
@@ -1132,15 +1105,15 @@
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
     </row>
-    <row r="3" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="3">
-        <v>100002</v>
+        <v>100002.0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -1155,37 +1128,37 @@
         <v>39</v>
       </c>
       <c r="H3" s="1">
-        <v>300001</v>
+        <v>300001.0</v>
       </c>
       <c r="I3" s="1">
-        <v>300002</v>
+        <v>300002.0</v>
       </c>
       <c r="J3" s="1">
-        <v>300004</v>
+        <v>300004.0</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="M3" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="R3" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>41</v>
@@ -1203,7 +1176,7 @@
         <v>1.5</v>
       </c>
       <c r="X3" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
@@ -1218,15 +1191,15 @@
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
     </row>
-    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="3">
-        <v>100003</v>
+        <v>100003.0</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>36</v>
@@ -1241,37 +1214,37 @@
         <v>39</v>
       </c>
       <c r="H4" s="1">
-        <v>300001</v>
+        <v>300001.0</v>
       </c>
       <c r="I4" s="1">
-        <v>300002</v>
+        <v>300002.0</v>
       </c>
       <c r="J4" s="1">
-        <v>300005</v>
+        <v>300005.0</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="M4" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O4" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="R4" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>41</v>
@@ -1289,7 +1262,7 @@
         <v>1.5</v>
       </c>
       <c r="X4" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
@@ -1304,15 +1277,15 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="3">
-        <v>100004</v>
+        <v>100004.0</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>36</v>
@@ -1327,37 +1300,37 @@
         <v>39</v>
       </c>
       <c r="H5" s="1">
-        <v>300001</v>
+        <v>300001.0</v>
       </c>
       <c r="I5" s="1">
-        <v>300002</v>
+        <v>300002.0</v>
       </c>
       <c r="J5" s="1">
-        <v>300006</v>
+        <v>300006.0</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="M5" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O5" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="R5" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>41</v>
@@ -1372,10 +1345,10 @@
         <v>44</v>
       </c>
       <c r="W5" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="X5" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
@@ -1390,15 +1363,15 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
     </row>
-    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="3">
-        <v>100005</v>
+        <v>100005.0</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>36</v>
@@ -1413,37 +1386,37 @@
         <v>39</v>
       </c>
       <c r="H6" s="1">
-        <v>300001</v>
+        <v>300001.0</v>
       </c>
       <c r="I6" s="1">
-        <v>300002</v>
+        <v>300002.0</v>
       </c>
       <c r="J6" s="1">
-        <v>300007</v>
+        <v>300007.0</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L6" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="M6" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O6" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="R6" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>41</v>
@@ -1461,7 +1434,7 @@
         <v>2.5</v>
       </c>
       <c r="X6" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
@@ -1476,15 +1449,15 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="3">
-        <v>100006</v>
+        <v>100006.0</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>36</v>
@@ -1499,37 +1472,37 @@
         <v>49</v>
       </c>
       <c r="H7" s="1">
-        <v>300011</v>
+        <v>300011.0</v>
       </c>
       <c r="I7" s="1">
-        <v>300012</v>
+        <v>300012.0</v>
       </c>
       <c r="J7" s="1">
-        <v>300013</v>
+        <v>300013.0</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M7" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q7" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="R7" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>51</v>
@@ -1544,25 +1517,25 @@
         <v>44</v>
       </c>
       <c r="W7" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="Y7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="Z7" s="4" t="s">
         <v>53</v>
       </c>
       <c r="AA7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB7" s="2">
-        <v>5</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>0</v>
+      <c r="AB7" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0.0</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
@@ -1572,15 +1545,15 @@
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
     </row>
-    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="3">
-        <v>100007</v>
+        <v>100007.0</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>36</v>
@@ -1595,37 +1568,37 @@
         <v>49</v>
       </c>
       <c r="H8" s="1">
-        <v>300011</v>
+        <v>300011.0</v>
       </c>
       <c r="I8" s="1">
-        <v>300012</v>
+        <v>300012.0</v>
       </c>
       <c r="J8" s="1">
-        <v>300014</v>
+        <v>300014.0</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L8" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="M8" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O8" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q8" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="R8" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>51</v>
@@ -1643,22 +1616,22 @@
         <v>1.5</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="Y8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="Z8" s="4" t="s">
         <v>53</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB8" s="2">
-        <v>6</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>0</v>
+      <c r="AB8" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>0.0</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -1668,15 +1641,15 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="3">
-        <v>100008</v>
+        <v>100008.0</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>36</v>
@@ -1691,37 +1664,37 @@
         <v>49</v>
       </c>
       <c r="H9" s="1">
-        <v>300011</v>
+        <v>300011.0</v>
       </c>
       <c r="I9" s="1">
-        <v>300012</v>
+        <v>300012.0</v>
       </c>
       <c r="J9" s="1">
-        <v>300015</v>
+        <v>300015.0</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L9" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="M9" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O9" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q9" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="R9" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>51</v>
@@ -1739,22 +1712,22 @@
         <v>1.5</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="Y9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="Z9" s="4" t="s">
         <v>53</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB9" s="2">
-        <v>7</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>0</v>
+      <c r="AB9" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0.0</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
@@ -1764,15 +1737,15 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
     </row>
-    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="3">
-        <v>100009</v>
+        <v>100009.0</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
@@ -1787,37 +1760,37 @@
         <v>49</v>
       </c>
       <c r="H10" s="1">
-        <v>300011</v>
+        <v>300011.0</v>
       </c>
       <c r="I10" s="1">
-        <v>300012</v>
+        <v>300012.0</v>
       </c>
       <c r="J10" s="1">
-        <v>300016</v>
+        <v>300016.0</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L10" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="M10" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O10" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q10" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="R10" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>51</v>
@@ -1832,25 +1805,25 @@
         <v>44</v>
       </c>
       <c r="W10" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="2" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="Y10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="Z10" s="4" t="s">
         <v>53</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB10" s="2">
-        <v>8</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>0</v>
+      <c r="AB10" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0.0</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -1860,15 +1833,15 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="3">
-        <v>100010</v>
+        <v>100010.0</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>36</v>
@@ -1883,37 +1856,37 @@
         <v>49</v>
       </c>
       <c r="H11" s="1">
-        <v>300011</v>
+        <v>300011.0</v>
       </c>
       <c r="I11" s="1">
-        <v>300012</v>
+        <v>300012.0</v>
       </c>
       <c r="J11" s="1">
-        <v>300017</v>
+        <v>300017.0</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L11" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="M11" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N11" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O11" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q11" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="R11" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>51</v>
@@ -1931,22 +1904,22 @@
         <v>2.5</v>
       </c>
       <c r="X11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="Y11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="Z11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="AA11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB11" s="2">
-        <v>9</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>0</v>
+      <c r="AB11" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>0.0</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -1956,891 +1929,891 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
     </row>
-    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>100011</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="12">
+      <c r="A12" s="5">
+        <v>100011.0</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="5">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="5">
-        <v>300021</v>
-      </c>
-      <c r="I12" s="5">
-        <v>300022</v>
-      </c>
-      <c r="J12" s="5">
-        <v>300023</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="H12" s="6">
+        <v>300021.0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>300022.0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>300023.0</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-      <c r="M12" s="5">
-        <v>3</v>
-      </c>
-      <c r="N12" s="5">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5">
-        <v>1</v>
-      </c>
-      <c r="P12" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>3</v>
-      </c>
-      <c r="R12" s="5">
-        <v>5</v>
-      </c>
-      <c r="S12" s="5" t="s">
+      <c r="L12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="T12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="U12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="V12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W12" s="4">
-        <v>1</v>
-      </c>
-      <c r="X12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-    </row>
-    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>100012</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="W12" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5">
+        <v>100012.0</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="5">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="5">
-        <v>300021</v>
-      </c>
-      <c r="I13" s="5">
-        <v>300022</v>
-      </c>
-      <c r="J13" s="5">
-        <v>300024</v>
-      </c>
-      <c r="K13" s="5" t="s">
+      <c r="H13" s="6">
+        <v>300021.0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>300022.0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>300024.0</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="5">
-        <v>2</v>
-      </c>
-      <c r="M13" s="5">
-        <v>3</v>
-      </c>
-      <c r="N13" s="5">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5">
-        <v>1</v>
-      </c>
-      <c r="P13" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>3</v>
-      </c>
-      <c r="R13" s="5">
-        <v>5</v>
-      </c>
-      <c r="S13" s="5" t="s">
+      <c r="L13" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="T13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="U13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="V13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="5">
         <v>1.5</v>
       </c>
-      <c r="X13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="5" t="s">
+      <c r="X13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AJ13" s="5"/>
-    </row>
-    <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>100013</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="AJ13" s="8"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5">
+        <v>100013.0</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="5">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="5">
-        <v>300021</v>
-      </c>
-      <c r="I14" s="5">
-        <v>300022</v>
-      </c>
-      <c r="J14" s="5">
-        <v>300025</v>
-      </c>
-      <c r="K14" s="5" t="s">
+      <c r="H14" s="6">
+        <v>300021.0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>300022.0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>300025.0</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="5">
-        <v>3</v>
-      </c>
-      <c r="M14" s="5">
-        <v>3</v>
-      </c>
-      <c r="N14" s="5">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5">
-        <v>1</v>
-      </c>
-      <c r="P14" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>3</v>
-      </c>
-      <c r="R14" s="5">
-        <v>5</v>
-      </c>
-      <c r="S14" s="5" t="s">
+      <c r="L14" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="S14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="T14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="U14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="V14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="5">
         <v>1.5</v>
       </c>
-      <c r="X14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="5" t="s">
+      <c r="X14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AJ14" s="5"/>
-    </row>
-    <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>100014</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="AJ14" s="8"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5">
+        <v>100014.0</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="5">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="5">
-        <v>300021</v>
-      </c>
-      <c r="I15" s="5">
-        <v>300022</v>
-      </c>
-      <c r="J15" s="5">
-        <v>300026</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="H15" s="6">
+        <v>300021.0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>300022.0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>300026.0</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="5">
-        <v>4</v>
-      </c>
-      <c r="M15" s="5">
-        <v>3</v>
-      </c>
-      <c r="N15" s="5">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5">
-        <v>1</v>
-      </c>
-      <c r="P15" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>3</v>
-      </c>
-      <c r="R15" s="5">
-        <v>5</v>
-      </c>
-      <c r="S15" s="5" t="s">
+      <c r="L15" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="S15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="T15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="U15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="V15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W15" s="4">
-        <v>2</v>
-      </c>
-      <c r="X15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="5" t="s">
+      <c r="W15" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AJ15" s="5"/>
-    </row>
-    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>100015</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="AJ15" s="8"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5">
+        <v>100015.0</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="5">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="5">
-        <v>300021</v>
-      </c>
-      <c r="I16" s="5">
-        <v>300022</v>
-      </c>
-      <c r="J16" s="5">
-        <v>300027</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="H16" s="6">
+        <v>300021.0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>300022.0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>300027.0</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="5">
-        <v>5</v>
-      </c>
-      <c r="M16" s="5">
-        <v>3</v>
-      </c>
-      <c r="N16" s="5">
-        <v>5</v>
-      </c>
-      <c r="O16" s="5">
-        <v>1</v>
-      </c>
-      <c r="P16" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>3</v>
-      </c>
-      <c r="R16" s="5">
-        <v>5</v>
-      </c>
-      <c r="S16" s="5" t="s">
+      <c r="L16" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="S16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="T16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="U16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="V16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16" s="5">
         <v>2.5</v>
       </c>
-      <c r="X16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="5" t="s">
+      <c r="X16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AJ16" s="5"/>
-    </row>
-    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>100016</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="AJ16" s="8"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9">
+        <v>100016.0</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="8">
-        <v>4</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="8">
-        <v>300031</v>
-      </c>
-      <c r="I17" s="8">
-        <v>300032</v>
-      </c>
-      <c r="J17" s="8">
-        <v>300033</v>
-      </c>
-      <c r="K17" s="8" t="s">
+      <c r="H17" s="10">
+        <v>300031.0</v>
+      </c>
+      <c r="I17" s="10">
+        <v>300032.0</v>
+      </c>
+      <c r="J17" s="10">
+        <v>300033.0</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="8">
-        <v>1</v>
-      </c>
-      <c r="M17" s="8">
-        <v>3</v>
-      </c>
-      <c r="N17" s="8">
-        <v>2</v>
-      </c>
-      <c r="O17" s="8">
-        <v>1</v>
-      </c>
-      <c r="P17" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>5</v>
-      </c>
-      <c r="R17" s="8">
-        <v>3</v>
-      </c>
-      <c r="S17" s="8" t="s">
+      <c r="L17" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="M17" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="N17" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="O17" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="R17" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="S17" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="T17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U17" s="7" t="s">
+      <c r="U17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="V17" s="7" t="s">
+      <c r="V17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="W17" s="7">
-        <v>1</v>
-      </c>
-      <c r="X17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="10"/>
-    </row>
-    <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>100017</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="W17" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="X17" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="12"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="9">
+        <v>100017.0</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="8">
-        <v>4</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="8">
-        <v>300031</v>
-      </c>
-      <c r="I18" s="8">
-        <v>300032</v>
-      </c>
-      <c r="J18" s="8">
-        <v>300034</v>
-      </c>
-      <c r="K18" s="8" t="s">
+      <c r="H18" s="10">
+        <v>300031.0</v>
+      </c>
+      <c r="I18" s="10">
+        <v>300032.0</v>
+      </c>
+      <c r="J18" s="10">
+        <v>300034.0</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="8">
-        <v>2</v>
-      </c>
-      <c r="M18" s="8">
-        <v>3</v>
-      </c>
-      <c r="N18" s="8">
-        <v>2</v>
-      </c>
-      <c r="O18" s="8">
-        <v>1</v>
-      </c>
-      <c r="P18" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>5</v>
-      </c>
-      <c r="R18" s="8">
-        <v>3</v>
-      </c>
-      <c r="S18" s="8" t="s">
+      <c r="L18" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="M18" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="N18" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="O18" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="P18" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="R18" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="T18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U18" s="7" t="s">
+      <c r="U18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="7" t="s">
+      <c r="V18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="9">
         <v>1.5</v>
       </c>
-      <c r="X18" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="8" t="s">
+      <c r="X18" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AJ18" s="12"/>
-    </row>
-    <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>100018</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="AJ18" s="14"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="9">
+        <v>100018.0</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="8">
-        <v>4</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="8">
-        <v>300031</v>
-      </c>
-      <c r="I19" s="8">
-        <v>300032</v>
-      </c>
-      <c r="J19" s="8">
-        <v>300035</v>
-      </c>
-      <c r="K19" s="8" t="s">
+      <c r="H19" s="10">
+        <v>300031.0</v>
+      </c>
+      <c r="I19" s="10">
+        <v>300032.0</v>
+      </c>
+      <c r="J19" s="10">
+        <v>300035.0</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="8">
-        <v>3</v>
-      </c>
-      <c r="M19" s="8">
-        <v>3</v>
-      </c>
-      <c r="N19" s="8">
-        <v>2</v>
-      </c>
-      <c r="O19" s="8">
-        <v>1</v>
-      </c>
-      <c r="P19" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>5</v>
-      </c>
-      <c r="R19" s="8">
-        <v>3</v>
-      </c>
-      <c r="S19" s="8" t="s">
+      <c r="L19" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="M19" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="N19" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="O19" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="R19" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="S19" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="T19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U19" s="7" t="s">
+      <c r="U19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="V19" s="7" t="s">
+      <c r="V19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="W19" s="7">
+      <c r="W19" s="9">
         <v>1.5</v>
       </c>
-      <c r="X19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="8" t="s">
+      <c r="X19" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AJ19" s="12"/>
-    </row>
-    <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>100019</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="AJ19" s="14"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9">
+        <v>100019.0</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="8">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="8">
-        <v>300031</v>
-      </c>
-      <c r="I20" s="8">
-        <v>300032</v>
-      </c>
-      <c r="J20" s="8">
-        <v>300036</v>
-      </c>
-      <c r="K20" s="8" t="s">
+      <c r="H20" s="10">
+        <v>300031.0</v>
+      </c>
+      <c r="I20" s="10">
+        <v>300032.0</v>
+      </c>
+      <c r="J20" s="10">
+        <v>300036.0</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="8">
-        <v>4</v>
-      </c>
-      <c r="M20" s="8">
-        <v>3</v>
-      </c>
-      <c r="N20" s="8">
-        <v>2</v>
-      </c>
-      <c r="O20" s="8">
-        <v>1</v>
-      </c>
-      <c r="P20" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>5</v>
-      </c>
-      <c r="R20" s="8">
-        <v>3</v>
-      </c>
-      <c r="S20" s="8" t="s">
+      <c r="L20" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="M20" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="N20" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="O20" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="P20" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="R20" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="S20" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="T20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U20" s="7" t="s">
+      <c r="U20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="V20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="W20" s="7">
-        <v>2</v>
-      </c>
-      <c r="X20" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="8" t="s">
+      <c r="W20" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="X20" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AJ20" s="12"/>
-    </row>
-    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>100020</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="AJ20" s="14"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="9">
+        <v>100020.0</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="8">
-        <v>4</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="8">
-        <v>300031</v>
-      </c>
-      <c r="I21" s="8">
-        <v>300032</v>
-      </c>
-      <c r="J21" s="8">
-        <v>300037</v>
-      </c>
-      <c r="K21" s="8" t="s">
+      <c r="H21" s="10">
+        <v>300031.0</v>
+      </c>
+      <c r="I21" s="10">
+        <v>300032.0</v>
+      </c>
+      <c r="J21" s="10">
+        <v>300037.0</v>
+      </c>
+      <c r="K21" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="8">
-        <v>5</v>
-      </c>
-      <c r="M21" s="8">
-        <v>3</v>
-      </c>
-      <c r="N21" s="8">
-        <v>4</v>
-      </c>
-      <c r="O21" s="8">
-        <v>1</v>
-      </c>
-      <c r="P21" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>5</v>
-      </c>
-      <c r="R21" s="8">
-        <v>3</v>
-      </c>
-      <c r="S21" s="8" t="s">
+      <c r="L21" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="M21" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="N21" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="O21" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="R21" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="S21" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="T21" s="7" t="s">
+      <c r="T21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U21" s="7" t="s">
+      <c r="U21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="V21" s="7" t="s">
+      <c r="V21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="W21" s="7">
+      <c r="W21" s="9">
         <v>2.5</v>
       </c>
-      <c r="X21" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="8" t="s">
+      <c r="X21" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AJ21" s="12"/>
-    </row>
-    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ21" s="14"/>
+    </row>
+    <row r="22">
       <c r="A22" s="3">
-        <v>100021</v>
+        <v>100021.0</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>36</v>
@@ -2851,41 +2824,41 @@
       <c r="F22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H22" s="1">
-        <v>300041</v>
+        <v>300041.0</v>
       </c>
       <c r="I22" s="1">
-        <v>300042</v>
+        <v>300042.0</v>
       </c>
       <c r="J22" s="1">
-        <v>300043</v>
+        <v>300043.0</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L22" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M22" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N22" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O22" s="1">
-        <v>1</v>
-      </c>
-      <c r="P22" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P22" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q22" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="R22" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>69</v>
@@ -2900,10 +2873,10 @@
         <v>44</v>
       </c>
       <c r="W22" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
@@ -2915,17 +2888,18 @@
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
     </row>
-    <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="3">
-        <v>100022</v>
+        <v>100022.0</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>36</v>
@@ -2936,41 +2910,41 @@
       <c r="F23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H23" s="1">
-        <v>300041</v>
+        <v>300041.0</v>
       </c>
       <c r="I23" s="1">
-        <v>300042</v>
+        <v>300042.0</v>
       </c>
       <c r="J23" s="1">
-        <v>300044</v>
+        <v>300044.0</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L23" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="M23" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N23" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O23" s="1">
-        <v>1</v>
-      </c>
-      <c r="P23" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P23" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q23" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="R23" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>69</v>
@@ -2988,7 +2962,7 @@
         <v>1.5</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
@@ -3000,17 +2974,18 @@
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
     </row>
-    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="3">
-        <v>100023</v>
+        <v>100023.0</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>36</v>
@@ -3021,41 +2996,41 @@
       <c r="F24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H24" s="1">
-        <v>300041</v>
+        <v>300041.0</v>
       </c>
       <c r="I24" s="1">
-        <v>300042</v>
+        <v>300042.0</v>
       </c>
       <c r="J24" s="1">
-        <v>300045</v>
+        <v>300045.0</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L24" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="M24" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N24" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O24" s="1">
-        <v>2</v>
-      </c>
-      <c r="P24" s="13">
-        <v>1</v>
+        <v>2.0</v>
+      </c>
+      <c r="P24" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q24" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="R24" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>69</v>
@@ -3073,7 +3048,7 @@
         <v>1.5</v>
       </c>
       <c r="X24" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
@@ -3085,17 +3060,18 @@
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
     </row>
-    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="3">
-        <v>100024</v>
+        <v>100024.0</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>36</v>
@@ -3106,41 +3082,41 @@
       <c r="F25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H25" s="1">
-        <v>300041</v>
+        <v>300041.0</v>
       </c>
       <c r="I25" s="1">
-        <v>300042</v>
+        <v>300042.0</v>
       </c>
       <c r="J25" s="1">
-        <v>300046</v>
+        <v>300046.0</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L25" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="M25" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N25" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O25" s="1">
-        <v>2</v>
-      </c>
-      <c r="P25" s="13">
-        <v>1</v>
+        <v>2.0</v>
+      </c>
+      <c r="P25" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q25" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="R25" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>69</v>
@@ -3155,10 +3131,10 @@
         <v>44</v>
       </c>
       <c r="W25" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="X25" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
@@ -3170,17 +3146,18 @@
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
     </row>
-    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="3">
-        <v>100025</v>
+        <v>100025.0</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>36</v>
@@ -3191,41 +3168,41 @@
       <c r="F26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H26" s="1">
-        <v>300041</v>
+        <v>300041.0</v>
       </c>
       <c r="I26" s="1">
-        <v>300042</v>
+        <v>300042.0</v>
       </c>
       <c r="J26" s="1">
-        <v>300047</v>
+        <v>300047.0</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L26" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="M26" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N26" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O26" s="1">
-        <v>3</v>
-      </c>
-      <c r="P26" s="13">
-        <v>1</v>
+        <v>3.0</v>
+      </c>
+      <c r="P26" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q26" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="R26" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>69</v>
@@ -3243,7 +3220,7 @@
         <v>2.5</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
@@ -3255,17 +3232,18 @@
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
     </row>
-    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="3">
-        <v>100026</v>
+        <v>100026.0</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C27" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>36</v>
@@ -3276,41 +3254,41 @@
       <c r="F27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H27" s="1">
-        <v>300051</v>
+        <v>300051.0</v>
       </c>
       <c r="I27" s="1">
-        <v>300052</v>
+        <v>300052.0</v>
       </c>
       <c r="J27" s="1">
-        <v>300053</v>
+        <v>300053.0</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L27" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M27" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N27" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O27" s="1">
-        <v>1</v>
-      </c>
-      <c r="P27" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P27" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q27" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="R27" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>72</v>
@@ -3325,10 +3303,10 @@
         <v>44</v>
       </c>
       <c r="W27" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
@@ -3340,17 +3318,18 @@
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
     </row>
-    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="3">
-        <v>100027</v>
+        <v>100027.0</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>36</v>
@@ -3361,41 +3340,41 @@
       <c r="F28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H28" s="1">
-        <v>300051</v>
+        <v>300051.0</v>
       </c>
       <c r="I28" s="1">
-        <v>300052</v>
+        <v>300052.0</v>
       </c>
       <c r="J28" s="1">
-        <v>300054</v>
+        <v>300054.0</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L28" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="M28" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N28" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O28" s="1">
-        <v>1</v>
-      </c>
-      <c r="P28" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P28" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q28" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="R28" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>72</v>
@@ -3413,7 +3392,7 @@
         <v>1.5</v>
       </c>
       <c r="X28" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
@@ -3425,17 +3404,18 @@
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
     </row>
-    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="3">
-        <v>100028</v>
+        <v>100028.0</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C29" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>36</v>
@@ -3446,41 +3426,41 @@
       <c r="F29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H29" s="1">
-        <v>300051</v>
+        <v>300051.0</v>
       </c>
       <c r="I29" s="1">
-        <v>300052</v>
+        <v>300052.0</v>
       </c>
       <c r="J29" s="1">
-        <v>300055</v>
+        <v>300055.0</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L29" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="M29" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N29" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="O29" s="1">
-        <v>1</v>
-      </c>
-      <c r="P29" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P29" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q29" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="R29" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>72</v>
@@ -3498,7 +3478,7 @@
         <v>1.5</v>
       </c>
       <c r="X29" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
@@ -3510,17 +3490,18 @@
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
     </row>
-    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="3">
-        <v>100029</v>
+        <v>100029.0</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>36</v>
@@ -3531,41 +3512,41 @@
       <c r="F30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H30" s="1">
-        <v>300051</v>
+        <v>300051.0</v>
       </c>
       <c r="I30" s="1">
-        <v>300052</v>
+        <v>300052.0</v>
       </c>
       <c r="J30" s="1">
-        <v>300056</v>
+        <v>300056.0</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L30" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="M30" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N30" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="O30" s="1">
-        <v>1</v>
-      </c>
-      <c r="P30" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P30" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q30" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="R30" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>72</v>
@@ -3580,10 +3561,10 @@
         <v>44</v>
       </c>
       <c r="W30" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="X30" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
@@ -3595,17 +3576,18 @@
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
     </row>
-    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="3">
-        <v>100030</v>
+        <v>100030.0</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>36</v>
@@ -3616,41 +3598,41 @@
       <c r="F31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H31" s="1">
-        <v>300051</v>
+        <v>300051.0</v>
       </c>
       <c r="I31" s="1">
-        <v>300052</v>
+        <v>300052.0</v>
       </c>
       <c r="J31" s="1">
-        <v>300057</v>
+        <v>300057.0</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L31" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="M31" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N31" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="O31" s="1">
-        <v>1</v>
-      </c>
-      <c r="P31" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P31" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q31" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="R31" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>72</v>
@@ -3668,7 +3650,7 @@
         <v>2.5</v>
       </c>
       <c r="X31" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
@@ -3680,17 +3662,18 @@
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
     </row>
-    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="3">
-        <v>100031</v>
+        <v>100031.0</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>36</v>
@@ -3701,41 +3684,41 @@
       <c r="F32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H32" s="1">
-        <v>300061</v>
+        <v>300061.0</v>
       </c>
       <c r="I32" s="1">
-        <v>300061</v>
+        <v>300061.0</v>
       </c>
       <c r="J32" s="1">
-        <v>300061</v>
+        <v>300061.0</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L32" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M32" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N32" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O32" s="1">
-        <v>1</v>
-      </c>
-      <c r="P32" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P32" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q32" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="R32" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>75</v>
@@ -3750,10 +3733,10 @@
         <v>44</v>
       </c>
       <c r="W32" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
@@ -3765,17 +3748,18 @@
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
     </row>
-    <row r="33" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" s="3">
-        <v>100032</v>
+        <v>100032.0</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>36</v>
@@ -3786,41 +3770,41 @@
       <c r="F33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H33" s="1">
-        <v>300061</v>
+        <v>300061.0</v>
       </c>
       <c r="I33" s="1">
-        <v>300061</v>
+        <v>300061.0</v>
       </c>
       <c r="J33" s="1">
-        <v>300061</v>
+        <v>300061.0</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L33" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="M33" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N33" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O33" s="1">
-        <v>1</v>
-      </c>
-      <c r="P33" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P33" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q33" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="R33" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>75</v>
@@ -3838,7 +3822,7 @@
         <v>1.5</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
@@ -3850,17 +3834,18 @@
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
     </row>
-    <row r="34" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="3">
-        <v>100033</v>
+        <v>100033.0</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>36</v>
@@ -3871,41 +3856,41 @@
       <c r="F34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H34" s="1">
-        <v>300061</v>
+        <v>300061.0</v>
       </c>
       <c r="I34" s="1">
-        <v>300061</v>
+        <v>300061.0</v>
       </c>
       <c r="J34" s="1">
-        <v>300061</v>
+        <v>300061.0</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L34" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="M34" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N34" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="O34" s="1">
-        <v>2</v>
-      </c>
-      <c r="P34" s="13">
-        <v>1</v>
+        <v>2.0</v>
+      </c>
+      <c r="P34" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q34" s="1">
         <v>3.5</v>
       </c>
       <c r="R34" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>75</v>
@@ -3923,7 +3908,7 @@
         <v>1.5</v>
       </c>
       <c r="X34" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
@@ -3935,17 +3920,18 @@
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
     </row>
-    <row r="35" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="3">
-        <v>100034</v>
+        <v>100034.0</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>36</v>
@@ -3956,41 +3942,41 @@
       <c r="F35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H35" s="1">
-        <v>300061</v>
+        <v>300061.0</v>
       </c>
       <c r="I35" s="1">
-        <v>300061</v>
+        <v>300061.0</v>
       </c>
       <c r="J35" s="1">
-        <v>300061</v>
+        <v>300061.0</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L35" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="M35" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N35" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="O35" s="1">
-        <v>2</v>
-      </c>
-      <c r="P35" s="13">
-        <v>1</v>
+        <v>2.0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q35" s="1">
         <v>3.5</v>
       </c>
       <c r="R35" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>75</v>
@@ -4005,10 +3991,10 @@
         <v>44</v>
       </c>
       <c r="W35" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
@@ -4020,17 +4006,18 @@
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
     </row>
-    <row r="36" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" s="3">
-        <v>100035</v>
+        <v>100035.0</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C36" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>36</v>
@@ -4041,41 +4028,41 @@
       <c r="F36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H36" s="1">
-        <v>300061</v>
+        <v>300061.0</v>
       </c>
       <c r="I36" s="1">
-        <v>300061</v>
+        <v>300061.0</v>
       </c>
       <c r="J36" s="1">
-        <v>300061</v>
+        <v>300061.0</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L36" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="M36" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N36" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="O36" s="1">
-        <v>3</v>
-      </c>
-      <c r="P36" s="13">
-        <v>1</v>
+        <v>3.0</v>
+      </c>
+      <c r="P36" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q36" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="R36" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>75</v>
@@ -4093,7 +4080,7 @@
         <v>2.5</v>
       </c>
       <c r="X36" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
@@ -4105,17 +4092,18 @@
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
     </row>
-    <row r="37" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="3">
-        <v>100036</v>
+        <v>100036.0</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>36</v>
@@ -4126,41 +4114,41 @@
       <c r="F37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H37" s="1">
-        <v>300071</v>
+        <v>300071.0</v>
       </c>
       <c r="I37" s="1">
-        <v>300072</v>
+        <v>300072.0</v>
       </c>
       <c r="J37" s="1">
-        <v>300073</v>
+        <v>300073.0</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L37" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M37" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N37" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O37" s="1">
-        <v>1</v>
-      </c>
-      <c r="P37" s="13">
-        <v>4</v>
+        <v>1.0</v>
+      </c>
+      <c r="P37" s="15">
+        <v>4.0</v>
       </c>
       <c r="Q37" s="1">
         <v>1.2</v>
       </c>
       <c r="R37" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>78</v>
@@ -4178,7 +4166,7 @@
         <v>0.4</v>
       </c>
       <c r="X37" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
@@ -4190,17 +4178,18 @@
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
     </row>
-    <row r="38" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="3">
-        <v>100037</v>
+        <v>100037.0</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C38" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>36</v>
@@ -4211,41 +4200,41 @@
       <c r="F38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H38" s="1">
-        <v>300071</v>
+        <v>300071.0</v>
       </c>
       <c r="I38" s="1">
-        <v>300072</v>
+        <v>300072.0</v>
       </c>
       <c r="J38" s="1">
-        <v>300074</v>
+        <v>300074.0</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L38" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="M38" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N38" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O38" s="1">
-        <v>1</v>
-      </c>
-      <c r="P38" s="13">
-        <v>4</v>
+        <v>1.0</v>
+      </c>
+      <c r="P38" s="15">
+        <v>4.0</v>
       </c>
       <c r="Q38" s="1">
         <v>1.2</v>
       </c>
       <c r="R38" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>78</v>
@@ -4263,7 +4252,7 @@
         <v>0.4</v>
       </c>
       <c r="X38" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
@@ -4275,17 +4264,18 @@
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
       <c r="AJ38" s="2"/>
     </row>
-    <row r="39" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="3">
-        <v>100038</v>
+        <v>100038.0</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C39" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>36</v>
@@ -4296,41 +4286,41 @@
       <c r="F39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H39" s="1">
-        <v>300071</v>
+        <v>300071.0</v>
       </c>
       <c r="I39" s="1">
-        <v>300072</v>
+        <v>300072.0</v>
       </c>
       <c r="J39" s="1">
-        <v>300075</v>
+        <v>300075.0</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L39" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="M39" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N39" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="O39" s="1">
-        <v>1</v>
-      </c>
-      <c r="P39" s="13">
-        <v>5</v>
+        <v>1.0</v>
+      </c>
+      <c r="P39" s="15">
+        <v>5.0</v>
       </c>
       <c r="Q39" s="1">
         <v>1.6</v>
       </c>
       <c r="R39" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>78</v>
@@ -4348,7 +4338,7 @@
         <v>0.4</v>
       </c>
       <c r="X39" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
@@ -4360,17 +4350,18 @@
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
       <c r="AJ39" s="2"/>
     </row>
-    <row r="40" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="3">
-        <v>100039</v>
+        <v>100039.0</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>36</v>
@@ -4381,41 +4372,41 @@
       <c r="F40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H40" s="1">
-        <v>300071</v>
+        <v>300071.0</v>
       </c>
       <c r="I40" s="1">
-        <v>300072</v>
+        <v>300072.0</v>
       </c>
       <c r="J40" s="1">
-        <v>300076</v>
+        <v>300076.0</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L40" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="M40" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N40" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="O40" s="1">
-        <v>1</v>
-      </c>
-      <c r="P40" s="13">
-        <v>5</v>
+        <v>1.0</v>
+      </c>
+      <c r="P40" s="15">
+        <v>5.0</v>
       </c>
       <c r="Q40" s="1">
         <v>1.6</v>
       </c>
       <c r="R40" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>78</v>
@@ -4433,7 +4424,7 @@
         <v>0.4</v>
       </c>
       <c r="X40" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
@@ -4445,17 +4436,18 @@
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
     </row>
-    <row r="41" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="3">
-        <v>100040</v>
+        <v>100040.0</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>36</v>
@@ -4466,41 +4458,41 @@
       <c r="F41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H41" s="1">
-        <v>300071</v>
+        <v>300071.0</v>
       </c>
       <c r="I41" s="1">
-        <v>300072</v>
+        <v>300072.0</v>
       </c>
       <c r="J41" s="1">
-        <v>300077</v>
+        <v>300077.0</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L41" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="M41" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N41" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="O41" s="1">
-        <v>1</v>
-      </c>
-      <c r="P41" s="13">
-        <v>6</v>
+        <v>1.0</v>
+      </c>
+      <c r="P41" s="15">
+        <v>6.0</v>
       </c>
       <c r="Q41" s="1">
         <v>1.5</v>
       </c>
       <c r="R41" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>78</v>
@@ -4518,7 +4510,7 @@
         <v>0.4</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
@@ -4530,17 +4522,18 @@
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
     </row>
-    <row r="42" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42" s="3">
-        <v>100041</v>
+        <v>100041.0</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C42" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>36</v>
@@ -4551,41 +4544,41 @@
       <c r="F42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H42" s="1">
-        <v>300081</v>
+        <v>300081.0</v>
       </c>
       <c r="I42" s="1">
-        <v>300082</v>
+        <v>300082.0</v>
       </c>
       <c r="J42" s="1">
-        <v>300083</v>
+        <v>300083.0</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L42" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M42" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N42" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="O42" s="1">
-        <v>3</v>
-      </c>
-      <c r="P42" s="13">
-        <v>10</v>
+        <v>3.0</v>
+      </c>
+      <c r="P42" s="15">
+        <v>10.0</v>
       </c>
       <c r="Q42" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="R42" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>81</v>
@@ -4600,10 +4593,10 @@
         <v>44</v>
       </c>
       <c r="W42" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X42" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
@@ -4615,17 +4608,18 @@
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
       <c r="AJ42" s="2"/>
     </row>
-    <row r="43" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43" s="3">
-        <v>100042</v>
+        <v>100042.0</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C43" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>36</v>
@@ -4636,41 +4630,41 @@
       <c r="F43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H43" s="1">
-        <v>300081</v>
+        <v>300081.0</v>
       </c>
       <c r="I43" s="1">
-        <v>300082</v>
+        <v>300082.0</v>
       </c>
       <c r="J43" s="1">
-        <v>300084</v>
+        <v>300084.0</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L43" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="M43" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N43" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O43" s="1">
-        <v>1</v>
-      </c>
-      <c r="P43" s="13">
-        <v>4</v>
+        <v>1.0</v>
+      </c>
+      <c r="P43" s="15">
+        <v>4.0</v>
       </c>
       <c r="Q43" s="1">
         <v>1.2</v>
       </c>
       <c r="R43" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S43" s="1" t="s">
         <v>81</v>
@@ -4688,7 +4682,7 @@
         <v>1.5</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
@@ -4700,17 +4694,18 @@
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
     </row>
-    <row r="44" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44" s="3">
-        <v>100043</v>
+        <v>100043.0</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C44" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>36</v>
@@ -4721,41 +4716,41 @@
       <c r="F44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H44" s="1">
-        <v>300081</v>
+        <v>300081.0</v>
       </c>
       <c r="I44" s="1">
-        <v>300082</v>
+        <v>300082.0</v>
       </c>
       <c r="J44" s="1">
-        <v>300085</v>
+        <v>300085.0</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L44" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="M44" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N44" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="O44" s="1">
-        <v>1</v>
-      </c>
-      <c r="P44" s="13">
-        <v>5</v>
+        <v>1.0</v>
+      </c>
+      <c r="P44" s="15">
+        <v>5.0</v>
       </c>
       <c r="Q44" s="1">
         <v>1.6</v>
       </c>
       <c r="R44" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>81</v>
@@ -4773,7 +4768,7 @@
         <v>1.5</v>
       </c>
       <c r="X44" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
@@ -4785,17 +4780,18 @@
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
     </row>
-    <row r="45" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45">
       <c r="A45" s="3">
-        <v>100044</v>
+        <v>100044.0</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C45" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>36</v>
@@ -4806,41 +4802,41 @@
       <c r="F45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H45" s="1">
-        <v>300081</v>
+        <v>300081.0</v>
       </c>
       <c r="I45" s="1">
-        <v>300082</v>
+        <v>300082.0</v>
       </c>
       <c r="J45" s="1">
-        <v>300086</v>
+        <v>300086.0</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L45" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="M45" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N45" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="O45" s="1">
-        <v>1</v>
-      </c>
-      <c r="P45" s="13">
-        <v>5</v>
+        <v>1.0</v>
+      </c>
+      <c r="P45" s="15">
+        <v>5.0</v>
       </c>
       <c r="Q45" s="1">
         <v>1.6</v>
       </c>
       <c r="R45" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>81</v>
@@ -4855,10 +4851,10 @@
         <v>44</v>
       </c>
       <c r="W45" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
@@ -4870,17 +4866,18 @@
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
       <c r="AJ45" s="2"/>
     </row>
-    <row r="46" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46">
       <c r="A46" s="3">
-        <v>100045</v>
+        <v>100045.0</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C46" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>36</v>
@@ -4891,41 +4888,41 @@
       <c r="F46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H46" s="1">
-        <v>300081</v>
+        <v>300081.0</v>
       </c>
       <c r="I46" s="1">
-        <v>300082</v>
+        <v>300082.0</v>
       </c>
       <c r="J46" s="1">
-        <v>300087</v>
+        <v>300087.0</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L46" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="M46" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N46" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="O46" s="1">
-        <v>1</v>
-      </c>
-      <c r="P46" s="13">
-        <v>6</v>
+        <v>1.0</v>
+      </c>
+      <c r="P46" s="15">
+        <v>6.0</v>
       </c>
       <c r="Q46" s="1">
         <v>1.5</v>
       </c>
       <c r="R46" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>81</v>
@@ -4943,7 +4940,7 @@
         <v>2.5</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
@@ -4955,17 +4952,18 @@
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
       <c r="AJ46" s="2"/>
     </row>
-    <row r="47" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47">
       <c r="A47" s="3">
-        <v>100046</v>
+        <v>100046.0</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C47" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>36</v>
@@ -4976,41 +4974,41 @@
       <c r="F47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H47" s="1">
-        <v>300091</v>
+        <v>300091.0</v>
       </c>
       <c r="I47" s="1">
-        <v>300092</v>
+        <v>300092.0</v>
       </c>
       <c r="J47" s="1">
-        <v>300093</v>
+        <v>300093.0</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L47" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M47" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N47" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O47" s="1">
-        <v>1</v>
-      </c>
-      <c r="P47" s="13">
-        <v>4</v>
+        <v>1.0</v>
+      </c>
+      <c r="P47" s="15">
+        <v>4.0</v>
       </c>
       <c r="Q47" s="1">
         <v>0.3</v>
       </c>
       <c r="R47" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>84</v>
@@ -5025,10 +5023,10 @@
         <v>44</v>
       </c>
       <c r="W47" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X47" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
@@ -5040,17 +5038,18 @@
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
       <c r="AJ47" s="2"/>
     </row>
-    <row r="48" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48">
       <c r="A48" s="3">
-        <v>100047</v>
+        <v>100047.0</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C48" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>36</v>
@@ -5061,41 +5060,41 @@
       <c r="F48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H48" s="1">
-        <v>300091</v>
+        <v>300091.0</v>
       </c>
       <c r="I48" s="1">
-        <v>300092</v>
+        <v>300092.0</v>
       </c>
       <c r="J48" s="1">
-        <v>300094</v>
+        <v>300094.0</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L48" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="M48" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N48" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="O48" s="1">
-        <v>1</v>
-      </c>
-      <c r="P48" s="13">
-        <v>4</v>
+        <v>1.0</v>
+      </c>
+      <c r="P48" s="15">
+        <v>4.0</v>
       </c>
       <c r="Q48" s="1">
         <v>0.3</v>
       </c>
       <c r="R48" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>84</v>
@@ -5113,7 +5112,7 @@
         <v>1.5</v>
       </c>
       <c r="X48" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
@@ -5125,17 +5124,18 @@
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
     </row>
-    <row r="49" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49">
       <c r="A49" s="3">
-        <v>100048</v>
+        <v>100048.0</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C49" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>36</v>
@@ -5146,41 +5146,41 @@
       <c r="F49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H49" s="1">
-        <v>300091</v>
+        <v>300091.0</v>
       </c>
       <c r="I49" s="1">
-        <v>300092</v>
+        <v>300092.0</v>
       </c>
       <c r="J49" s="1">
-        <v>300095</v>
+        <v>300095.0</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L49" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="M49" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N49" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="O49" s="1">
-        <v>1</v>
-      </c>
-      <c r="P49" s="13">
-        <v>5</v>
+        <v>1.0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>5.0</v>
       </c>
       <c r="Q49" s="1">
         <v>0.3</v>
       </c>
       <c r="R49" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>84</v>
@@ -5198,7 +5198,7 @@
         <v>1.5</v>
       </c>
       <c r="X49" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
@@ -5210,17 +5210,18 @@
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
     </row>
-    <row r="50" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50">
       <c r="A50" s="3">
-        <v>100049</v>
+        <v>100049.0</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>36</v>
@@ -5231,41 +5232,41 @@
       <c r="F50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H50" s="1">
-        <v>300091</v>
+        <v>300091.0</v>
       </c>
       <c r="I50" s="1">
-        <v>300092</v>
+        <v>300092.0</v>
       </c>
       <c r="J50" s="1">
-        <v>300096</v>
+        <v>300096.0</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L50" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="M50" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N50" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="O50" s="1">
-        <v>1</v>
-      </c>
-      <c r="P50" s="13">
-        <v>5</v>
+        <v>1.0</v>
+      </c>
+      <c r="P50" s="15">
+        <v>5.0</v>
       </c>
       <c r="Q50" s="1">
         <v>0.3</v>
       </c>
       <c r="R50" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S50" s="1" t="s">
         <v>84</v>
@@ -5280,10 +5281,10 @@
         <v>44</v>
       </c>
       <c r="W50" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="X50" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
@@ -5295,17 +5296,18 @@
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
+      <c r="AI50" s="2"/>
       <c r="AJ50" s="2"/>
     </row>
-    <row r="51" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51">
       <c r="A51" s="3">
-        <v>100050</v>
+        <v>100050.0</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C51" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>36</v>
@@ -5316,41 +5318,41 @@
       <c r="F51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H51" s="1">
-        <v>300091</v>
+        <v>300091.0</v>
       </c>
       <c r="I51" s="1">
-        <v>300092</v>
+        <v>300092.0</v>
       </c>
       <c r="J51" s="1">
-        <v>300097</v>
+        <v>300097.0</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L51" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="M51" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N51" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="O51" s="1">
-        <v>1</v>
-      </c>
-      <c r="P51" s="13">
-        <v>6</v>
+        <v>1.0</v>
+      </c>
+      <c r="P51" s="15">
+        <v>6.0</v>
       </c>
       <c r="Q51" s="1">
         <v>0.3</v>
       </c>
       <c r="R51" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>84</v>
@@ -5368,7 +5370,7 @@
         <v>2.5</v>
       </c>
       <c r="X51" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
@@ -5380,17 +5382,18 @@
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
       <c r="AJ51" s="2"/>
     </row>
-    <row r="52" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52">
       <c r="A52" s="3">
-        <v>100051</v>
+        <v>100051.0</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C52" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>36</v>
@@ -5401,41 +5404,41 @@
       <c r="F52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H52" s="1">
-        <v>300101</v>
+        <v>300101.0</v>
       </c>
       <c r="I52" s="1">
-        <v>300102</v>
+        <v>300102.0</v>
       </c>
       <c r="J52" s="1">
-        <v>300103</v>
+        <v>300103.0</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L52" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M52" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="N52" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O52" s="1">
-        <v>1</v>
-      </c>
-      <c r="P52" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P52" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q52" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="R52" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>87</v>
@@ -5450,10 +5453,10 @@
         <v>44</v>
       </c>
       <c r="W52" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X52" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
@@ -5465,17 +5468,18 @@
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
+      <c r="AI52" s="2"/>
       <c r="AJ52" s="2"/>
     </row>
-    <row r="53" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53">
       <c r="A53" s="3">
-        <v>100052</v>
+        <v>100052.0</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C53" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>36</v>
@@ -5486,41 +5490,41 @@
       <c r="F53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H53" s="1">
-        <v>300101</v>
+        <v>300101.0</v>
       </c>
       <c r="I53" s="1">
-        <v>300102</v>
+        <v>300102.0</v>
       </c>
       <c r="J53" s="1">
-        <v>300104</v>
+        <v>300104.0</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L53" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="M53" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N53" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O53" s="1">
-        <v>2</v>
-      </c>
-      <c r="P53" s="13">
-        <v>1</v>
+        <v>2.0</v>
+      </c>
+      <c r="P53" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q53" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="R53" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>87</v>
@@ -5535,10 +5539,10 @@
         <v>44</v>
       </c>
       <c r="W53" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X53" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
@@ -5550,17 +5554,18 @@
       <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
       <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
       <c r="AJ53" s="2"/>
     </row>
-    <row r="54" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54">
       <c r="A54" s="3">
-        <v>100053</v>
+        <v>100053.0</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C54" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>36</v>
@@ -5571,41 +5576,41 @@
       <c r="F54" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H54" s="1">
-        <v>300101</v>
+        <v>300101.0</v>
       </c>
       <c r="I54" s="1">
-        <v>300102</v>
+        <v>300102.0</v>
       </c>
       <c r="J54" s="1">
-        <v>300105</v>
+        <v>300105.0</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L54" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="M54" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="N54" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O54" s="1">
-        <v>3</v>
-      </c>
-      <c r="P54" s="13">
-        <v>1</v>
+        <v>3.0</v>
+      </c>
+      <c r="P54" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q54" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="R54" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>87</v>
@@ -5620,10 +5625,10 @@
         <v>44</v>
       </c>
       <c r="W54" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X54" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
@@ -5635,17 +5640,18 @@
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
       <c r="AJ54" s="2"/>
     </row>
-    <row r="55" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55">
       <c r="A55" s="3">
-        <v>100054</v>
+        <v>100054.0</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C55" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>36</v>
@@ -5656,41 +5662,41 @@
       <c r="F55" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H55" s="1">
-        <v>300101</v>
+        <v>300101.0</v>
       </c>
       <c r="I55" s="1">
-        <v>300102</v>
+        <v>300102.0</v>
       </c>
       <c r="J55" s="1">
-        <v>300106</v>
+        <v>300106.0</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L55" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="M55" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="N55" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O55" s="1">
-        <v>4</v>
-      </c>
-      <c r="P55" s="13">
-        <v>1</v>
+        <v>4.0</v>
+      </c>
+      <c r="P55" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q55" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="R55" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>87</v>
@@ -5705,10 +5711,10 @@
         <v>44</v>
       </c>
       <c r="W55" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X55" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
@@ -5720,17 +5726,18 @@
       <c r="AF55" s="2"/>
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
       <c r="AJ55" s="2"/>
     </row>
-    <row r="56" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56">
       <c r="A56" s="3">
-        <v>100055</v>
+        <v>100055.0</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C56" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>36</v>
@@ -5741,41 +5748,41 @@
       <c r="F56" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H56" s="1">
-        <v>300101</v>
+        <v>300101.0</v>
       </c>
       <c r="I56" s="1">
-        <v>300102</v>
+        <v>300102.0</v>
       </c>
       <c r="J56" s="1">
-        <v>300107</v>
+        <v>300107.0</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L56" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="M56" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="N56" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O56" s="1">
-        <v>4</v>
-      </c>
-      <c r="P56" s="13">
-        <v>1</v>
+        <v>4.0</v>
+      </c>
+      <c r="P56" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q56" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="R56" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>87</v>
@@ -5790,10 +5797,10 @@
         <v>44</v>
       </c>
       <c r="W56" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="X56" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
@@ -5805,17 +5812,18 @@
       <c r="AF56" s="2"/>
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
+      <c r="AI56" s="2"/>
       <c r="AJ56" s="2"/>
     </row>
-    <row r="57" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57">
       <c r="A57" s="3">
-        <v>100056</v>
+        <v>100056.0</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C57" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>36</v>
@@ -5826,41 +5834,41 @@
       <c r="F57" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H57" s="1">
-        <v>300111</v>
+        <v>300111.0</v>
       </c>
       <c r="I57" s="1">
-        <v>300112</v>
+        <v>300112.0</v>
       </c>
       <c r="J57" s="1">
-        <v>300113</v>
+        <v>300113.0</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L57" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M57" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="N57" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O57" s="1">
-        <v>1</v>
-      </c>
-      <c r="P57" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P57" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q57" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="R57" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>90</v>
@@ -5875,10 +5883,10 @@
         <v>44</v>
       </c>
       <c r="W57" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
@@ -5890,17 +5898,18 @@
       <c r="AF57" s="2"/>
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
+      <c r="AI57" s="2"/>
       <c r="AJ57" s="2"/>
     </row>
-    <row r="58" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58">
       <c r="A58" s="3">
-        <v>100057</v>
+        <v>100057.0</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C58" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>36</v>
@@ -5911,41 +5920,41 @@
       <c r="F58" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H58" s="1">
-        <v>300111</v>
+        <v>300111.0</v>
       </c>
       <c r="I58" s="1">
-        <v>300112</v>
+        <v>300112.0</v>
       </c>
       <c r="J58" s="1">
-        <v>300114</v>
+        <v>300114.0</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L58" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="M58" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="N58" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O58" s="1">
-        <v>1</v>
-      </c>
-      <c r="P58" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P58" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q58" s="1">
         <v>3.5</v>
       </c>
       <c r="R58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S58" s="1" t="s">
         <v>90</v>
@@ -5960,10 +5969,10 @@
         <v>44</v>
       </c>
       <c r="W58" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X58" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
@@ -5975,17 +5984,18 @@
       <c r="AF58" s="2"/>
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
+      <c r="AI58" s="2"/>
       <c r="AJ58" s="2"/>
     </row>
-    <row r="59" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59">
       <c r="A59" s="3">
-        <v>100058</v>
+        <v>100058.0</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C59" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>36</v>
@@ -5996,41 +6006,41 @@
       <c r="F59" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H59" s="1">
-        <v>300111</v>
+        <v>300111.0</v>
       </c>
       <c r="I59" s="1">
-        <v>300112</v>
+        <v>300112.0</v>
       </c>
       <c r="J59" s="1">
-        <v>300115</v>
+        <v>300115.0</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L59" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="M59" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="N59" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O59" s="1">
-        <v>2</v>
-      </c>
-      <c r="P59" s="13">
-        <v>1</v>
+        <v>2.0</v>
+      </c>
+      <c r="P59" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q59" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="R59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>90</v>
@@ -6045,10 +6055,10 @@
         <v>44</v>
       </c>
       <c r="W59" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X59" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
@@ -6060,17 +6070,18 @@
       <c r="AF59" s="2"/>
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
+      <c r="AI59" s="2"/>
       <c r="AJ59" s="2"/>
     </row>
-    <row r="60" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60">
       <c r="A60" s="3">
-        <v>100059</v>
+        <v>100059.0</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C60" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>36</v>
@@ -6081,41 +6092,41 @@
       <c r="F60" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H60" s="1">
-        <v>300111</v>
+        <v>300111.0</v>
       </c>
       <c r="I60" s="1">
-        <v>300112</v>
+        <v>300112.0</v>
       </c>
       <c r="J60" s="1">
-        <v>300116</v>
+        <v>300116.0</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L60" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="M60" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="N60" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O60" s="1">
-        <v>2</v>
-      </c>
-      <c r="P60" s="13">
-        <v>1</v>
+        <v>2.0</v>
+      </c>
+      <c r="P60" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q60" s="1">
         <v>6.5</v>
       </c>
       <c r="R60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S60" s="1" t="s">
         <v>90</v>
@@ -6130,10 +6141,10 @@
         <v>44</v>
       </c>
       <c r="W60" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X60" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
@@ -6145,17 +6156,18 @@
       <c r="AF60" s="2"/>
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
+      <c r="AI60" s="2"/>
       <c r="AJ60" s="2"/>
     </row>
-    <row r="61" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61">
       <c r="A61" s="3">
-        <v>100060</v>
+        <v>100060.0</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C61" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>36</v>
@@ -6166,41 +6178,41 @@
       <c r="F61" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H61" s="1">
-        <v>300111</v>
+        <v>300111.0</v>
       </c>
       <c r="I61" s="1">
-        <v>300112</v>
+        <v>300112.0</v>
       </c>
       <c r="J61" s="1">
-        <v>300117</v>
+        <v>300117.0</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L61" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="M61" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="N61" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O61" s="1">
-        <v>3</v>
-      </c>
-      <c r="P61" s="13">
-        <v>1</v>
+        <v>3.0</v>
+      </c>
+      <c r="P61" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q61" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="R61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S61" s="1" t="s">
         <v>90</v>
@@ -6215,10 +6227,10 @@
         <v>44</v>
       </c>
       <c r="W61" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
@@ -6230,17 +6242,18 @@
       <c r="AF61" s="2"/>
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
+      <c r="AI61" s="2"/>
       <c r="AJ61" s="2"/>
     </row>
-    <row r="62" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62">
       <c r="A62" s="3">
-        <v>100061</v>
+        <v>100061.0</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C62" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>36</v>
@@ -6251,41 +6264,41 @@
       <c r="F62" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H62" s="1">
-        <v>300121</v>
+        <v>300121.0</v>
       </c>
       <c r="I62" s="1">
-        <v>300122</v>
+        <v>300122.0</v>
       </c>
       <c r="J62" s="1">
-        <v>300123</v>
+        <v>300123.0</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L62" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M62" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="N62" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O62" s="1">
-        <v>1</v>
-      </c>
-      <c r="P62" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P62" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q62" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="R62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S62" s="1" t="s">
         <v>93</v>
@@ -6300,10 +6313,10 @@
         <v>44</v>
       </c>
       <c r="W62" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X62" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
@@ -6315,17 +6328,18 @@
       <c r="AF62" s="2"/>
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
+      <c r="AI62" s="2"/>
       <c r="AJ62" s="2"/>
     </row>
-    <row r="63" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63">
       <c r="A63" s="3">
-        <v>100062</v>
+        <v>100062.0</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C63" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>36</v>
@@ -6336,41 +6350,41 @@
       <c r="F63" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H63" s="1">
-        <v>300121</v>
+        <v>300121.0</v>
       </c>
       <c r="I63" s="1">
-        <v>300122</v>
+        <v>300122.0</v>
       </c>
       <c r="J63" s="1">
-        <v>300124</v>
+        <v>300124.0</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L63" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="M63" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="N63" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O63" s="1">
-        <v>1</v>
-      </c>
-      <c r="P63" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P63" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q63" s="1">
         <v>3.5</v>
       </c>
       <c r="R63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>93</v>
@@ -6385,10 +6399,10 @@
         <v>44</v>
       </c>
       <c r="W63" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X63" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
@@ -6400,17 +6414,18 @@
       <c r="AF63" s="2"/>
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
+      <c r="AI63" s="2"/>
       <c r="AJ63" s="2"/>
     </row>
-    <row r="64" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64">
       <c r="A64" s="3">
-        <v>100063</v>
+        <v>100063.0</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C64" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>36</v>
@@ -6421,41 +6436,41 @@
       <c r="F64" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H64" s="1">
-        <v>300121</v>
+        <v>300121.0</v>
       </c>
       <c r="I64" s="1">
-        <v>300122</v>
+        <v>300122.0</v>
       </c>
       <c r="J64" s="1">
-        <v>300125</v>
+        <v>300125.0</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L64" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="M64" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N64" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O64" s="1">
-        <v>2</v>
-      </c>
-      <c r="P64" s="13">
-        <v>1</v>
+        <v>2.0</v>
+      </c>
+      <c r="P64" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q64" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="R64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S64" s="1" t="s">
         <v>93</v>
@@ -6470,10 +6485,10 @@
         <v>44</v>
       </c>
       <c r="W64" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X64" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
@@ -6485,17 +6500,18 @@
       <c r="AF64" s="2"/>
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
+      <c r="AI64" s="2"/>
       <c r="AJ64" s="2"/>
     </row>
-    <row r="65" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65">
       <c r="A65" s="3">
-        <v>100064</v>
+        <v>100064.0</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C65" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>36</v>
@@ -6506,41 +6522,41 @@
       <c r="F65" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H65" s="1">
-        <v>300121</v>
+        <v>300121.0</v>
       </c>
       <c r="I65" s="1">
-        <v>300122</v>
+        <v>300122.0</v>
       </c>
       <c r="J65" s="1">
-        <v>300126</v>
+        <v>300126.0</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L65" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="M65" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="N65" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O65" s="1">
-        <v>2</v>
-      </c>
-      <c r="P65" s="13">
-        <v>1</v>
+        <v>2.0</v>
+      </c>
+      <c r="P65" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q65" s="1">
         <v>6.5</v>
       </c>
       <c r="R65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>93</v>
@@ -6555,10 +6571,10 @@
         <v>44</v>
       </c>
       <c r="W65" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X65" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
@@ -6570,17 +6586,18 @@
       <c r="AF65" s="2"/>
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
+      <c r="AI65" s="2"/>
       <c r="AJ65" s="2"/>
     </row>
-    <row r="66" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66">
       <c r="A66" s="3">
-        <v>100065</v>
+        <v>100065.0</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C66" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>36</v>
@@ -6591,41 +6608,41 @@
       <c r="F66" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H66" s="1">
-        <v>300121</v>
+        <v>300121.0</v>
       </c>
       <c r="I66" s="1">
-        <v>300122</v>
+        <v>300122.0</v>
       </c>
       <c r="J66" s="1">
-        <v>300127</v>
+        <v>300127.0</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L66" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="M66" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="N66" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O66" s="1">
-        <v>3</v>
-      </c>
-      <c r="P66" s="13">
-        <v>1</v>
+        <v>3.0</v>
+      </c>
+      <c r="P66" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q66" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="R66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S66" s="1" t="s">
         <v>93</v>
@@ -6640,10 +6657,10 @@
         <v>44</v>
       </c>
       <c r="W66" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="X66" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
@@ -6655,17 +6672,18 @@
       <c r="AF66" s="2"/>
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
+      <c r="AI66" s="2"/>
       <c r="AJ66" s="2"/>
     </row>
-    <row r="67" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67">
       <c r="A67" s="3">
-        <v>100066</v>
+        <v>100066.0</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C67" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>36</v>
@@ -6676,41 +6694,41 @@
       <c r="F67" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H67" s="1">
-        <v>300131</v>
+        <v>300131.0</v>
       </c>
       <c r="I67" s="1">
-        <v>300132</v>
+        <v>300132.0</v>
       </c>
       <c r="J67" s="1">
-        <v>300133</v>
+        <v>300133.0</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L67" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M67" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="N67" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O67" s="1">
-        <v>2</v>
-      </c>
-      <c r="P67" s="13">
-        <v>1</v>
+        <v>2.0</v>
+      </c>
+      <c r="P67" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q67" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="R67" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>96</v>
@@ -6725,10 +6743,10 @@
         <v>44</v>
       </c>
       <c r="W67" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X67" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
@@ -6740,17 +6758,18 @@
       <c r="AF67" s="2"/>
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
+      <c r="AI67" s="2"/>
       <c r="AJ67" s="2"/>
     </row>
-    <row r="68" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68">
       <c r="A68" s="3">
-        <v>100067</v>
+        <v>100067.0</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C68" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>36</v>
@@ -6761,41 +6780,41 @@
       <c r="F68" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H68" s="1">
-        <v>300131</v>
+        <v>300131.0</v>
       </c>
       <c r="I68" s="1">
-        <v>300132</v>
+        <v>300132.0</v>
       </c>
       <c r="J68" s="1">
-        <v>300134</v>
+        <v>300134.0</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L68" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="M68" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="N68" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O68" s="1">
-        <v>4</v>
-      </c>
-      <c r="P68" s="13">
-        <v>1</v>
+        <v>4.0</v>
+      </c>
+      <c r="P68" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q68" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="R68" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="S68" s="1" t="s">
         <v>96</v>
@@ -6810,10 +6829,10 @@
         <v>44</v>
       </c>
       <c r="W68" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X68" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
@@ -6825,17 +6844,18 @@
       <c r="AF68" s="2"/>
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
+      <c r="AI68" s="2"/>
       <c r="AJ68" s="2"/>
     </row>
-    <row r="69" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69">
       <c r="A69" s="3">
-        <v>100068</v>
+        <v>100068.0</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C69" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>36</v>
@@ -6846,41 +6866,41 @@
       <c r="F69" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H69" s="1">
-        <v>300131</v>
+        <v>300131.0</v>
       </c>
       <c r="I69" s="1">
-        <v>300132</v>
+        <v>300132.0</v>
       </c>
       <c r="J69" s="1">
-        <v>300135</v>
+        <v>300135.0</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L69" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="M69" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="N69" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O69" s="1">
-        <v>6</v>
-      </c>
-      <c r="P69" s="13">
-        <v>1</v>
+        <v>6.0</v>
+      </c>
+      <c r="P69" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q69" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="R69" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="S69" s="1" t="s">
         <v>96</v>
@@ -6895,10 +6915,10 @@
         <v>44</v>
       </c>
       <c r="W69" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X69" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
@@ -6910,17 +6930,18 @@
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
+      <c r="AI69" s="2"/>
       <c r="AJ69" s="2"/>
     </row>
-    <row r="70" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70">
       <c r="A70" s="3">
-        <v>100069</v>
+        <v>100069.0</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C70" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>36</v>
@@ -6931,41 +6952,41 @@
       <c r="F70" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H70" s="1">
-        <v>300131</v>
+        <v>300131.0</v>
       </c>
       <c r="I70" s="1">
-        <v>300132</v>
+        <v>300132.0</v>
       </c>
       <c r="J70" s="1">
-        <v>300136</v>
+        <v>300136.0</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L70" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="M70" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="N70" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O70" s="1">
-        <v>8</v>
-      </c>
-      <c r="P70" s="13">
-        <v>1</v>
+        <v>8.0</v>
+      </c>
+      <c r="P70" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q70" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="R70" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="S70" s="1" t="s">
         <v>96</v>
@@ -6980,10 +7001,10 @@
         <v>44</v>
       </c>
       <c r="W70" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X70" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
@@ -6995,17 +7016,18 @@
       <c r="AF70" s="2"/>
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
+      <c r="AI70" s="2"/>
       <c r="AJ70" s="2"/>
     </row>
-    <row r="71" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71">
       <c r="A71" s="3">
-        <v>100070</v>
+        <v>100070.0</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C71" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>36</v>
@@ -7016,41 +7038,41 @@
       <c r="F71" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H71" s="1">
-        <v>300131</v>
+        <v>300131.0</v>
       </c>
       <c r="I71" s="1">
-        <v>300132</v>
+        <v>300132.0</v>
       </c>
       <c r="J71" s="1">
-        <v>300137</v>
+        <v>300137.0</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L71" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="M71" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="N71" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O71" s="1">
-        <v>8</v>
-      </c>
-      <c r="P71" s="13">
-        <v>1</v>
+        <v>8.0</v>
+      </c>
+      <c r="P71" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q71" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="R71" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="S71" s="1" t="s">
         <v>96</v>
@@ -7065,10 +7087,10 @@
         <v>44</v>
       </c>
       <c r="W71" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="X71" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
@@ -7080,17 +7102,18 @@
       <c r="AF71" s="2"/>
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
+      <c r="AI71" s="2"/>
       <c r="AJ71" s="2"/>
     </row>
-    <row r="72" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72">
       <c r="A72" s="3">
-        <v>100071</v>
+        <v>100071.0</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C72" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>36</v>
@@ -7101,41 +7124,41 @@
       <c r="F72" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H72" s="1">
-        <v>300141</v>
+        <v>300141.0</v>
       </c>
       <c r="I72" s="1">
-        <v>300142</v>
+        <v>300142.0</v>
       </c>
       <c r="J72" s="1">
-        <v>300143</v>
+        <v>300143.0</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L72" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M72" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N72" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O72" s="1">
-        <v>1</v>
-      </c>
-      <c r="P72" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P72" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q72" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="R72" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="S72" s="1" t="s">
         <v>99</v>
@@ -7150,10 +7173,10 @@
         <v>44</v>
       </c>
       <c r="W72" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X72" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
@@ -7165,17 +7188,18 @@
       <c r="AF72" s="2"/>
       <c r="AG72" s="2"/>
       <c r="AH72" s="2"/>
+      <c r="AI72" s="2"/>
       <c r="AJ72" s="2"/>
     </row>
-    <row r="73" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73">
       <c r="A73" s="3">
-        <v>100072</v>
+        <v>100072.0</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C73" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>36</v>
@@ -7186,41 +7210,41 @@
       <c r="F73" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H73" s="1">
-        <v>300141</v>
+        <v>300141.0</v>
       </c>
       <c r="I73" s="1">
-        <v>300142</v>
+        <v>300142.0</v>
       </c>
       <c r="J73" s="1">
-        <v>300144</v>
+        <v>300144.0</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L73" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="M73" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N73" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O73" s="1">
-        <v>1</v>
-      </c>
-      <c r="P73" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P73" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q73" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="R73" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="S73" s="1" t="s">
         <v>99</v>
@@ -7235,10 +7259,10 @@
         <v>44</v>
       </c>
       <c r="W73" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="X73" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
@@ -7250,17 +7274,18 @@
       <c r="AF73" s="2"/>
       <c r="AG73" s="2"/>
       <c r="AH73" s="2"/>
+      <c r="AI73" s="2"/>
       <c r="AJ73" s="2"/>
     </row>
-    <row r="74" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74">
       <c r="A74" s="3">
-        <v>100073</v>
+        <v>100073.0</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C74" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>36</v>
@@ -7271,41 +7296,41 @@
       <c r="F74" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H74" s="1">
-        <v>300141</v>
+        <v>300141.0</v>
       </c>
       <c r="I74" s="1">
-        <v>300142</v>
+        <v>300142.0</v>
       </c>
       <c r="J74" s="1">
-        <v>300145</v>
+        <v>300145.0</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L74" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="M74" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N74" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O74" s="1">
-        <v>1</v>
-      </c>
-      <c r="P74" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P74" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q74" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="R74" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="S74" s="1" t="s">
         <v>99</v>
@@ -7320,10 +7345,10 @@
         <v>44</v>
       </c>
       <c r="W74" s="3">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="X74" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
@@ -7335,17 +7360,18 @@
       <c r="AF74" s="2"/>
       <c r="AG74" s="2"/>
       <c r="AH74" s="2"/>
+      <c r="AI74" s="2"/>
       <c r="AJ74" s="2"/>
     </row>
-    <row r="75" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75">
       <c r="A75" s="3">
-        <v>100074</v>
+        <v>100074.0</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C75" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>36</v>
@@ -7356,41 +7382,41 @@
       <c r="F75" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H75" s="1">
-        <v>300141</v>
+        <v>300141.0</v>
       </c>
       <c r="I75" s="1">
-        <v>300142</v>
+        <v>300142.0</v>
       </c>
       <c r="J75" s="1">
-        <v>300146</v>
+        <v>300146.0</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L75" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="M75" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N75" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O75" s="1">
-        <v>1</v>
-      </c>
-      <c r="P75" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P75" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q75" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="R75" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="S75" s="1" t="s">
         <v>99</v>
@@ -7405,10 +7431,10 @@
         <v>44</v>
       </c>
       <c r="W75" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="X75" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
@@ -7420,17 +7446,18 @@
       <c r="AF75" s="2"/>
       <c r="AG75" s="2"/>
       <c r="AH75" s="2"/>
+      <c r="AI75" s="2"/>
       <c r="AJ75" s="2"/>
     </row>
-    <row r="76" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76">
       <c r="A76" s="3">
-        <v>100075</v>
+        <v>100075.0</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C76" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>36</v>
@@ -7441,41 +7468,41 @@
       <c r="F76" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H76" s="1">
-        <v>300141</v>
+        <v>300141.0</v>
       </c>
       <c r="I76" s="1">
-        <v>300142</v>
+        <v>300142.0</v>
       </c>
       <c r="J76" s="1">
-        <v>300147</v>
+        <v>300147.0</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L76" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="M76" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N76" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O76" s="1">
-        <v>1</v>
-      </c>
-      <c r="P76" s="13">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="P76" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q76" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="R76" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="S76" s="1" t="s">
         <v>99</v>
@@ -7490,10 +7517,10 @@
         <v>44</v>
       </c>
       <c r="W76" s="3">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="X76" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
@@ -7505,454 +7532,556 @@
       <c r="AF76" s="2"/>
       <c r="AG76" s="2"/>
       <c r="AH76" s="2"/>
+      <c r="AI76" s="2"/>
       <c r="AJ76" s="2"/>
     </row>
-    <row r="77" spans="1:36" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="20">
-        <v>100076</v>
-      </c>
-      <c r="B77" s="20" t="s">
+    <row r="77">
+      <c r="A77" s="16">
+        <v>100076.0</v>
+      </c>
+      <c r="B77" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="21">
-        <v>16</v>
-      </c>
-      <c r="D77" s="21" t="s">
+      <c r="C77" s="17">
+        <v>16.0</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E77" s="21" t="s">
+      <c r="E77" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F77" s="21" t="s">
+      <c r="F77" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G77" s="22" t="s">
+      <c r="G77" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H77" s="21">
-        <v>300151</v>
-      </c>
-      <c r="I77" s="21">
-        <v>300152</v>
-      </c>
-      <c r="J77" s="21">
-        <v>300153</v>
-      </c>
-      <c r="K77" s="21" t="s">
+      <c r="H77" s="17">
+        <v>300151.0</v>
+      </c>
+      <c r="I77" s="17">
+        <v>300152.0</v>
+      </c>
+      <c r="J77" s="17">
+        <v>300153.0</v>
+      </c>
+      <c r="K77" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="L77" s="21">
-        <v>1</v>
-      </c>
-      <c r="M77" s="21">
-        <v>5</v>
-      </c>
-      <c r="N77" s="21">
-        <v>1</v>
-      </c>
-      <c r="O77" s="21">
-        <v>1</v>
-      </c>
-      <c r="P77" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="21">
-        <v>7</v>
-      </c>
-      <c r="R77" s="21">
+      <c r="L77" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="M77" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="N77" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="O77" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="P77" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="Q77" s="17">
+        <v>7.0</v>
+      </c>
+      <c r="R77" s="17">
         <v>9.5</v>
       </c>
-      <c r="S77" s="21" t="s">
+      <c r="S77" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="T77" s="20" t="s">
+      <c r="T77" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="U77" s="20" t="s">
+      <c r="U77" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="V77" s="20" t="s">
+      <c r="V77" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="W77" s="20">
-        <v>1</v>
-      </c>
-      <c r="X77" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y77" s="24"/>
-      <c r="Z77" s="24"/>
-      <c r="AA77" s="24"/>
-      <c r="AB77" s="24"/>
-      <c r="AC77" s="24"/>
-      <c r="AD77" s="24"/>
-      <c r="AE77" s="24"/>
-      <c r="AF77" s="24"/>
-      <c r="AG77" s="24"/>
-      <c r="AH77" s="24"/>
-      <c r="AJ77" s="24"/>
-    </row>
-    <row r="78" spans="1:36" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="20">
-        <v>100077</v>
-      </c>
-      <c r="B78" s="20" t="s">
+      <c r="W77" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="X77" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="Y77" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z77" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA77" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB77" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="AC77" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AD77" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE77" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF77" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG77" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AH77" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AI77" s="20"/>
+      <c r="AJ77" s="2"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="16">
+        <v>100077.0</v>
+      </c>
+      <c r="B78" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C78" s="21">
-        <v>16</v>
-      </c>
-      <c r="D78" s="21" t="s">
+      <c r="C78" s="17">
+        <v>16.0</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E78" s="21" t="s">
+      <c r="E78" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F78" s="21" t="s">
+      <c r="F78" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G78" s="22" t="s">
+      <c r="G78" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H78" s="21">
-        <v>300151</v>
-      </c>
-      <c r="I78" s="21">
-        <v>300152</v>
-      </c>
-      <c r="J78" s="21">
-        <v>300154</v>
-      </c>
-      <c r="K78" s="21" t="s">
+      <c r="H78" s="17">
+        <v>300151.0</v>
+      </c>
+      <c r="I78" s="17">
+        <v>300152.0</v>
+      </c>
+      <c r="J78" s="17">
+        <v>300154.0</v>
+      </c>
+      <c r="K78" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="L78" s="21">
-        <v>2</v>
-      </c>
-      <c r="M78" s="21">
-        <v>5</v>
-      </c>
-      <c r="N78" s="21">
-        <v>1</v>
-      </c>
-      <c r="O78" s="21">
-        <v>1</v>
-      </c>
-      <c r="P78" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="21">
-        <v>12</v>
-      </c>
-      <c r="R78" s="21">
+      <c r="L78" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="M78" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="N78" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="O78" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="P78" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="Q78" s="17">
+        <v>12.0</v>
+      </c>
+      <c r="R78" s="17">
         <v>14.5</v>
       </c>
-      <c r="S78" s="21" t="s">
+      <c r="S78" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="T78" s="20" t="s">
+      <c r="T78" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="U78" s="20" t="s">
+      <c r="U78" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="V78" s="20" t="s">
+      <c r="V78" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="W78" s="20">
-        <v>2</v>
-      </c>
-      <c r="X78" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y78" s="24"/>
-      <c r="Z78" s="24"/>
-      <c r="AA78" s="24"/>
-      <c r="AB78" s="24"/>
-      <c r="AC78" s="24"/>
-      <c r="AD78" s="24"/>
-      <c r="AE78" s="24"/>
-      <c r="AF78" s="24"/>
-      <c r="AG78" s="24"/>
-      <c r="AH78" s="24"/>
-      <c r="AI78" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ78" s="24"/>
-    </row>
-    <row r="79" spans="1:36" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="20">
-        <v>100078</v>
-      </c>
-      <c r="B79" s="20" t="s">
+      <c r="W78" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="X78" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="Y78" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z78" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA78" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB78" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="AC78" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AD78" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE78" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF78" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG78" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AH78" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AI78" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="16">
+        <v>100078.0</v>
+      </c>
+      <c r="B79" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="21">
-        <v>16</v>
-      </c>
-      <c r="D79" s="21" t="s">
+      <c r="C79" s="17">
+        <v>16.0</v>
+      </c>
+      <c r="D79" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E79" s="21" t="s">
+      <c r="E79" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F79" s="21" t="s">
+      <c r="F79" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G79" s="22" t="s">
+      <c r="G79" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H79" s="21">
-        <v>300151</v>
-      </c>
-      <c r="I79" s="21">
-        <v>300152</v>
-      </c>
-      <c r="J79" s="21">
-        <v>300155</v>
-      </c>
-      <c r="K79" s="21" t="s">
+      <c r="H79" s="17">
+        <v>300151.0</v>
+      </c>
+      <c r="I79" s="17">
+        <v>300152.0</v>
+      </c>
+      <c r="J79" s="17">
+        <v>300155.0</v>
+      </c>
+      <c r="K79" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="L79" s="21">
-        <v>3</v>
-      </c>
-      <c r="M79" s="21">
-        <v>5</v>
-      </c>
-      <c r="N79" s="21">
-        <v>1</v>
-      </c>
-      <c r="O79" s="21">
-        <v>1</v>
-      </c>
-      <c r="P79" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="21">
-        <v>17</v>
-      </c>
-      <c r="R79" s="21">
+      <c r="L79" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="M79" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="N79" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="O79" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="P79" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="Q79" s="17">
+        <v>17.0</v>
+      </c>
+      <c r="R79" s="17">
         <v>19.5</v>
       </c>
-      <c r="S79" s="21" t="s">
+      <c r="S79" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="T79" s="20" t="s">
+      <c r="T79" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="U79" s="20" t="s">
+      <c r="U79" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="V79" s="20" t="s">
+      <c r="V79" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="W79" s="20">
-        <v>3</v>
-      </c>
-      <c r="X79" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y79" s="24"/>
-      <c r="Z79" s="24"/>
-      <c r="AA79" s="24"/>
-      <c r="AB79" s="24"/>
-      <c r="AC79" s="24"/>
-      <c r="AD79" s="24"/>
-      <c r="AE79" s="24"/>
-      <c r="AF79" s="24"/>
-      <c r="AG79" s="24"/>
-      <c r="AH79" s="24"/>
-      <c r="AI79" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ79" s="24"/>
-    </row>
-    <row r="80" spans="1:36" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="20">
-        <v>100079</v>
-      </c>
-      <c r="B80" s="20" t="s">
+      <c r="W79" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="X79" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="Y79" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z79" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA79" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB79" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="AC79" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AD79" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE79" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF79" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG79" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AH79" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AI79" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ79" s="2"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="16">
+        <v>100079.0</v>
+      </c>
+      <c r="B80" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C80" s="21">
-        <v>16</v>
-      </c>
-      <c r="D80" s="21" t="s">
+      <c r="C80" s="17">
+        <v>16.0</v>
+      </c>
+      <c r="D80" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E80" s="21" t="s">
+      <c r="E80" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F80" s="21" t="s">
+      <c r="F80" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G80" s="22" t="s">
+      <c r="G80" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H80" s="21">
-        <v>300151</v>
-      </c>
-      <c r="I80" s="21">
-        <v>300152</v>
-      </c>
-      <c r="J80" s="21">
-        <v>300156</v>
-      </c>
-      <c r="K80" s="21" t="s">
+      <c r="H80" s="17">
+        <v>300151.0</v>
+      </c>
+      <c r="I80" s="17">
+        <v>300152.0</v>
+      </c>
+      <c r="J80" s="17">
+        <v>300156.0</v>
+      </c>
+      <c r="K80" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="L80" s="21">
-        <v>4</v>
-      </c>
-      <c r="M80" s="21">
-        <v>5</v>
-      </c>
-      <c r="N80" s="21">
-        <v>1</v>
-      </c>
-      <c r="O80" s="21">
-        <v>1</v>
-      </c>
-      <c r="P80" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="21">
-        <v>22</v>
-      </c>
-      <c r="R80" s="21">
+      <c r="L80" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="M80" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="N80" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="O80" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="P80" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="Q80" s="17">
+        <v>22.0</v>
+      </c>
+      <c r="R80" s="17">
         <v>24.5</v>
       </c>
-      <c r="S80" s="21" t="s">
+      <c r="S80" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="T80" s="20" t="s">
+      <c r="T80" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="U80" s="20" t="s">
+      <c r="U80" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="V80" s="20" t="s">
+      <c r="V80" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="W80" s="20">
-        <v>4</v>
-      </c>
-      <c r="X80" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y80" s="24"/>
-      <c r="Z80" s="24"/>
-      <c r="AA80" s="24"/>
-      <c r="AB80" s="24"/>
-      <c r="AC80" s="24"/>
-      <c r="AD80" s="24"/>
-      <c r="AE80" s="24"/>
-      <c r="AF80" s="24"/>
-      <c r="AG80" s="24"/>
-      <c r="AH80" s="24"/>
-      <c r="AI80" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ80" s="24"/>
-    </row>
-    <row r="81" spans="1:36" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="20">
-        <v>100080</v>
-      </c>
-      <c r="B81" s="20" t="s">
+      <c r="W80" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="X80" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="Y80" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z80" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA80" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB80" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="AC80" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AD80" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE80" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF80" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG80" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AH80" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AI80" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ80" s="2"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="16">
+        <v>100080.0</v>
+      </c>
+      <c r="B81" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C81" s="21">
-        <v>16</v>
-      </c>
-      <c r="D81" s="21" t="s">
+      <c r="C81" s="17">
+        <v>16.0</v>
+      </c>
+      <c r="D81" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="21" t="s">
+      <c r="E81" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F81" s="21" t="s">
+      <c r="F81" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G81" s="22" t="s">
+      <c r="G81" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H81" s="21">
-        <v>300151</v>
-      </c>
-      <c r="I81" s="21">
-        <v>300152</v>
-      </c>
-      <c r="J81" s="21">
-        <v>300157</v>
-      </c>
-      <c r="K81" s="21" t="s">
+      <c r="H81" s="17">
+        <v>300151.0</v>
+      </c>
+      <c r="I81" s="17">
+        <v>300152.0</v>
+      </c>
+      <c r="J81" s="17">
+        <v>300157.0</v>
+      </c>
+      <c r="K81" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="L81" s="21">
-        <v>5</v>
-      </c>
-      <c r="M81" s="21">
-        <v>5</v>
-      </c>
-      <c r="N81" s="21">
-        <v>1</v>
-      </c>
-      <c r="O81" s="21">
-        <v>1</v>
-      </c>
-      <c r="P81" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="21">
-        <v>27</v>
-      </c>
-      <c r="R81" s="21">
+      <c r="L81" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="M81" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="N81" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="O81" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="P81" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="Q81" s="17">
+        <v>27.0</v>
+      </c>
+      <c r="R81" s="17">
         <v>29.5</v>
       </c>
-      <c r="S81" s="21" t="s">
+      <c r="S81" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="T81" s="20" t="s">
+      <c r="T81" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="U81" s="20" t="s">
+      <c r="U81" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="V81" s="20" t="s">
+      <c r="V81" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="W81" s="20">
-        <v>5</v>
-      </c>
-      <c r="X81" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="24"/>
-      <c r="Z81" s="24"/>
-      <c r="AA81" s="24"/>
-      <c r="AB81" s="24"/>
-      <c r="AC81" s="24"/>
-      <c r="AD81" s="24"/>
-      <c r="AE81" s="24"/>
-      <c r="AF81" s="24"/>
-      <c r="AG81" s="24"/>
-      <c r="AH81" s="24"/>
-      <c r="AI81" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ81" s="24"/>
-    </row>
-    <row r="82" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W81" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="X81" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="Y81" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z81" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA81" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB81" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="AC81" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AD81" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE81" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF81" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG81" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AH81" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AI81" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ81" s="2"/>
+    </row>
+    <row r="82">
       <c r="A82" s="3">
-        <v>100081</v>
+        <v>100081.0</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C82" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>36</v>
@@ -7963,44 +8092,44 @@
       <c r="F82" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H82" s="1">
-        <v>300161</v>
+        <v>300161.0</v>
       </c>
       <c r="I82" s="1">
-        <v>300162</v>
+        <v>300162.0</v>
       </c>
       <c r="J82" s="1">
-        <v>300163</v>
+        <v>300163.0</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L82" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M82" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N82" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O82" s="1">
-        <v>3</v>
-      </c>
-      <c r="P82" s="13">
-        <v>1</v>
+        <v>3.0</v>
+      </c>
+      <c r="P82" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q82" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="R82" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T82" s="3" t="s">
         <v>42</v>
@@ -8012,10 +8141,10 @@
         <v>44</v>
       </c>
       <c r="W82" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="X82" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
@@ -8027,17 +8156,18 @@
       <c r="AF82" s="2"/>
       <c r="AG82" s="2"/>
       <c r="AH82" s="2"/>
+      <c r="AI82" s="2"/>
       <c r="AJ82" s="2"/>
     </row>
-    <row r="83" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="83">
       <c r="A83" s="3">
-        <v>100082</v>
+        <v>100082.0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C83" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>36</v>
@@ -8048,44 +8178,44 @@
       <c r="F83" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H83" s="1">
-        <v>300161</v>
+        <v>300161.0</v>
       </c>
       <c r="I83" s="1">
-        <v>300162</v>
+        <v>300162.0</v>
       </c>
       <c r="J83" s="1">
-        <v>300164</v>
+        <v>300164.0</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L83" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="M83" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N83" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O83" s="1">
-        <v>4</v>
-      </c>
-      <c r="P83" s="13">
-        <v>1</v>
+        <v>4.0</v>
+      </c>
+      <c r="P83" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q83" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="R83" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>42</v>
@@ -8097,10 +8227,10 @@
         <v>44</v>
       </c>
       <c r="W83" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="X83" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
@@ -8112,17 +8242,18 @@
       <c r="AF83" s="2"/>
       <c r="AG83" s="2"/>
       <c r="AH83" s="2"/>
+      <c r="AI83" s="2"/>
       <c r="AJ83" s="2"/>
     </row>
-    <row r="84" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84">
       <c r="A84" s="3">
-        <v>100083</v>
+        <v>100083.0</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C84" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>36</v>
@@ -8133,44 +8264,44 @@
       <c r="F84" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H84" s="1">
-        <v>300161</v>
+        <v>300161.0</v>
       </c>
       <c r="I84" s="1">
-        <v>300162</v>
+        <v>300162.0</v>
       </c>
       <c r="J84" s="1">
-        <v>300165</v>
+        <v>300165.0</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L84" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="M84" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N84" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O84" s="1">
-        <v>5</v>
-      </c>
-      <c r="P84" s="13">
-        <v>1</v>
+        <v>5.0</v>
+      </c>
+      <c r="P84" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q84" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="R84" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T84" s="3" t="s">
         <v>42</v>
@@ -8182,10 +8313,10 @@
         <v>44</v>
       </c>
       <c r="W84" s="3">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="X84" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
@@ -8197,17 +8328,18 @@
       <c r="AF84" s="2"/>
       <c r="AG84" s="2"/>
       <c r="AH84" s="2"/>
+      <c r="AI84" s="2"/>
       <c r="AJ84" s="2"/>
     </row>
-    <row r="85" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="85">
       <c r="A85" s="3">
-        <v>100084</v>
+        <v>100084.0</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C85" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>36</v>
@@ -8218,44 +8350,44 @@
       <c r="F85" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G85" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H85" s="1">
-        <v>300161</v>
+        <v>300161.0</v>
       </c>
       <c r="I85" s="1">
-        <v>300162</v>
+        <v>300162.0</v>
       </c>
       <c r="J85" s="1">
-        <v>300166</v>
+        <v>300166.0</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L85" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="M85" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N85" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O85" s="1">
-        <v>6</v>
-      </c>
-      <c r="P85" s="13">
-        <v>1</v>
+        <v>6.0</v>
+      </c>
+      <c r="P85" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q85" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="R85" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T85" s="3" t="s">
         <v>42</v>
@@ -8267,10 +8399,10 @@
         <v>44</v>
       </c>
       <c r="W85" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="X85" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
@@ -8282,17 +8414,18 @@
       <c r="AF85" s="2"/>
       <c r="AG85" s="2"/>
       <c r="AH85" s="2"/>
+      <c r="AI85" s="2"/>
       <c r="AJ85" s="2"/>
     </row>
-    <row r="86" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="86">
       <c r="A86" s="3">
-        <v>100085</v>
+        <v>100085.0</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C86" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>36</v>
@@ -8303,44 +8436,44 @@
       <c r="F86" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="G86" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H86" s="1">
-        <v>300161</v>
+        <v>300161.0</v>
       </c>
       <c r="I86" s="1">
-        <v>300162</v>
+        <v>300162.0</v>
       </c>
       <c r="J86" s="1">
-        <v>300167</v>
+        <v>300167.0</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L86" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="M86" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="N86" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O86" s="1">
-        <v>7</v>
-      </c>
-      <c r="P86" s="13">
-        <v>1</v>
+        <v>7.0</v>
+      </c>
+      <c r="P86" s="15">
+        <v>1.0</v>
       </c>
       <c r="Q86" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="R86" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T86" s="3" t="s">
         <v>42</v>
@@ -8352,10 +8485,10 @@
         <v>44</v>
       </c>
       <c r="W86" s="3">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="X86" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
@@ -8367,56 +8500,58 @@
       <c r="AF86" s="2"/>
       <c r="AG86" s="2"/>
       <c r="AH86" s="2"/>
+      <c r="AI86" s="2"/>
       <c r="AJ86" s="2"/>
     </row>
-    <row r="87" spans="1:36" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" s="3">
-        <v>200001</v>
+        <v>200001.0</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C87" s="3">
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M87" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="N87" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="O87" s="3">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="P87" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q87" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R87" s="3">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="T87" s="3" t="s">
         <v>42</v>
@@ -8428,10 +8563,10 @@
         <v>44</v>
       </c>
       <c r="W87" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="X87" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
@@ -8447,259 +8582,254 @@
       <c r="AJ87" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1">
+      <c r="A1" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="14" t="s">
+    <row r="3">
+      <c r="A3" s="23" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="B3" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="B4" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="25" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="C5" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="B6" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="B7" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="25" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="C8" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="B9" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="B10" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="B11" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="B12" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="C13" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="B14" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="B15" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="B16" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="17" t="s">
+      <c r="B17" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+    <row r="18">
+      <c r="A18" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="17" t="s">
+      <c r="B18" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+    <row r="19">
+      <c r="A19" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="17" t="s">
+      <c r="B19" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+    <row r="20">
+      <c r="A20" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="17" t="s">
+      <c r="B20" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+    <row r="21">
+      <c r="A21" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="17" t="s">
+      <c r="B21" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unknown_Platypus/Table/SkillTable.xlsx
+++ b/Unknown_Platypus/Table/SkillTable.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F072EB-3BF8-4BF6-A728-BD1B3CB8236A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="테이블 설명" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="테이블 설명" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -324,9 +333,6 @@
   </si>
   <si>
     <t>cooltime</t>
-  </si>
-  <si>
-    <t>20001, 20016, 20031, 20016</t>
   </si>
   <si>
     <t>감마전류</t>
@@ -470,46 +476,94 @@
   <si>
     <t>효과 지속 시간 (초)</t>
   </si>
+  <si>
+    <r>
+      <t>20001, 20021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>, 20031, 200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>61</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -517,7 +571,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -551,7 +605,13 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
@@ -565,8 +625,10 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFB2B2B2"/>
       </right>
@@ -576,6 +638,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -590,111 +653,107 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -884,34 +943,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AJ87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="7" max="7" width="27.0"/>
-    <col customWidth="1" min="21" max="21" width="24.5"/>
-    <col customWidth="1" min="22" max="22" width="18.38"/>
-    <col customWidth="1" min="23" max="23" width="19.38"/>
-    <col customWidth="1" min="24" max="24" width="22.25"/>
-    <col customWidth="1" min="25" max="25" width="17.5"/>
-    <col customWidth="1" min="26" max="26" width="22.75"/>
-    <col customWidth="1" min="28" max="28" width="29.25"/>
-    <col customWidth="1" min="29" max="29" width="23.88"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" customWidth="1"/>
+    <col min="22" max="22" width="18.42578125" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" customWidth="1"/>
+    <col min="24" max="24" width="22.28515625" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" customWidth="1"/>
+    <col min="26" max="26" width="22.7109375" customWidth="1"/>
+    <col min="28" max="28" width="29.28515625" customWidth="1"/>
+    <col min="29" max="29" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,15 +1081,15 @@
       </c>
       <c r="AJ1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>100001.0</v>
+        <v>100001</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
@@ -1042,37 +1104,37 @@
         <v>39</v>
       </c>
       <c r="H2" s="1">
-        <v>300001.0</v>
+        <v>300001</v>
       </c>
       <c r="I2" s="1">
-        <v>300002.0</v>
+        <v>300002</v>
       </c>
       <c r="J2" s="1">
-        <v>300003.0</v>
+        <v>300003</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>41</v>
@@ -1087,10 +1149,10 @@
         <v>44</v>
       </c>
       <c r="W2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
@@ -1105,15 +1167,15 @@
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>100002.0</v>
+        <v>100002</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -1128,37 +1190,37 @@
         <v>39</v>
       </c>
       <c r="H3" s="1">
-        <v>300001.0</v>
+        <v>300001</v>
       </c>
       <c r="I3" s="1">
-        <v>300002.0</v>
+        <v>300002</v>
       </c>
       <c r="J3" s="1">
-        <v>300004.0</v>
+        <v>300004</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>41</v>
@@ -1176,7 +1238,7 @@
         <v>1.5</v>
       </c>
       <c r="X3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
@@ -1191,15 +1253,15 @@
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>100003.0</v>
+        <v>100003</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>36</v>
@@ -1214,37 +1276,37 @@
         <v>39</v>
       </c>
       <c r="H4" s="1">
-        <v>300001.0</v>
+        <v>300001</v>
       </c>
       <c r="I4" s="1">
-        <v>300002.0</v>
+        <v>300002</v>
       </c>
       <c r="J4" s="1">
-        <v>300005.0</v>
+        <v>300005</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>41</v>
@@ -1262,7 +1324,7 @@
         <v>1.5</v>
       </c>
       <c r="X4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
@@ -1277,15 +1339,15 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>100004.0</v>
+        <v>100004</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>36</v>
@@ -1300,37 +1362,37 @@
         <v>39</v>
       </c>
       <c r="H5" s="1">
-        <v>300001.0</v>
+        <v>300001</v>
       </c>
       <c r="I5" s="1">
-        <v>300002.0</v>
+        <v>300002</v>
       </c>
       <c r="J5" s="1">
-        <v>300006.0</v>
+        <v>300006</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>41</v>
@@ -1345,10 +1407,10 @@
         <v>44</v>
       </c>
       <c r="W5" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
@@ -1363,15 +1425,15 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>100005.0</v>
+        <v>100005</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>36</v>
@@ -1386,37 +1448,37 @@
         <v>39</v>
       </c>
       <c r="H6" s="1">
-        <v>300001.0</v>
+        <v>300001</v>
       </c>
       <c r="I6" s="1">
-        <v>300002.0</v>
+        <v>300002</v>
       </c>
       <c r="J6" s="1">
-        <v>300007.0</v>
+        <v>300007</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M6" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>41</v>
@@ -1434,7 +1496,7 @@
         <v>2.5</v>
       </c>
       <c r="X6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
@@ -1449,15 +1511,15 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>100006.0</v>
+        <v>100006</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>36</v>
@@ -1472,37 +1534,37 @@
         <v>49</v>
       </c>
       <c r="H7" s="1">
-        <v>300011.0</v>
+        <v>300011</v>
       </c>
       <c r="I7" s="1">
-        <v>300012.0</v>
+        <v>300012</v>
       </c>
       <c r="J7" s="1">
-        <v>300013.0</v>
+        <v>300013</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>51</v>
@@ -1517,10 +1579,10 @@
         <v>44</v>
       </c>
       <c r="W7" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>52</v>
@@ -1532,10 +1594,10 @@
         <v>54</v>
       </c>
       <c r="AB7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AC7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
@@ -1545,15 +1607,15 @@
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>100007.0</v>
+        <v>100007</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>36</v>
@@ -1568,37 +1630,37 @@
         <v>49</v>
       </c>
       <c r="H8" s="1">
-        <v>300011.0</v>
+        <v>300011</v>
       </c>
       <c r="I8" s="1">
-        <v>300012.0</v>
+        <v>300012</v>
       </c>
       <c r="J8" s="1">
-        <v>300014.0</v>
+        <v>300014</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>51</v>
@@ -1616,7 +1678,7 @@
         <v>1.5</v>
       </c>
       <c r="X8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>52</v>
@@ -1628,10 +1690,10 @@
         <v>54</v>
       </c>
       <c r="AB8" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AC8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -1641,15 +1703,15 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>100008.0</v>
+        <v>100008</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>36</v>
@@ -1664,37 +1726,37 @@
         <v>49</v>
       </c>
       <c r="H9" s="1">
-        <v>300011.0</v>
+        <v>300011</v>
       </c>
       <c r="I9" s="1">
-        <v>300012.0</v>
+        <v>300012</v>
       </c>
       <c r="J9" s="1">
-        <v>300015.0</v>
+        <v>300015</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>51</v>
@@ -1712,7 +1774,7 @@
         <v>1.5</v>
       </c>
       <c r="X9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="4" t="s">
         <v>52</v>
@@ -1724,10 +1786,10 @@
         <v>54</v>
       </c>
       <c r="AB9" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AC9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
@@ -1737,15 +1799,15 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>100009.0</v>
+        <v>100009</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
@@ -1760,37 +1822,37 @@
         <v>49</v>
       </c>
       <c r="H10" s="1">
-        <v>300011.0</v>
+        <v>300011</v>
       </c>
       <c r="I10" s="1">
-        <v>300012.0</v>
+        <v>300012</v>
       </c>
       <c r="J10" s="1">
-        <v>300016.0</v>
+        <v>300016</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L10" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M10" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R10" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>51</v>
@@ -1805,10 +1867,10 @@
         <v>44</v>
       </c>
       <c r="W10" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="4" t="s">
         <v>52</v>
@@ -1820,10 +1882,10 @@
         <v>54</v>
       </c>
       <c r="AB10" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AC10" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -1833,15 +1895,15 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>100010.0</v>
+        <v>100010</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>36</v>
@@ -1856,37 +1918,37 @@
         <v>49</v>
       </c>
       <c r="H11" s="1">
-        <v>300011.0</v>
+        <v>300011</v>
       </c>
       <c r="I11" s="1">
-        <v>300012.0</v>
+        <v>300012</v>
       </c>
       <c r="J11" s="1">
-        <v>300017.0</v>
+        <v>300017</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L11" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M11" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R11" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>51</v>
@@ -1904,7 +1966,7 @@
         <v>2.5</v>
       </c>
       <c r="X11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="4" t="s">
         <v>52</v>
@@ -1916,10 +1978,10 @@
         <v>54</v>
       </c>
       <c r="AB11" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AC11" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -1929,15 +1991,15 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>100011.0</v>
+        <v>100011</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>36</v>
@@ -1952,37 +2014,37 @@
         <v>39</v>
       </c>
       <c r="H12" s="6">
-        <v>300021.0</v>
+        <v>300021</v>
       </c>
       <c r="I12" s="6">
-        <v>300022.0</v>
+        <v>300022</v>
       </c>
       <c r="J12" s="6">
-        <v>300023.0</v>
+        <v>300023</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>60</v>
       </c>
       <c r="L12" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N12" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R12" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>61</v>
@@ -1997,10 +2059,10 @@
         <v>44</v>
       </c>
       <c r="W12" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
@@ -2015,15 +2077,15 @@
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>100012.0</v>
+        <v>100012</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>36</v>
@@ -2038,37 +2100,37 @@
         <v>39</v>
       </c>
       <c r="H13" s="6">
-        <v>300021.0</v>
+        <v>300021</v>
       </c>
       <c r="I13" s="6">
-        <v>300022.0</v>
+        <v>300022</v>
       </c>
       <c r="J13" s="6">
-        <v>300024.0</v>
+        <v>300024</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>60</v>
       </c>
       <c r="L13" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N13" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R13" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>61</v>
@@ -2086,7 +2148,7 @@
         <v>1.5</v>
       </c>
       <c r="X13" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
@@ -2101,17 +2163,17 @@
       <c r="AI13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AJ13" s="8"/>
-    </row>
-    <row r="14">
+      <c r="AJ13" s="6"/>
+    </row>
+    <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>100013.0</v>
+        <v>100013</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>36</v>
@@ -2126,37 +2188,37 @@
         <v>39</v>
       </c>
       <c r="H14" s="6">
-        <v>300021.0</v>
+        <v>300021</v>
       </c>
       <c r="I14" s="6">
-        <v>300022.0</v>
+        <v>300022</v>
       </c>
       <c r="J14" s="6">
-        <v>300025.0</v>
+        <v>300025</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
       <c r="L14" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M14" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N14" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R14" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>61</v>
@@ -2174,7 +2236,7 @@
         <v>1.5</v>
       </c>
       <c r="X14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
@@ -2189,17 +2251,17 @@
       <c r="AI14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AJ14" s="8"/>
-    </row>
-    <row r="15">
+      <c r="AJ14" s="6"/>
+    </row>
+    <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>100014.0</v>
+        <v>100014</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>36</v>
@@ -2214,37 +2276,37 @@
         <v>39</v>
       </c>
       <c r="H15" s="6">
-        <v>300021.0</v>
+        <v>300021</v>
       </c>
       <c r="I15" s="6">
-        <v>300022.0</v>
+        <v>300022</v>
       </c>
       <c r="J15" s="6">
-        <v>300026.0</v>
+        <v>300026</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>60</v>
       </c>
       <c r="L15" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M15" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N15" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R15" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>61</v>
@@ -2259,10 +2321,10 @@
         <v>44</v>
       </c>
       <c r="W15" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X15" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
@@ -2277,17 +2339,17 @@
       <c r="AI15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AJ15" s="8"/>
-    </row>
-    <row r="16">
+      <c r="AJ15" s="6"/>
+    </row>
+    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>100015.0</v>
+        <v>100015</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>36</v>
@@ -2302,37 +2364,37 @@
         <v>39</v>
       </c>
       <c r="H16" s="6">
-        <v>300021.0</v>
+        <v>300021</v>
       </c>
       <c r="I16" s="6">
-        <v>300022.0</v>
+        <v>300022</v>
       </c>
       <c r="J16" s="6">
-        <v>300027.0</v>
+        <v>300027</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>60</v>
       </c>
       <c r="L16" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M16" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N16" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O16" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R16" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>61</v>
@@ -2350,7 +2412,7 @@
         <v>2.5</v>
       </c>
       <c r="X16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
@@ -2365,455 +2427,455 @@
       <c r="AI16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AJ16" s="8"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9">
-        <v>100016.0</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="AJ16" s="6"/>
+    </row>
+    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>100016</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="9">
+        <v>4</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="10">
-        <v>300031.0</v>
-      </c>
-      <c r="I17" s="10">
-        <v>300032.0</v>
-      </c>
-      <c r="J17" s="10">
-        <v>300033.0</v>
-      </c>
-      <c r="K17" s="10" t="s">
+      <c r="H17" s="9">
+        <v>300031</v>
+      </c>
+      <c r="I17" s="9">
+        <v>300032</v>
+      </c>
+      <c r="J17" s="9">
+        <v>300033</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M17" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="N17" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="O17" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="P17" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="R17" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="S17" s="10" t="s">
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9">
+        <v>3</v>
+      </c>
+      <c r="N17" s="9">
+        <v>2</v>
+      </c>
+      <c r="O17" s="9">
+        <v>1</v>
+      </c>
+      <c r="P17" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>5</v>
+      </c>
+      <c r="R17" s="9">
+        <v>3</v>
+      </c>
+      <c r="S17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="T17" s="9" t="s">
+      <c r="T17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="U17" s="9" t="s">
+      <c r="U17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="V17" s="9" t="s">
+      <c r="V17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="W17" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="X17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="12"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9">
-        <v>100017.0</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="W17" s="8">
+        <v>1</v>
+      </c>
+      <c r="X17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="11"/>
+    </row>
+    <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>100017</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="9">
+        <v>4</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="10">
-        <v>300031.0</v>
-      </c>
-      <c r="I18" s="10">
-        <v>300032.0</v>
-      </c>
-      <c r="J18" s="10">
-        <v>300034.0</v>
-      </c>
-      <c r="K18" s="10" t="s">
+      <c r="H18" s="9">
+        <v>300031</v>
+      </c>
+      <c r="I18" s="9">
+        <v>300032</v>
+      </c>
+      <c r="J18" s="9">
+        <v>300034</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="M18" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="N18" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="O18" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="P18" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="R18" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="S18" s="10" t="s">
+      <c r="L18" s="9">
+        <v>2</v>
+      </c>
+      <c r="M18" s="9">
+        <v>3</v>
+      </c>
+      <c r="N18" s="9">
+        <v>2</v>
+      </c>
+      <c r="O18" s="9">
+        <v>1</v>
+      </c>
+      <c r="P18" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>5</v>
+      </c>
+      <c r="R18" s="9">
+        <v>3</v>
+      </c>
+      <c r="S18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="T18" s="9" t="s">
+      <c r="T18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="U18" s="9" t="s">
+      <c r="U18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="9" t="s">
+      <c r="V18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="W18" s="9">
+      <c r="W18" s="8">
         <v>1.5</v>
       </c>
-      <c r="X18" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="10" t="s">
+      <c r="X18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AJ18" s="14"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9">
-        <v>100018.0</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="AJ18" s="13"/>
+    </row>
+    <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>100018</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="9">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="10">
-        <v>300031.0</v>
-      </c>
-      <c r="I19" s="10">
-        <v>300032.0</v>
-      </c>
-      <c r="J19" s="10">
-        <v>300035.0</v>
-      </c>
-      <c r="K19" s="10" t="s">
+      <c r="H19" s="9">
+        <v>300031</v>
+      </c>
+      <c r="I19" s="9">
+        <v>300032</v>
+      </c>
+      <c r="J19" s="9">
+        <v>300035</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="M19" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="N19" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="O19" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="P19" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="R19" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="S19" s="10" t="s">
+      <c r="L19" s="9">
+        <v>3</v>
+      </c>
+      <c r="M19" s="9">
+        <v>3</v>
+      </c>
+      <c r="N19" s="9">
+        <v>2</v>
+      </c>
+      <c r="O19" s="9">
+        <v>1</v>
+      </c>
+      <c r="P19" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>5</v>
+      </c>
+      <c r="R19" s="9">
+        <v>3</v>
+      </c>
+      <c r="S19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="T19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="U19" s="9" t="s">
+      <c r="U19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="V19" s="9" t="s">
+      <c r="V19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="W19" s="9">
+      <c r="W19" s="8">
         <v>1.5</v>
       </c>
-      <c r="X19" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
-      <c r="AI19" s="10" t="s">
+      <c r="X19" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AJ19" s="14"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9">
-        <v>100019.0</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="AJ19" s="13"/>
+    </row>
+    <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>100019</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="9">
+        <v>4</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="10">
-        <v>300031.0</v>
-      </c>
-      <c r="I20" s="10">
-        <v>300032.0</v>
-      </c>
-      <c r="J20" s="10">
-        <v>300036.0</v>
-      </c>
-      <c r="K20" s="10" t="s">
+      <c r="H20" s="9">
+        <v>300031</v>
+      </c>
+      <c r="I20" s="9">
+        <v>300032</v>
+      </c>
+      <c r="J20" s="9">
+        <v>300036</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="M20" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="N20" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="O20" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="P20" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="R20" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="S20" s="10" t="s">
+      <c r="L20" s="9">
+        <v>4</v>
+      </c>
+      <c r="M20" s="9">
+        <v>3</v>
+      </c>
+      <c r="N20" s="9">
+        <v>2</v>
+      </c>
+      <c r="O20" s="9">
+        <v>1</v>
+      </c>
+      <c r="P20" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>5</v>
+      </c>
+      <c r="R20" s="9">
+        <v>3</v>
+      </c>
+      <c r="S20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="T20" s="9" t="s">
+      <c r="T20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="U20" s="9" t="s">
+      <c r="U20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="V20" s="9" t="s">
+      <c r="V20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="W20" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="X20" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="10" t="s">
+      <c r="W20" s="8">
+        <v>2</v>
+      </c>
+      <c r="X20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AJ20" s="14"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="9">
-        <v>100020.0</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="AJ20" s="13"/>
+    </row>
+    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>100020</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="9">
+        <v>4</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="10">
-        <v>300031.0</v>
-      </c>
-      <c r="I21" s="10">
-        <v>300032.0</v>
-      </c>
-      <c r="J21" s="10">
-        <v>300037.0</v>
-      </c>
-      <c r="K21" s="10" t="s">
+      <c r="H21" s="9">
+        <v>300031</v>
+      </c>
+      <c r="I21" s="9">
+        <v>300032</v>
+      </c>
+      <c r="J21" s="9">
+        <v>300037</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="M21" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="N21" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="O21" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="P21" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="Q21" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="R21" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="S21" s="10" t="s">
+      <c r="L21" s="9">
+        <v>5</v>
+      </c>
+      <c r="M21" s="9">
+        <v>3</v>
+      </c>
+      <c r="N21" s="9">
+        <v>4</v>
+      </c>
+      <c r="O21" s="9">
+        <v>1</v>
+      </c>
+      <c r="P21" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>5</v>
+      </c>
+      <c r="R21" s="9">
+        <v>3</v>
+      </c>
+      <c r="S21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="T21" s="9" t="s">
+      <c r="T21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="U21" s="9" t="s">
+      <c r="U21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="V21" s="9" t="s">
+      <c r="V21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="W21" s="9">
+      <c r="W21" s="8">
         <v>2.5</v>
       </c>
-      <c r="X21" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="10" t="s">
+      <c r="X21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AJ21" s="14"/>
-    </row>
-    <row r="22">
+      <c r="AJ21" s="13"/>
+    </row>
+    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>100021.0</v>
+        <v>100021</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>36</v>
@@ -2828,37 +2890,37 @@
         <v>39</v>
       </c>
       <c r="H22" s="1">
-        <v>300041.0</v>
+        <v>300041</v>
       </c>
       <c r="I22" s="1">
-        <v>300042.0</v>
+        <v>300042</v>
       </c>
       <c r="J22" s="1">
-        <v>300043.0</v>
+        <v>300043</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P22" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P22" s="14">
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R22" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>69</v>
@@ -2873,10 +2935,10 @@
         <v>44</v>
       </c>
       <c r="W22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
@@ -2891,15 +2953,15 @@
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>100022.0</v>
+        <v>100022</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>36</v>
@@ -2914,37 +2976,37 @@
         <v>39</v>
       </c>
       <c r="H23" s="1">
-        <v>300041.0</v>
+        <v>300041</v>
       </c>
       <c r="I23" s="1">
-        <v>300042.0</v>
+        <v>300042</v>
       </c>
       <c r="J23" s="1">
-        <v>300044.0</v>
+        <v>300044</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L23" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M23" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P23" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P23" s="14">
+        <v>1</v>
       </c>
       <c r="Q23" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R23" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>69</v>
@@ -2962,7 +3024,7 @@
         <v>1.5</v>
       </c>
       <c r="X23" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
@@ -2977,15 +3039,15 @@
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>100023.0</v>
+        <v>100023</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>36</v>
@@ -3000,37 +3062,37 @@
         <v>39</v>
       </c>
       <c r="H24" s="1">
-        <v>300041.0</v>
+        <v>300041</v>
       </c>
       <c r="I24" s="1">
-        <v>300042.0</v>
+        <v>300042</v>
       </c>
       <c r="J24" s="1">
-        <v>300045.0</v>
+        <v>300045</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L24" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M24" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P24" s="15">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P24" s="14">
+        <v>1</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R24" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>69</v>
@@ -3048,7 +3110,7 @@
         <v>1.5</v>
       </c>
       <c r="X24" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
@@ -3063,15 +3125,15 @@
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>100024.0</v>
+        <v>100024</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>36</v>
@@ -3086,37 +3148,37 @@
         <v>39</v>
       </c>
       <c r="H25" s="1">
-        <v>300041.0</v>
+        <v>300041</v>
       </c>
       <c r="I25" s="1">
-        <v>300042.0</v>
+        <v>300042</v>
       </c>
       <c r="J25" s="1">
-        <v>300046.0</v>
+        <v>300046</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L25" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M25" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P25" s="15">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P25" s="14">
+        <v>1</v>
       </c>
       <c r="Q25" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R25" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>69</v>
@@ -3131,10 +3193,10 @@
         <v>44</v>
       </c>
       <c r="W25" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X25" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
@@ -3149,15 +3211,15 @@
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>100025.0</v>
+        <v>100025</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>36</v>
@@ -3172,37 +3234,37 @@
         <v>39</v>
       </c>
       <c r="H26" s="1">
-        <v>300041.0</v>
+        <v>300041</v>
       </c>
       <c r="I26" s="1">
-        <v>300042.0</v>
+        <v>300042</v>
       </c>
       <c r="J26" s="1">
-        <v>300047.0</v>
+        <v>300047</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L26" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M26" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="P26" s="15">
-        <v>1.0</v>
+        <v>3</v>
+      </c>
+      <c r="P26" s="14">
+        <v>1</v>
       </c>
       <c r="Q26" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="R26" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>69</v>
@@ -3220,7 +3282,7 @@
         <v>2.5</v>
       </c>
       <c r="X26" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
@@ -3235,15 +3297,15 @@
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>100026.0</v>
+        <v>100026</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C27" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>36</v>
@@ -3258,37 +3320,37 @@
         <v>39</v>
       </c>
       <c r="H27" s="1">
-        <v>300051.0</v>
+        <v>300051</v>
       </c>
       <c r="I27" s="1">
-        <v>300052.0</v>
+        <v>300052</v>
       </c>
       <c r="J27" s="1">
-        <v>300053.0</v>
+        <v>300053</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P27" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P27" s="14">
+        <v>1</v>
       </c>
       <c r="Q27" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R27" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>72</v>
@@ -3303,10 +3365,10 @@
         <v>44</v>
       </c>
       <c r="W27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
@@ -3321,15 +3383,15 @@
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>100027.0</v>
+        <v>100027</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>36</v>
@@ -3344,37 +3406,37 @@
         <v>39</v>
       </c>
       <c r="H28" s="1">
-        <v>300051.0</v>
+        <v>300051</v>
       </c>
       <c r="I28" s="1">
-        <v>300052.0</v>
+        <v>300052</v>
       </c>
       <c r="J28" s="1">
-        <v>300054.0</v>
+        <v>300054</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M28" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P28" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P28" s="14">
+        <v>1</v>
       </c>
       <c r="Q28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R28" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>72</v>
@@ -3392,7 +3454,7 @@
         <v>1.5</v>
       </c>
       <c r="X28" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
@@ -3407,15 +3469,15 @@
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>100028.0</v>
+        <v>100028</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C29" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>36</v>
@@ -3430,37 +3492,37 @@
         <v>39</v>
       </c>
       <c r="H29" s="1">
-        <v>300051.0</v>
+        <v>300051</v>
       </c>
       <c r="I29" s="1">
-        <v>300052.0</v>
+        <v>300052</v>
       </c>
       <c r="J29" s="1">
-        <v>300055.0</v>
+        <v>300055</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L29" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M29" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N29" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O29" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P29" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P29" s="14">
+        <v>1</v>
       </c>
       <c r="Q29" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R29" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>72</v>
@@ -3478,7 +3540,7 @@
         <v>1.5</v>
       </c>
       <c r="X29" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
@@ -3493,15 +3555,15 @@
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>100029.0</v>
+        <v>100029</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>36</v>
@@ -3516,37 +3578,37 @@
         <v>39</v>
       </c>
       <c r="H30" s="1">
-        <v>300051.0</v>
+        <v>300051</v>
       </c>
       <c r="I30" s="1">
-        <v>300052.0</v>
+        <v>300052</v>
       </c>
       <c r="J30" s="1">
-        <v>300056.0</v>
+        <v>300056</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L30" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M30" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N30" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O30" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P30" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P30" s="14">
+        <v>1</v>
       </c>
       <c r="Q30" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R30" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>72</v>
@@ -3561,10 +3623,10 @@
         <v>44</v>
       </c>
       <c r="W30" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X30" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
@@ -3579,15 +3641,15 @@
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>100030.0</v>
+        <v>100030</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>36</v>
@@ -3602,37 +3664,37 @@
         <v>39</v>
       </c>
       <c r="H31" s="1">
-        <v>300051.0</v>
+        <v>300051</v>
       </c>
       <c r="I31" s="1">
-        <v>300052.0</v>
+        <v>300052</v>
       </c>
       <c r="J31" s="1">
-        <v>300057.0</v>
+        <v>300057</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L31" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M31" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N31" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O31" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P31" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P31" s="14">
+        <v>1</v>
       </c>
       <c r="Q31" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R31" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>72</v>
@@ -3650,7 +3712,7 @@
         <v>2.5</v>
       </c>
       <c r="X31" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
@@ -3665,15 +3727,15 @@
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>100031.0</v>
+        <v>100031</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>36</v>
@@ -3688,37 +3750,37 @@
         <v>39</v>
       </c>
       <c r="H32" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="I32" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="J32" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P32" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P32" s="14">
+        <v>1</v>
       </c>
       <c r="Q32" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R32" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>75</v>
@@ -3733,10 +3795,10 @@
         <v>44</v>
       </c>
       <c r="W32" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
@@ -3751,15 +3813,15 @@
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>100032.0</v>
+        <v>100032</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>36</v>
@@ -3774,37 +3836,37 @@
         <v>39</v>
       </c>
       <c r="H33" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="I33" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="J33" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L33" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M33" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P33" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P33" s="14">
+        <v>1</v>
       </c>
       <c r="Q33" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R33" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>75</v>
@@ -3822,7 +3884,7 @@
         <v>1.5</v>
       </c>
       <c r="X33" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
@@ -3837,15 +3899,15 @@
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>100033.0</v>
+        <v>100033</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>36</v>
@@ -3860,37 +3922,37 @@
         <v>39</v>
       </c>
       <c r="H34" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="I34" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="J34" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L34" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M34" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N34" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O34" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P34" s="15">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P34" s="14">
+        <v>1</v>
       </c>
       <c r="Q34" s="1">
         <v>3.5</v>
       </c>
       <c r="R34" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>75</v>
@@ -3908,7 +3970,7 @@
         <v>1.5</v>
       </c>
       <c r="X34" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
@@ -3923,15 +3985,15 @@
       <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>100034.0</v>
+        <v>100034</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>36</v>
@@ -3946,37 +4008,37 @@
         <v>39</v>
       </c>
       <c r="H35" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="I35" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="J35" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L35" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M35" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N35" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O35" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P35" s="15">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P35" s="14">
+        <v>1</v>
       </c>
       <c r="Q35" s="1">
         <v>3.5</v>
       </c>
       <c r="R35" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>75</v>
@@ -3991,10 +4053,10 @@
         <v>44</v>
       </c>
       <c r="W35" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X35" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
@@ -4009,15 +4071,15 @@
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>100035.0</v>
+        <v>100035</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C36" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>36</v>
@@ -4032,37 +4094,37 @@
         <v>39</v>
       </c>
       <c r="H36" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="I36" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="J36" s="1">
-        <v>300061.0</v>
+        <v>300061</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L36" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M36" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N36" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O36" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="P36" s="15">
-        <v>1.0</v>
+        <v>3</v>
+      </c>
+      <c r="P36" s="14">
+        <v>1</v>
       </c>
       <c r="Q36" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R36" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>75</v>
@@ -4080,7 +4142,7 @@
         <v>2.5</v>
       </c>
       <c r="X36" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
@@ -4095,15 +4157,15 @@
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>100036.0</v>
+        <v>100036</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>36</v>
@@ -4118,37 +4180,37 @@
         <v>39</v>
       </c>
       <c r="H37" s="1">
-        <v>300071.0</v>
+        <v>300071</v>
       </c>
       <c r="I37" s="1">
-        <v>300072.0</v>
+        <v>300072</v>
       </c>
       <c r="J37" s="1">
-        <v>300073.0</v>
+        <v>300073</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P37" s="15">
-        <v>4.0</v>
+        <v>1</v>
+      </c>
+      <c r="P37" s="14">
+        <v>4</v>
       </c>
       <c r="Q37" s="1">
         <v>1.2</v>
       </c>
       <c r="R37" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>78</v>
@@ -4166,7 +4228,7 @@
         <v>0.4</v>
       </c>
       <c r="X37" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
@@ -4181,15 +4243,15 @@
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>100037.0</v>
+        <v>100037</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C38" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>36</v>
@@ -4204,37 +4266,37 @@
         <v>39</v>
       </c>
       <c r="H38" s="1">
-        <v>300071.0</v>
+        <v>300071</v>
       </c>
       <c r="I38" s="1">
-        <v>300072.0</v>
+        <v>300072</v>
       </c>
       <c r="J38" s="1">
-        <v>300074.0</v>
+        <v>300074</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L38" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M38" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P38" s="15">
-        <v>4.0</v>
+        <v>1</v>
+      </c>
+      <c r="P38" s="14">
+        <v>4</v>
       </c>
       <c r="Q38" s="1">
         <v>1.2</v>
       </c>
       <c r="R38" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>78</v>
@@ -4252,7 +4314,7 @@
         <v>0.4</v>
       </c>
       <c r="X38" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
@@ -4267,15 +4329,15 @@
       <c r="AI38" s="2"/>
       <c r="AJ38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>100038.0</v>
+        <v>100038</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C39" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>36</v>
@@ -4290,37 +4352,37 @@
         <v>39</v>
       </c>
       <c r="H39" s="1">
-        <v>300071.0</v>
+        <v>300071</v>
       </c>
       <c r="I39" s="1">
-        <v>300072.0</v>
+        <v>300072</v>
       </c>
       <c r="J39" s="1">
-        <v>300075.0</v>
+        <v>300075</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L39" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M39" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N39" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O39" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P39" s="15">
-        <v>5.0</v>
+        <v>1</v>
+      </c>
+      <c r="P39" s="14">
+        <v>5</v>
       </c>
       <c r="Q39" s="1">
         <v>1.6</v>
       </c>
       <c r="R39" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>78</v>
@@ -4338,7 +4400,7 @@
         <v>0.4</v>
       </c>
       <c r="X39" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
@@ -4353,15 +4415,15 @@
       <c r="AI39" s="2"/>
       <c r="AJ39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>100039.0</v>
+        <v>100039</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>36</v>
@@ -4376,37 +4438,37 @@
         <v>39</v>
       </c>
       <c r="H40" s="1">
-        <v>300071.0</v>
+        <v>300071</v>
       </c>
       <c r="I40" s="1">
-        <v>300072.0</v>
+        <v>300072</v>
       </c>
       <c r="J40" s="1">
-        <v>300076.0</v>
+        <v>300076</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L40" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M40" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N40" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O40" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P40" s="15">
-        <v>5.0</v>
+        <v>1</v>
+      </c>
+      <c r="P40" s="14">
+        <v>5</v>
       </c>
       <c r="Q40" s="1">
         <v>1.6</v>
       </c>
       <c r="R40" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>78</v>
@@ -4424,7 +4486,7 @@
         <v>0.4</v>
       </c>
       <c r="X40" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
@@ -4439,15 +4501,15 @@
       <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>100040.0</v>
+        <v>100040</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>36</v>
@@ -4462,37 +4524,37 @@
         <v>39</v>
       </c>
       <c r="H41" s="1">
-        <v>300071.0</v>
+        <v>300071</v>
       </c>
       <c r="I41" s="1">
-        <v>300072.0</v>
+        <v>300072</v>
       </c>
       <c r="J41" s="1">
-        <v>300077.0</v>
+        <v>300077</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L41" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M41" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N41" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O41" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P41" s="15">
-        <v>6.0</v>
+        <v>1</v>
+      </c>
+      <c r="P41" s="14">
+        <v>6</v>
       </c>
       <c r="Q41" s="1">
         <v>1.5</v>
       </c>
       <c r="R41" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>78</v>
@@ -4510,7 +4572,7 @@
         <v>0.4</v>
       </c>
       <c r="X41" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
@@ -4525,15 +4587,15 @@
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>100041.0</v>
+        <v>100041</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C42" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>36</v>
@@ -4548,37 +4610,37 @@
         <v>39</v>
       </c>
       <c r="H42" s="1">
-        <v>300081.0</v>
+        <v>300081</v>
       </c>
       <c r="I42" s="1">
-        <v>300082.0</v>
+        <v>300082</v>
       </c>
       <c r="J42" s="1">
-        <v>300083.0</v>
+        <v>300083</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N42" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O42" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="P42" s="15">
-        <v>10.0</v>
+        <v>3</v>
+      </c>
+      <c r="P42" s="14">
+        <v>10</v>
       </c>
       <c r="Q42" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>81</v>
@@ -4593,10 +4655,10 @@
         <v>44</v>
       </c>
       <c r="W42" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X42" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
@@ -4611,15 +4673,15 @@
       <c r="AI42" s="2"/>
       <c r="AJ42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>100042.0</v>
+        <v>100042</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C43" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>36</v>
@@ -4634,37 +4696,37 @@
         <v>39</v>
       </c>
       <c r="H43" s="1">
-        <v>300081.0</v>
+        <v>300081</v>
       </c>
       <c r="I43" s="1">
-        <v>300082.0</v>
+        <v>300082</v>
       </c>
       <c r="J43" s="1">
-        <v>300084.0</v>
+        <v>300084</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L43" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M43" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P43" s="15">
-        <v>4.0</v>
+        <v>1</v>
+      </c>
+      <c r="P43" s="14">
+        <v>4</v>
       </c>
       <c r="Q43" s="1">
         <v>1.2</v>
       </c>
       <c r="R43" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S43" s="1" t="s">
         <v>81</v>
@@ -4682,7 +4744,7 @@
         <v>1.5</v>
       </c>
       <c r="X43" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
@@ -4697,15 +4759,15 @@
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>100043.0</v>
+        <v>100043</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C44" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>36</v>
@@ -4720,37 +4782,37 @@
         <v>39</v>
       </c>
       <c r="H44" s="1">
-        <v>300081.0</v>
+        <v>300081</v>
       </c>
       <c r="I44" s="1">
-        <v>300082.0</v>
+        <v>300082</v>
       </c>
       <c r="J44" s="1">
-        <v>300085.0</v>
+        <v>300085</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L44" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M44" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N44" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O44" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P44" s="15">
-        <v>5.0</v>
+        <v>1</v>
+      </c>
+      <c r="P44" s="14">
+        <v>5</v>
       </c>
       <c r="Q44" s="1">
         <v>1.6</v>
       </c>
       <c r="R44" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>81</v>
@@ -4768,7 +4830,7 @@
         <v>1.5</v>
       </c>
       <c r="X44" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
@@ -4783,15 +4845,15 @@
       <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>100044.0</v>
+        <v>100044</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C45" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>36</v>
@@ -4806,37 +4868,37 @@
         <v>39</v>
       </c>
       <c r="H45" s="1">
-        <v>300081.0</v>
+        <v>300081</v>
       </c>
       <c r="I45" s="1">
-        <v>300082.0</v>
+        <v>300082</v>
       </c>
       <c r="J45" s="1">
-        <v>300086.0</v>
+        <v>300086</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L45" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M45" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N45" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O45" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P45" s="15">
-        <v>5.0</v>
+        <v>1</v>
+      </c>
+      <c r="P45" s="14">
+        <v>5</v>
       </c>
       <c r="Q45" s="1">
         <v>1.6</v>
       </c>
       <c r="R45" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>81</v>
@@ -4851,10 +4913,10 @@
         <v>44</v>
       </c>
       <c r="W45" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X45" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
@@ -4869,15 +4931,15 @@
       <c r="AI45" s="2"/>
       <c r="AJ45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>100045.0</v>
+        <v>100045</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C46" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>36</v>
@@ -4892,37 +4954,37 @@
         <v>39</v>
       </c>
       <c r="H46" s="1">
-        <v>300081.0</v>
+        <v>300081</v>
       </c>
       <c r="I46" s="1">
-        <v>300082.0</v>
+        <v>300082</v>
       </c>
       <c r="J46" s="1">
-        <v>300087.0</v>
+        <v>300087</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L46" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M46" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N46" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O46" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P46" s="15">
-        <v>6.0</v>
+        <v>1</v>
+      </c>
+      <c r="P46" s="14">
+        <v>6</v>
       </c>
       <c r="Q46" s="1">
         <v>1.5</v>
       </c>
       <c r="R46" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>81</v>
@@ -4940,7 +5002,7 @@
         <v>2.5</v>
       </c>
       <c r="X46" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
@@ -4955,15 +5017,15 @@
       <c r="AI46" s="2"/>
       <c r="AJ46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>100046.0</v>
+        <v>100046</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C47" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>36</v>
@@ -4978,37 +5040,37 @@
         <v>39</v>
       </c>
       <c r="H47" s="1">
-        <v>300091.0</v>
+        <v>300091</v>
       </c>
       <c r="I47" s="1">
-        <v>300092.0</v>
+        <v>300092</v>
       </c>
       <c r="J47" s="1">
-        <v>300093.0</v>
+        <v>300093</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P47" s="15">
-        <v>4.0</v>
+        <v>1</v>
+      </c>
+      <c r="P47" s="14">
+        <v>4</v>
       </c>
       <c r="Q47" s="1">
         <v>0.3</v>
       </c>
       <c r="R47" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>84</v>
@@ -5023,10 +5085,10 @@
         <v>44</v>
       </c>
       <c r="W47" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X47" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
@@ -5041,15 +5103,15 @@
       <c r="AI47" s="2"/>
       <c r="AJ47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>100047.0</v>
+        <v>100047</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C48" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>36</v>
@@ -5064,37 +5126,37 @@
         <v>39</v>
       </c>
       <c r="H48" s="1">
-        <v>300091.0</v>
+        <v>300091</v>
       </c>
       <c r="I48" s="1">
-        <v>300092.0</v>
+        <v>300092</v>
       </c>
       <c r="J48" s="1">
-        <v>300094.0</v>
+        <v>300094</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L48" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M48" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N48" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O48" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P48" s="15">
-        <v>4.0</v>
+        <v>1</v>
+      </c>
+      <c r="P48" s="14">
+        <v>4</v>
       </c>
       <c r="Q48" s="1">
         <v>0.3</v>
       </c>
       <c r="R48" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>84</v>
@@ -5112,7 +5174,7 @@
         <v>1.5</v>
       </c>
       <c r="X48" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
@@ -5127,15 +5189,15 @@
       <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>100048.0</v>
+        <v>100048</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C49" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>36</v>
@@ -5150,37 +5212,37 @@
         <v>39</v>
       </c>
       <c r="H49" s="1">
-        <v>300091.0</v>
+        <v>300091</v>
       </c>
       <c r="I49" s="1">
-        <v>300092.0</v>
+        <v>300092</v>
       </c>
       <c r="J49" s="1">
-        <v>300095.0</v>
+        <v>300095</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L49" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M49" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N49" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O49" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P49" s="15">
-        <v>5.0</v>
+        <v>1</v>
+      </c>
+      <c r="P49" s="14">
+        <v>5</v>
       </c>
       <c r="Q49" s="1">
         <v>0.3</v>
       </c>
       <c r="R49" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>84</v>
@@ -5198,7 +5260,7 @@
         <v>1.5</v>
       </c>
       <c r="X49" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
@@ -5213,15 +5275,15 @@
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>100049.0</v>
+        <v>100049</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>36</v>
@@ -5236,37 +5298,37 @@
         <v>39</v>
       </c>
       <c r="H50" s="1">
-        <v>300091.0</v>
+        <v>300091</v>
       </c>
       <c r="I50" s="1">
-        <v>300092.0</v>
+        <v>300092</v>
       </c>
       <c r="J50" s="1">
-        <v>300096.0</v>
+        <v>300096</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L50" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M50" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N50" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O50" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P50" s="15">
-        <v>5.0</v>
+        <v>1</v>
+      </c>
+      <c r="P50" s="14">
+        <v>5</v>
       </c>
       <c r="Q50" s="1">
         <v>0.3</v>
       </c>
       <c r="R50" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S50" s="1" t="s">
         <v>84</v>
@@ -5281,10 +5343,10 @@
         <v>44</v>
       </c>
       <c r="W50" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X50" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
@@ -5299,15 +5361,15 @@
       <c r="AI50" s="2"/>
       <c r="AJ50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>100050.0</v>
+        <v>100050</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C51" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>36</v>
@@ -5322,37 +5384,37 @@
         <v>39</v>
       </c>
       <c r="H51" s="1">
-        <v>300091.0</v>
+        <v>300091</v>
       </c>
       <c r="I51" s="1">
-        <v>300092.0</v>
+        <v>300092</v>
       </c>
       <c r="J51" s="1">
-        <v>300097.0</v>
+        <v>300097</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L51" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M51" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N51" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O51" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P51" s="15">
-        <v>6.0</v>
+        <v>1</v>
+      </c>
+      <c r="P51" s="14">
+        <v>6</v>
       </c>
       <c r="Q51" s="1">
         <v>0.3</v>
       </c>
       <c r="R51" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>84</v>
@@ -5370,7 +5432,7 @@
         <v>2.5</v>
       </c>
       <c r="X51" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
@@ -5385,15 +5447,15 @@
       <c r="AI51" s="2"/>
       <c r="AJ51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>100051.0</v>
+        <v>100051</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C52" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>36</v>
@@ -5408,37 +5470,37 @@
         <v>39</v>
       </c>
       <c r="H52" s="1">
-        <v>300101.0</v>
+        <v>300101</v>
       </c>
       <c r="I52" s="1">
-        <v>300102.0</v>
+        <v>300102</v>
       </c>
       <c r="J52" s="1">
-        <v>300103.0</v>
+        <v>300103</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O52" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P52" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P52" s="14">
+        <v>1</v>
       </c>
       <c r="Q52" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R52" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>87</v>
@@ -5453,10 +5515,10 @@
         <v>44</v>
       </c>
       <c r="W52" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X52" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
@@ -5471,15 +5533,15 @@
       <c r="AI52" s="2"/>
       <c r="AJ52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>100052.0</v>
+        <v>100052</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C53" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>36</v>
@@ -5494,37 +5556,37 @@
         <v>39</v>
       </c>
       <c r="H53" s="1">
-        <v>300101.0</v>
+        <v>300101</v>
       </c>
       <c r="I53" s="1">
-        <v>300102.0</v>
+        <v>300102</v>
       </c>
       <c r="J53" s="1">
-        <v>300104.0</v>
+        <v>300104</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L53" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M53" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O53" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P53" s="15">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P53" s="14">
+        <v>1</v>
       </c>
       <c r="Q53" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="R53" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>87</v>
@@ -5539,10 +5601,10 @@
         <v>44</v>
       </c>
       <c r="W53" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X53" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
@@ -5557,15 +5619,15 @@
       <c r="AI53" s="2"/>
       <c r="AJ53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>100053.0</v>
+        <v>100053</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C54" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>36</v>
@@ -5580,37 +5642,37 @@
         <v>39</v>
       </c>
       <c r="H54" s="1">
-        <v>300101.0</v>
+        <v>300101</v>
       </c>
       <c r="I54" s="1">
-        <v>300102.0</v>
+        <v>300102</v>
       </c>
       <c r="J54" s="1">
-        <v>300105.0</v>
+        <v>300105</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L54" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M54" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O54" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="P54" s="15">
-        <v>1.0</v>
+        <v>3</v>
+      </c>
+      <c r="P54" s="14">
+        <v>1</v>
       </c>
       <c r="Q54" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="R54" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>87</v>
@@ -5625,10 +5687,10 @@
         <v>44</v>
       </c>
       <c r="W54" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X54" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
@@ -5643,15 +5705,15 @@
       <c r="AI54" s="2"/>
       <c r="AJ54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>100054.0</v>
+        <v>100054</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C55" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>36</v>
@@ -5666,37 +5728,37 @@
         <v>39</v>
       </c>
       <c r="H55" s="1">
-        <v>300101.0</v>
+        <v>300101</v>
       </c>
       <c r="I55" s="1">
-        <v>300102.0</v>
+        <v>300102</v>
       </c>
       <c r="J55" s="1">
-        <v>300106.0</v>
+        <v>300106</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L55" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M55" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="P55" s="15">
-        <v>1.0</v>
+        <v>4</v>
+      </c>
+      <c r="P55" s="14">
+        <v>1</v>
       </c>
       <c r="Q55" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="R55" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>87</v>
@@ -5711,10 +5773,10 @@
         <v>44</v>
       </c>
       <c r="W55" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X55" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
@@ -5729,15 +5791,15 @@
       <c r="AI55" s="2"/>
       <c r="AJ55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>100055.0</v>
+        <v>100055</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C56" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>36</v>
@@ -5752,37 +5814,37 @@
         <v>39</v>
       </c>
       <c r="H56" s="1">
-        <v>300101.0</v>
+        <v>300101</v>
       </c>
       <c r="I56" s="1">
-        <v>300102.0</v>
+        <v>300102</v>
       </c>
       <c r="J56" s="1">
-        <v>300107.0</v>
+        <v>300107</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L56" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M56" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N56" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="P56" s="15">
-        <v>1.0</v>
+        <v>4</v>
+      </c>
+      <c r="P56" s="14">
+        <v>1</v>
       </c>
       <c r="Q56" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="R56" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>87</v>
@@ -5797,10 +5859,10 @@
         <v>44</v>
       </c>
       <c r="W56" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X56" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
@@ -5815,15 +5877,15 @@
       <c r="AI56" s="2"/>
       <c r="AJ56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>100056.0</v>
+        <v>100056</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C57" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>36</v>
@@ -5838,37 +5900,37 @@
         <v>39</v>
       </c>
       <c r="H57" s="1">
-        <v>300111.0</v>
+        <v>300111</v>
       </c>
       <c r="I57" s="1">
-        <v>300112.0</v>
+        <v>300112</v>
       </c>
       <c r="J57" s="1">
-        <v>300113.0</v>
+        <v>300113</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O57" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P57" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P57" s="14">
+        <v>1</v>
       </c>
       <c r="Q57" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>90</v>
@@ -5883,10 +5945,10 @@
         <v>44</v>
       </c>
       <c r="W57" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X57" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
@@ -5901,15 +5963,15 @@
       <c r="AI57" s="2"/>
       <c r="AJ57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>100057.0</v>
+        <v>100057</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C58" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>36</v>
@@ -5924,37 +5986,37 @@
         <v>39</v>
       </c>
       <c r="H58" s="1">
-        <v>300111.0</v>
+        <v>300111</v>
       </c>
       <c r="I58" s="1">
-        <v>300112.0</v>
+        <v>300112</v>
       </c>
       <c r="J58" s="1">
-        <v>300114.0</v>
+        <v>300114</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L58" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M58" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O58" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P58" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P58" s="14">
+        <v>1</v>
       </c>
       <c r="Q58" s="1">
         <v>3.5</v>
       </c>
       <c r="R58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S58" s="1" t="s">
         <v>90</v>
@@ -5969,10 +6031,10 @@
         <v>44</v>
       </c>
       <c r="W58" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X58" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
@@ -5987,15 +6049,15 @@
       <c r="AI58" s="2"/>
       <c r="AJ58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>100058.0</v>
+        <v>100058</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C59" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>36</v>
@@ -6010,37 +6072,37 @@
         <v>39</v>
       </c>
       <c r="H59" s="1">
-        <v>300111.0</v>
+        <v>300111</v>
       </c>
       <c r="I59" s="1">
-        <v>300112.0</v>
+        <v>300112</v>
       </c>
       <c r="J59" s="1">
-        <v>300115.0</v>
+        <v>300115</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L59" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M59" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N59" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O59" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P59" s="15">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P59" s="14">
+        <v>1</v>
       </c>
       <c r="Q59" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>90</v>
@@ -6055,10 +6117,10 @@
         <v>44</v>
       </c>
       <c r="W59" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X59" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
@@ -6073,15 +6135,15 @@
       <c r="AI59" s="2"/>
       <c r="AJ59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>100059.0</v>
+        <v>100059</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C60" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>36</v>
@@ -6096,37 +6158,37 @@
         <v>39</v>
       </c>
       <c r="H60" s="1">
-        <v>300111.0</v>
+        <v>300111</v>
       </c>
       <c r="I60" s="1">
-        <v>300112.0</v>
+        <v>300112</v>
       </c>
       <c r="J60" s="1">
-        <v>300116.0</v>
+        <v>300116</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L60" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M60" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N60" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O60" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P60" s="15">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P60" s="14">
+        <v>1</v>
       </c>
       <c r="Q60" s="1">
         <v>6.5</v>
       </c>
       <c r="R60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S60" s="1" t="s">
         <v>90</v>
@@ -6141,10 +6203,10 @@
         <v>44</v>
       </c>
       <c r="W60" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X60" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
@@ -6159,15 +6221,15 @@
       <c r="AI60" s="2"/>
       <c r="AJ60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>100060.0</v>
+        <v>100060</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C61" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>36</v>
@@ -6182,37 +6244,37 @@
         <v>39</v>
       </c>
       <c r="H61" s="1">
-        <v>300111.0</v>
+        <v>300111</v>
       </c>
       <c r="I61" s="1">
-        <v>300112.0</v>
+        <v>300112</v>
       </c>
       <c r="J61" s="1">
-        <v>300117.0</v>
+        <v>300117</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L61" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M61" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O61" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="P61" s="15">
-        <v>1.0</v>
+        <v>3</v>
+      </c>
+      <c r="P61" s="14">
+        <v>1</v>
       </c>
       <c r="Q61" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="R61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S61" s="1" t="s">
         <v>90</v>
@@ -6227,10 +6289,10 @@
         <v>44</v>
       </c>
       <c r="W61" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X61" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
@@ -6245,15 +6307,15 @@
       <c r="AI61" s="2"/>
       <c r="AJ61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>100061.0</v>
+        <v>100061</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C62" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>36</v>
@@ -6268,37 +6330,37 @@
         <v>39</v>
       </c>
       <c r="H62" s="1">
-        <v>300121.0</v>
+        <v>300121</v>
       </c>
       <c r="I62" s="1">
-        <v>300122.0</v>
+        <v>300122</v>
       </c>
       <c r="J62" s="1">
-        <v>300123.0</v>
+        <v>300123</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L62" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N62" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O62" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P62" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P62" s="14">
+        <v>1</v>
       </c>
       <c r="Q62" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S62" s="1" t="s">
         <v>93</v>
@@ -6313,10 +6375,10 @@
         <v>44</v>
       </c>
       <c r="W62" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X62" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
@@ -6331,15 +6393,15 @@
       <c r="AI62" s="2"/>
       <c r="AJ62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>100062.0</v>
+        <v>100062</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C63" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>36</v>
@@ -6354,37 +6416,37 @@
         <v>39</v>
       </c>
       <c r="H63" s="1">
-        <v>300121.0</v>
+        <v>300121</v>
       </c>
       <c r="I63" s="1">
-        <v>300122.0</v>
+        <v>300122</v>
       </c>
       <c r="J63" s="1">
-        <v>300124.0</v>
+        <v>300124</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L63" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M63" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N63" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O63" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P63" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P63" s="14">
+        <v>1</v>
       </c>
       <c r="Q63" s="1">
         <v>3.5</v>
       </c>
       <c r="R63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>93</v>
@@ -6399,10 +6461,10 @@
         <v>44</v>
       </c>
       <c r="W63" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X63" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
@@ -6417,15 +6479,15 @@
       <c r="AI63" s="2"/>
       <c r="AJ63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>100063.0</v>
+        <v>100063</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C64" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>36</v>
@@ -6440,37 +6502,37 @@
         <v>39</v>
       </c>
       <c r="H64" s="1">
-        <v>300121.0</v>
+        <v>300121</v>
       </c>
       <c r="I64" s="1">
-        <v>300122.0</v>
+        <v>300122</v>
       </c>
       <c r="J64" s="1">
-        <v>300125.0</v>
+        <v>300125</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L64" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M64" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N64" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O64" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P64" s="15">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P64" s="14">
+        <v>1</v>
       </c>
       <c r="Q64" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S64" s="1" t="s">
         <v>93</v>
@@ -6485,10 +6547,10 @@
         <v>44</v>
       </c>
       <c r="W64" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X64" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
@@ -6503,15 +6565,15 @@
       <c r="AI64" s="2"/>
       <c r="AJ64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>100064.0</v>
+        <v>100064</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C65" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>36</v>
@@ -6526,37 +6588,37 @@
         <v>39</v>
       </c>
       <c r="H65" s="1">
-        <v>300121.0</v>
+        <v>300121</v>
       </c>
       <c r="I65" s="1">
-        <v>300122.0</v>
+        <v>300122</v>
       </c>
       <c r="J65" s="1">
-        <v>300126.0</v>
+        <v>300126</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L65" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M65" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N65" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O65" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P65" s="15">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P65" s="14">
+        <v>1</v>
       </c>
       <c r="Q65" s="1">
         <v>6.5</v>
       </c>
       <c r="R65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>93</v>
@@ -6571,10 +6633,10 @@
         <v>44</v>
       </c>
       <c r="W65" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X65" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
@@ -6589,15 +6651,15 @@
       <c r="AI65" s="2"/>
       <c r="AJ65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>100065.0</v>
+        <v>100065</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C66" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>36</v>
@@ -6612,37 +6674,37 @@
         <v>39</v>
       </c>
       <c r="H66" s="1">
-        <v>300121.0</v>
+        <v>300121</v>
       </c>
       <c r="I66" s="1">
-        <v>300122.0</v>
+        <v>300122</v>
       </c>
       <c r="J66" s="1">
-        <v>300127.0</v>
+        <v>300127</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L66" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M66" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N66" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O66" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="P66" s="15">
-        <v>1.0</v>
+        <v>3</v>
+      </c>
+      <c r="P66" s="14">
+        <v>1</v>
       </c>
       <c r="Q66" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="R66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S66" s="1" t="s">
         <v>93</v>
@@ -6657,10 +6719,10 @@
         <v>44</v>
       </c>
       <c r="W66" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X66" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
@@ -6675,15 +6737,15 @@
       <c r="AI66" s="2"/>
       <c r="AJ66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>100066.0</v>
+        <v>100066</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C67" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>36</v>
@@ -6698,37 +6760,37 @@
         <v>39</v>
       </c>
       <c r="H67" s="1">
-        <v>300131.0</v>
+        <v>300131</v>
       </c>
       <c r="I67" s="1">
-        <v>300132.0</v>
+        <v>300132</v>
       </c>
       <c r="J67" s="1">
-        <v>300133.0</v>
+        <v>300133</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L67" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N67" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O67" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P67" s="15">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="P67" s="14">
+        <v>1</v>
       </c>
       <c r="Q67" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R67" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>96</v>
@@ -6743,10 +6805,10 @@
         <v>44</v>
       </c>
       <c r="W67" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X67" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
@@ -6761,15 +6823,15 @@
       <c r="AI67" s="2"/>
       <c r="AJ67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>100067.0</v>
+        <v>100067</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C68" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>36</v>
@@ -6784,37 +6846,37 @@
         <v>39</v>
       </c>
       <c r="H68" s="1">
-        <v>300131.0</v>
+        <v>300131</v>
       </c>
       <c r="I68" s="1">
-        <v>300132.0</v>
+        <v>300132</v>
       </c>
       <c r="J68" s="1">
-        <v>300134.0</v>
+        <v>300134</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L68" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M68" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N68" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O68" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="P68" s="15">
-        <v>1.0</v>
+        <v>4</v>
+      </c>
+      <c r="P68" s="14">
+        <v>1</v>
       </c>
       <c r="Q68" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R68" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S68" s="1" t="s">
         <v>96</v>
@@ -6829,10 +6891,10 @@
         <v>44</v>
       </c>
       <c r="W68" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X68" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
@@ -6847,15 +6909,15 @@
       <c r="AI68" s="2"/>
       <c r="AJ68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>100068.0</v>
+        <v>100068</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C69" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>36</v>
@@ -6870,37 +6932,37 @@
         <v>39</v>
       </c>
       <c r="H69" s="1">
-        <v>300131.0</v>
+        <v>300131</v>
       </c>
       <c r="I69" s="1">
-        <v>300132.0</v>
+        <v>300132</v>
       </c>
       <c r="J69" s="1">
-        <v>300135.0</v>
+        <v>300135</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L69" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M69" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N69" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O69" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="P69" s="15">
-        <v>1.0</v>
+        <v>6</v>
+      </c>
+      <c r="P69" s="14">
+        <v>1</v>
       </c>
       <c r="Q69" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R69" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S69" s="1" t="s">
         <v>96</v>
@@ -6915,10 +6977,10 @@
         <v>44</v>
       </c>
       <c r="W69" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X69" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
@@ -6933,15 +6995,15 @@
       <c r="AI69" s="2"/>
       <c r="AJ69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>100069.0</v>
+        <v>100069</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C70" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>36</v>
@@ -6956,37 +7018,37 @@
         <v>39</v>
       </c>
       <c r="H70" s="1">
-        <v>300131.0</v>
+        <v>300131</v>
       </c>
       <c r="I70" s="1">
-        <v>300132.0</v>
+        <v>300132</v>
       </c>
       <c r="J70" s="1">
-        <v>300136.0</v>
+        <v>300136</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L70" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M70" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N70" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O70" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="P70" s="15">
-        <v>1.0</v>
+        <v>8</v>
+      </c>
+      <c r="P70" s="14">
+        <v>1</v>
       </c>
       <c r="Q70" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R70" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S70" s="1" t="s">
         <v>96</v>
@@ -7001,10 +7063,10 @@
         <v>44</v>
       </c>
       <c r="W70" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X70" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
@@ -7019,15 +7081,15 @@
       <c r="AI70" s="2"/>
       <c r="AJ70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>100070.0</v>
+        <v>100070</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C71" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>36</v>
@@ -7042,37 +7104,37 @@
         <v>39</v>
       </c>
       <c r="H71" s="1">
-        <v>300131.0</v>
+        <v>300131</v>
       </c>
       <c r="I71" s="1">
-        <v>300132.0</v>
+        <v>300132</v>
       </c>
       <c r="J71" s="1">
-        <v>300137.0</v>
+        <v>300137</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L71" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M71" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N71" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O71" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="P71" s="15">
-        <v>1.0</v>
+        <v>8</v>
+      </c>
+      <c r="P71" s="14">
+        <v>1</v>
       </c>
       <c r="Q71" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R71" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S71" s="1" t="s">
         <v>96</v>
@@ -7087,10 +7149,10 @@
         <v>44</v>
       </c>
       <c r="W71" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X71" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
@@ -7105,15 +7167,15 @@
       <c r="AI71" s="2"/>
       <c r="AJ71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>100071.0</v>
+        <v>100071</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C72" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>36</v>
@@ -7128,37 +7190,37 @@
         <v>39</v>
       </c>
       <c r="H72" s="1">
-        <v>300141.0</v>
+        <v>300141</v>
       </c>
       <c r="I72" s="1">
-        <v>300142.0</v>
+        <v>300142</v>
       </c>
       <c r="J72" s="1">
-        <v>300143.0</v>
+        <v>300143</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L72" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M72" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N72" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O72" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P72" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P72" s="14">
+        <v>1</v>
       </c>
       <c r="Q72" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R72" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S72" s="1" t="s">
         <v>99</v>
@@ -7173,10 +7235,10 @@
         <v>44</v>
       </c>
       <c r="W72" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X72" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
@@ -7191,15 +7253,15 @@
       <c r="AI72" s="2"/>
       <c r="AJ72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>100072.0</v>
+        <v>100072</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C73" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>36</v>
@@ -7214,37 +7276,37 @@
         <v>39</v>
       </c>
       <c r="H73" s="1">
-        <v>300141.0</v>
+        <v>300141</v>
       </c>
       <c r="I73" s="1">
-        <v>300142.0</v>
+        <v>300142</v>
       </c>
       <c r="J73" s="1">
-        <v>300144.0</v>
+        <v>300144</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L73" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M73" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N73" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O73" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P73" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P73" s="14">
+        <v>1</v>
       </c>
       <c r="Q73" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="R73" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="S73" s="1" t="s">
         <v>99</v>
@@ -7259,10 +7321,10 @@
         <v>44</v>
       </c>
       <c r="W73" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X73" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
@@ -7277,15 +7339,15 @@
       <c r="AI73" s="2"/>
       <c r="AJ73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>100073.0</v>
+        <v>100073</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C74" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>36</v>
@@ -7300,37 +7362,37 @@
         <v>39</v>
       </c>
       <c r="H74" s="1">
-        <v>300141.0</v>
+        <v>300141</v>
       </c>
       <c r="I74" s="1">
-        <v>300142.0</v>
+        <v>300142</v>
       </c>
       <c r="J74" s="1">
-        <v>300145.0</v>
+        <v>300145</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L74" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M74" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N74" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O74" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P74" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P74" s="14">
+        <v>1</v>
       </c>
       <c r="Q74" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="R74" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="S74" s="1" t="s">
         <v>99</v>
@@ -7345,10 +7407,10 @@
         <v>44</v>
       </c>
       <c r="W74" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="X74" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
@@ -7363,15 +7425,15 @@
       <c r="AI74" s="2"/>
       <c r="AJ74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>100074.0</v>
+        <v>100074</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C75" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>36</v>
@@ -7386,37 +7448,37 @@
         <v>39</v>
       </c>
       <c r="H75" s="1">
-        <v>300141.0</v>
+        <v>300141</v>
       </c>
       <c r="I75" s="1">
-        <v>300142.0</v>
+        <v>300142</v>
       </c>
       <c r="J75" s="1">
-        <v>300146.0</v>
+        <v>300146</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L75" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M75" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N75" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O75" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P75" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P75" s="14">
+        <v>1</v>
       </c>
       <c r="Q75" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="R75" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="S75" s="1" t="s">
         <v>99</v>
@@ -7431,10 +7493,10 @@
         <v>44</v>
       </c>
       <c r="W75" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X75" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
@@ -7449,15 +7511,15 @@
       <c r="AI75" s="2"/>
       <c r="AJ75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>100075.0</v>
+        <v>100075</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C76" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>36</v>
@@ -7472,37 +7534,37 @@
         <v>39</v>
       </c>
       <c r="H76" s="1">
-        <v>300141.0</v>
+        <v>300141</v>
       </c>
       <c r="I76" s="1">
-        <v>300142.0</v>
+        <v>300142</v>
       </c>
       <c r="J76" s="1">
-        <v>300147.0</v>
+        <v>300147</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L76" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M76" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N76" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O76" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="P76" s="15">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="P76" s="14">
+        <v>1</v>
       </c>
       <c r="Q76" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="R76" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="S76" s="1" t="s">
         <v>99</v>
@@ -7517,10 +7579,10 @@
         <v>44</v>
       </c>
       <c r="W76" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X76" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
@@ -7535,553 +7597,553 @@
       <c r="AI76" s="2"/>
       <c r="AJ76" s="2"/>
     </row>
-    <row r="77">
-      <c r="A77" s="16">
-        <v>100076.0</v>
-      </c>
-      <c r="B77" s="16" t="s">
+    <row r="77" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="15">
+        <v>100076</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="17">
-        <v>16.0</v>
-      </c>
-      <c r="D77" s="17" t="s">
+      <c r="C77" s="16">
+        <v>16</v>
+      </c>
+      <c r="D77" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E77" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F77" s="17" t="s">
+      <c r="F77" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G77" s="17" t="s">
+      <c r="G77" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H77" s="17">
-        <v>300151.0</v>
-      </c>
-      <c r="I77" s="17">
-        <v>300152.0</v>
-      </c>
-      <c r="J77" s="17">
-        <v>300153.0</v>
-      </c>
-      <c r="K77" s="17" t="s">
+      <c r="H77" s="16">
+        <v>300151</v>
+      </c>
+      <c r="I77" s="16">
+        <v>300152</v>
+      </c>
+      <c r="J77" s="16">
+        <v>300153</v>
+      </c>
+      <c r="K77" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="L77" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="M77" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="N77" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="O77" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="P77" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="Q77" s="17">
-        <v>7.0</v>
-      </c>
-      <c r="R77" s="17">
+      <c r="L77" s="16">
+        <v>1</v>
+      </c>
+      <c r="M77" s="16">
+        <v>5</v>
+      </c>
+      <c r="N77" s="16">
+        <v>1</v>
+      </c>
+      <c r="O77" s="16">
+        <v>1</v>
+      </c>
+      <c r="P77" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="16">
+        <v>7</v>
+      </c>
+      <c r="R77" s="16">
         <v>9.5</v>
       </c>
-      <c r="S77" s="17" t="s">
+      <c r="S77" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="T77" s="16" t="s">
+      <c r="T77" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="U77" s="16" t="s">
+      <c r="U77" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="V77" s="16" t="s">
+      <c r="V77" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="W77" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="X77" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="Y77" s="19" t="s">
+      <c r="W77" s="15">
+        <v>1</v>
+      </c>
+      <c r="X77" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="Z77" s="19" t="s">
+      <c r="Z77" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="AA77" s="19" t="s">
+      <c r="AA77" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AB77" s="19">
+      <c r="AB77" s="18">
         <v>0.5</v>
       </c>
-      <c r="AC77" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AD77" s="19" t="s">
+      <c r="AC77" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="AE77" s="19" t="s">
+      <c r="AE77" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="AF77" s="19" t="s">
+      <c r="AF77" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AG77" s="19">
+      <c r="AG77" s="18">
         <v>1.5</v>
       </c>
-      <c r="AH77" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AI77" s="20"/>
+      <c r="AH77" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI77" s="19"/>
       <c r="AJ77" s="2"/>
     </row>
-    <row r="78">
-      <c r="A78" s="16">
-        <v>100077.0</v>
-      </c>
-      <c r="B78" s="16" t="s">
+    <row r="78" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="15">
+        <v>100077</v>
+      </c>
+      <c r="B78" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C78" s="17">
-        <v>16.0</v>
-      </c>
-      <c r="D78" s="17" t="s">
+      <c r="C78" s="16">
+        <v>16</v>
+      </c>
+      <c r="D78" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F78" s="17" t="s">
+      <c r="F78" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G78" s="17" t="s">
+      <c r="G78" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H78" s="17">
-        <v>300151.0</v>
-      </c>
-      <c r="I78" s="17">
-        <v>300152.0</v>
-      </c>
-      <c r="J78" s="17">
-        <v>300154.0</v>
-      </c>
-      <c r="K78" s="17" t="s">
+      <c r="H78" s="16">
+        <v>300151</v>
+      </c>
+      <c r="I78" s="16">
+        <v>300152</v>
+      </c>
+      <c r="J78" s="16">
+        <v>300154</v>
+      </c>
+      <c r="K78" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="L78" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="M78" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="N78" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="O78" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="P78" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="Q78" s="17">
-        <v>12.0</v>
-      </c>
-      <c r="R78" s="17">
+      <c r="L78" s="16">
+        <v>2</v>
+      </c>
+      <c r="M78" s="16">
+        <v>5</v>
+      </c>
+      <c r="N78" s="16">
+        <v>1</v>
+      </c>
+      <c r="O78" s="16">
+        <v>1</v>
+      </c>
+      <c r="P78" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="16">
+        <v>12</v>
+      </c>
+      <c r="R78" s="16">
         <v>14.5</v>
       </c>
-      <c r="S78" s="17" t="s">
+      <c r="S78" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="T78" s="16" t="s">
+      <c r="T78" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="U78" s="16" t="s">
+      <c r="U78" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="V78" s="16" t="s">
+      <c r="V78" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="W78" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="X78" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="Y78" s="19" t="s">
+      <c r="W78" s="15">
+        <v>2</v>
+      </c>
+      <c r="X78" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="Z78" s="19" t="s">
+      <c r="Z78" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="AA78" s="19" t="s">
+      <c r="AA78" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AB78" s="19">
+      <c r="AB78" s="18">
         <v>0.5</v>
       </c>
-      <c r="AC78" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AD78" s="19" t="s">
+      <c r="AC78" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="AE78" s="19" t="s">
+      <c r="AE78" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="AF78" s="19" t="s">
+      <c r="AF78" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AG78" s="19">
+      <c r="AG78" s="18">
         <v>1.5</v>
       </c>
-      <c r="AH78" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AI78" s="21" t="s">
+      <c r="AH78" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ78" s="2"/>
+    </row>
+    <row r="79" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="15">
+        <v>100078</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="16">
+        <v>16</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H79" s="16">
+        <v>300151</v>
+      </c>
+      <c r="I79" s="16">
+        <v>300152</v>
+      </c>
+      <c r="J79" s="16">
+        <v>300155</v>
+      </c>
+      <c r="K79" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L79" s="16">
+        <v>3</v>
+      </c>
+      <c r="M79" s="16">
+        <v>5</v>
+      </c>
+      <c r="N79" s="16">
+        <v>1</v>
+      </c>
+      <c r="O79" s="16">
+        <v>1</v>
+      </c>
+      <c r="P79" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="16">
+        <v>17</v>
+      </c>
+      <c r="R79" s="16">
+        <v>19.5</v>
+      </c>
+      <c r="S79" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="T79" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="U79" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="V79" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="W79" s="15">
+        <v>3</v>
+      </c>
+      <c r="X79" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z79" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA79" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB79" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AC79" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE79" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF79" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG79" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="AH79" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI79" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ79" s="2"/>
+    </row>
+    <row r="80" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="15">
+        <v>100079</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="16">
+        <v>16</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H80" s="16">
+        <v>300151</v>
+      </c>
+      <c r="I80" s="16">
+        <v>300152</v>
+      </c>
+      <c r="J80" s="16">
+        <v>300156</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L80" s="16">
+        <v>4</v>
+      </c>
+      <c r="M80" s="16">
+        <v>5</v>
+      </c>
+      <c r="N80" s="16">
+        <v>1</v>
+      </c>
+      <c r="O80" s="16">
+        <v>1</v>
+      </c>
+      <c r="P80" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="16">
+        <v>22</v>
+      </c>
+      <c r="R80" s="16">
+        <v>24.5</v>
+      </c>
+      <c r="S80" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="T80" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="U80" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="V80" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="W80" s="15">
+        <v>4</v>
+      </c>
+      <c r="X80" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z80" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA80" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB80" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AC80" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE80" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF80" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG80" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="AH80" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI80" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ80" s="2"/>
+    </row>
+    <row r="81" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="15">
+        <v>100080</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" s="16">
+        <v>16</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H81" s="16">
+        <v>300151</v>
+      </c>
+      <c r="I81" s="16">
+        <v>300152</v>
+      </c>
+      <c r="J81" s="16">
+        <v>300157</v>
+      </c>
+      <c r="K81" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L81" s="16">
+        <v>5</v>
+      </c>
+      <c r="M81" s="16">
+        <v>5</v>
+      </c>
+      <c r="N81" s="16">
+        <v>1</v>
+      </c>
+      <c r="O81" s="16">
+        <v>1</v>
+      </c>
+      <c r="P81" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="16">
+        <v>27</v>
+      </c>
+      <c r="R81" s="16">
+        <v>29.5</v>
+      </c>
+      <c r="S81" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="T81" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="U81" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="V81" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="W81" s="15">
+        <v>5</v>
+      </c>
+      <c r="X81" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z81" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA81" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB81" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AC81" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE81" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF81" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG81" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="AH81" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI81" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ81" s="2"/>
+    </row>
+    <row r="82" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>100081</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AJ78" s="2"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="16">
-        <v>100078.0</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="17">
-        <v>16.0</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H79" s="17">
-        <v>300151.0</v>
-      </c>
-      <c r="I79" s="17">
-        <v>300152.0</v>
-      </c>
-      <c r="J79" s="17">
-        <v>300155.0</v>
-      </c>
-      <c r="K79" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="L79" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="M79" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="N79" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="O79" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="P79" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="Q79" s="17">
-        <v>17.0</v>
-      </c>
-      <c r="R79" s="17">
-        <v>19.5</v>
-      </c>
-      <c r="S79" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T79" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="U79" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="V79" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W79" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="X79" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="Y79" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z79" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA79" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB79" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AC79" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AD79" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE79" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF79" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG79" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="AH79" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AI79" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ79" s="2"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="16">
-        <v>100079.0</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80" s="17">
-        <v>16.0</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F80" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H80" s="17">
-        <v>300151.0</v>
-      </c>
-      <c r="I80" s="17">
-        <v>300152.0</v>
-      </c>
-      <c r="J80" s="17">
-        <v>300156.0</v>
-      </c>
-      <c r="K80" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="L80" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="M80" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="N80" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="O80" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="P80" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="Q80" s="17">
-        <v>22.0</v>
-      </c>
-      <c r="R80" s="17">
-        <v>24.5</v>
-      </c>
-      <c r="S80" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T80" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="U80" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="V80" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W80" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="X80" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="Y80" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z80" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA80" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB80" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AC80" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AD80" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE80" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF80" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG80" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="AH80" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AI80" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ80" s="2"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="16">
-        <v>100080.0</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C81" s="17">
-        <v>16.0</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F81" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H81" s="17">
-        <v>300151.0</v>
-      </c>
-      <c r="I81" s="17">
-        <v>300152.0</v>
-      </c>
-      <c r="J81" s="17">
-        <v>300157.0</v>
-      </c>
-      <c r="K81" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="L81" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="M81" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="N81" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="O81" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="P81" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="Q81" s="17">
-        <v>27.0</v>
-      </c>
-      <c r="R81" s="17">
-        <v>29.5</v>
-      </c>
-      <c r="S81" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T81" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="U81" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="V81" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W81" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="X81" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="Y81" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z81" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA81" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB81" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AC81" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AD81" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE81" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF81" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG81" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="AH81" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="AI81" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ81" s="2"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="3">
-        <v>100081.0</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="C82" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>36</v>
@@ -8096,40 +8158,40 @@
         <v>39</v>
       </c>
       <c r="H82" s="1">
-        <v>300161.0</v>
+        <v>300161</v>
       </c>
       <c r="I82" s="1">
-        <v>300162.0</v>
+        <v>300162</v>
       </c>
       <c r="J82" s="1">
-        <v>300163.0</v>
+        <v>300163</v>
       </c>
       <c r="K82" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L82" s="1">
+        <v>1</v>
+      </c>
+      <c r="M82" s="1">
+        <v>5</v>
+      </c>
+      <c r="N82" s="1">
+        <v>1</v>
+      </c>
+      <c r="O82" s="1">
+        <v>3</v>
+      </c>
+      <c r="P82" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>5</v>
+      </c>
+      <c r="R82" s="1">
+        <v>3</v>
+      </c>
+      <c r="S82" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="L82" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="M82" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N82" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="O82" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="P82" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="Q82" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="R82" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="S82" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="T82" s="3" t="s">
         <v>42</v>
@@ -8141,10 +8203,10 @@
         <v>44</v>
       </c>
       <c r="W82" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X82" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
@@ -8159,15 +8221,15 @@
       <c r="AI82" s="2"/>
       <c r="AJ82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <v>100082.0</v>
+        <v>100082</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C83" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>36</v>
@@ -8182,40 +8244,40 @@
         <v>39</v>
       </c>
       <c r="H83" s="1">
-        <v>300161.0</v>
+        <v>300161</v>
       </c>
       <c r="I83" s="1">
-        <v>300162.0</v>
+        <v>300162</v>
       </c>
       <c r="J83" s="1">
-        <v>300164.0</v>
+        <v>300164</v>
       </c>
       <c r="K83" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L83" s="1">
+        <v>2</v>
+      </c>
+      <c r="M83" s="1">
+        <v>5</v>
+      </c>
+      <c r="N83" s="1">
+        <v>1</v>
+      </c>
+      <c r="O83" s="1">
+        <v>4</v>
+      </c>
+      <c r="P83" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>5</v>
+      </c>
+      <c r="R83" s="1">
+        <v>3</v>
+      </c>
+      <c r="S83" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="L83" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="M83" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N83" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="O83" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="P83" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="Q83" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="R83" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="S83" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>42</v>
@@ -8227,10 +8289,10 @@
         <v>44</v>
       </c>
       <c r="W83" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X83" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
@@ -8245,15 +8307,15 @@
       <c r="AI83" s="2"/>
       <c r="AJ83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
-        <v>100083.0</v>
+        <v>100083</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C84" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>36</v>
@@ -8268,40 +8330,40 @@
         <v>39</v>
       </c>
       <c r="H84" s="1">
-        <v>300161.0</v>
+        <v>300161</v>
       </c>
       <c r="I84" s="1">
-        <v>300162.0</v>
+        <v>300162</v>
       </c>
       <c r="J84" s="1">
-        <v>300165.0</v>
+        <v>300165</v>
       </c>
       <c r="K84" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L84" s="1">
+        <v>3</v>
+      </c>
+      <c r="M84" s="1">
+        <v>5</v>
+      </c>
+      <c r="N84" s="1">
+        <v>1</v>
+      </c>
+      <c r="O84" s="1">
+        <v>5</v>
+      </c>
+      <c r="P84" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>5</v>
+      </c>
+      <c r="R84" s="1">
+        <v>3</v>
+      </c>
+      <c r="S84" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="L84" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="M84" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N84" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="O84" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="P84" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="Q84" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="R84" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="S84" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="T84" s="3" t="s">
         <v>42</v>
@@ -8313,10 +8375,10 @@
         <v>44</v>
       </c>
       <c r="W84" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="X84" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
@@ -8331,15 +8393,15 @@
       <c r="AI84" s="2"/>
       <c r="AJ84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
-        <v>100084.0</v>
+        <v>100084</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C85" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>36</v>
@@ -8354,40 +8416,40 @@
         <v>39</v>
       </c>
       <c r="H85" s="1">
-        <v>300161.0</v>
+        <v>300161</v>
       </c>
       <c r="I85" s="1">
-        <v>300162.0</v>
+        <v>300162</v>
       </c>
       <c r="J85" s="1">
-        <v>300166.0</v>
+        <v>300166</v>
       </c>
       <c r="K85" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L85" s="1">
+        <v>4</v>
+      </c>
+      <c r="M85" s="1">
+        <v>5</v>
+      </c>
+      <c r="N85" s="1">
+        <v>1</v>
+      </c>
+      <c r="O85" s="1">
+        <v>6</v>
+      </c>
+      <c r="P85" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>5</v>
+      </c>
+      <c r="R85" s="1">
+        <v>3</v>
+      </c>
+      <c r="S85" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="L85" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="M85" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N85" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="O85" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="P85" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="Q85" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="R85" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="S85" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="T85" s="3" t="s">
         <v>42</v>
@@ -8399,10 +8461,10 @@
         <v>44</v>
       </c>
       <c r="W85" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X85" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
@@ -8417,15 +8479,15 @@
       <c r="AI85" s="2"/>
       <c r="AJ85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
-        <v>100085.0</v>
+        <v>100085</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C86" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>36</v>
@@ -8440,40 +8502,40 @@
         <v>39</v>
       </c>
       <c r="H86" s="1">
-        <v>300161.0</v>
+        <v>300161</v>
       </c>
       <c r="I86" s="1">
-        <v>300162.0</v>
+        <v>300162</v>
       </c>
       <c r="J86" s="1">
-        <v>300167.0</v>
+        <v>300167</v>
       </c>
       <c r="K86" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L86" s="1">
+        <v>5</v>
+      </c>
+      <c r="M86" s="1">
+        <v>5</v>
+      </c>
+      <c r="N86" s="1">
+        <v>1</v>
+      </c>
+      <c r="O86" s="1">
+        <v>7</v>
+      </c>
+      <c r="P86" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>5</v>
+      </c>
+      <c r="R86" s="1">
+        <v>3</v>
+      </c>
+      <c r="S86" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="L86" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="M86" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="N86" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="O86" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="P86" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="Q86" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="R86" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="S86" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="T86" s="3" t="s">
         <v>42</v>
@@ -8485,10 +8547,10 @@
         <v>44</v>
       </c>
       <c r="W86" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X86" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
@@ -8503,24 +8565,24 @@
       <c r="AI86" s="2"/>
       <c r="AJ86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:36" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>200001.0</v>
+        <v>200001</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C87" s="3">
-        <v>1000.0</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>39</v>
@@ -8530,28 +8592,28 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M87" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N87" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O87" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="P87" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q87" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R87" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T87" s="3" t="s">
         <v>42</v>
@@ -8563,10 +8625,10 @@
         <v>44</v>
       </c>
       <c r="W87" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X87" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
@@ -8582,254 +8644,259 @@
       <c r="AJ87" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="23" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="26" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="26" t="s">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="26" t="s">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="26" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="26" t="s">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="26" t="s">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="26" t="s">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="26" t="s">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="26" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="26" t="s">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="26" t="s">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="26" t="s">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="26" t="s">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="26" t="s">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="24" t="s">
+      <c r="B18" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="26" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="24" t="s">
+      <c r="B19" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="26" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="24" t="s">
+      <c r="B20" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="26" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="24" t="s">
+      <c r="B21" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="26" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="24" t="s">
+      <c r="B22" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>141</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Unknown_Platypus/Table/SkillTable.xlsx
+++ b/Unknown_Platypus/Table/SkillTable.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="113">
   <si>
     <t>index</t>
   </si>
@@ -154,6 +154,12 @@
     <t>add</t>
   </si>
   <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>movespeed</t>
+  </si>
+  <si>
     <t>공기파편2랩</t>
   </si>
   <si>
@@ -173,12 +179,6 @@
   </si>
   <si>
     <t>ElementalSkill</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>movespeed</t>
   </si>
   <si>
     <t>엘리멘탈2랩</t>
@@ -974,11 +974,21 @@
       <c r="AC2" s="4">
         <v>1.0</v>
       </c>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
+      <c r="AD2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>0.0</v>
+      </c>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
     </row>
@@ -987,7 +997,7 @@
         <v>100002.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -1070,11 +1080,21 @@
       <c r="AC3" s="4">
         <v>1.0</v>
       </c>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
+      <c r="AD3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>0.0</v>
+      </c>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
     </row>
@@ -1083,7 +1103,7 @@
         <v>100003.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -1166,11 +1186,21 @@
       <c r="AC4" s="4">
         <v>2.0</v>
       </c>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+      <c r="AD4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>0.0</v>
+      </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
@@ -1179,7 +1209,7 @@
         <v>100004.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
@@ -1262,11 +1292,21 @@
       <c r="AC5" s="4">
         <v>1.0</v>
       </c>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
+      <c r="AD5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>0.0</v>
+      </c>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
     </row>
@@ -1275,7 +1315,7 @@
         <v>100005.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>1.0</v>
@@ -1358,11 +1398,21 @@
       <c r="AC6" s="4">
         <v>3.0</v>
       </c>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
+      <c r="AD6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>0.0</v>
+      </c>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
@@ -1371,7 +1421,7 @@
         <v>100006.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>2.0</v>
@@ -1383,10 +1433,10 @@
         <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H7" s="1">
         <v>300011.0</v>
@@ -1398,7 +1448,7 @@
         <v>300013.0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L7" s="1">
         <v>1.0</v>
@@ -1422,7 +1472,7 @@
         <v>5.0</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>42</v>
@@ -1440,10 +1490,10 @@
         <v>0.0</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA7" s="3" t="s">
         <v>46</v>
@@ -1479,10 +1529,10 @@
         <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="1">
         <v>300011.0</v>
@@ -1494,7 +1544,7 @@
         <v>300014.0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L8" s="1">
         <v>2.0</v>
@@ -1518,7 +1568,7 @@
         <v>5.0</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>42</v>
@@ -1536,10 +1586,10 @@
         <v>0.0</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>46</v>
@@ -1575,10 +1625,10 @@
         <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H9" s="1">
         <v>300011.0</v>
@@ -1590,7 +1640,7 @@
         <v>300015.0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1">
         <v>3.0</v>
@@ -1614,7 +1664,7 @@
         <v>5.0</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>42</v>
@@ -1632,10 +1682,10 @@
         <v>0.0</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>46</v>
@@ -1671,10 +1721,10 @@
         <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="1">
         <v>300011.0</v>
@@ -1686,7 +1736,7 @@
         <v>300016.0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1">
         <v>4.0</v>
@@ -1710,7 +1760,7 @@
         <v>5.0</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>42</v>
@@ -1728,10 +1778,10 @@
         <v>0.0</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>46</v>
@@ -1767,10 +1817,10 @@
         <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" s="1">
         <v>300011.0</v>
@@ -1782,7 +1832,7 @@
         <v>300017.0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L11" s="1">
         <v>5.0</v>
@@ -1806,7 +1856,7 @@
         <v>5.0</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>42</v>
@@ -1824,10 +1874,10 @@
         <v>0.0</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA11" s="3" t="s">
         <v>46</v>
@@ -2297,7 +2347,7 @@
         <v>37</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>39</v>
@@ -2383,7 +2433,7 @@
         <v>37</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>39</v>
@@ -2471,7 +2521,7 @@
         <v>37</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>39</v>
@@ -2559,7 +2609,7 @@
         <v>37</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>39</v>
@@ -2647,7 +2697,7 @@
         <v>37</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>39</v>
@@ -4885,7 +4935,7 @@
         <v>37</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>39</v>
@@ -4971,7 +5021,7 @@
         <v>37</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>39</v>
@@ -5057,7 +5107,7 @@
         <v>37</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>39</v>
@@ -5143,7 +5193,7 @@
         <v>37</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>39</v>
@@ -5229,7 +5279,7 @@
         <v>37</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>39</v>
@@ -5315,7 +5365,7 @@
         <v>37</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>39</v>
@@ -5401,7 +5451,7 @@
         <v>37</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>39</v>
@@ -5487,7 +5537,7 @@
         <v>37</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>39</v>
@@ -5573,7 +5623,7 @@
         <v>37</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>39</v>
@@ -5659,7 +5709,7 @@
         <v>37</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>39</v>
@@ -5745,7 +5795,7 @@
         <v>37</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>39</v>
@@ -5831,7 +5881,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>39</v>
@@ -5917,7 +5967,7 @@
         <v>37</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>39</v>
@@ -6003,7 +6053,7 @@
         <v>37</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>39</v>
@@ -6089,7 +6139,7 @@
         <v>37</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>39</v>

--- a/Unknown_Platypus/Table/SkillTable.xlsx
+++ b/Unknown_Platypus/Table/SkillTable.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="114">
   <si>
     <t>index</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>add</t>
+  </si>
+  <si>
+    <t>1;50</t>
   </si>
   <si>
     <t>speed</t>
@@ -968,17 +971,17 @@
       <c r="AA2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="4">
-        <v>1.0</v>
+      <c r="AB2" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="AC2" s="4">
         <v>1.0</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF2" s="3" t="s">
         <v>46</v>
@@ -997,7 +1000,7 @@
         <v>100002.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -1074,17 +1077,17 @@
       <c r="AA3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="4">
-        <v>1.0</v>
+      <c r="AB3" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="AC3" s="4">
         <v>1.0</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF3" s="3" t="s">
         <v>46</v>
@@ -1103,7 +1106,7 @@
         <v>100003.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -1180,17 +1183,17 @@
       <c r="AA4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AB4" s="4">
-        <v>1.0</v>
+      <c r="AB4" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="AC4" s="4">
         <v>2.0</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF4" s="3" t="s">
         <v>46</v>
@@ -1209,7 +1212,7 @@
         <v>100004.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
@@ -1286,17 +1289,17 @@
       <c r="AA5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AB5" s="4">
-        <v>1.0</v>
+      <c r="AB5" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="AC5" s="4">
         <v>1.0</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF5" s="3" t="s">
         <v>46</v>
@@ -1315,7 +1318,7 @@
         <v>100005.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1">
         <v>1.0</v>
@@ -1392,17 +1395,17 @@
       <c r="AA6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AB6" s="4">
-        <v>1.0</v>
+      <c r="AB6" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="AC6" s="4">
         <v>3.0</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF6" s="3" t="s">
         <v>46</v>
@@ -1421,7 +1424,7 @@
         <v>100006.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1">
         <v>2.0</v>
@@ -1433,10 +1436,10 @@
         <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1">
         <v>300011.0</v>
@@ -1448,7 +1451,7 @@
         <v>300013.0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L7" s="1">
         <v>1.0</v>
@@ -1472,7 +1475,7 @@
         <v>5.0</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>42</v>
@@ -1490,10 +1493,10 @@
         <v>0.0</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA7" s="3" t="s">
         <v>46</v>
@@ -1517,7 +1520,7 @@
         <v>100007.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1">
         <v>2.0</v>
@@ -1529,10 +1532,10 @@
         <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H8" s="1">
         <v>300011.0</v>
@@ -1544,7 +1547,7 @@
         <v>300014.0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="1">
         <v>2.0</v>
@@ -1568,7 +1571,7 @@
         <v>5.0</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>42</v>
@@ -1586,10 +1589,10 @@
         <v>0.0</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>46</v>
@@ -1613,7 +1616,7 @@
         <v>100008.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1">
         <v>2.0</v>
@@ -1625,10 +1628,10 @@
         <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="1">
         <v>300011.0</v>
@@ -1640,7 +1643,7 @@
         <v>300015.0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="1">
         <v>3.0</v>
@@ -1664,7 +1667,7 @@
         <v>5.0</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>42</v>
@@ -1682,10 +1685,10 @@
         <v>0.0</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>46</v>
@@ -1709,7 +1712,7 @@
         <v>100009.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1">
         <v>2.0</v>
@@ -1721,10 +1724,10 @@
         <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" s="1">
         <v>300011.0</v>
@@ -1736,7 +1739,7 @@
         <v>300016.0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="1">
         <v>4.0</v>
@@ -1760,7 +1763,7 @@
         <v>5.0</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>42</v>
@@ -1778,10 +1781,10 @@
         <v>0.0</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>46</v>
@@ -1805,7 +1808,7 @@
         <v>100010.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1">
         <v>2.0</v>
@@ -1817,10 +1820,10 @@
         <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1">
         <v>300011.0</v>
@@ -1832,7 +1835,7 @@
         <v>300017.0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L11" s="1">
         <v>5.0</v>
@@ -1856,7 +1859,7 @@
         <v>5.0</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>42</v>
@@ -1874,10 +1877,10 @@
         <v>0.0</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA11" s="3" t="s">
         <v>46</v>
@@ -1901,7 +1904,7 @@
         <v>100011.0</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="7">
         <v>3.0</v>
@@ -1928,7 +1931,7 @@
         <v>300023.0</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L12" s="7">
         <v>1.0</v>
@@ -1952,7 +1955,7 @@
         <v>5.0</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T12" s="6" t="s">
         <v>42</v>
@@ -1987,7 +1990,7 @@
         <v>100012.0</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="7">
         <v>3.0</v>
@@ -2014,7 +2017,7 @@
         <v>300024.0</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7">
         <v>2.0</v>
@@ -2038,7 +2041,7 @@
         <v>5.0</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>42</v>
@@ -2066,7 +2069,7 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -2074,7 +2077,7 @@
         <v>100013.0</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7">
         <v>3.0</v>
@@ -2101,7 +2104,7 @@
         <v>300025.0</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L14" s="7">
         <v>3.0</v>
@@ -2125,7 +2128,7 @@
         <v>5.0</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T14" s="6" t="s">
         <v>42</v>
@@ -2153,7 +2156,7 @@
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
       <c r="AI14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -2161,7 +2164,7 @@
         <v>100014.0</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="7">
         <v>3.0</v>
@@ -2188,7 +2191,7 @@
         <v>300026.0</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L15" s="7">
         <v>4.0</v>
@@ -2212,7 +2215,7 @@
         <v>5.0</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T15" s="6" t="s">
         <v>42</v>
@@ -2240,7 +2243,7 @@
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -2248,7 +2251,7 @@
         <v>100015.0</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="7">
         <v>3.0</v>
@@ -2275,7 +2278,7 @@
         <v>300027.0</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7">
         <v>5.0</v>
@@ -2299,7 +2302,7 @@
         <v>5.0</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T16" s="6" t="s">
         <v>42</v>
@@ -2327,7 +2330,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
@@ -2335,7 +2338,7 @@
         <v>100016.0</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="10">
         <v>4.0</v>
@@ -2347,7 +2350,7 @@
         <v>37</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>39</v>
@@ -2362,7 +2365,7 @@
         <v>300033.0</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L17" s="10">
         <v>1.0</v>
@@ -2386,7 +2389,7 @@
         <v>3.0</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T17" s="9" t="s">
         <v>42</v>
@@ -2421,7 +2424,7 @@
         <v>100017.0</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="10">
         <v>4.0</v>
@@ -2433,7 +2436,7 @@
         <v>37</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>39</v>
@@ -2448,7 +2451,7 @@
         <v>300034.0</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L18" s="10">
         <v>2.0</v>
@@ -2472,7 +2475,7 @@
         <v>3.0</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T18" s="9" t="s">
         <v>42</v>
@@ -2500,7 +2503,7 @@
       <c r="AG18" s="12"/>
       <c r="AH18" s="12"/>
       <c r="AI18" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ18" s="15"/>
     </row>
@@ -2509,7 +2512,7 @@
         <v>100018.0</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="10">
         <v>4.0</v>
@@ -2521,7 +2524,7 @@
         <v>37</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>39</v>
@@ -2536,7 +2539,7 @@
         <v>300035.0</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L19" s="10">
         <v>3.0</v>
@@ -2560,7 +2563,7 @@
         <v>3.0</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T19" s="9" t="s">
         <v>42</v>
@@ -2588,7 +2591,7 @@
       <c r="AG19" s="12"/>
       <c r="AH19" s="12"/>
       <c r="AI19" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ19" s="15"/>
     </row>
@@ -2597,7 +2600,7 @@
         <v>100019.0</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="10">
         <v>4.0</v>
@@ -2609,7 +2612,7 @@
         <v>37</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>39</v>
@@ -2624,7 +2627,7 @@
         <v>300036.0</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L20" s="10">
         <v>4.0</v>
@@ -2648,7 +2651,7 @@
         <v>3.0</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T20" s="9" t="s">
         <v>42</v>
@@ -2676,7 +2679,7 @@
       <c r="AG20" s="12"/>
       <c r="AH20" s="12"/>
       <c r="AI20" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ20" s="15"/>
     </row>
@@ -2685,7 +2688,7 @@
         <v>100020.0</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="10">
         <v>4.0</v>
@@ -2697,7 +2700,7 @@
         <v>37</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>39</v>
@@ -2712,7 +2715,7 @@
         <v>300037.0</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L21" s="10">
         <v>5.0</v>
@@ -2736,7 +2739,7 @@
         <v>3.0</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T21" s="9" t="s">
         <v>42</v>
@@ -2764,7 +2767,7 @@
       <c r="AG21" s="12"/>
       <c r="AH21" s="12"/>
       <c r="AI21" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ21" s="15"/>
     </row>
@@ -2773,7 +2776,7 @@
         <v>100021.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1">
         <v>5.0</v>
@@ -2800,7 +2803,7 @@
         <v>300043.0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L22" s="1">
         <v>1.0</v>
@@ -2824,7 +2827,7 @@
         <v>5.0</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>42</v>
@@ -2859,7 +2862,7 @@
         <v>100022.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1">
         <v>5.0</v>
@@ -2886,7 +2889,7 @@
         <v>300044.0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L23" s="1">
         <v>2.0</v>
@@ -2910,7 +2913,7 @@
         <v>6.0</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>42</v>
@@ -2945,7 +2948,7 @@
         <v>100023.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1">
         <v>5.0</v>
@@ -2972,7 +2975,7 @@
         <v>300045.0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="1">
         <v>3.0</v>
@@ -2996,7 +2999,7 @@
         <v>7.0</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>42</v>
@@ -3031,7 +3034,7 @@
         <v>100024.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1">
         <v>5.0</v>
@@ -3058,7 +3061,7 @@
         <v>300046.0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L25" s="1">
         <v>4.0</v>
@@ -3082,7 +3085,7 @@
         <v>8.0</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T25" s="3" t="s">
         <v>42</v>
@@ -3117,7 +3120,7 @@
         <v>100025.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1">
         <v>5.0</v>
@@ -3144,7 +3147,7 @@
         <v>300047.0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L26" s="1">
         <v>5.0</v>
@@ -3168,7 +3171,7 @@
         <v>9.0</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>42</v>
@@ -3203,7 +3206,7 @@
         <v>100026.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1">
         <v>6.0</v>
@@ -3230,7 +3233,7 @@
         <v>300053.0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L27" s="1">
         <v>1.0</v>
@@ -3254,7 +3257,7 @@
         <v>5.0</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>42</v>
@@ -3289,7 +3292,7 @@
         <v>100027.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" s="1">
         <v>6.0</v>
@@ -3316,7 +3319,7 @@
         <v>300054.0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L28" s="1">
         <v>2.0</v>
@@ -3340,7 +3343,7 @@
         <v>5.0</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T28" s="3" t="s">
         <v>42</v>
@@ -3375,7 +3378,7 @@
         <v>100028.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1">
         <v>6.0</v>
@@ -3402,7 +3405,7 @@
         <v>300055.0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L29" s="1">
         <v>3.0</v>
@@ -3426,7 +3429,7 @@
         <v>6.0</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>42</v>
@@ -3461,7 +3464,7 @@
         <v>100029.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1">
         <v>6.0</v>
@@ -3488,7 +3491,7 @@
         <v>300056.0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L30" s="1">
         <v>4.0</v>
@@ -3512,7 +3515,7 @@
         <v>6.0</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T30" s="3" t="s">
         <v>42</v>
@@ -3547,7 +3550,7 @@
         <v>100030.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="1">
         <v>6.0</v>
@@ -3574,7 +3577,7 @@
         <v>300057.0</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L31" s="1">
         <v>5.0</v>
@@ -3598,7 +3601,7 @@
         <v>6.0</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>42</v>
@@ -3633,7 +3636,7 @@
         <v>100031.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="1">
         <v>7.0</v>
@@ -3660,7 +3663,7 @@
         <v>300061.0</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L32" s="1">
         <v>1.0</v>
@@ -3684,7 +3687,7 @@
         <v>5.0</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>42</v>
@@ -3719,7 +3722,7 @@
         <v>100032.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="1">
         <v>7.0</v>
@@ -3746,7 +3749,7 @@
         <v>300061.0</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L33" s="1">
         <v>2.0</v>
@@ -3770,7 +3773,7 @@
         <v>5.0</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>42</v>
@@ -3805,7 +3808,7 @@
         <v>100033.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1">
         <v>7.0</v>
@@ -3832,7 +3835,7 @@
         <v>300061.0</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L34" s="1">
         <v>3.0</v>
@@ -3856,7 +3859,7 @@
         <v>5.0</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T34" s="3" t="s">
         <v>42</v>
@@ -3891,7 +3894,7 @@
         <v>100034.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1">
         <v>7.0</v>
@@ -3918,7 +3921,7 @@
         <v>300061.0</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L35" s="1">
         <v>4.0</v>
@@ -3942,7 +3945,7 @@
         <v>5.0</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>42</v>
@@ -3977,7 +3980,7 @@
         <v>100035.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="1">
         <v>7.0</v>
@@ -4004,7 +4007,7 @@
         <v>300061.0</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L36" s="1">
         <v>5.0</v>
@@ -4028,7 +4031,7 @@
         <v>5.0</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T36" s="3" t="s">
         <v>42</v>
@@ -4063,7 +4066,7 @@
         <v>100036.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="1">
         <v>8.0</v>
@@ -4090,7 +4093,7 @@
         <v>300073.0</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L37" s="1">
         <v>1.0</v>
@@ -4114,7 +4117,7 @@
         <v>3.0</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T37" s="3" t="s">
         <v>42</v>
@@ -4149,7 +4152,7 @@
         <v>100037.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1">
         <v>8.0</v>
@@ -4176,7 +4179,7 @@
         <v>300074.0</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L38" s="1">
         <v>2.0</v>
@@ -4200,7 +4203,7 @@
         <v>3.0</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T38" s="3" t="s">
         <v>42</v>
@@ -4235,7 +4238,7 @@
         <v>100038.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1">
         <v>8.0</v>
@@ -4262,7 +4265,7 @@
         <v>300075.0</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L39" s="1">
         <v>3.0</v>
@@ -4286,7 +4289,7 @@
         <v>3.0</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T39" s="3" t="s">
         <v>42</v>
@@ -4321,7 +4324,7 @@
         <v>100039.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1">
         <v>8.0</v>
@@ -4348,7 +4351,7 @@
         <v>300076.0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L40" s="1">
         <v>4.0</v>
@@ -4372,7 +4375,7 @@
         <v>3.0</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T40" s="3" t="s">
         <v>42</v>
@@ -4407,7 +4410,7 @@
         <v>100040.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" s="1">
         <v>8.0</v>
@@ -4434,7 +4437,7 @@
         <v>300077.0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L41" s="1">
         <v>5.0</v>
@@ -4458,7 +4461,7 @@
         <v>3.0</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>42</v>
@@ -4493,7 +4496,7 @@
         <v>100041.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="1">
         <v>9.0</v>
@@ -4520,7 +4523,7 @@
         <v>300083.0</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L42" s="1">
         <v>1.0</v>
@@ -4544,7 +4547,7 @@
         <v>1.0</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>42</v>
@@ -4579,7 +4582,7 @@
         <v>100042.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1">
         <v>9.0</v>
@@ -4606,7 +4609,7 @@
         <v>300084.0</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L43" s="1">
         <v>2.0</v>
@@ -4630,7 +4633,7 @@
         <v>3.0</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>42</v>
@@ -4665,7 +4668,7 @@
         <v>100043.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" s="1">
         <v>9.0</v>
@@ -4692,7 +4695,7 @@
         <v>300085.0</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L44" s="1">
         <v>3.0</v>
@@ -4716,7 +4719,7 @@
         <v>3.0</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>42</v>
@@ -4751,7 +4754,7 @@
         <v>100044.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45" s="1">
         <v>9.0</v>
@@ -4778,7 +4781,7 @@
         <v>300086.0</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L45" s="1">
         <v>4.0</v>
@@ -4802,7 +4805,7 @@
         <v>3.0</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>42</v>
@@ -4837,7 +4840,7 @@
         <v>100045.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C46" s="1">
         <v>9.0</v>
@@ -4864,7 +4867,7 @@
         <v>300087.0</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L46" s="1">
         <v>5.0</v>
@@ -4888,7 +4891,7 @@
         <v>3.0</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>42</v>
@@ -4923,7 +4926,7 @@
         <v>100046.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47" s="1">
         <v>10.0</v>
@@ -4935,7 +4938,7 @@
         <v>37</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>39</v>
@@ -4950,7 +4953,7 @@
         <v>300093.0</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L47" s="1">
         <v>1.0</v>
@@ -4974,7 +4977,7 @@
         <v>3.0</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>42</v>
@@ -5009,7 +5012,7 @@
         <v>100047.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C48" s="1">
         <v>10.0</v>
@@ -5021,7 +5024,7 @@
         <v>37</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>39</v>
@@ -5036,7 +5039,7 @@
         <v>300094.0</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L48" s="1">
         <v>2.0</v>
@@ -5060,7 +5063,7 @@
         <v>3.0</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>42</v>
@@ -5095,7 +5098,7 @@
         <v>100048.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C49" s="1">
         <v>10.0</v>
@@ -5107,7 +5110,7 @@
         <v>37</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>39</v>
@@ -5122,7 +5125,7 @@
         <v>300095.0</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L49" s="1">
         <v>3.0</v>
@@ -5146,7 +5149,7 @@
         <v>3.0</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>42</v>
@@ -5181,7 +5184,7 @@
         <v>100049.0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C50" s="1">
         <v>10.0</v>
@@ -5193,7 +5196,7 @@
         <v>37</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>39</v>
@@ -5208,7 +5211,7 @@
         <v>300096.0</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L50" s="1">
         <v>4.0</v>
@@ -5232,7 +5235,7 @@
         <v>3.0</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>42</v>
@@ -5267,7 +5270,7 @@
         <v>100050.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C51" s="1">
         <v>10.0</v>
@@ -5279,7 +5282,7 @@
         <v>37</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>39</v>
@@ -5294,7 +5297,7 @@
         <v>300097.0</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L51" s="1">
         <v>5.0</v>
@@ -5318,7 +5321,7 @@
         <v>2.0</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T51" s="3" t="s">
         <v>42</v>
@@ -5353,7 +5356,7 @@
         <v>100051.0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C52" s="1">
         <v>11.0</v>
@@ -5365,7 +5368,7 @@
         <v>37</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>39</v>
@@ -5380,7 +5383,7 @@
         <v>300103.0</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L52" s="1">
         <v>1.0</v>
@@ -5404,7 +5407,7 @@
         <v>7.0</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>42</v>
@@ -5439,7 +5442,7 @@
         <v>100052.0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C53" s="1">
         <v>11.0</v>
@@ -5451,7 +5454,7 @@
         <v>37</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>39</v>
@@ -5466,7 +5469,7 @@
         <v>300104.0</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L53" s="1">
         <v>2.0</v>
@@ -5490,7 +5493,7 @@
         <v>9.0</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T53" s="3" t="s">
         <v>42</v>
@@ -5525,7 +5528,7 @@
         <v>100053.0</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C54" s="1">
         <v>11.0</v>
@@ -5537,7 +5540,7 @@
         <v>37</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>39</v>
@@ -5552,7 +5555,7 @@
         <v>300105.0</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L54" s="1">
         <v>3.0</v>
@@ -5576,7 +5579,7 @@
         <v>11.0</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>42</v>
@@ -5611,7 +5614,7 @@
         <v>100054.0</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C55" s="1">
         <v>11.0</v>
@@ -5623,7 +5626,7 @@
         <v>37</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>39</v>
@@ -5638,7 +5641,7 @@
         <v>300106.0</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L55" s="1">
         <v>4.0</v>
@@ -5662,7 +5665,7 @@
         <v>13.0</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T55" s="3" t="s">
         <v>42</v>
@@ -5697,7 +5700,7 @@
         <v>100055.0</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C56" s="1">
         <v>11.0</v>
@@ -5709,7 +5712,7 @@
         <v>37</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>39</v>
@@ -5724,7 +5727,7 @@
         <v>300107.0</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L56" s="1">
         <v>5.0</v>
@@ -5748,7 +5751,7 @@
         <v>15.0</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>42</v>
@@ -5783,7 +5786,7 @@
         <v>100056.0</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C57" s="1">
         <v>12.0</v>
@@ -5795,7 +5798,7 @@
         <v>37</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>39</v>
@@ -5810,7 +5813,7 @@
         <v>300113.0</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1">
         <v>1.0</v>
@@ -5834,7 +5837,7 @@
         <v>0.0</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>42</v>
@@ -5869,7 +5872,7 @@
         <v>100057.0</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C58" s="1">
         <v>12.0</v>
@@ -5881,7 +5884,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>39</v>
@@ -5896,7 +5899,7 @@
         <v>300114.0</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1">
         <v>2.0</v>
@@ -5920,7 +5923,7 @@
         <v>0.0</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>42</v>
@@ -5955,7 +5958,7 @@
         <v>100058.0</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C59" s="1">
         <v>12.0</v>
@@ -5967,7 +5970,7 @@
         <v>37</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>39</v>
@@ -5982,7 +5985,7 @@
         <v>300115.0</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L59" s="1">
         <v>3.0</v>
@@ -6006,7 +6009,7 @@
         <v>0.0</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>42</v>
@@ -6041,7 +6044,7 @@
         <v>100059.0</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C60" s="1">
         <v>12.0</v>
@@ -6053,7 +6056,7 @@
         <v>37</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>39</v>
@@ -6068,7 +6071,7 @@
         <v>300116.0</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L60" s="1">
         <v>4.0</v>
@@ -6092,7 +6095,7 @@
         <v>0.0</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>42</v>
@@ -6127,7 +6130,7 @@
         <v>100060.0</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C61" s="1">
         <v>12.0</v>
@@ -6139,7 +6142,7 @@
         <v>37</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>39</v>
@@ -6154,7 +6157,7 @@
         <v>300117.0</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1">
         <v>5.0</v>
@@ -6178,7 +6181,7 @@
         <v>0.0</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T61" s="3" t="s">
         <v>42</v>
@@ -6213,7 +6216,7 @@
         <v>100061.0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C62" s="1">
         <v>13.0</v>
@@ -6240,7 +6243,7 @@
         <v>300123.0</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L62" s="1">
         <v>1.0</v>
@@ -6264,7 +6267,7 @@
         <v>0.0</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>42</v>
@@ -6299,7 +6302,7 @@
         <v>100062.0</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C63" s="1">
         <v>13.0</v>
@@ -6326,7 +6329,7 @@
         <v>300124.0</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L63" s="1">
         <v>2.0</v>
@@ -6350,7 +6353,7 @@
         <v>0.0</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T63" s="3" t="s">
         <v>42</v>
@@ -6385,7 +6388,7 @@
         <v>100063.0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C64" s="1">
         <v>13.0</v>
@@ -6412,7 +6415,7 @@
         <v>300125.0</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L64" s="1">
         <v>3.0</v>
@@ -6436,7 +6439,7 @@
         <v>0.0</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T64" s="3" t="s">
         <v>42</v>
@@ -6471,7 +6474,7 @@
         <v>100064.0</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C65" s="1">
         <v>13.0</v>
@@ -6498,7 +6501,7 @@
         <v>300126.0</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L65" s="1">
         <v>4.0</v>
@@ -6522,7 +6525,7 @@
         <v>0.0</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T65" s="3" t="s">
         <v>42</v>
@@ -6557,7 +6560,7 @@
         <v>100065.0</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66" s="1">
         <v>13.0</v>
@@ -6584,7 +6587,7 @@
         <v>300127.0</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L66" s="1">
         <v>5.0</v>
@@ -6608,7 +6611,7 @@
         <v>0.0</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>42</v>
@@ -6643,7 +6646,7 @@
         <v>100066.0</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C67" s="1">
         <v>14.0</v>
@@ -6670,7 +6673,7 @@
         <v>300133.0</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L67" s="1">
         <v>1.0</v>
@@ -6694,7 +6697,7 @@
         <v>7.0</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T67" s="3" t="s">
         <v>42</v>
@@ -6729,7 +6732,7 @@
         <v>100067.0</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C68" s="1">
         <v>14.0</v>
@@ -6756,7 +6759,7 @@
         <v>300134.0</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L68" s="1">
         <v>2.0</v>
@@ -6780,7 +6783,7 @@
         <v>7.0</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>42</v>
@@ -6815,7 +6818,7 @@
         <v>100068.0</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C69" s="1">
         <v>14.0</v>
@@ -6842,7 +6845,7 @@
         <v>300135.0</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L69" s="1">
         <v>3.0</v>
@@ -6866,7 +6869,7 @@
         <v>7.0</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>42</v>
@@ -6901,7 +6904,7 @@
         <v>100069.0</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C70" s="1">
         <v>14.0</v>
@@ -6928,7 +6931,7 @@
         <v>300136.0</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L70" s="1">
         <v>4.0</v>
@@ -6952,7 +6955,7 @@
         <v>7.0</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T70" s="3" t="s">
         <v>42</v>
@@ -6987,7 +6990,7 @@
         <v>100070.0</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71" s="1">
         <v>14.0</v>
@@ -7014,7 +7017,7 @@
         <v>300137.0</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L71" s="1">
         <v>5.0</v>
@@ -7038,7 +7041,7 @@
         <v>7.0</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T71" s="3" t="s">
         <v>42</v>
@@ -7073,7 +7076,7 @@
         <v>100071.0</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C72" s="1">
         <v>15.0</v>
@@ -7100,7 +7103,7 @@
         <v>300143.0</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L72" s="1">
         <v>1.0</v>
@@ -7124,7 +7127,7 @@
         <v>7.0</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>42</v>
@@ -7159,7 +7162,7 @@
         <v>100072.0</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C73" s="1">
         <v>15.0</v>
@@ -7186,7 +7189,7 @@
         <v>300144.0</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L73" s="1">
         <v>2.0</v>
@@ -7210,7 +7213,7 @@
         <v>10.0</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T73" s="3" t="s">
         <v>42</v>
@@ -7245,7 +7248,7 @@
         <v>100073.0</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C74" s="1">
         <v>15.0</v>
@@ -7272,7 +7275,7 @@
         <v>300145.0</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L74" s="1">
         <v>3.0</v>
@@ -7296,7 +7299,7 @@
         <v>13.0</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T74" s="3" t="s">
         <v>42</v>
@@ -7331,7 +7334,7 @@
         <v>100074.0</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" s="1">
         <v>15.0</v>
@@ -7358,7 +7361,7 @@
         <v>300146.0</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L75" s="1">
         <v>4.0</v>
@@ -7382,7 +7385,7 @@
         <v>16.0</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T75" s="3" t="s">
         <v>42</v>
@@ -7417,7 +7420,7 @@
         <v>100075.0</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C76" s="1">
         <v>15.0</v>
@@ -7444,7 +7447,7 @@
         <v>300147.0</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L76" s="1">
         <v>5.0</v>
@@ -7468,7 +7471,7 @@
         <v>19.0</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>42</v>
@@ -7503,7 +7506,7 @@
         <v>100076.0</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C77" s="18">
         <v>16.0</v>
@@ -7530,7 +7533,7 @@
         <v>300153.0</v>
       </c>
       <c r="K77" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L77" s="18">
         <v>1.0</v>
@@ -7554,7 +7557,7 @@
         <v>9.5</v>
       </c>
       <c r="S77" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T77" s="17" t="s">
         <v>42</v>
@@ -7572,10 +7575,10 @@
         <v>0.0</v>
       </c>
       <c r="Y77" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z77" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA77" s="20" t="s">
         <v>46</v>
@@ -7587,10 +7590,10 @@
         <v>0.0</v>
       </c>
       <c r="AD77" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AE77" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF77" s="20" t="s">
         <v>46</v>
@@ -7609,7 +7612,7 @@
         <v>100077.0</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C78" s="18">
         <v>16.0</v>
@@ -7636,7 +7639,7 @@
         <v>300154.0</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L78" s="18">
         <v>2.0</v>
@@ -7660,7 +7663,7 @@
         <v>14.5</v>
       </c>
       <c r="S78" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T78" s="17" t="s">
         <v>42</v>
@@ -7678,10 +7681,10 @@
         <v>0.0</v>
       </c>
       <c r="Y78" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z78" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA78" s="20" t="s">
         <v>46</v>
@@ -7693,10 +7696,10 @@
         <v>0.0</v>
       </c>
       <c r="AD78" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AE78" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF78" s="20" t="s">
         <v>46</v>
@@ -7708,7 +7711,7 @@
         <v>0.0</v>
       </c>
       <c r="AI78" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79">
@@ -7716,7 +7719,7 @@
         <v>100078.0</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C79" s="18">
         <v>16.0</v>
@@ -7743,7 +7746,7 @@
         <v>300155.0</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L79" s="18">
         <v>3.0</v>
@@ -7767,7 +7770,7 @@
         <v>19.5</v>
       </c>
       <c r="S79" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T79" s="17" t="s">
         <v>42</v>
@@ -7785,10 +7788,10 @@
         <v>0.0</v>
       </c>
       <c r="Y79" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z79" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA79" s="20" t="s">
         <v>46</v>
@@ -7800,10 +7803,10 @@
         <v>0.0</v>
       </c>
       <c r="AD79" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AE79" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF79" s="20" t="s">
         <v>46</v>
@@ -7815,7 +7818,7 @@
         <v>0.0</v>
       </c>
       <c r="AI79" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80">
@@ -7823,7 +7826,7 @@
         <v>100079.0</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C80" s="18">
         <v>16.0</v>
@@ -7850,7 +7853,7 @@
         <v>300156.0</v>
       </c>
       <c r="K80" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L80" s="18">
         <v>4.0</v>
@@ -7874,7 +7877,7 @@
         <v>24.5</v>
       </c>
       <c r="S80" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T80" s="17" t="s">
         <v>42</v>
@@ -7892,10 +7895,10 @@
         <v>0.0</v>
       </c>
       <c r="Y80" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z80" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA80" s="20" t="s">
         <v>46</v>
@@ -7907,10 +7910,10 @@
         <v>0.0</v>
       </c>
       <c r="AD80" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AE80" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF80" s="20" t="s">
         <v>46</v>
@@ -7922,7 +7925,7 @@
         <v>0.0</v>
       </c>
       <c r="AI80" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81">
@@ -7930,7 +7933,7 @@
         <v>100080.0</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C81" s="18">
         <v>16.0</v>
@@ -7957,7 +7960,7 @@
         <v>300157.0</v>
       </c>
       <c r="K81" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L81" s="18">
         <v>5.0</v>
@@ -7981,7 +7984,7 @@
         <v>29.5</v>
       </c>
       <c r="S81" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T81" s="17" t="s">
         <v>42</v>
@@ -7999,10 +8002,10 @@
         <v>0.0</v>
       </c>
       <c r="Y81" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z81" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA81" s="20" t="s">
         <v>46</v>
@@ -8014,10 +8017,10 @@
         <v>0.0</v>
       </c>
       <c r="AD81" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AE81" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF81" s="20" t="s">
         <v>46</v>
@@ -8029,7 +8032,7 @@
         <v>0.0</v>
       </c>
       <c r="AI81" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82">
@@ -8037,7 +8040,7 @@
         <v>100081.0</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C82" s="1">
         <v>17.0</v>
@@ -8064,7 +8067,7 @@
         <v>300163.0</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L82" s="1">
         <v>1.0</v>
@@ -8088,7 +8091,7 @@
         <v>3.0</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T82" s="3" t="s">
         <v>42</v>
@@ -8123,7 +8126,7 @@
         <v>100082.0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C83" s="1">
         <v>17.0</v>
@@ -8150,7 +8153,7 @@
         <v>300164.0</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L83" s="1">
         <v>2.0</v>
@@ -8174,7 +8177,7 @@
         <v>3.0</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>42</v>
@@ -8209,7 +8212,7 @@
         <v>100083.0</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C84" s="1">
         <v>17.0</v>
@@ -8236,7 +8239,7 @@
         <v>300165.0</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L84" s="1">
         <v>3.0</v>
@@ -8260,7 +8263,7 @@
         <v>3.0</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T84" s="3" t="s">
         <v>42</v>
@@ -8295,7 +8298,7 @@
         <v>100084.0</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C85" s="1">
         <v>17.0</v>
@@ -8322,7 +8325,7 @@
         <v>300166.0</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L85" s="1">
         <v>4.0</v>
@@ -8346,7 +8349,7 @@
         <v>3.0</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T85" s="3" t="s">
         <v>42</v>
@@ -8381,7 +8384,7 @@
         <v>100085.0</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C86" s="1">
         <v>17.0</v>
@@ -8408,7 +8411,7 @@
         <v>300167.0</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L86" s="1">
         <v>5.0</v>
@@ -8432,7 +8435,7 @@
         <v>3.0</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T86" s="3" t="s">
         <v>42</v>
@@ -8467,19 +8470,19 @@
         <v>200001.0</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C87" s="3">
         <v>1000.0</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>39</v>
@@ -8510,7 +8513,7 @@
         <v>3.0</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T87" s="3" t="s">
         <v>42</v>

--- a/Unknown_Platypus/Table/SkillTable.xlsx
+++ b/Unknown_Platypus/Table/SkillTable.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="119">
   <si>
     <t>index</t>
   </si>
@@ -328,10 +328,25 @@
     <t>MecaTurretSkill</t>
   </si>
   <si>
+    <t>1;5</t>
+  </si>
+  <si>
     <t>cooltime</t>
   </si>
   <si>
+    <t>2;5</t>
+  </si>
+  <si>
     <t>20001, 20021, 20031, 20061</t>
+  </si>
+  <si>
+    <t>3;5</t>
+  </si>
+  <si>
+    <t>4;5</t>
+  </si>
+  <si>
+    <t>5;5</t>
   </si>
   <si>
     <t>감마전류</t>
@@ -740,7 +755,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -7568,17 +7586,17 @@
       <c r="V77" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="W77" s="17">
-        <v>1.0</v>
+      <c r="W77" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="X77" s="17">
         <v>0.0</v>
       </c>
       <c r="Y77" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z77" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA77" s="20" t="s">
         <v>46</v>
@@ -7590,10 +7608,10 @@
         <v>0.0</v>
       </c>
       <c r="AD77" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AE77" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF77" s="20" t="s">
         <v>46</v>
@@ -7674,17 +7692,17 @@
       <c r="V78" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="W78" s="17">
-        <v>2.0</v>
+      <c r="W78" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="X78" s="17">
         <v>0.0</v>
       </c>
       <c r="Y78" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z78" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA78" s="20" t="s">
         <v>46</v>
@@ -7696,10 +7714,10 @@
         <v>0.0</v>
       </c>
       <c r="AD78" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AE78" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF78" s="20" t="s">
         <v>46</v>
@@ -7711,7 +7729,7 @@
         <v>0.0</v>
       </c>
       <c r="AI78" s="22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79">
@@ -7781,17 +7799,17 @@
       <c r="V79" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="W79" s="17">
-        <v>3.0</v>
+      <c r="W79" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="X79" s="17">
         <v>0.0</v>
       </c>
       <c r="Y79" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z79" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA79" s="20" t="s">
         <v>46</v>
@@ -7803,10 +7821,10 @@
         <v>0.0</v>
       </c>
       <c r="AD79" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AE79" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF79" s="20" t="s">
         <v>46</v>
@@ -7818,7 +7836,7 @@
         <v>0.0</v>
       </c>
       <c r="AI79" s="22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80">
@@ -7888,17 +7906,17 @@
       <c r="V80" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="W80" s="17">
-        <v>4.0</v>
+      <c r="W80" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="X80" s="17">
         <v>0.0</v>
       </c>
       <c r="Y80" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z80" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA80" s="20" t="s">
         <v>46</v>
@@ -7910,10 +7928,10 @@
         <v>0.0</v>
       </c>
       <c r="AD80" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AE80" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF80" s="20" t="s">
         <v>46</v>
@@ -7925,7 +7943,7 @@
         <v>0.0</v>
       </c>
       <c r="AI80" s="22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81">
@@ -7995,17 +8013,17 @@
       <c r="V81" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="W81" s="17">
-        <v>5.0</v>
+      <c r="W81" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="X81" s="17">
         <v>0.0</v>
       </c>
       <c r="Y81" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z81" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA81" s="20" t="s">
         <v>46</v>
@@ -8017,10 +8035,10 @@
         <v>0.0</v>
       </c>
       <c r="AD81" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AE81" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF81" s="20" t="s">
         <v>46</v>
@@ -8032,7 +8050,7 @@
         <v>0.0</v>
       </c>
       <c r="AI81" s="22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82">
@@ -8040,7 +8058,7 @@
         <v>100081.0</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C82" s="1">
         <v>17.0</v>
@@ -8067,7 +8085,7 @@
         <v>300163.0</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L82" s="1">
         <v>1.0</v>
@@ -8091,7 +8109,7 @@
         <v>3.0</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="T82" s="3" t="s">
         <v>42</v>
@@ -8126,7 +8144,7 @@
         <v>100082.0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C83" s="1">
         <v>17.0</v>
@@ -8153,7 +8171,7 @@
         <v>300164.0</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L83" s="1">
         <v>2.0</v>
@@ -8177,7 +8195,7 @@
         <v>3.0</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>42</v>
@@ -8212,7 +8230,7 @@
         <v>100083.0</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C84" s="1">
         <v>17.0</v>
@@ -8239,7 +8257,7 @@
         <v>300165.0</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L84" s="1">
         <v>3.0</v>
@@ -8263,7 +8281,7 @@
         <v>3.0</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="T84" s="3" t="s">
         <v>42</v>
@@ -8298,7 +8316,7 @@
         <v>100084.0</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C85" s="1">
         <v>17.0</v>
@@ -8325,7 +8343,7 @@
         <v>300166.0</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L85" s="1">
         <v>4.0</v>
@@ -8349,7 +8367,7 @@
         <v>3.0</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="T85" s="3" t="s">
         <v>42</v>
@@ -8384,7 +8402,7 @@
         <v>100085.0</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C86" s="1">
         <v>17.0</v>
@@ -8411,7 +8429,7 @@
         <v>300167.0</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L86" s="1">
         <v>5.0</v>
@@ -8435,7 +8453,7 @@
         <v>3.0</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="T86" s="3" t="s">
         <v>42</v>
@@ -8470,19 +8488,19 @@
         <v>200001.0</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C87" s="3">
         <v>1000.0</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>39</v>
@@ -8513,7 +8531,7 @@
         <v>3.0</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="T87" s="3" t="s">
         <v>42</v>

--- a/Unknown_Platypus/Table/SkillTable.xlsx
+++ b/Unknown_Platypus/Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE087029-BE30-4935-B81A-83FB8E65BCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55A90EE-E8AD-4075-B24D-A9735627B633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="121">
   <si>
     <t>index</t>
   </si>
@@ -567,15 +567,15 @@
   </si>
   <si>
     <t>1;5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5;10</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2;5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -659,19 +659,44 @@
     </r>
   </si>
   <si>
-    <t>1;50</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <r>
+      <t>1;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -833,89 +858,92 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - 강조색6" xfId="2" builtinId="50"/>
@@ -1138,9 +1166,9 @@
   </sheetPr>
   <dimension ref="A1:AJ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O70" sqref="O70"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1288,535 +1316,535 @@
       </c>
       <c r="AJ1" s="2"/>
     </row>
-    <row r="2" spans="1:36" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+    <row r="2" spans="1:36" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
         <v>100001</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="14">
         <v>300001</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="14">
         <v>300002</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="14">
         <v>300003</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="17">
-        <v>1</v>
-      </c>
-      <c r="M2" s="17">
-        <v>3</v>
-      </c>
-      <c r="N2" s="17">
-        <v>1</v>
-      </c>
-      <c r="O2" s="17">
-        <v>1</v>
-      </c>
-      <c r="P2" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="17">
-        <v>1</v>
-      </c>
-      <c r="R2" s="17">
-        <v>3</v>
-      </c>
-      <c r="S2" s="17" t="s">
+      <c r="L2" s="14">
+        <v>1</v>
+      </c>
+      <c r="M2" s="14">
+        <v>3</v>
+      </c>
+      <c r="N2" s="14">
+        <v>1</v>
+      </c>
+      <c r="O2" s="14">
+        <v>1</v>
+      </c>
+      <c r="P2" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>1</v>
+      </c>
+      <c r="R2" s="14">
+        <v>3</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="17">
-        <v>1</v>
-      </c>
-      <c r="X2" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="18" t="s">
+      <c r="W2" s="14">
+        <v>1</v>
+      </c>
+      <c r="X2" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AA2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AB2" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="AC2" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="19" t="s">
+      <c r="AC2" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AE2" s="19" t="s">
+      <c r="AE2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AF2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AG2" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
+      <c r="AG2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="1:36" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+    <row r="3" spans="1:36" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
         <v>100002</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="17">
-        <v>1</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="14">
         <v>300001</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="14">
         <v>300002</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="14">
         <v>300004</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="14">
         <v>2</v>
       </c>
-      <c r="M3" s="17">
-        <v>3</v>
-      </c>
-      <c r="N3" s="17">
-        <v>1</v>
-      </c>
-      <c r="O3" s="17">
-        <v>1</v>
-      </c>
-      <c r="P3" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="17">
-        <v>1</v>
-      </c>
-      <c r="R3" s="17">
-        <v>3</v>
-      </c>
-      <c r="S3" s="17" t="s">
+      <c r="M3" s="14">
+        <v>3</v>
+      </c>
+      <c r="N3" s="14">
+        <v>1</v>
+      </c>
+      <c r="O3" s="14">
+        <v>1</v>
+      </c>
+      <c r="P3" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>1</v>
+      </c>
+      <c r="R3" s="14">
+        <v>3</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="17">
+      <c r="W3" s="14">
         <v>1.5</v>
       </c>
-      <c r="X3" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="18" t="s">
+      <c r="X3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="Z3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="18" t="s">
+      <c r="AA3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AB3" s="18" t="s">
+      <c r="AB3" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG3" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+    </row>
+    <row r="4" spans="1:36" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>100003</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="14">
+        <v>300001</v>
+      </c>
+      <c r="I4" s="14">
+        <v>300002</v>
+      </c>
+      <c r="J4" s="14">
+        <v>300005</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="14">
+        <v>3</v>
+      </c>
+      <c r="M4" s="14">
+        <v>3</v>
+      </c>
+      <c r="N4" s="14">
+        <v>1</v>
+      </c>
+      <c r="O4" s="14">
+        <v>1</v>
+      </c>
+      <c r="P4" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>1</v>
+      </c>
+      <c r="R4" s="14">
+        <v>3</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="X4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+    </row>
+    <row r="5" spans="1:36" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>100004</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="14">
+        <v>300001</v>
+      </c>
+      <c r="I5" s="14">
+        <v>300002</v>
+      </c>
+      <c r="J5" s="14">
+        <v>300006</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="14">
+        <v>4</v>
+      </c>
+      <c r="M5" s="14">
+        <v>3</v>
+      </c>
+      <c r="N5" s="14">
+        <v>1</v>
+      </c>
+      <c r="O5" s="14">
+        <v>1</v>
+      </c>
+      <c r="P5" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>1</v>
+      </c>
+      <c r="R5" s="14">
+        <v>3</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="14">
+        <v>2</v>
+      </c>
+      <c r="X5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+    </row>
+    <row r="6" spans="1:36" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>100005</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="14">
+        <v>300001</v>
+      </c>
+      <c r="I6" s="14">
+        <v>300002</v>
+      </c>
+      <c r="J6" s="14">
+        <v>300007</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="14">
+        <v>5</v>
+      </c>
+      <c r="M6" s="14">
+        <v>3</v>
+      </c>
+      <c r="N6" s="14">
+        <v>1</v>
+      </c>
+      <c r="O6" s="14">
+        <v>1</v>
+      </c>
+      <c r="P6" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>1</v>
+      </c>
+      <c r="R6" s="14">
+        <v>3</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="X6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AC3" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AC6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AE6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AF3" s="17" t="s">
+      <c r="AF6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AG3" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-    </row>
-    <row r="4" spans="1:36" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
-        <v>100003</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="17">
-        <v>1</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="17">
-        <v>300001</v>
-      </c>
-      <c r="I4" s="17">
-        <v>300002</v>
-      </c>
-      <c r="J4" s="17">
-        <v>300005</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="17">
-        <v>3</v>
-      </c>
-      <c r="M4" s="17">
-        <v>3</v>
-      </c>
-      <c r="N4" s="17">
-        <v>1</v>
-      </c>
-      <c r="O4" s="17">
-        <v>2</v>
-      </c>
-      <c r="P4" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>1</v>
-      </c>
-      <c r="R4" s="17">
-        <v>3</v>
-      </c>
-      <c r="S4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="X4" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB4" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF4" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG4" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-    </row>
-    <row r="5" spans="1:36" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <v>100004</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="17">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="17">
-        <v>300001</v>
-      </c>
-      <c r="I5" s="17">
-        <v>300002</v>
-      </c>
-      <c r="J5" s="17">
-        <v>300006</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="17">
-        <v>4</v>
-      </c>
-      <c r="M5" s="17">
-        <v>3</v>
-      </c>
-      <c r="N5" s="17">
-        <v>1</v>
-      </c>
-      <c r="O5" s="17">
-        <v>2</v>
-      </c>
-      <c r="P5" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>1</v>
-      </c>
-      <c r="R5" s="17">
-        <v>3</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="V5" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="W5" s="17">
-        <v>2</v>
-      </c>
-      <c r="X5" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB5" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC5" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG5" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-    </row>
-    <row r="6" spans="1:36" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>100005</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="17">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="17">
-        <v>300001</v>
-      </c>
-      <c r="I6" s="17">
-        <v>300002</v>
-      </c>
-      <c r="J6" s="17">
-        <v>300007</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="17">
-        <v>5</v>
-      </c>
-      <c r="M6" s="17">
-        <v>3</v>
-      </c>
-      <c r="N6" s="17">
-        <v>1</v>
-      </c>
-      <c r="O6" s="17">
-        <v>2</v>
-      </c>
-      <c r="P6" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>1</v>
-      </c>
-      <c r="R6" s="17">
-        <v>3</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="W6" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="X6" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z6" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB6" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC6" s="18">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF6" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG6" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
+      <c r="AG6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
     </row>
     <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -2467,10 +2495,10 @@
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
-      <c r="AI13" s="16" t="s">
+      <c r="AI13" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AJ13" s="15"/>
+      <c r="AJ13" s="27"/>
     </row>
     <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
@@ -2555,10 +2583,10 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
-      <c r="AI14" s="16" t="s">
+      <c r="AI14" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AJ14" s="15"/>
+      <c r="AJ14" s="27"/>
     </row>
     <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -2643,10 +2671,10 @@
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
-      <c r="AI15" s="16" t="s">
+      <c r="AI15" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AJ15" s="15"/>
+      <c r="AJ15" s="27"/>
     </row>
     <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
@@ -2731,448 +2759,448 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="16" t="s">
+      <c r="AI16" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AJ16" s="15"/>
+      <c r="AJ16" s="27"/>
     </row>
-    <row r="17" spans="1:36" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+    <row r="17" spans="1:36" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
         <v>100016</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="19">
         <v>4</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="19">
         <v>300031</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="19">
         <v>300032</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="19">
         <v>300033</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="22">
-        <v>1</v>
-      </c>
-      <c r="M17" s="22">
-        <v>3</v>
-      </c>
-      <c r="N17" s="22">
+      <c r="L17" s="19">
+        <v>1</v>
+      </c>
+      <c r="M17" s="19">
+        <v>3</v>
+      </c>
+      <c r="N17" s="19">
         <v>2</v>
       </c>
-      <c r="O17" s="22">
-        <v>1</v>
-      </c>
-      <c r="P17" s="23">
+      <c r="O17" s="19">
+        <v>1</v>
+      </c>
+      <c r="P17" s="20">
         <v>10</v>
       </c>
-      <c r="Q17" s="22">
-        <v>5</v>
-      </c>
-      <c r="R17" s="22">
-        <v>3</v>
-      </c>
-      <c r="S17" s="22" t="s">
+      <c r="Q17" s="19">
+        <v>5</v>
+      </c>
+      <c r="R17" s="19">
+        <v>3</v>
+      </c>
+      <c r="S17" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="T17" s="21" t="s">
+      <c r="T17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="U17" s="21" t="s">
+      <c r="U17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="V17" s="21" t="s">
+      <c r="V17" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W17" s="21">
-        <v>1</v>
-      </c>
-      <c r="X17" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="25"/>
-      <c r="AJ17" s="24"/>
+      <c r="W17" s="18">
+        <v>1</v>
+      </c>
+      <c r="X17" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="21"/>
     </row>
-    <row r="18" spans="1:36" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+    <row r="18" spans="1:36" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
         <v>100017</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="19">
         <v>4</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="19">
         <v>300031</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="19">
         <v>300032</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="19">
         <v>300034</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="19">
         <v>2</v>
       </c>
-      <c r="M18" s="22">
-        <v>3</v>
-      </c>
-      <c r="N18" s="22">
+      <c r="M18" s="19">
+        <v>3</v>
+      </c>
+      <c r="N18" s="19">
         <v>2</v>
       </c>
-      <c r="O18" s="22">
-        <v>1</v>
-      </c>
-      <c r="P18" s="23">
+      <c r="O18" s="19">
+        <v>1</v>
+      </c>
+      <c r="P18" s="20">
         <v>10</v>
       </c>
-      <c r="Q18" s="22">
-        <v>5</v>
-      </c>
-      <c r="R18" s="22">
-        <v>3</v>
-      </c>
-      <c r="S18" s="22" t="s">
+      <c r="Q18" s="19">
+        <v>5</v>
+      </c>
+      <c r="R18" s="19">
+        <v>3</v>
+      </c>
+      <c r="S18" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="T18" s="21" t="s">
+      <c r="T18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="U18" s="21" t="s">
+      <c r="U18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="V18" s="21" t="s">
+      <c r="V18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W18" s="21">
+      <c r="W18" s="18">
         <v>1.5</v>
       </c>
-      <c r="X18" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="27" t="s">
+      <c r="X18" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="AJ18" s="28"/>
+      <c r="AJ18" s="25"/>
     </row>
-    <row r="19" spans="1:36" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
+    <row r="19" spans="1:36" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
         <v>100018</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="19">
         <v>4</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="19">
         <v>300031</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="19">
         <v>300032</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="19">
         <v>300035</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="L19" s="22">
-        <v>3</v>
-      </c>
-      <c r="M19" s="22">
-        <v>3</v>
-      </c>
-      <c r="N19" s="22">
+      <c r="L19" s="19">
+        <v>3</v>
+      </c>
+      <c r="M19" s="19">
+        <v>3</v>
+      </c>
+      <c r="N19" s="19">
         <v>2</v>
       </c>
-      <c r="O19" s="22">
-        <v>1</v>
-      </c>
-      <c r="P19" s="23">
+      <c r="O19" s="19">
+        <v>1</v>
+      </c>
+      <c r="P19" s="20">
         <v>10</v>
       </c>
-      <c r="Q19" s="22">
-        <v>5</v>
-      </c>
-      <c r="R19" s="22">
-        <v>3</v>
-      </c>
-      <c r="S19" s="22" t="s">
+      <c r="Q19" s="19">
+        <v>5</v>
+      </c>
+      <c r="R19" s="19">
+        <v>3</v>
+      </c>
+      <c r="S19" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="T19" s="21" t="s">
+      <c r="T19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="U19" s="21" t="s">
+      <c r="U19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="V19" s="21" t="s">
+      <c r="V19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W19" s="21">
+      <c r="W19" s="18">
         <v>1.5</v>
       </c>
-      <c r="X19" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="27" t="s">
+      <c r="X19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="AJ19" s="28"/>
+      <c r="AJ19" s="25"/>
     </row>
-    <row r="20" spans="1:36" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+    <row r="20" spans="1:36" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
         <v>100019</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="19">
         <v>4</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="19">
         <v>300031</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="19">
         <v>300032</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="19">
         <v>300036</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="19">
         <v>4</v>
       </c>
-      <c r="M20" s="22">
-        <v>3</v>
-      </c>
-      <c r="N20" s="22">
+      <c r="M20" s="19">
+        <v>3</v>
+      </c>
+      <c r="N20" s="19">
         <v>2</v>
       </c>
-      <c r="O20" s="22">
-        <v>1</v>
-      </c>
-      <c r="P20" s="23">
+      <c r="O20" s="19">
+        <v>1</v>
+      </c>
+      <c r="P20" s="20">
         <v>10</v>
       </c>
-      <c r="Q20" s="22">
-        <v>5</v>
-      </c>
-      <c r="R20" s="22">
-        <v>3</v>
-      </c>
-      <c r="S20" s="22" t="s">
+      <c r="Q20" s="19">
+        <v>5</v>
+      </c>
+      <c r="R20" s="19">
+        <v>3</v>
+      </c>
+      <c r="S20" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="T20" s="21" t="s">
+      <c r="T20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="U20" s="21" t="s">
+      <c r="U20" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="V20" s="21" t="s">
+      <c r="V20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W20" s="21">
+      <c r="W20" s="18">
         <v>2</v>
       </c>
-      <c r="X20" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="27" t="s">
+      <c r="X20" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="AJ20" s="28"/>
+      <c r="AJ20" s="25"/>
     </row>
-    <row r="21" spans="1:36" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
+    <row r="21" spans="1:36" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
         <v>100020</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="19">
         <v>4</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="19">
         <v>300031</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="19">
         <v>300032</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="19">
         <v>300037</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="L21" s="22">
-        <v>5</v>
-      </c>
-      <c r="M21" s="22">
-        <v>3</v>
-      </c>
-      <c r="N21" s="22">
+      <c r="L21" s="19">
+        <v>5</v>
+      </c>
+      <c r="M21" s="19">
+        <v>3</v>
+      </c>
+      <c r="N21" s="19">
         <v>4</v>
       </c>
-      <c r="O21" s="22">
-        <v>1</v>
-      </c>
-      <c r="P21" s="23">
+      <c r="O21" s="19">
+        <v>1</v>
+      </c>
+      <c r="P21" s="20">
         <v>10</v>
       </c>
-      <c r="Q21" s="22">
-        <v>5</v>
-      </c>
-      <c r="R21" s="22">
-        <v>3</v>
-      </c>
-      <c r="S21" s="22" t="s">
+      <c r="Q21" s="19">
+        <v>5</v>
+      </c>
+      <c r="R21" s="19">
+        <v>3</v>
+      </c>
+      <c r="S21" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="T21" s="21" t="s">
+      <c r="T21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="U21" s="21" t="s">
+      <c r="U21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="V21" s="21" t="s">
+      <c r="V21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W21" s="21">
+      <c r="W21" s="18">
         <v>2.5</v>
       </c>
-      <c r="X21" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="27" t="s">
+      <c r="X21" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="AJ21" s="28"/>
+      <c r="AJ21" s="25"/>
     </row>
     <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
@@ -8113,10 +8141,10 @@
       <c r="AH78" s="12">
         <v>0</v>
       </c>
-      <c r="AI78" s="14" t="s">
+      <c r="AI78" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="AJ78" s="15"/>
+      <c r="AJ78" s="27"/>
     </row>
     <row r="79" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
@@ -8221,10 +8249,10 @@
       <c r="AH79" s="12">
         <v>0</v>
       </c>
-      <c r="AI79" s="14" t="s">
+      <c r="AI79" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="AJ79" s="15"/>
+      <c r="AJ79" s="27"/>
     </row>
     <row r="80" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
@@ -8329,10 +8357,10 @@
       <c r="AH80" s="12">
         <v>0</v>
       </c>
-      <c r="AI80" s="14" t="s">
+      <c r="AI80" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="AJ80" s="15"/>
+      <c r="AJ80" s="27"/>
     </row>
     <row r="81" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
@@ -8437,10 +8465,10 @@
       <c r="AH81" s="12">
         <v>0</v>
       </c>
-      <c r="AI81" s="14" t="s">
+      <c r="AI81" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="AJ81" s="15"/>
+      <c r="AJ81" s="27"/>
     </row>
     <row r="82" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
@@ -8952,6 +8980,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AI78:AJ78"/>
+    <mergeCell ref="AI79:AJ79"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="AI81:AJ81"/>
     <mergeCell ref="AI19:AJ19"/>
     <mergeCell ref="AI20:AJ20"/>
     <mergeCell ref="AI13:AJ13"/>
@@ -8959,13 +8992,8 @@
     <mergeCell ref="AI15:AJ15"/>
     <mergeCell ref="AI16:AJ16"/>
     <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AI78:AJ78"/>
-    <mergeCell ref="AI79:AJ79"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="AI81:AJ81"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/Unknown_Platypus/Table/SkillTable.xlsx
+++ b/Unknown_Platypus/Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55A90EE-E8AD-4075-B24D-A9735627B633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D00897D-B2ED-4D77-B0A9-07DBADA1F691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="122">
   <si>
     <t>index</t>
   </si>
@@ -365,9 +365,6 @@
     <t>add</t>
   </si>
   <si>
-    <t>1;50</t>
-  </si>
-  <si>
     <t>speed</t>
   </si>
   <si>
@@ -567,15 +564,15 @@
   </si>
   <si>
     <t>1;5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>5;10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2;5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -673,22 +670,59 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1;0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;50</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -858,87 +892,93 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1166,9 +1206,9 @@
   </sheetPr>
   <dimension ref="A1:AJ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
+      <selection pane="bottomLeft" activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1200,7 +1240,7 @@
     <col min="26" max="26" width="13.5703125" customWidth="1"/>
     <col min="27" max="27" width="7" customWidth="1"/>
     <col min="28" max="28" width="14.28515625" customWidth="1"/>
-    <col min="29" max="29" width="13.7109375" customWidth="1"/>
+    <col min="29" max="29" width="18.5703125" customWidth="1"/>
     <col min="30" max="30" width="9.7109375" customWidth="1"/>
     <col min="31" max="32" width="18.140625" customWidth="1"/>
     <col min="33" max="33" width="14.28515625" customWidth="1"/>
@@ -1321,7 +1361,7 @@
         <v>100001</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
@@ -1398,17 +1438,17 @@
       <c r="AA2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="29" t="s">
-        <v>119</v>
+      <c r="AB2" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="AC2" s="15">
         <v>1</v>
       </c>
       <c r="AD2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE2" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="AE2" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="AF2" s="14" t="s">
         <v>45</v>
@@ -1427,7 +1467,7 @@
         <v>100002</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="14">
         <v>1</v>
@@ -1504,17 +1544,17 @@
       <c r="AA3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AB3" s="29" t="s">
-        <v>120</v>
+      <c r="AB3" s="31" t="s">
+        <v>119</v>
       </c>
       <c r="AC3" s="15">
         <v>1</v>
       </c>
       <c r="AD3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="AE3" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="AF3" s="14" t="s">
         <v>45</v>
@@ -1533,7 +1573,7 @@
         <v>100003</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="14">
         <v>1</v>
@@ -1610,17 +1650,17 @@
       <c r="AA4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AB4" s="29" t="s">
-        <v>119</v>
+      <c r="AB4" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="AC4" s="15">
         <v>1</v>
       </c>
       <c r="AD4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE4" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="AE4" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="AF4" s="14" t="s">
         <v>45</v>
@@ -1639,7 +1679,7 @@
         <v>100004</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -1716,17 +1756,17 @@
       <c r="AA5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" s="29" t="s">
-        <v>119</v>
+      <c r="AB5" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="AC5" s="15">
         <v>1</v>
       </c>
       <c r="AD5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE5" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="AE5" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="AF5" s="14" t="s">
         <v>45</v>
@@ -1745,7 +1785,7 @@
         <v>100005</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="14">
         <v>1</v>
@@ -1822,17 +1862,17 @@
       <c r="AA6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AB6" s="15" t="s">
+      <c r="AB6" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AC6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="16" t="s">
+      <c r="AE6" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="AE6" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="AF6" s="14" t="s">
         <v>45</v>
@@ -1851,7 +1891,7 @@
         <v>100006</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1863,10 +1903,10 @@
         <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H7" s="1">
         <v>300011</v>
@@ -1878,31 +1918,31 @@
         <v>300013</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1">
+        <v>5</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>3</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>3</v>
-      </c>
-      <c r="R7" s="1">
-        <v>5</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>41</v>
@@ -1920,10 +1960,10 @@
         <v>0</v>
       </c>
       <c r="Y7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z7" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="AA7" s="3" t="s">
         <v>45</v>
@@ -1947,7 +1987,7 @@
         <v>100007</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1959,10 +1999,10 @@
         <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H8" s="1">
         <v>300011</v>
@@ -1974,7 +2014,7 @@
         <v>300014</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="1">
         <v>2</v>
@@ -1998,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>41</v>
@@ -2016,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="Y8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>45</v>
@@ -2043,7 +2083,7 @@
         <v>100008</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -2055,10 +2095,10 @@
         <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H9" s="1">
         <v>300011</v>
@@ -2070,31 +2110,31 @@
         <v>300015</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3</v>
+      </c>
+      <c r="R9" s="1">
+        <v>5</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="L9" s="1">
-        <v>3</v>
-      </c>
-      <c r="M9" s="1">
-        <v>3</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1">
-        <v>3</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>3</v>
-      </c>
-      <c r="R9" s="1">
-        <v>5</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>41</v>
@@ -2112,10 +2152,10 @@
         <v>0</v>
       </c>
       <c r="Y9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z9" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>45</v>
@@ -2139,7 +2179,7 @@
         <v>100009</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -2151,10 +2191,10 @@
         <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="1">
         <v>300011</v>
@@ -2166,7 +2206,7 @@
         <v>300016</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L10" s="1">
         <v>4</v>
@@ -2190,7 +2230,7 @@
         <v>5</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>41</v>
@@ -2208,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="Y10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z10" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>45</v>
@@ -2235,7 +2275,7 @@
         <v>100010</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -2247,10 +2287,10 @@
         <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H11" s="1">
         <v>300011</v>
@@ -2262,7 +2302,7 @@
         <v>300017</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L11" s="1">
         <v>5</v>
@@ -2286,7 +2326,7 @@
         <v>5</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>41</v>
@@ -2304,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="Y11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z11" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="AA11" s="3" t="s">
         <v>45</v>
@@ -2331,7 +2371,7 @@
         <v>100011</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="6">
         <v>3</v>
@@ -2358,31 +2398,31 @@
         <v>300023</v>
       </c>
       <c r="K12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>3</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>3</v>
+      </c>
+      <c r="R12" s="6">
+        <v>5</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6">
-        <v>3</v>
-      </c>
-      <c r="N12" s="6">
-        <v>1</v>
-      </c>
-      <c r="O12" s="6">
-        <v>1</v>
-      </c>
-      <c r="P12" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>3</v>
-      </c>
-      <c r="R12" s="6">
-        <v>5</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="T12" s="5" t="s">
         <v>41</v>
@@ -2417,7 +2457,7 @@
         <v>100012</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="6">
         <v>3</v>
@@ -2444,7 +2484,7 @@
         <v>300024</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L13" s="6">
         <v>2</v>
@@ -2468,7 +2508,7 @@
         <v>5</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T13" s="5" t="s">
         <v>41</v>
@@ -2495,17 +2535,17 @@
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
-      <c r="AI13" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ13" s="27"/>
+      <c r="AI13" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ13" s="29"/>
     </row>
     <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>100013</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="6">
         <v>3</v>
@@ -2532,31 +2572,31 @@
         <v>300025</v>
       </c>
       <c r="K14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="6">
+        <v>3</v>
+      </c>
+      <c r="M14" s="6">
+        <v>3</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6">
+        <v>1</v>
+      </c>
+      <c r="P14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>3</v>
+      </c>
+      <c r="R14" s="6">
+        <v>5</v>
+      </c>
+      <c r="S14" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="L14" s="6">
-        <v>3</v>
-      </c>
-      <c r="M14" s="6">
-        <v>3</v>
-      </c>
-      <c r="N14" s="6">
-        <v>1</v>
-      </c>
-      <c r="O14" s="6">
-        <v>1</v>
-      </c>
-      <c r="P14" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>3</v>
-      </c>
-      <c r="R14" s="6">
-        <v>5</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>41</v>
@@ -2583,17 +2623,17 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
-      <c r="AI14" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ14" s="27"/>
+      <c r="AI14" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ14" s="29"/>
     </row>
     <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>100014</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="6">
         <v>3</v>
@@ -2620,7 +2660,7 @@
         <v>300026</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="6">
         <v>4</v>
@@ -2644,7 +2684,7 @@
         <v>5</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>41</v>
@@ -2671,17 +2711,17 @@
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
-      <c r="AI15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ15" s="27"/>
+      <c r="AI15" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ15" s="29"/>
     </row>
     <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>100015</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="6">
         <v>3</v>
@@ -2708,31 +2748,31 @@
         <v>300027</v>
       </c>
       <c r="K16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="6">
+        <v>5</v>
+      </c>
+      <c r="M16" s="6">
+        <v>3</v>
+      </c>
+      <c r="N16" s="6">
+        <v>5</v>
+      </c>
+      <c r="O16" s="6">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>3</v>
+      </c>
+      <c r="R16" s="6">
+        <v>5</v>
+      </c>
+      <c r="S16" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="L16" s="6">
-        <v>5</v>
-      </c>
-      <c r="M16" s="6">
-        <v>3</v>
-      </c>
-      <c r="N16" s="6">
-        <v>5</v>
-      </c>
-      <c r="O16" s="6">
-        <v>1</v>
-      </c>
-      <c r="P16" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>3</v>
-      </c>
-      <c r="R16" s="6">
-        <v>5</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="T16" s="5" t="s">
         <v>41</v>
@@ -2759,17 +2799,17 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ16" s="27"/>
+      <c r="AI16" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ16" s="29"/>
     </row>
     <row r="17" spans="1:36" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>100016</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="19">
         <v>4</v>
@@ -2781,7 +2821,7 @@
         <v>36</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>38</v>
@@ -2796,7 +2836,7 @@
         <v>300033</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L17" s="19">
         <v>1</v>
@@ -2820,7 +2860,7 @@
         <v>3</v>
       </c>
       <c r="S17" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T17" s="18" t="s">
         <v>41</v>
@@ -2855,7 +2895,7 @@
         <v>100017</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="19">
         <v>4</v>
@@ -2867,7 +2907,7 @@
         <v>36</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>38</v>
@@ -2882,7 +2922,7 @@
         <v>300034</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L18" s="19">
         <v>2</v>
@@ -2906,7 +2946,7 @@
         <v>3</v>
       </c>
       <c r="S18" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T18" s="18" t="s">
         <v>41</v>
@@ -2933,17 +2973,17 @@
       <c r="AF18" s="21"/>
       <c r="AG18" s="21"/>
       <c r="AH18" s="21"/>
-      <c r="AI18" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ18" s="25"/>
+      <c r="AI18" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ18" s="27"/>
     </row>
     <row r="19" spans="1:36" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>100018</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="19">
         <v>4</v>
@@ -2955,7 +2995,7 @@
         <v>36</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>38</v>
@@ -2970,7 +3010,7 @@
         <v>300035</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L19" s="19">
         <v>3</v>
@@ -2994,7 +3034,7 @@
         <v>3</v>
       </c>
       <c r="S19" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T19" s="18" t="s">
         <v>41</v>
@@ -3021,17 +3061,17 @@
       <c r="AF19" s="21"/>
       <c r="AG19" s="21"/>
       <c r="AH19" s="21"/>
-      <c r="AI19" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ19" s="25"/>
+      <c r="AI19" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ19" s="27"/>
     </row>
     <row r="20" spans="1:36" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>100019</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="19">
         <v>4</v>
@@ -3043,7 +3083,7 @@
         <v>36</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>38</v>
@@ -3058,7 +3098,7 @@
         <v>300036</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L20" s="19">
         <v>4</v>
@@ -3082,7 +3122,7 @@
         <v>3</v>
       </c>
       <c r="S20" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T20" s="18" t="s">
         <v>41</v>
@@ -3109,17 +3149,17 @@
       <c r="AF20" s="21"/>
       <c r="AG20" s="21"/>
       <c r="AH20" s="21"/>
-      <c r="AI20" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ20" s="25"/>
+      <c r="AI20" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ20" s="27"/>
     </row>
     <row r="21" spans="1:36" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>100020</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="19">
         <v>4</v>
@@ -3131,7 +3171,7 @@
         <v>36</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>38</v>
@@ -3146,7 +3186,7 @@
         <v>300037</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L21" s="19">
         <v>5</v>
@@ -3170,7 +3210,7 @@
         <v>3</v>
       </c>
       <c r="S21" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T21" s="18" t="s">
         <v>41</v>
@@ -3197,17 +3237,17 @@
       <c r="AF21" s="21"/>
       <c r="AG21" s="21"/>
       <c r="AH21" s="21"/>
-      <c r="AI21" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ21" s="25"/>
+      <c r="AI21" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ21" s="27"/>
     </row>
     <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>100021</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
@@ -3234,7 +3274,7 @@
         <v>300043</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L22" s="1">
         <v>1</v>
@@ -3258,7 +3298,7 @@
         <v>5</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>41</v>
@@ -3293,7 +3333,7 @@
         <v>100022</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
@@ -3320,7 +3360,7 @@
         <v>300044</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L23" s="1">
         <v>2</v>
@@ -3344,7 +3384,7 @@
         <v>6</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>41</v>
@@ -3379,7 +3419,7 @@
         <v>100023</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
@@ -3406,7 +3446,7 @@
         <v>300045</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L24" s="1">
         <v>3</v>
@@ -3430,7 +3470,7 @@
         <v>7</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>41</v>
@@ -3465,7 +3505,7 @@
         <v>100024</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
@@ -3492,7 +3532,7 @@
         <v>300046</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L25" s="1">
         <v>4</v>
@@ -3516,7 +3556,7 @@
         <v>8</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T25" s="3" t="s">
         <v>41</v>
@@ -3551,7 +3591,7 @@
         <v>100025</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1">
         <v>5</v>
@@ -3578,7 +3618,7 @@
         <v>300047</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L26" s="1">
         <v>5</v>
@@ -3602,7 +3642,7 @@
         <v>9</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>41</v>
@@ -3637,7 +3677,7 @@
         <v>100026</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="1">
         <v>6</v>
@@ -3664,7 +3704,7 @@
         <v>300053</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L27" s="1">
         <v>1</v>
@@ -3688,7 +3728,7 @@
         <v>5</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>41</v>
@@ -3723,7 +3763,7 @@
         <v>100027</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1">
         <v>6</v>
@@ -3750,7 +3790,7 @@
         <v>300054</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L28" s="1">
         <v>2</v>
@@ -3774,7 +3814,7 @@
         <v>5</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T28" s="3" t="s">
         <v>41</v>
@@ -3809,7 +3849,7 @@
         <v>100028</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="1">
         <v>6</v>
@@ -3836,7 +3876,7 @@
         <v>300055</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L29" s="1">
         <v>3</v>
@@ -3860,7 +3900,7 @@
         <v>6</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>41</v>
@@ -3895,7 +3935,7 @@
         <v>100029</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1">
         <v>6</v>
@@ -3922,7 +3962,7 @@
         <v>300056</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L30" s="1">
         <v>4</v>
@@ -3946,7 +3986,7 @@
         <v>6</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T30" s="3" t="s">
         <v>41</v>
@@ -3981,7 +4021,7 @@
         <v>100030</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1">
         <v>6</v>
@@ -4008,7 +4048,7 @@
         <v>300057</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L31" s="1">
         <v>5</v>
@@ -4032,7 +4072,7 @@
         <v>6</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>41</v>
@@ -4067,7 +4107,7 @@
         <v>100031</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1">
         <v>7</v>
@@ -4094,31 +4134,31 @@
         <v>300061</v>
       </c>
       <c r="K32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>5</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>3</v>
+      </c>
+      <c r="R32" s="1">
+        <v>5</v>
+      </c>
+      <c r="S32" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L32" s="1">
-        <v>1</v>
-      </c>
-      <c r="M32" s="1">
-        <v>5</v>
-      </c>
-      <c r="N32" s="1">
-        <v>1</v>
-      </c>
-      <c r="O32" s="1">
-        <v>1</v>
-      </c>
-      <c r="P32" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>3</v>
-      </c>
-      <c r="R32" s="1">
-        <v>5</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>41</v>
@@ -4153,7 +4193,7 @@
         <v>100032</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="1">
         <v>7</v>
@@ -4180,7 +4220,7 @@
         <v>300061</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L33" s="1">
         <v>2</v>
@@ -4204,7 +4244,7 @@
         <v>5</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>41</v>
@@ -4239,7 +4279,7 @@
         <v>100033</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="1">
         <v>7</v>
@@ -4266,7 +4306,7 @@
         <v>300061</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L34" s="1">
         <v>3</v>
@@ -4290,7 +4330,7 @@
         <v>5</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T34" s="3" t="s">
         <v>41</v>
@@ -4325,7 +4365,7 @@
         <v>100034</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="1">
         <v>7</v>
@@ -4352,7 +4392,7 @@
         <v>300061</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L35" s="1">
         <v>4</v>
@@ -4376,7 +4416,7 @@
         <v>5</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>41</v>
@@ -4411,7 +4451,7 @@
         <v>100035</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="1">
         <v>7</v>
@@ -4438,7 +4478,7 @@
         <v>300061</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L36" s="1">
         <v>5</v>
@@ -4462,7 +4502,7 @@
         <v>5</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T36" s="3" t="s">
         <v>41</v>
@@ -4497,7 +4537,7 @@
         <v>100036</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="1">
         <v>8</v>
@@ -4524,7 +4564,7 @@
         <v>300073</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L37" s="1">
         <v>1</v>
@@ -4548,7 +4588,7 @@
         <v>3</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T37" s="3" t="s">
         <v>41</v>
@@ -4583,7 +4623,7 @@
         <v>100037</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="1">
         <v>8</v>
@@ -4610,7 +4650,7 @@
         <v>300074</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L38" s="1">
         <v>2</v>
@@ -4634,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T38" s="3" t="s">
         <v>41</v>
@@ -4669,7 +4709,7 @@
         <v>100038</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="1">
         <v>8</v>
@@ -4696,7 +4736,7 @@
         <v>300075</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L39" s="1">
         <v>3</v>
@@ -4720,7 +4760,7 @@
         <v>3</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T39" s="3" t="s">
         <v>41</v>
@@ -4755,7 +4795,7 @@
         <v>100039</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="1">
         <v>8</v>
@@ -4782,7 +4822,7 @@
         <v>300076</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L40" s="1">
         <v>4</v>
@@ -4806,7 +4846,7 @@
         <v>3</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T40" s="3" t="s">
         <v>41</v>
@@ -4841,7 +4881,7 @@
         <v>100040</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="1">
         <v>8</v>
@@ -4868,7 +4908,7 @@
         <v>300077</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L41" s="1">
         <v>5</v>
@@ -4892,7 +4932,7 @@
         <v>3</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>41</v>
@@ -4927,7 +4967,7 @@
         <v>100041</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="1">
         <v>9</v>
@@ -4954,7 +4994,7 @@
         <v>300083</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L42" s="1">
         <v>1</v>
@@ -4978,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>41</v>
@@ -5013,7 +5053,7 @@
         <v>100042</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="1">
         <v>9</v>
@@ -5040,7 +5080,7 @@
         <v>300084</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L43" s="1">
         <v>2</v>
@@ -5064,7 +5104,7 @@
         <v>3</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>41</v>
@@ -5099,7 +5139,7 @@
         <v>100043</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="1">
         <v>9</v>
@@ -5126,7 +5166,7 @@
         <v>300085</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L44" s="1">
         <v>3</v>
@@ -5150,7 +5190,7 @@
         <v>3</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>41</v>
@@ -5185,7 +5225,7 @@
         <v>100044</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="1">
         <v>9</v>
@@ -5212,7 +5252,7 @@
         <v>300086</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L45" s="1">
         <v>4</v>
@@ -5236,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>41</v>
@@ -5271,7 +5311,7 @@
         <v>100045</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="1">
         <v>9</v>
@@ -5298,7 +5338,7 @@
         <v>300087</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L46" s="1">
         <v>5</v>
@@ -5322,7 +5362,7 @@
         <v>3</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>41</v>
@@ -5357,7 +5397,7 @@
         <v>100046</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="1">
         <v>10</v>
@@ -5369,7 +5409,7 @@
         <v>36</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
         <v>38</v>
@@ -5384,7 +5424,7 @@
         <v>300093</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L47" s="1">
         <v>1</v>
@@ -5408,7 +5448,7 @@
         <v>3</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>41</v>
@@ -5443,7 +5483,7 @@
         <v>100047</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="1">
         <v>10</v>
@@ -5455,7 +5495,7 @@
         <v>36</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
         <v>38</v>
@@ -5470,7 +5510,7 @@
         <v>300094</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L48" s="1">
         <v>2</v>
@@ -5494,7 +5534,7 @@
         <v>3</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>41</v>
@@ -5529,7 +5569,7 @@
         <v>100048</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="1">
         <v>10</v>
@@ -5541,7 +5581,7 @@
         <v>36</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
         <v>38</v>
@@ -5556,7 +5596,7 @@
         <v>300095</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L49" s="1">
         <v>3</v>
@@ -5580,7 +5620,7 @@
         <v>3</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>41</v>
@@ -5615,7 +5655,7 @@
         <v>100049</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="1">
         <v>10</v>
@@ -5627,7 +5667,7 @@
         <v>36</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s">
         <v>38</v>
@@ -5642,7 +5682,7 @@
         <v>300096</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L50" s="1">
         <v>4</v>
@@ -5666,7 +5706,7 @@
         <v>3</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>41</v>
@@ -5701,7 +5741,7 @@
         <v>100050</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="1">
         <v>10</v>
@@ -5713,7 +5753,7 @@
         <v>36</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s">
         <v>38</v>
@@ -5728,7 +5768,7 @@
         <v>300097</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L51" s="1">
         <v>5</v>
@@ -5752,7 +5792,7 @@
         <v>2</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T51" s="3" t="s">
         <v>41</v>
@@ -5787,7 +5827,7 @@
         <v>100051</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="1">
         <v>11</v>
@@ -5799,7 +5839,7 @@
         <v>36</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s">
         <v>38</v>
@@ -5814,7 +5854,7 @@
         <v>300103</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L52" s="1">
         <v>1</v>
@@ -5838,7 +5878,7 @@
         <v>7</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>41</v>
@@ -5873,7 +5913,7 @@
         <v>100052</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="1">
         <v>11</v>
@@ -5885,7 +5925,7 @@
         <v>36</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5900,7 +5940,7 @@
         <v>300104</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L53" s="1">
         <v>2</v>
@@ -5924,7 +5964,7 @@
         <v>9</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T53" s="3" t="s">
         <v>41</v>
@@ -5959,7 +5999,7 @@
         <v>100053</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="1">
         <v>11</v>
@@ -5971,7 +6011,7 @@
         <v>36</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
         <v>38</v>
@@ -5986,7 +6026,7 @@
         <v>300105</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L54" s="1">
         <v>3</v>
@@ -6010,7 +6050,7 @@
         <v>11</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>41</v>
@@ -6045,7 +6085,7 @@
         <v>100054</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="1">
         <v>11</v>
@@ -6057,7 +6097,7 @@
         <v>36</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s">
         <v>38</v>
@@ -6072,7 +6112,7 @@
         <v>300106</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L55" s="1">
         <v>4</v>
@@ -6096,7 +6136,7 @@
         <v>13</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T55" s="3" t="s">
         <v>41</v>
@@ -6131,7 +6171,7 @@
         <v>100055</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="1">
         <v>11</v>
@@ -6143,7 +6183,7 @@
         <v>36</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s">
         <v>38</v>
@@ -6158,7 +6198,7 @@
         <v>300107</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L56" s="1">
         <v>5</v>
@@ -6182,7 +6222,7 @@
         <v>15</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>41</v>
@@ -6217,7 +6257,7 @@
         <v>100056</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57" s="1">
         <v>12</v>
@@ -6229,7 +6269,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -6244,7 +6284,7 @@
         <v>300113</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L57" s="1">
         <v>1</v>
@@ -6268,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>41</v>
@@ -6303,7 +6343,7 @@
         <v>100057</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" s="1">
         <v>12</v>
@@ -6315,7 +6355,7 @@
         <v>36</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s">
         <v>38</v>
@@ -6330,7 +6370,7 @@
         <v>300114</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L58" s="1">
         <v>2</v>
@@ -6354,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>41</v>
@@ -6389,7 +6429,7 @@
         <v>100058</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" s="1">
         <v>12</v>
@@ -6401,7 +6441,7 @@
         <v>36</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
         <v>38</v>
@@ -6416,7 +6456,7 @@
         <v>300115</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L59" s="1">
         <v>3</v>
@@ -6440,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>41</v>
@@ -6475,7 +6515,7 @@
         <v>100059</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="1">
         <v>12</v>
@@ -6487,7 +6527,7 @@
         <v>36</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s">
         <v>38</v>
@@ -6502,7 +6542,7 @@
         <v>300116</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L60" s="1">
         <v>4</v>
@@ -6526,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>41</v>
@@ -6561,7 +6601,7 @@
         <v>100060</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" s="1">
         <v>12</v>
@@ -6573,7 +6613,7 @@
         <v>36</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s">
         <v>38</v>
@@ -6588,7 +6628,7 @@
         <v>300117</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L61" s="1">
         <v>5</v>
@@ -6612,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T61" s="3" t="s">
         <v>41</v>
@@ -6647,7 +6687,7 @@
         <v>100061</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" s="1">
         <v>13</v>
@@ -6674,7 +6714,7 @@
         <v>300123</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L62" s="1">
         <v>1</v>
@@ -6698,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>41</v>
@@ -6733,7 +6773,7 @@
         <v>100062</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C63" s="1">
         <v>13</v>
@@ -6760,7 +6800,7 @@
         <v>300124</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L63" s="1">
         <v>2</v>
@@ -6784,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="3" t="s">
         <v>41</v>
@@ -6819,7 +6859,7 @@
         <v>100063</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" s="1">
         <v>13</v>
@@ -6846,7 +6886,7 @@
         <v>300125</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L64" s="1">
         <v>3</v>
@@ -6870,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T64" s="3" t="s">
         <v>41</v>
@@ -6905,7 +6945,7 @@
         <v>100064</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C65" s="1">
         <v>13</v>
@@ -6932,7 +6972,7 @@
         <v>300126</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L65" s="1">
         <v>4</v>
@@ -6956,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T65" s="3" t="s">
         <v>41</v>
@@ -6991,7 +7031,7 @@
         <v>100065</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C66" s="1">
         <v>13</v>
@@ -7018,7 +7058,7 @@
         <v>300127</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L66" s="1">
         <v>5</v>
@@ -7042,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>41</v>
@@ -7077,7 +7117,7 @@
         <v>100066</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="1">
         <v>14</v>
@@ -7104,7 +7144,7 @@
         <v>300133</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L67" s="1">
         <v>1</v>
@@ -7128,7 +7168,7 @@
         <v>7</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T67" s="3" t="s">
         <v>41</v>
@@ -7163,7 +7203,7 @@
         <v>100067</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" s="1">
         <v>14</v>
@@ -7190,7 +7230,7 @@
         <v>300134</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L68" s="1">
         <v>2</v>
@@ -7214,7 +7254,7 @@
         <v>7</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>41</v>
@@ -7249,7 +7289,7 @@
         <v>100068</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" s="1">
         <v>14</v>
@@ -7276,7 +7316,7 @@
         <v>300135</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L69" s="1">
         <v>3</v>
@@ -7300,7 +7340,7 @@
         <v>7</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>41</v>
@@ -7335,7 +7375,7 @@
         <v>100069</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" s="1">
         <v>14</v>
@@ -7362,7 +7402,7 @@
         <v>300136</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L70" s="1">
         <v>4</v>
@@ -7386,7 +7426,7 @@
         <v>7</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T70" s="3" t="s">
         <v>41</v>
@@ -7421,7 +7461,7 @@
         <v>100070</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71" s="1">
         <v>14</v>
@@ -7448,7 +7488,7 @@
         <v>300137</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L71" s="1">
         <v>5</v>
@@ -7472,7 +7512,7 @@
         <v>7</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T71" s="3" t="s">
         <v>41</v>
@@ -7507,7 +7547,7 @@
         <v>100071</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C72" s="1">
         <v>15</v>
@@ -7534,7 +7574,7 @@
         <v>300143</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L72" s="1">
         <v>1</v>
@@ -7558,7 +7598,7 @@
         <v>7</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>41</v>
@@ -7593,7 +7633,7 @@
         <v>100072</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C73" s="1">
         <v>15</v>
@@ -7620,7 +7660,7 @@
         <v>300144</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L73" s="1">
         <v>2</v>
@@ -7644,7 +7684,7 @@
         <v>10</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T73" s="3" t="s">
         <v>41</v>
@@ -7679,7 +7719,7 @@
         <v>100073</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C74" s="1">
         <v>15</v>
@@ -7706,7 +7746,7 @@
         <v>300145</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L74" s="1">
         <v>3</v>
@@ -7730,7 +7770,7 @@
         <v>13</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T74" s="3" t="s">
         <v>41</v>
@@ -7765,7 +7805,7 @@
         <v>100074</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C75" s="1">
         <v>15</v>
@@ -7792,7 +7832,7 @@
         <v>300146</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L75" s="1">
         <v>4</v>
@@ -7816,7 +7856,7 @@
         <v>16</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T75" s="3" t="s">
         <v>41</v>
@@ -7851,7 +7891,7 @@
         <v>100075</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="1">
         <v>15</v>
@@ -7878,7 +7918,7 @@
         <v>300147</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L76" s="1">
         <v>5</v>
@@ -7902,7 +7942,7 @@
         <v>19</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>41</v>
@@ -7937,7 +7977,7 @@
         <v>100076</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" s="10">
         <v>16</v>
@@ -7964,7 +8004,7 @@
         <v>300153</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L77" s="10">
         <v>1</v>
@@ -7988,7 +8028,7 @@
         <v>9.5</v>
       </c>
       <c r="S77" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T77" s="9" t="s">
         <v>41</v>
@@ -8000,16 +8040,16 @@
         <v>43</v>
       </c>
       <c r="W77" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X77" s="9">
         <v>0</v>
       </c>
       <c r="Y77" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z77" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA77" s="12" t="s">
         <v>45</v>
@@ -8021,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="AD77" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE77" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF77" s="12" t="s">
         <v>45</v>
@@ -8043,7 +8083,7 @@
         <v>100077</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C78" s="10">
         <v>16</v>
@@ -8070,7 +8110,7 @@
         <v>300154</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L78" s="10">
         <v>2</v>
@@ -8094,7 +8134,7 @@
         <v>14.5</v>
       </c>
       <c r="S78" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T78" s="9" t="s">
         <v>41</v>
@@ -8106,16 +8146,16 @@
         <v>43</v>
       </c>
       <c r="W78" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X78" s="9">
         <v>0</v>
       </c>
       <c r="Y78" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z78" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA78" s="12" t="s">
         <v>45</v>
@@ -8127,10 +8167,10 @@
         <v>0</v>
       </c>
       <c r="AD78" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE78" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF78" s="12" t="s">
         <v>45</v>
@@ -8141,17 +8181,17 @@
       <c r="AH78" s="12">
         <v>0</v>
       </c>
-      <c r="AI78" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ78" s="27"/>
+      <c r="AI78" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ78" s="29"/>
     </row>
     <row r="79" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>100078</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C79" s="10">
         <v>16</v>
@@ -8178,7 +8218,7 @@
         <v>300155</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L79" s="10">
         <v>3</v>
@@ -8202,7 +8242,7 @@
         <v>19.5</v>
       </c>
       <c r="S79" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T79" s="9" t="s">
         <v>41</v>
@@ -8214,16 +8254,16 @@
         <v>43</v>
       </c>
       <c r="W79" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X79" s="9">
         <v>0</v>
       </c>
       <c r="Y79" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z79" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA79" s="12" t="s">
         <v>45</v>
@@ -8235,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="AD79" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE79" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF79" s="12" t="s">
         <v>45</v>
@@ -8249,17 +8289,17 @@
       <c r="AH79" s="12">
         <v>0</v>
       </c>
-      <c r="AI79" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ79" s="27"/>
+      <c r="AI79" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ79" s="29"/>
     </row>
     <row r="80" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>100079</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" s="10">
         <v>16</v>
@@ -8286,7 +8326,7 @@
         <v>300156</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L80" s="10">
         <v>4</v>
@@ -8310,7 +8350,7 @@
         <v>24.5</v>
       </c>
       <c r="S80" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T80" s="9" t="s">
         <v>41</v>
@@ -8322,16 +8362,16 @@
         <v>43</v>
       </c>
       <c r="W80" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X80" s="9">
         <v>0</v>
       </c>
       <c r="Y80" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z80" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA80" s="12" t="s">
         <v>45</v>
@@ -8343,10 +8383,10 @@
         <v>0</v>
       </c>
       <c r="AD80" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE80" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF80" s="12" t="s">
         <v>45</v>
@@ -8357,17 +8397,17 @@
       <c r="AH80" s="12">
         <v>0</v>
       </c>
-      <c r="AI80" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ80" s="27"/>
+      <c r="AI80" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ80" s="29"/>
     </row>
     <row r="81" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>100080</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" s="10">
         <v>16</v>
@@ -8394,7 +8434,7 @@
         <v>300157</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L81" s="10">
         <v>5</v>
@@ -8418,7 +8458,7 @@
         <v>29.5</v>
       </c>
       <c r="S81" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T81" s="9" t="s">
         <v>41</v>
@@ -8430,16 +8470,16 @@
         <v>43</v>
       </c>
       <c r="W81" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X81" s="9">
         <v>0</v>
       </c>
       <c r="Y81" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z81" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA81" s="12" t="s">
         <v>45</v>
@@ -8451,10 +8491,10 @@
         <v>0</v>
       </c>
       <c r="AD81" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE81" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF81" s="12" t="s">
         <v>45</v>
@@ -8465,17 +8505,17 @@
       <c r="AH81" s="12">
         <v>0</v>
       </c>
-      <c r="AI81" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ81" s="27"/>
+      <c r="AI81" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ81" s="29"/>
     </row>
     <row r="82" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>100081</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C82" s="1">
         <v>17</v>
@@ -8502,31 +8542,31 @@
         <v>300163</v>
       </c>
       <c r="K82" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L82" s="1">
+        <v>1</v>
+      </c>
+      <c r="M82" s="1">
+        <v>5</v>
+      </c>
+      <c r="N82" s="1">
+        <v>1</v>
+      </c>
+      <c r="O82" s="1">
+        <v>3</v>
+      </c>
+      <c r="P82" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>5</v>
+      </c>
+      <c r="R82" s="1">
+        <v>3</v>
+      </c>
+      <c r="S82" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="L82" s="1">
-        <v>1</v>
-      </c>
-      <c r="M82" s="1">
-        <v>5</v>
-      </c>
-      <c r="N82" s="1">
-        <v>1</v>
-      </c>
-      <c r="O82" s="1">
-        <v>3</v>
-      </c>
-      <c r="P82" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="1">
-        <v>5</v>
-      </c>
-      <c r="R82" s="1">
-        <v>3</v>
-      </c>
-      <c r="S82" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="T82" s="3" t="s">
         <v>41</v>
@@ -8561,7 +8601,7 @@
         <v>100082</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C83" s="1">
         <v>17</v>
@@ -8588,7 +8628,7 @@
         <v>300164</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L83" s="1">
         <v>2</v>
@@ -8612,7 +8652,7 @@
         <v>3</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>41</v>
@@ -8647,7 +8687,7 @@
         <v>100083</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C84" s="1">
         <v>17</v>
@@ -8674,31 +8714,31 @@
         <v>300165</v>
       </c>
       <c r="K84" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L84" s="1">
+        <v>3</v>
+      </c>
+      <c r="M84" s="1">
+        <v>5</v>
+      </c>
+      <c r="N84" s="1">
+        <v>1</v>
+      </c>
+      <c r="O84" s="1">
+        <v>5</v>
+      </c>
+      <c r="P84" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>5</v>
+      </c>
+      <c r="R84" s="1">
+        <v>3</v>
+      </c>
+      <c r="S84" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="L84" s="1">
-        <v>3</v>
-      </c>
-      <c r="M84" s="1">
-        <v>5</v>
-      </c>
-      <c r="N84" s="1">
-        <v>1</v>
-      </c>
-      <c r="O84" s="1">
-        <v>5</v>
-      </c>
-      <c r="P84" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="1">
-        <v>5</v>
-      </c>
-      <c r="R84" s="1">
-        <v>3</v>
-      </c>
-      <c r="S84" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="T84" s="3" t="s">
         <v>41</v>
@@ -8733,7 +8773,7 @@
         <v>100084</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C85" s="1">
         <v>17</v>
@@ -8760,7 +8800,7 @@
         <v>300166</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L85" s="1">
         <v>4</v>
@@ -8784,7 +8824,7 @@
         <v>3</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T85" s="3" t="s">
         <v>41</v>
@@ -8819,7 +8859,7 @@
         <v>100085</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C86" s="1">
         <v>17</v>
@@ -8846,7 +8886,7 @@
         <v>300167</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L86" s="1">
         <v>5</v>
@@ -8870,7 +8910,7 @@
         <v>3</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T86" s="3" t="s">
         <v>41</v>
@@ -8905,19 +8945,19 @@
         <v>200001</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C87" s="3">
         <v>1000</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>38</v>
@@ -8948,7 +8988,7 @@
         <v>3</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T87" s="3" t="s">
         <v>41</v>
@@ -8993,7 +9033,7 @@
     <mergeCell ref="AI16:AJ16"/>
     <mergeCell ref="AI18:AJ18"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/Unknown_Platypus/Table/SkillTable.xlsx
+++ b/Unknown_Platypus/Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D00897D-B2ED-4D77-B0A9-07DBADA1F691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B213C6D8-8E9A-45C3-A603-8A6A973D7022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34860" yWindow="3495" windowWidth="21600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="123">
   <si>
     <t>index</t>
   </si>
@@ -458,9 +458,6 @@
     <t>StormSlashSkill</t>
   </si>
   <si>
-    <t>진공폭탄</t>
-  </si>
-  <si>
     <t>Skill_06</t>
   </si>
   <si>
@@ -564,15 +561,15 @@
   </si>
   <si>
     <t>1;5</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>5;10</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>2;5</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -670,15 +667,15 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1;0</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1;50</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -695,18 +692,51 @@
       </rPr>
       <t>50</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>진공폭탄</t>
+    </r>
+  </si>
+  <si>
+    <t>20001, 20006, 20016, 20061</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -835,7 +865,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,6 +895,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -890,102 +926,116 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="20% - 강조색5" xfId="3" builtinId="46"/>
     <cellStyle name="20% - 강조색6" xfId="2" builtinId="50"/>
     <cellStyle name="메모" xfId="1" builtinId="10"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1206,9 +1256,9 @@
   </sheetPr>
   <dimension ref="A1:AJ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF37" sqref="AF37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1361,7 +1411,7 @@
         <v>100001</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
@@ -1438,11 +1488,11 @@
       <c r="AA2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="31" t="s">
-        <v>121</v>
+      <c r="AB2" s="27" t="s">
+        <v>120</v>
       </c>
       <c r="AC2" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD2" s="16" t="s">
         <v>46</v>
@@ -1467,7 +1517,7 @@
         <v>100002</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="14">
         <v>1</v>
@@ -1544,8 +1594,8 @@
       <c r="AA3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AB3" s="31" t="s">
-        <v>119</v>
+      <c r="AB3" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="AC3" s="15">
         <v>1</v>
@@ -1573,7 +1623,7 @@
         <v>100003</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="14">
         <v>1</v>
@@ -1651,7 +1701,7 @@
         <v>45</v>
       </c>
       <c r="AB4" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC4" s="15">
         <v>1</v>
@@ -1679,7 +1729,7 @@
         <v>100004</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -1757,7 +1807,7 @@
         <v>45</v>
       </c>
       <c r="AB5" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC5" s="15">
         <v>1</v>
@@ -1785,7 +1835,7 @@
         <v>100005</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="14">
         <v>1</v>
@@ -1863,10 +1913,10 @@
         <v>45</v>
       </c>
       <c r="AB6" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC6" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AD6" s="16" t="s">
         <v>46</v>
@@ -2535,10 +2585,10 @@
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
-      <c r="AI13" s="28" t="s">
+      <c r="AI13" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="AJ13" s="29"/>
+      <c r="AJ13" s="31"/>
     </row>
     <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
@@ -2623,10 +2673,10 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
-      <c r="AI14" s="28" t="s">
+      <c r="AI14" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="AJ14" s="29"/>
+      <c r="AJ14" s="31"/>
     </row>
     <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -2711,10 +2761,10 @@
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
-      <c r="AI15" s="28" t="s">
+      <c r="AI15" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="AJ15" s="29"/>
+      <c r="AJ15" s="31"/>
     </row>
     <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
@@ -2799,10 +2849,10 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="28" t="s">
+      <c r="AI16" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="AJ16" s="29"/>
+      <c r="AJ16" s="31"/>
     </row>
     <row r="17" spans="1:36" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
@@ -2973,10 +3023,10 @@
       <c r="AF18" s="21"/>
       <c r="AG18" s="21"/>
       <c r="AH18" s="21"/>
-      <c r="AI18" s="26" t="s">
+      <c r="AI18" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="AJ18" s="27"/>
+      <c r="AJ18" s="29"/>
     </row>
     <row r="19" spans="1:36" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
@@ -3061,10 +3111,10 @@
       <c r="AF19" s="21"/>
       <c r="AG19" s="21"/>
       <c r="AH19" s="21"/>
-      <c r="AI19" s="26" t="s">
+      <c r="AI19" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="AJ19" s="27"/>
+      <c r="AJ19" s="29"/>
     </row>
     <row r="20" spans="1:36" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
@@ -3149,10 +3199,10 @@
       <c r="AF20" s="21"/>
       <c r="AG20" s="21"/>
       <c r="AH20" s="21"/>
-      <c r="AI20" s="26" t="s">
+      <c r="AI20" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="AJ20" s="27"/>
+      <c r="AJ20" s="29"/>
     </row>
     <row r="21" spans="1:36" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
@@ -3237,10 +3287,10 @@
       <c r="AF21" s="21"/>
       <c r="AG21" s="21"/>
       <c r="AH21" s="21"/>
-      <c r="AI21" s="26" t="s">
+      <c r="AI21" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="AJ21" s="27"/>
+      <c r="AJ21" s="29"/>
     </row>
     <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
@@ -4962,442 +5012,450 @@
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
     </row>
-    <row r="42" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+    <row r="42" spans="1:36" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="33">
         <v>100041</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="33">
+        <v>9</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="33">
+        <v>300081</v>
+      </c>
+      <c r="I42" s="33">
+        <v>300082</v>
+      </c>
+      <c r="J42" s="33">
+        <v>300083</v>
+      </c>
+      <c r="K42" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="1">
+      <c r="L42" s="33">
+        <v>1</v>
+      </c>
+      <c r="M42" s="33">
+        <v>5</v>
+      </c>
+      <c r="N42" s="33">
+        <v>5</v>
+      </c>
+      <c r="O42" s="33">
+        <v>3</v>
+      </c>
+      <c r="P42" s="33">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="33">
+        <v>3</v>
+      </c>
+      <c r="R42" s="33">
+        <v>1</v>
+      </c>
+      <c r="S42" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="T42" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U42" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="V42" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="W42" s="33">
+        <v>1</v>
+      </c>
+      <c r="X42" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
+      <c r="AI42" s="35"/>
+      <c r="AJ42" s="35"/>
+    </row>
+    <row r="43" spans="1:36" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="33">
+        <v>100042</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="33">
         <v>9</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H43" s="33">
         <v>300081</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I43" s="33">
         <v>300082</v>
       </c>
-      <c r="J42" s="1">
-        <v>300083</v>
-      </c>
-      <c r="K42" s="1" t="s">
+      <c r="J43" s="33">
+        <v>300084</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="L43" s="33">
+        <v>2</v>
+      </c>
+      <c r="M43" s="33">
+        <v>2</v>
+      </c>
+      <c r="N43" s="33">
+        <v>1</v>
+      </c>
+      <c r="O43" s="33">
+        <v>1</v>
+      </c>
+      <c r="P43" s="33">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="R43" s="33">
+        <v>3</v>
+      </c>
+      <c r="S43" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="L42" s="1">
-        <v>1</v>
-      </c>
-      <c r="M42" s="1">
-        <v>5</v>
-      </c>
-      <c r="N42" s="1">
-        <v>5</v>
-      </c>
-      <c r="O42" s="1">
-        <v>3</v>
-      </c>
-      <c r="P42" s="8">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>3</v>
-      </c>
-      <c r="R42" s="1">
-        <v>1</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T42" s="3" t="s">
+      <c r="T43" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="U43" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="V43" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="W42" s="3">
-        <v>1</v>
-      </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="2"/>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="2"/>
+      <c r="W43" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="X43" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+      <c r="AD43" s="35"/>
+      <c r="AE43" s="35"/>
+      <c r="AF43" s="35"/>
+      <c r="AG43" s="35"/>
+      <c r="AH43" s="35"/>
+      <c r="AI43" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ43" s="35"/>
     </row>
-    <row r="43" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>100042</v>
-      </c>
-      <c r="B43" s="3" t="s">
+    <row r="44" spans="1:36" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="33">
+        <v>100043</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="33">
+        <v>9</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="33">
+        <v>300081</v>
+      </c>
+      <c r="I44" s="33">
+        <v>300082</v>
+      </c>
+      <c r="J44" s="33">
+        <v>300085</v>
+      </c>
+      <c r="K44" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="1">
+      <c r="L44" s="33">
+        <v>3</v>
+      </c>
+      <c r="M44" s="33">
+        <v>2</v>
+      </c>
+      <c r="N44" s="33">
+        <v>2</v>
+      </c>
+      <c r="O44" s="33">
+        <v>1</v>
+      </c>
+      <c r="P44" s="33">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="33">
+        <v>1.6</v>
+      </c>
+      <c r="R44" s="33">
+        <v>3</v>
+      </c>
+      <c r="S44" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="T44" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U44" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="V44" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="W44" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="X44" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="35"/>
+      <c r="AD44" s="35"/>
+      <c r="AE44" s="35"/>
+      <c r="AF44" s="35"/>
+      <c r="AG44" s="35"/>
+      <c r="AH44" s="35"/>
+      <c r="AI44" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ44" s="35"/>
+    </row>
+    <row r="45" spans="1:36" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="33">
+        <v>100044</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="33">
         <v>9</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D45" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E45" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F45" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G45" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H45" s="33">
         <v>300081</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I45" s="33">
         <v>300082</v>
       </c>
-      <c r="J43" s="1">
-        <v>300084</v>
-      </c>
-      <c r="K43" s="1" t="s">
+      <c r="J45" s="33">
+        <v>300086</v>
+      </c>
+      <c r="K45" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="L45" s="33">
+        <v>4</v>
+      </c>
+      <c r="M45" s="33">
+        <v>2</v>
+      </c>
+      <c r="N45" s="33">
+        <v>2</v>
+      </c>
+      <c r="O45" s="33">
+        <v>1</v>
+      </c>
+      <c r="P45" s="33">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="33">
+        <v>1.6</v>
+      </c>
+      <c r="R45" s="33">
+        <v>3</v>
+      </c>
+      <c r="S45" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="L43" s="1">
+      <c r="T45" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U45" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="V45" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="W45" s="33">
         <v>2</v>
       </c>
-      <c r="M43" s="1">
+      <c r="X45" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="35"/>
+      <c r="AD45" s="35"/>
+      <c r="AE45" s="35"/>
+      <c r="AF45" s="35"/>
+      <c r="AG45" s="35"/>
+      <c r="AH45" s="35"/>
+      <c r="AI45" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ45" s="35"/>
+    </row>
+    <row r="46" spans="1:36" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="33">
+        <v>100045</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="33">
+        <v>9</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="33">
+        <v>300081</v>
+      </c>
+      <c r="I46" s="33">
+        <v>300082</v>
+      </c>
+      <c r="J46" s="33">
+        <v>300087</v>
+      </c>
+      <c r="K46" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="L46" s="33">
+        <v>5</v>
+      </c>
+      <c r="M46" s="33">
         <v>2</v>
       </c>
-      <c r="N43" s="1">
-        <v>1</v>
-      </c>
-      <c r="O43" s="1">
-        <v>1</v>
-      </c>
-      <c r="P43" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="R43" s="1">
-        <v>3</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T43" s="3" t="s">
+      <c r="N46" s="33">
+        <v>3</v>
+      </c>
+      <c r="O46" s="33">
+        <v>1</v>
+      </c>
+      <c r="P46" s="33">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="R46" s="33">
+        <v>3</v>
+      </c>
+      <c r="S46" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="T46" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="U43" s="3" t="s">
+      <c r="U46" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="V43" s="3" t="s">
+      <c r="V46" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="W43" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="2"/>
-      <c r="AF43" s="2"/>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2"/>
-    </row>
-    <row r="44" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>100043</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="1">
-        <v>9</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="1">
-        <v>300081</v>
-      </c>
-      <c r="I44" s="1">
-        <v>300082</v>
-      </c>
-      <c r="J44" s="1">
-        <v>300085</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L44" s="1">
-        <v>3</v>
-      </c>
-      <c r="M44" s="1">
-        <v>2</v>
-      </c>
-      <c r="N44" s="1">
-        <v>2</v>
-      </c>
-      <c r="O44" s="1">
-        <v>1</v>
-      </c>
-      <c r="P44" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="R44" s="1">
-        <v>3</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W44" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="X44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
-    </row>
-    <row r="45" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>100044</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="1">
-        <v>9</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="1">
-        <v>300081</v>
-      </c>
-      <c r="I45" s="1">
-        <v>300082</v>
-      </c>
-      <c r="J45" s="1">
-        <v>300086</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L45" s="1">
-        <v>4</v>
-      </c>
-      <c r="M45" s="1">
-        <v>2</v>
-      </c>
-      <c r="N45" s="1">
-        <v>2</v>
-      </c>
-      <c r="O45" s="1">
-        <v>1</v>
-      </c>
-      <c r="P45" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="R45" s="1">
-        <v>3</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W45" s="3">
-        <v>2</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
-      <c r="AF45" s="2"/>
-      <c r="AG45" s="2"/>
-      <c r="AH45" s="2"/>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-    </row>
-    <row r="46" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>100045</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="1">
-        <v>9</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="1">
-        <v>300081</v>
-      </c>
-      <c r="I46" s="1">
-        <v>300082</v>
-      </c>
-      <c r="J46" s="1">
-        <v>300087</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L46" s="1">
-        <v>5</v>
-      </c>
-      <c r="M46" s="1">
-        <v>2</v>
-      </c>
-      <c r="N46" s="1">
-        <v>3</v>
-      </c>
-      <c r="O46" s="1">
-        <v>1</v>
-      </c>
-      <c r="P46" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="R46" s="1">
-        <v>3</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="33">
         <v>2.5</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
-      <c r="AD46" s="2"/>
-      <c r="AE46" s="2"/>
-      <c r="AF46" s="2"/>
-      <c r="AG46" s="2"/>
-      <c r="AH46" s="2"/>
-      <c r="AI46" s="2"/>
-      <c r="AJ46" s="2"/>
+      <c r="X46" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="35"/>
+      <c r="AF46" s="35"/>
+      <c r="AG46" s="35"/>
+      <c r="AH46" s="35"/>
+      <c r="AI46" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ46" s="35"/>
     </row>
     <row r="47" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>100046</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" s="1">
         <v>10</v>
@@ -5424,7 +5482,7 @@
         <v>300093</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L47" s="1">
         <v>1</v>
@@ -5448,7 +5506,7 @@
         <v>3</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>41</v>
@@ -5483,7 +5541,7 @@
         <v>100047</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" s="1">
         <v>10</v>
@@ -5510,7 +5568,7 @@
         <v>300094</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L48" s="1">
         <v>2</v>
@@ -5534,7 +5592,7 @@
         <v>3</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>41</v>
@@ -5569,7 +5627,7 @@
         <v>100048</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" s="1">
         <v>10</v>
@@ -5596,7 +5654,7 @@
         <v>300095</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L49" s="1">
         <v>3</v>
@@ -5620,7 +5678,7 @@
         <v>3</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>41</v>
@@ -5655,7 +5713,7 @@
         <v>100049</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C50" s="1">
         <v>10</v>
@@ -5682,7 +5740,7 @@
         <v>300096</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L50" s="1">
         <v>4</v>
@@ -5706,7 +5764,7 @@
         <v>3</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>41</v>
@@ -5741,7 +5799,7 @@
         <v>100050</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" s="1">
         <v>10</v>
@@ -5768,7 +5826,7 @@
         <v>300097</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L51" s="1">
         <v>5</v>
@@ -5792,7 +5850,7 @@
         <v>2</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T51" s="3" t="s">
         <v>41</v>
@@ -5827,7 +5885,7 @@
         <v>100051</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="1">
         <v>11</v>
@@ -5854,7 +5912,7 @@
         <v>300103</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L52" s="1">
         <v>1</v>
@@ -5878,7 +5936,7 @@
         <v>7</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>41</v>
@@ -5913,7 +5971,7 @@
         <v>100052</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="1">
         <v>11</v>
@@ -5940,7 +5998,7 @@
         <v>300104</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L53" s="1">
         <v>2</v>
@@ -5964,7 +6022,7 @@
         <v>9</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T53" s="3" t="s">
         <v>41</v>
@@ -5999,7 +6057,7 @@
         <v>100053</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="1">
         <v>11</v>
@@ -6026,7 +6084,7 @@
         <v>300105</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L54" s="1">
         <v>3</v>
@@ -6050,7 +6108,7 @@
         <v>11</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>41</v>
@@ -6085,7 +6143,7 @@
         <v>100054</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1">
         <v>11</v>
@@ -6112,7 +6170,7 @@
         <v>300106</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L55" s="1">
         <v>4</v>
@@ -6136,7 +6194,7 @@
         <v>13</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T55" s="3" t="s">
         <v>41</v>
@@ -6171,7 +6229,7 @@
         <v>100055</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" s="1">
         <v>11</v>
@@ -6198,7 +6256,7 @@
         <v>300107</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L56" s="1">
         <v>5</v>
@@ -6222,7 +6280,7 @@
         <v>15</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>41</v>
@@ -6257,7 +6315,7 @@
         <v>100056</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" s="1">
         <v>12</v>
@@ -6284,7 +6342,7 @@
         <v>300113</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L57" s="1">
         <v>1</v>
@@ -6308,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>41</v>
@@ -6343,7 +6401,7 @@
         <v>100057</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" s="1">
         <v>12</v>
@@ -6370,7 +6428,7 @@
         <v>300114</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L58" s="1">
         <v>2</v>
@@ -6394,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>41</v>
@@ -6429,7 +6487,7 @@
         <v>100058</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C59" s="1">
         <v>12</v>
@@ -6456,7 +6514,7 @@
         <v>300115</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L59" s="1">
         <v>3</v>
@@ -6480,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>41</v>
@@ -6515,7 +6573,7 @@
         <v>100059</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="1">
         <v>12</v>
@@ -6542,7 +6600,7 @@
         <v>300116</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L60" s="1">
         <v>4</v>
@@ -6566,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>41</v>
@@ -6601,7 +6659,7 @@
         <v>100060</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="1">
         <v>12</v>
@@ -6628,7 +6686,7 @@
         <v>300117</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L61" s="1">
         <v>5</v>
@@ -6652,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T61" s="3" t="s">
         <v>41</v>
@@ -6687,7 +6745,7 @@
         <v>100061</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C62" s="1">
         <v>13</v>
@@ -6714,7 +6772,7 @@
         <v>300123</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L62" s="1">
         <v>1</v>
@@ -6738,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>41</v>
@@ -6773,7 +6831,7 @@
         <v>100062</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" s="1">
         <v>13</v>
@@ -6800,7 +6858,7 @@
         <v>300124</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L63" s="1">
         <v>2</v>
@@ -6824,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T63" s="3" t="s">
         <v>41</v>
@@ -6859,7 +6917,7 @@
         <v>100063</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" s="1">
         <v>13</v>
@@ -6886,7 +6944,7 @@
         <v>300125</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L64" s="1">
         <v>3</v>
@@ -6910,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T64" s="3" t="s">
         <v>41</v>
@@ -6945,7 +7003,7 @@
         <v>100064</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C65" s="1">
         <v>13</v>
@@ -6972,7 +7030,7 @@
         <v>300126</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L65" s="1">
         <v>4</v>
@@ -6996,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T65" s="3" t="s">
         <v>41</v>
@@ -7031,7 +7089,7 @@
         <v>100065</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66" s="1">
         <v>13</v>
@@ -7058,7 +7116,7 @@
         <v>300127</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L66" s="1">
         <v>5</v>
@@ -7082,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>41</v>
@@ -7117,7 +7175,7 @@
         <v>100066</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="1">
         <v>14</v>
@@ -7144,7 +7202,7 @@
         <v>300133</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L67" s="1">
         <v>1</v>
@@ -7168,7 +7226,7 @@
         <v>7</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T67" s="3" t="s">
         <v>41</v>
@@ -7203,7 +7261,7 @@
         <v>100067</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>14</v>
@@ -7230,7 +7288,7 @@
         <v>300134</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L68" s="1">
         <v>2</v>
@@ -7254,7 +7312,7 @@
         <v>7</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>41</v>
@@ -7289,7 +7347,7 @@
         <v>100068</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>14</v>
@@ -7316,7 +7374,7 @@
         <v>300135</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L69" s="1">
         <v>3</v>
@@ -7340,7 +7398,7 @@
         <v>7</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>41</v>
@@ -7375,7 +7433,7 @@
         <v>100069</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>14</v>
@@ -7402,7 +7460,7 @@
         <v>300136</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L70" s="1">
         <v>4</v>
@@ -7426,7 +7484,7 @@
         <v>7</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T70" s="3" t="s">
         <v>41</v>
@@ -7461,7 +7519,7 @@
         <v>100070</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>14</v>
@@ -7488,7 +7546,7 @@
         <v>300137</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L71" s="1">
         <v>5</v>
@@ -7512,7 +7570,7 @@
         <v>7</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T71" s="3" t="s">
         <v>41</v>
@@ -7547,7 +7605,7 @@
         <v>100071</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C72" s="1">
         <v>15</v>
@@ -7574,7 +7632,7 @@
         <v>300143</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L72" s="1">
         <v>1</v>
@@ -7598,7 +7656,7 @@
         <v>7</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>41</v>
@@ -7633,7 +7691,7 @@
         <v>100072</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C73" s="1">
         <v>15</v>
@@ -7660,7 +7718,7 @@
         <v>300144</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L73" s="1">
         <v>2</v>
@@ -7684,7 +7742,7 @@
         <v>10</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T73" s="3" t="s">
         <v>41</v>
@@ -7719,7 +7777,7 @@
         <v>100073</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74" s="1">
         <v>15</v>
@@ -7746,7 +7804,7 @@
         <v>300145</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L74" s="1">
         <v>3</v>
@@ -7770,7 +7828,7 @@
         <v>13</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T74" s="3" t="s">
         <v>41</v>
@@ -7805,7 +7863,7 @@
         <v>100074</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C75" s="1">
         <v>15</v>
@@ -7832,7 +7890,7 @@
         <v>300146</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L75" s="1">
         <v>4</v>
@@ -7856,7 +7914,7 @@
         <v>16</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T75" s="3" t="s">
         <v>41</v>
@@ -7891,7 +7949,7 @@
         <v>100075</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C76" s="1">
         <v>15</v>
@@ -7918,7 +7976,7 @@
         <v>300147</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L76" s="1">
         <v>5</v>
@@ -7942,7 +8000,7 @@
         <v>19</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>41</v>
@@ -7977,7 +8035,7 @@
         <v>100076</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" s="10">
         <v>16</v>
@@ -8004,7 +8062,7 @@
         <v>300153</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L77" s="10">
         <v>1</v>
@@ -8028,7 +8086,7 @@
         <v>9.5</v>
       </c>
       <c r="S77" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T77" s="9" t="s">
         <v>41</v>
@@ -8040,16 +8098,16 @@
         <v>43</v>
       </c>
       <c r="W77" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X77" s="9">
         <v>0</v>
       </c>
       <c r="Y77" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z77" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA77" s="12" t="s">
         <v>45</v>
@@ -8061,10 +8119,10 @@
         <v>0</v>
       </c>
       <c r="AD77" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE77" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF77" s="12" t="s">
         <v>45</v>
@@ -8083,7 +8141,7 @@
         <v>100077</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C78" s="10">
         <v>16</v>
@@ -8110,7 +8168,7 @@
         <v>300154</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L78" s="10">
         <v>2</v>
@@ -8134,7 +8192,7 @@
         <v>14.5</v>
       </c>
       <c r="S78" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T78" s="9" t="s">
         <v>41</v>
@@ -8146,16 +8204,16 @@
         <v>43</v>
       </c>
       <c r="W78" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X78" s="9">
         <v>0</v>
       </c>
       <c r="Y78" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z78" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA78" s="12" t="s">
         <v>45</v>
@@ -8167,10 +8225,10 @@
         <v>0</v>
       </c>
       <c r="AD78" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE78" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF78" s="12" t="s">
         <v>45</v>
@@ -8182,16 +8240,16 @@
         <v>0</v>
       </c>
       <c r="AI78" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ78" s="29"/>
+        <v>101</v>
+      </c>
+      <c r="AJ78" s="31"/>
     </row>
     <row r="79" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>100078</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" s="10">
         <v>16</v>
@@ -8218,7 +8276,7 @@
         <v>300155</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L79" s="10">
         <v>3</v>
@@ -8242,7 +8300,7 @@
         <v>19.5</v>
       </c>
       <c r="S79" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T79" s="9" t="s">
         <v>41</v>
@@ -8254,16 +8312,16 @@
         <v>43</v>
       </c>
       <c r="W79" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X79" s="9">
         <v>0</v>
       </c>
       <c r="Y79" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z79" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA79" s="12" t="s">
         <v>45</v>
@@ -8275,10 +8333,10 @@
         <v>0</v>
       </c>
       <c r="AD79" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE79" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF79" s="12" t="s">
         <v>45</v>
@@ -8290,16 +8348,16 @@
         <v>0</v>
       </c>
       <c r="AI79" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ79" s="29"/>
+        <v>101</v>
+      </c>
+      <c r="AJ79" s="31"/>
     </row>
     <row r="80" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>100079</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" s="10">
         <v>16</v>
@@ -8326,7 +8384,7 @@
         <v>300156</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L80" s="10">
         <v>4</v>
@@ -8350,7 +8408,7 @@
         <v>24.5</v>
       </c>
       <c r="S80" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T80" s="9" t="s">
         <v>41</v>
@@ -8362,16 +8420,16 @@
         <v>43</v>
       </c>
       <c r="W80" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X80" s="9">
         <v>0</v>
       </c>
       <c r="Y80" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z80" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA80" s="12" t="s">
         <v>45</v>
@@ -8383,10 +8441,10 @@
         <v>0</v>
       </c>
       <c r="AD80" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE80" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF80" s="12" t="s">
         <v>45</v>
@@ -8398,16 +8456,16 @@
         <v>0</v>
       </c>
       <c r="AI80" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ80" s="29"/>
+        <v>101</v>
+      </c>
+      <c r="AJ80" s="31"/>
     </row>
     <row r="81" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>100080</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81" s="10">
         <v>16</v>
@@ -8434,7 +8492,7 @@
         <v>300157</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L81" s="10">
         <v>5</v>
@@ -8458,7 +8516,7 @@
         <v>29.5</v>
       </c>
       <c r="S81" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T81" s="9" t="s">
         <v>41</v>
@@ -8470,16 +8528,16 @@
         <v>43</v>
       </c>
       <c r="W81" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X81" s="9">
         <v>0</v>
       </c>
       <c r="Y81" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z81" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA81" s="12" t="s">
         <v>45</v>
@@ -8491,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="AD81" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE81" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF81" s="12" t="s">
         <v>45</v>
@@ -8506,16 +8564,16 @@
         <v>0</v>
       </c>
       <c r="AI81" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ81" s="29"/>
+        <v>101</v>
+      </c>
+      <c r="AJ81" s="31"/>
     </row>
     <row r="82" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>100081</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C82" s="1">
         <v>17</v>
@@ -8542,31 +8600,31 @@
         <v>300163</v>
       </c>
       <c r="K82" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L82" s="1">
+        <v>1</v>
+      </c>
+      <c r="M82" s="1">
+        <v>5</v>
+      </c>
+      <c r="N82" s="1">
+        <v>1</v>
+      </c>
+      <c r="O82" s="1">
+        <v>3</v>
+      </c>
+      <c r="P82" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>5</v>
+      </c>
+      <c r="R82" s="1">
+        <v>3</v>
+      </c>
+      <c r="S82" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="L82" s="1">
-        <v>1</v>
-      </c>
-      <c r="M82" s="1">
-        <v>5</v>
-      </c>
-      <c r="N82" s="1">
-        <v>1</v>
-      </c>
-      <c r="O82" s="1">
-        <v>3</v>
-      </c>
-      <c r="P82" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="1">
-        <v>5</v>
-      </c>
-      <c r="R82" s="1">
-        <v>3</v>
-      </c>
-      <c r="S82" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="T82" s="3" t="s">
         <v>41</v>
@@ -8601,7 +8659,7 @@
         <v>100082</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C83" s="1">
         <v>17</v>
@@ -8628,7 +8686,7 @@
         <v>300164</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L83" s="1">
         <v>2</v>
@@ -8652,7 +8710,7 @@
         <v>3</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>41</v>
@@ -8687,7 +8745,7 @@
         <v>100083</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C84" s="1">
         <v>17</v>
@@ -8714,31 +8772,31 @@
         <v>300165</v>
       </c>
       <c r="K84" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L84" s="1">
+        <v>3</v>
+      </c>
+      <c r="M84" s="1">
+        <v>5</v>
+      </c>
+      <c r="N84" s="1">
+        <v>1</v>
+      </c>
+      <c r="O84" s="1">
+        <v>5</v>
+      </c>
+      <c r="P84" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>5</v>
+      </c>
+      <c r="R84" s="1">
+        <v>3</v>
+      </c>
+      <c r="S84" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="L84" s="1">
-        <v>3</v>
-      </c>
-      <c r="M84" s="1">
-        <v>5</v>
-      </c>
-      <c r="N84" s="1">
-        <v>1</v>
-      </c>
-      <c r="O84" s="1">
-        <v>5</v>
-      </c>
-      <c r="P84" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="1">
-        <v>5</v>
-      </c>
-      <c r="R84" s="1">
-        <v>3</v>
-      </c>
-      <c r="S84" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="T84" s="3" t="s">
         <v>41</v>
@@ -8773,7 +8831,7 @@
         <v>100084</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C85" s="1">
         <v>17</v>
@@ -8800,7 +8858,7 @@
         <v>300166</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L85" s="1">
         <v>4</v>
@@ -8824,7 +8882,7 @@
         <v>3</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T85" s="3" t="s">
         <v>41</v>
@@ -8859,7 +8917,7 @@
         <v>100085</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C86" s="1">
         <v>17</v>
@@ -8886,7 +8944,7 @@
         <v>300167</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L86" s="1">
         <v>5</v>
@@ -8910,7 +8968,7 @@
         <v>3</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T86" s="3" t="s">
         <v>41</v>
@@ -8945,19 +9003,19 @@
         <v>200001</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C87" s="3">
         <v>1000</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>38</v>
@@ -8988,7 +9046,7 @@
         <v>3</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T87" s="3" t="s">
         <v>41</v>
@@ -9020,11 +9078,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AI78:AJ78"/>
-    <mergeCell ref="AI79:AJ79"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="AI81:AJ81"/>
     <mergeCell ref="AI19:AJ19"/>
     <mergeCell ref="AI20:AJ20"/>
     <mergeCell ref="AI13:AJ13"/>
@@ -9032,9 +9085,15 @@
     <mergeCell ref="AI15:AJ15"/>
     <mergeCell ref="AI16:AJ16"/>
     <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AI78:AJ78"/>
+    <mergeCell ref="AI79:AJ79"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="AI81:AJ81"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unknown_Platypus/Table/SkillTable.xlsx
+++ b/Unknown_Platypus/Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B213C6D8-8E9A-45C3-A603-8A6A973D7022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8410ACA9-0482-4141-9F85-29BB32C5D592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34860" yWindow="3495" windowWidth="21600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,248 @@
     <author>김태우</author>
   </authors>
   <commentList>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{052989F7-D0F8-45FA-BD04-07F26F89BB8E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김태우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>범위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>들어왔을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>몬스터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>몇마리까지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타격</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능한지</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{80E25125-51B9-4297-A78D-507B888C6172}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김태우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>횟수</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{D49B1E2E-DA66-4931-BE18-37F9197659F2}">
       <text>
         <r>
@@ -269,12 +511,6 @@
     <t>skillArea</t>
   </si>
   <si>
-    <t>skillTargetCount</t>
-  </si>
-  <si>
-    <t>skillHitCount</t>
-  </si>
-  <si>
     <t>duration</t>
   </si>
   <si>
@@ -561,15 +797,15 @@
   </si>
   <si>
     <t>1;5</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>5;10</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>2;5</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -667,15 +903,15 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>1;0</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>1;50</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -692,7 +928,7 @@
       </rPr>
       <t>50</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -709,18 +945,34 @@
   </si>
   <si>
     <t>20001, 20006, 20016, 20061</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillTargetCount</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillHitCount</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,6 +1034,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -795,6 +1048,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -807,11 +1061,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -928,81 +1184,84 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1012,26 +1271,23 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1256,15 +1512,15 @@
   </sheetPr>
   <dimension ref="A1:AJ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF37" sqref="AF37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
@@ -1278,9 +1534,9 @@
     <col min="13" max="13" width="11.140625" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" customWidth="1"/>
     <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
     <col min="19" max="19" width="27.140625" customWidth="1"/>
     <col min="20" max="21" width="13.5703125" customWidth="1"/>
     <col min="22" max="22" width="9.140625" customWidth="1"/>
@@ -1342,67 +1598,67 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="AJ1" s="2"/>
     </row>
@@ -1411,22 +1667,22 @@
         <v>100001</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="H2" s="14">
         <v>300001</v>
@@ -1438,70 +1694,70 @@
         <v>300003</v>
       </c>
       <c r="K2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="14">
+        <v>1</v>
+      </c>
+      <c r="M2" s="14">
+        <v>3</v>
+      </c>
+      <c r="N2" s="14">
+        <v>1</v>
+      </c>
+      <c r="O2" s="14">
+        <v>1</v>
+      </c>
+      <c r="P2" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>1</v>
+      </c>
+      <c r="R2" s="14">
+        <v>3</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="14">
-        <v>1</v>
-      </c>
-      <c r="M2" s="14">
-        <v>3</v>
-      </c>
-      <c r="N2" s="14">
-        <v>1</v>
-      </c>
-      <c r="O2" s="14">
-        <v>1</v>
-      </c>
-      <c r="P2" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="14">
-        <v>1</v>
-      </c>
-      <c r="R2" s="14">
-        <v>3</v>
-      </c>
-      <c r="S2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="V2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="W2" s="14">
+        <v>1</v>
+      </c>
+      <c r="X2" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="Z2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="14">
-        <v>1</v>
-      </c>
-      <c r="X2" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>45</v>
-      </c>
       <c r="AB2" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AC2" s="15">
         <v>5</v>
       </c>
       <c r="AD2" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE2" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AF2" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AG2" s="16">
         <v>1</v>
@@ -1517,22 +1773,22 @@
         <v>100002</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" s="14">
         <v>1</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="H3" s="14">
         <v>300001</v>
@@ -1544,7 +1800,7 @@
         <v>300004</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L3" s="14">
         <v>2</v>
@@ -1568,16 +1824,16 @@
         <v>3</v>
       </c>
       <c r="S3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="V3" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="W3" s="14">
         <v>1.5</v>
@@ -1586,28 +1842,28 @@
         <v>0</v>
       </c>
       <c r="Y3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Z3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AE3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB3" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC3" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE3" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="AF3" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AG3" s="16">
         <v>1</v>
@@ -1623,22 +1879,22 @@
         <v>100003</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" s="14">
         <v>1</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="H4" s="14">
         <v>300001</v>
@@ -1650,40 +1906,40 @@
         <v>300005</v>
       </c>
       <c r="K4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="14">
+        <v>3</v>
+      </c>
+      <c r="M4" s="14">
+        <v>3</v>
+      </c>
+      <c r="N4" s="14">
+        <v>1</v>
+      </c>
+      <c r="O4" s="14">
+        <v>1</v>
+      </c>
+      <c r="P4" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>1</v>
+      </c>
+      <c r="R4" s="14">
+        <v>3</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="14">
-        <v>3</v>
-      </c>
-      <c r="M4" s="14">
-        <v>3</v>
-      </c>
-      <c r="N4" s="14">
-        <v>1</v>
-      </c>
-      <c r="O4" s="14">
-        <v>1</v>
-      </c>
-      <c r="P4" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>1</v>
-      </c>
-      <c r="R4" s="14">
-        <v>3</v>
-      </c>
-      <c r="S4" s="14" t="s">
+      <c r="U4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="V4" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="W4" s="14">
         <v>1.5</v>
@@ -1692,28 +1948,28 @@
         <v>0</v>
       </c>
       <c r="Y4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AE4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB4" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE4" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="AF4" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AG4" s="16">
         <v>1</v>
@@ -1729,22 +1985,22 @@
         <v>100004</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="H5" s="14">
         <v>300001</v>
@@ -1756,7 +2012,7 @@
         <v>300006</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L5" s="14">
         <v>4</v>
@@ -1780,16 +2036,16 @@
         <v>3</v>
       </c>
       <c r="S5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="V5" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="W5" s="14">
         <v>2</v>
@@ -1798,28 +2054,28 @@
         <v>0</v>
       </c>
       <c r="Y5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Z5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AE5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC5" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE5" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="AF5" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AG5" s="16">
         <v>1</v>
@@ -1835,22 +2091,22 @@
         <v>100005</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" s="14">
         <v>1</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="H6" s="14">
         <v>300001</v>
@@ -1862,7 +2118,7 @@
         <v>300007</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L6" s="14">
         <v>5</v>
@@ -1886,16 +2142,16 @@
         <v>3</v>
       </c>
       <c r="S6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="T6" s="14" t="s">
+      <c r="V6" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="W6" s="14">
         <v>2.5</v>
@@ -1904,28 +2160,28 @@
         <v>0</v>
       </c>
       <c r="Y6" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AB6" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AC6" s="15">
         <v>10</v>
       </c>
       <c r="AD6" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE6" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AF6" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AG6" s="16">
         <v>1</v>
@@ -1941,22 +2197,22 @@
         <v>100006</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H7" s="1">
         <v>300011</v>
@@ -1968,7 +2224,7 @@
         <v>300013</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -1992,31 +2248,31 @@
         <v>5</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3">
+        <v>1</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA7" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="W7" s="3">
-        <v>1</v>
-      </c>
-      <c r="X7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="AB7" s="4">
         <v>5</v>
@@ -2037,22 +2293,22 @@
         <v>100007</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1">
         <v>300011</v>
@@ -2064,7 +2320,7 @@
         <v>300014</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L8" s="1">
         <v>2</v>
@@ -2088,16 +2344,16 @@
         <v>5</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V8" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W8" s="3">
         <v>1.5</v>
@@ -2106,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AB8" s="4">
         <v>6</v>
@@ -2133,22 +2389,22 @@
         <v>100008</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1">
         <v>300011</v>
@@ -2160,7 +2416,7 @@
         <v>300015</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L9" s="1">
         <v>3</v>
@@ -2184,16 +2440,16 @@
         <v>5</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W9" s="3">
         <v>1.5</v>
@@ -2202,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AB9" s="4">
         <v>7</v>
@@ -2229,22 +2485,22 @@
         <v>100009</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" s="1">
         <v>300011</v>
@@ -2256,7 +2512,7 @@
         <v>300016</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L10" s="1">
         <v>4</v>
@@ -2280,16 +2536,16 @@
         <v>5</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W10" s="3">
         <v>2</v>
@@ -2298,13 +2554,13 @@
         <v>0</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AB10" s="4">
         <v>8</v>
@@ -2325,22 +2581,22 @@
         <v>100010</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H11" s="1">
         <v>300011</v>
@@ -2352,7 +2608,7 @@
         <v>300017</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L11" s="1">
         <v>5</v>
@@ -2376,16 +2632,16 @@
         <v>5</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W11" s="3">
         <v>2.5</v>
@@ -2394,13 +2650,13 @@
         <v>0</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AB11" s="4">
         <v>9</v>
@@ -2421,22 +2677,22 @@
         <v>100011</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="6">
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="H12" s="6">
         <v>300021</v>
@@ -2448,7 +2704,7 @@
         <v>300023</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L12" s="6">
         <v>1</v>
@@ -2472,16 +2728,16 @@
         <v>5</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V12" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="W12" s="5">
         <v>1</v>
@@ -2507,22 +2763,22 @@
         <v>100012</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="6">
         <v>3</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="H13" s="6">
         <v>300021</v>
@@ -2534,7 +2790,7 @@
         <v>300024</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L13" s="6">
         <v>2</v>
@@ -2558,16 +2814,16 @@
         <v>5</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V13" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="W13" s="5">
         <v>1.5</v>
@@ -2585,32 +2841,32 @@
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
-      <c r="AI13" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ13" s="31"/>
+      <c r="AI13" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ13" s="34"/>
     </row>
     <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>100013</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="6">
         <v>3</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="H14" s="6">
         <v>300021</v>
@@ -2622,7 +2878,7 @@
         <v>300025</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L14" s="6">
         <v>3</v>
@@ -2646,16 +2902,16 @@
         <v>5</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V14" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="W14" s="5">
         <v>1.5</v>
@@ -2673,32 +2929,32 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
-      <c r="AI14" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ14" s="31"/>
+      <c r="AI14" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ14" s="34"/>
     </row>
     <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>100014</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="6">
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="H15" s="6">
         <v>300021</v>
@@ -2710,7 +2966,7 @@
         <v>300026</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L15" s="6">
         <v>4</v>
@@ -2734,16 +2990,16 @@
         <v>5</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="W15" s="5">
         <v>2</v>
@@ -2761,32 +3017,32 @@
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
-      <c r="AI15" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ15" s="31"/>
+      <c r="AI15" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ15" s="34"/>
     </row>
     <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>100015</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="6">
         <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="H16" s="6">
         <v>300021</v>
@@ -2798,7 +3054,7 @@
         <v>300027</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L16" s="6">
         <v>5</v>
@@ -2807,7 +3063,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O16" s="6">
         <v>1</v>
@@ -2822,16 +3078,16 @@
         <v>5</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V16" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="W16" s="5">
         <v>2.5</v>
@@ -2849,32 +3105,32 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ16" s="31"/>
+      <c r="AI16" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ16" s="34"/>
     </row>
     <row r="17" spans="1:36" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>100016</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="19">
         <v>4</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="H17" s="19">
         <v>300031</v>
@@ -2886,7 +3142,7 @@
         <v>300033</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L17" s="19">
         <v>1</v>
@@ -2910,16 +3166,16 @@
         <v>3</v>
       </c>
       <c r="S17" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V17" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="U17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="V17" s="18" t="s">
-        <v>43</v>
       </c>
       <c r="W17" s="18">
         <v>1</v>
@@ -2945,22 +3201,22 @@
         <v>100017</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="19">
         <v>4</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="H18" s="19">
         <v>300031</v>
@@ -2972,7 +3228,7 @@
         <v>300034</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L18" s="19">
         <v>2</v>
@@ -2996,16 +3252,16 @@
         <v>3</v>
       </c>
       <c r="S18" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V18" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="U18" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="V18" s="18" t="s">
-        <v>43</v>
       </c>
       <c r="W18" s="18">
         <v>1.5</v>
@@ -3023,32 +3279,32 @@
       <c r="AF18" s="21"/>
       <c r="AG18" s="21"/>
       <c r="AH18" s="21"/>
-      <c r="AI18" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ18" s="29"/>
+      <c r="AI18" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ18" s="32"/>
     </row>
     <row r="19" spans="1:36" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>100018</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" s="19">
         <v>4</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="H19" s="19">
         <v>300031</v>
@@ -3060,7 +3316,7 @@
         <v>300035</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L19" s="19">
         <v>3</v>
@@ -3084,16 +3340,16 @@
         <v>3</v>
       </c>
       <c r="S19" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="U19" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V19" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="U19" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="V19" s="18" t="s">
-        <v>43</v>
       </c>
       <c r="W19" s="18">
         <v>1.5</v>
@@ -3111,32 +3367,32 @@
       <c r="AF19" s="21"/>
       <c r="AG19" s="21"/>
       <c r="AH19" s="21"/>
-      <c r="AI19" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ19" s="29"/>
+      <c r="AI19" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ19" s="32"/>
     </row>
     <row r="20" spans="1:36" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>100019</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="19">
         <v>4</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="H20" s="19">
         <v>300031</v>
@@ -3148,7 +3404,7 @@
         <v>300036</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L20" s="19">
         <v>4</v>
@@ -3172,16 +3428,16 @@
         <v>3</v>
       </c>
       <c r="S20" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="U20" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="V20" s="18" t="s">
-        <v>43</v>
       </c>
       <c r="W20" s="18">
         <v>2</v>
@@ -3199,32 +3455,32 @@
       <c r="AF20" s="21"/>
       <c r="AG20" s="21"/>
       <c r="AH20" s="21"/>
-      <c r="AI20" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ20" s="29"/>
+      <c r="AI20" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ20" s="32"/>
     </row>
     <row r="21" spans="1:36" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>100020</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="19">
         <v>4</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="H21" s="19">
         <v>300031</v>
@@ -3236,7 +3492,7 @@
         <v>300037</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L21" s="19">
         <v>5</v>
@@ -3260,16 +3516,16 @@
         <v>3</v>
       </c>
       <c r="S21" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T21" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V21" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="U21" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="V21" s="18" t="s">
-        <v>43</v>
       </c>
       <c r="W21" s="18">
         <v>2.5</v>
@@ -3287,32 +3543,32 @@
       <c r="AF21" s="21"/>
       <c r="AG21" s="21"/>
       <c r="AH21" s="21"/>
-      <c r="AI21" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ21" s="29"/>
+      <c r="AI21" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ21" s="32"/>
     </row>
     <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>100021</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" t="s">
         <v>36</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
       </c>
       <c r="H22" s="1">
         <v>300041</v>
@@ -3324,7 +3580,7 @@
         <v>300043</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L22" s="1">
         <v>1</v>
@@ -3348,16 +3604,16 @@
         <v>5</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W22" s="3">
         <v>1</v>
@@ -3383,22 +3639,22 @@
         <v>100022</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" t="s">
         <v>36</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
       </c>
       <c r="H23" s="1">
         <v>300041</v>
@@ -3410,7 +3666,7 @@
         <v>300044</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L23" s="1">
         <v>2</v>
@@ -3434,16 +3690,16 @@
         <v>6</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V23" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W23" s="3">
         <v>1.5</v>
@@ -3469,22 +3725,22 @@
         <v>100023</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" t="s">
         <v>36</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
       </c>
       <c r="H24" s="1">
         <v>300041</v>
@@ -3496,7 +3752,7 @@
         <v>300045</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L24" s="1">
         <v>3</v>
@@ -3520,16 +3776,16 @@
         <v>7</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V24" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W24" s="3">
         <v>1.5</v>
@@ -3555,22 +3811,22 @@
         <v>100024</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="G25" t="s">
         <v>36</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
       </c>
       <c r="H25" s="1">
         <v>300041</v>
@@ -3582,7 +3838,7 @@
         <v>300046</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L25" s="1">
         <v>4</v>
@@ -3606,16 +3862,16 @@
         <v>8</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V25" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W25" s="3">
         <v>2</v>
@@ -3641,22 +3897,22 @@
         <v>100025</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" t="s">
         <v>36</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
       </c>
       <c r="H26" s="1">
         <v>300041</v>
@@ -3668,7 +3924,7 @@
         <v>300047</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L26" s="1">
         <v>5</v>
@@ -3692,16 +3948,16 @@
         <v>9</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V26" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W26" s="3">
         <v>2.5</v>
@@ -3727,22 +3983,22 @@
         <v>100026</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" t="s">
         <v>36</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" t="s">
-        <v>38</v>
       </c>
       <c r="H27" s="1">
         <v>300051</v>
@@ -3754,7 +4010,7 @@
         <v>300053</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L27" s="1">
         <v>1</v>
@@ -3778,16 +4034,16 @@
         <v>5</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V27" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W27" s="3">
         <v>1</v>
@@ -3813,22 +4069,22 @@
         <v>100027</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="G28" t="s">
         <v>36</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" t="s">
-        <v>38</v>
       </c>
       <c r="H28" s="1">
         <v>300051</v>
@@ -3840,7 +4096,7 @@
         <v>300054</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L28" s="1">
         <v>2</v>
@@ -3864,16 +4120,16 @@
         <v>5</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V28" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W28" s="3">
         <v>1.5</v>
@@ -3899,22 +4155,22 @@
         <v>100028</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="G29" t="s">
         <v>36</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" t="s">
-        <v>38</v>
       </c>
       <c r="H29" s="1">
         <v>300051</v>
@@ -3926,7 +4182,7 @@
         <v>300055</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L29" s="1">
         <v>3</v>
@@ -3950,16 +4206,16 @@
         <v>6</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V29" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W29" s="3">
         <v>1.5</v>
@@ -3985,22 +4241,22 @@
         <v>100029</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" t="s">
         <v>36</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" t="s">
-        <v>38</v>
       </c>
       <c r="H30" s="1">
         <v>300051</v>
@@ -4012,7 +4268,7 @@
         <v>300056</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L30" s="1">
         <v>4</v>
@@ -4036,16 +4292,16 @@
         <v>6</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V30" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W30" s="3">
         <v>2</v>
@@ -4071,22 +4327,22 @@
         <v>100030</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="G31" t="s">
         <v>36</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" t="s">
-        <v>38</v>
       </c>
       <c r="H31" s="1">
         <v>300051</v>
@@ -4098,7 +4354,7 @@
         <v>300057</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L31" s="1">
         <v>5</v>
@@ -4122,16 +4378,16 @@
         <v>6</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V31" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W31" s="3">
         <v>2.5</v>
@@ -4157,22 +4413,22 @@
         <v>100031</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32" s="1">
         <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="G32" t="s">
         <v>36</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" t="s">
-        <v>38</v>
       </c>
       <c r="H32" s="1">
         <v>300061</v>
@@ -4184,7 +4440,7 @@
         <v>300061</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L32" s="1">
         <v>1</v>
@@ -4208,16 +4464,16 @@
         <v>5</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V32" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W32" s="3">
         <v>1</v>
@@ -4243,22 +4499,22 @@
         <v>100032</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1">
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="G33" t="s">
         <v>36</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" t="s">
-        <v>38</v>
       </c>
       <c r="H33" s="1">
         <v>300061</v>
@@ -4270,7 +4526,7 @@
         <v>300061</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L33" s="1">
         <v>2</v>
@@ -4294,16 +4550,16 @@
         <v>5</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V33" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W33" s="3">
         <v>1.5</v>
@@ -4329,22 +4585,22 @@
         <v>100033</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1">
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="G34" t="s">
         <v>36</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" t="s">
-        <v>38</v>
       </c>
       <c r="H34" s="1">
         <v>300061</v>
@@ -4356,7 +4612,7 @@
         <v>300061</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L34" s="1">
         <v>3</v>
@@ -4380,16 +4636,16 @@
         <v>5</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V34" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V34" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W34" s="3">
         <v>1.5</v>
@@ -4415,22 +4671,22 @@
         <v>100034</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1">
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="G35" t="s">
         <v>36</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" t="s">
-        <v>38</v>
       </c>
       <c r="H35" s="1">
         <v>300061</v>
@@ -4442,7 +4698,7 @@
         <v>300061</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L35" s="1">
         <v>4</v>
@@ -4466,16 +4722,16 @@
         <v>5</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V35" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W35" s="3">
         <v>2</v>
@@ -4501,22 +4757,22 @@
         <v>100035</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1">
         <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="G36" t="s">
         <v>36</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" t="s">
-        <v>38</v>
       </c>
       <c r="H36" s="1">
         <v>300061</v>
@@ -4528,7 +4784,7 @@
         <v>300061</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L36" s="1">
         <v>5</v>
@@ -4552,16 +4808,16 @@
         <v>5</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V36" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V36" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W36" s="3">
         <v>2.5</v>
@@ -4587,22 +4843,22 @@
         <v>100036</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1">
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="G37" t="s">
         <v>36</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>38</v>
       </c>
       <c r="H37" s="1">
         <v>300071</v>
@@ -4614,7 +4870,7 @@
         <v>300073</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L37" s="1">
         <v>1</v>
@@ -4638,16 +4894,16 @@
         <v>3</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V37" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W37" s="3">
         <v>0.4</v>
@@ -4673,22 +4929,22 @@
         <v>100037</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C38" s="1">
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="G38" t="s">
         <v>36</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" t="s">
-        <v>38</v>
       </c>
       <c r="H38" s="1">
         <v>300071</v>
@@ -4700,7 +4956,7 @@
         <v>300074</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L38" s="1">
         <v>2</v>
@@ -4724,16 +4980,16 @@
         <v>3</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V38" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W38" s="3">
         <v>0.4</v>
@@ -4759,22 +5015,22 @@
         <v>100038</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C39" s="1">
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="G39" t="s">
         <v>36</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" t="s">
-        <v>38</v>
       </c>
       <c r="H39" s="1">
         <v>300071</v>
@@ -4786,7 +5042,7 @@
         <v>300075</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L39" s="1">
         <v>3</v>
@@ -4810,16 +5066,16 @@
         <v>3</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V39" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U39" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W39" s="3">
         <v>0.4</v>
@@ -4845,22 +5101,22 @@
         <v>100039</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" s="1">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="G40" t="s">
         <v>36</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" t="s">
-        <v>38</v>
       </c>
       <c r="H40" s="1">
         <v>300071</v>
@@ -4872,7 +5128,7 @@
         <v>300076</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L40" s="1">
         <v>4</v>
@@ -4896,16 +5152,16 @@
         <v>3</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V40" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W40" s="3">
         <v>0.4</v>
@@ -4931,22 +5187,22 @@
         <v>100040</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41" s="1">
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="G41" t="s">
         <v>36</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" t="s">
-        <v>38</v>
       </c>
       <c r="H41" s="1">
         <v>300071</v>
@@ -4958,7 +5214,7 @@
         <v>300077</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L41" s="1">
         <v>5</v>
@@ -4982,16 +5238,16 @@
         <v>3</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V41" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W41" s="3">
         <v>0.4</v>
@@ -5012,465 +5268,465 @@
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
     </row>
-    <row r="42" spans="1:36" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="33">
+    <row r="42" spans="1:36" s="29" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="28">
         <v>100041</v>
       </c>
-      <c r="B42" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="33">
+      <c r="B42" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="28">
         <v>9</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="G42" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="33">
+      <c r="H42" s="28">
         <v>300081</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="28">
         <v>300082</v>
       </c>
-      <c r="J42" s="33">
+      <c r="J42" s="28">
         <v>300083</v>
       </c>
-      <c r="K42" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="L42" s="33">
-        <v>1</v>
-      </c>
-      <c r="M42" s="33">
+      <c r="K42" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L42" s="28">
+        <v>1</v>
+      </c>
+      <c r="M42" s="28">
+        <v>2</v>
+      </c>
+      <c r="N42" s="28">
+        <v>1</v>
+      </c>
+      <c r="O42" s="28">
+        <v>1</v>
+      </c>
+      <c r="P42" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="28">
+        <v>3</v>
+      </c>
+      <c r="R42" s="28">
+        <v>1</v>
+      </c>
+      <c r="S42" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="T42" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="U42" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="V42" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="W42" s="28">
+        <v>1</v>
+      </c>
+      <c r="X42" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="30"/>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="30"/>
+      <c r="AF42" s="30"/>
+      <c r="AG42" s="30"/>
+      <c r="AH42" s="30"/>
+      <c r="AI42" s="30"/>
+      <c r="AJ42" s="30"/>
+    </row>
+    <row r="43" spans="1:36" s="29" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="28">
+        <v>100042</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="28">
+        <v>9</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" s="28">
+        <v>300081</v>
+      </c>
+      <c r="I43" s="28">
+        <v>300082</v>
+      </c>
+      <c r="J43" s="28">
+        <v>300084</v>
+      </c>
+      <c r="K43" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L43" s="28">
+        <v>2</v>
+      </c>
+      <c r="M43" s="28">
+        <v>2</v>
+      </c>
+      <c r="N43" s="28">
+        <v>1</v>
+      </c>
+      <c r="O43" s="28">
+        <v>1</v>
+      </c>
+      <c r="P43" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="R43" s="28">
+        <v>3</v>
+      </c>
+      <c r="S43" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="T43" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="U43" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="V43" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="W43" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="X43" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="30"/>
+      <c r="AA43" s="30"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="30"/>
+      <c r="AD43" s="30"/>
+      <c r="AE43" s="30"/>
+      <c r="AF43" s="30"/>
+      <c r="AG43" s="30"/>
+      <c r="AH43" s="30"/>
+      <c r="AI43" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ43" s="30"/>
+    </row>
+    <row r="44" spans="1:36" s="29" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="28">
+        <v>100043</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="28">
+        <v>9</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="28">
+        <v>300081</v>
+      </c>
+      <c r="I44" s="28">
+        <v>300082</v>
+      </c>
+      <c r="J44" s="28">
+        <v>300085</v>
+      </c>
+      <c r="K44" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L44" s="28">
+        <v>3</v>
+      </c>
+      <c r="M44" s="28">
+        <v>2</v>
+      </c>
+      <c r="N44" s="28">
+        <v>1</v>
+      </c>
+      <c r="O44" s="28">
+        <v>1</v>
+      </c>
+      <c r="P44" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="R44" s="28">
+        <v>3</v>
+      </c>
+      <c r="S44" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="T44" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="U44" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="V44" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="W44" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="X44" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="30"/>
+      <c r="AG44" s="30"/>
+      <c r="AH44" s="30"/>
+      <c r="AI44" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ44" s="30"/>
+    </row>
+    <row r="45" spans="1:36" s="29" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="28">
+        <v>100044</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="28">
+        <v>9</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="28">
+        <v>300081</v>
+      </c>
+      <c r="I45" s="28">
+        <v>300082</v>
+      </c>
+      <c r="J45" s="28">
+        <v>300086</v>
+      </c>
+      <c r="K45" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L45" s="28">
+        <v>4</v>
+      </c>
+      <c r="M45" s="28">
+        <v>2</v>
+      </c>
+      <c r="N45" s="28">
+        <v>1</v>
+      </c>
+      <c r="O45" s="28">
+        <v>1</v>
+      </c>
+      <c r="P45" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="R45" s="28">
+        <v>3</v>
+      </c>
+      <c r="S45" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="T45" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="U45" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="V45" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="W45" s="28">
+        <v>2</v>
+      </c>
+      <c r="X45" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="30"/>
+      <c r="AG45" s="30"/>
+      <c r="AH45" s="30"/>
+      <c r="AI45" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ45" s="30"/>
+    </row>
+    <row r="46" spans="1:36" s="29" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="28">
+        <v>100045</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="28">
+        <v>9</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" s="28">
+        <v>300081</v>
+      </c>
+      <c r="I46" s="28">
+        <v>300082</v>
+      </c>
+      <c r="J46" s="28">
+        <v>300087</v>
+      </c>
+      <c r="K46" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L46" s="28">
         <v>5</v>
       </c>
-      <c r="N42" s="33">
-        <v>5</v>
-      </c>
-      <c r="O42" s="33">
-        <v>3</v>
-      </c>
-      <c r="P42" s="33">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="33">
-        <v>3</v>
-      </c>
-      <c r="R42" s="33">
-        <v>1</v>
-      </c>
-      <c r="S42" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="T42" s="33" t="s">
+      <c r="M46" s="28">
+        <v>2</v>
+      </c>
+      <c r="N46" s="28">
+        <v>1</v>
+      </c>
+      <c r="O46" s="28">
+        <v>1</v>
+      </c>
+      <c r="P46" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="R46" s="28">
+        <v>3</v>
+      </c>
+      <c r="S46" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="T46" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="U46" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="V46" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U42" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="V42" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="W42" s="33">
-        <v>1</v>
-      </c>
-      <c r="X42" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="35"/>
-      <c r="AC42" s="35"/>
-      <c r="AD42" s="35"/>
-      <c r="AE42" s="35"/>
-      <c r="AF42" s="35"/>
-      <c r="AG42" s="35"/>
-      <c r="AH42" s="35"/>
-      <c r="AI42" s="35"/>
-      <c r="AJ42" s="35"/>
-    </row>
-    <row r="43" spans="1:36" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="33">
-        <v>100042</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="33">
-        <v>9</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="33">
-        <v>300081</v>
-      </c>
-      <c r="I43" s="33">
-        <v>300082</v>
-      </c>
-      <c r="J43" s="33">
-        <v>300084</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="L43" s="33">
-        <v>2</v>
-      </c>
-      <c r="M43" s="33">
-        <v>2</v>
-      </c>
-      <c r="N43" s="33">
-        <v>1</v>
-      </c>
-      <c r="O43" s="33">
-        <v>1</v>
-      </c>
-      <c r="P43" s="33">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="33">
-        <v>1.2</v>
-      </c>
-      <c r="R43" s="33">
-        <v>3</v>
-      </c>
-      <c r="S43" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="T43" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="U43" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="V43" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="W43" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="X43" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="35"/>
-      <c r="Z43" s="35"/>
-      <c r="AA43" s="35"/>
-      <c r="AB43" s="35"/>
-      <c r="AC43" s="35"/>
-      <c r="AD43" s="35"/>
-      <c r="AE43" s="35"/>
-      <c r="AF43" s="35"/>
-      <c r="AG43" s="35"/>
-      <c r="AH43" s="35"/>
-      <c r="AI43" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ43" s="35"/>
-    </row>
-    <row r="44" spans="1:36" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="33">
-        <v>100043</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="33">
-        <v>9</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="33">
-        <v>300081</v>
-      </c>
-      <c r="I44" s="33">
-        <v>300082</v>
-      </c>
-      <c r="J44" s="33">
-        <v>300085</v>
-      </c>
-      <c r="K44" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="L44" s="33">
-        <v>3</v>
-      </c>
-      <c r="M44" s="33">
-        <v>2</v>
-      </c>
-      <c r="N44" s="33">
-        <v>2</v>
-      </c>
-      <c r="O44" s="33">
-        <v>1</v>
-      </c>
-      <c r="P44" s="33">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="33">
-        <v>1.6</v>
-      </c>
-      <c r="R44" s="33">
-        <v>3</v>
-      </c>
-      <c r="S44" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="T44" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="U44" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="V44" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="W44" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="X44" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="35"/>
-      <c r="Z44" s="35"/>
-      <c r="AA44" s="35"/>
-      <c r="AB44" s="35"/>
-      <c r="AC44" s="35"/>
-      <c r="AD44" s="35"/>
-      <c r="AE44" s="35"/>
-      <c r="AF44" s="35"/>
-      <c r="AG44" s="35"/>
-      <c r="AH44" s="35"/>
-      <c r="AI44" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ44" s="35"/>
-    </row>
-    <row r="45" spans="1:36" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="33">
-        <v>100044</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="33">
-        <v>9</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="33">
-        <v>300081</v>
-      </c>
-      <c r="I45" s="33">
-        <v>300082</v>
-      </c>
-      <c r="J45" s="33">
-        <v>300086</v>
-      </c>
-      <c r="K45" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="L45" s="33">
-        <v>4</v>
-      </c>
-      <c r="M45" s="33">
-        <v>2</v>
-      </c>
-      <c r="N45" s="33">
-        <v>2</v>
-      </c>
-      <c r="O45" s="33">
-        <v>1</v>
-      </c>
-      <c r="P45" s="33">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="33">
-        <v>1.6</v>
-      </c>
-      <c r="R45" s="33">
-        <v>3</v>
-      </c>
-      <c r="S45" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="T45" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="U45" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="V45" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="W45" s="33">
-        <v>2</v>
-      </c>
-      <c r="X45" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="35"/>
-      <c r="Z45" s="35"/>
-      <c r="AA45" s="35"/>
-      <c r="AB45" s="35"/>
-      <c r="AC45" s="35"/>
-      <c r="AD45" s="35"/>
-      <c r="AE45" s="35"/>
-      <c r="AF45" s="35"/>
-      <c r="AG45" s="35"/>
-      <c r="AH45" s="35"/>
-      <c r="AI45" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ45" s="35"/>
-    </row>
-    <row r="46" spans="1:36" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="33">
-        <v>100045</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" s="33">
-        <v>9</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="33">
-        <v>300081</v>
-      </c>
-      <c r="I46" s="33">
-        <v>300082</v>
-      </c>
-      <c r="J46" s="33">
-        <v>300087</v>
-      </c>
-      <c r="K46" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="L46" s="33">
-        <v>5</v>
-      </c>
-      <c r="M46" s="33">
-        <v>2</v>
-      </c>
-      <c r="N46" s="33">
-        <v>3</v>
-      </c>
-      <c r="O46" s="33">
-        <v>1</v>
-      </c>
-      <c r="P46" s="33">
-        <v>6</v>
-      </c>
-      <c r="Q46" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="R46" s="33">
-        <v>3</v>
-      </c>
-      <c r="S46" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="T46" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="U46" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="V46" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="W46" s="33">
+      <c r="W46" s="28">
         <v>2.5</v>
       </c>
-      <c r="X46" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="35"/>
-      <c r="Z46" s="35"/>
-      <c r="AA46" s="35"/>
-      <c r="AB46" s="35"/>
-      <c r="AC46" s="35"/>
-      <c r="AD46" s="35"/>
-      <c r="AE46" s="35"/>
-      <c r="AF46" s="35"/>
-      <c r="AG46" s="35"/>
-      <c r="AH46" s="35"/>
-      <c r="AI46" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ46" s="35"/>
+      <c r="X46" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="30"/>
+      <c r="AD46" s="30"/>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="30"/>
+      <c r="AG46" s="30"/>
+      <c r="AH46" s="30"/>
+      <c r="AI46" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ46" s="30"/>
     </row>
     <row r="47" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>100046</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47" s="1">
         <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" t="s">
         <v>36</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" t="s">
-        <v>38</v>
       </c>
       <c r="H47" s="1">
         <v>300091</v>
@@ -5482,7 +5738,7 @@
         <v>300093</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L47" s="1">
         <v>1</v>
@@ -5506,16 +5762,16 @@
         <v>3</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V47" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W47" s="3">
         <v>1</v>
@@ -5541,22 +5797,22 @@
         <v>100047</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C48" s="1">
         <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" t="s">
         <v>36</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G48" t="s">
-        <v>38</v>
       </c>
       <c r="H48" s="1">
         <v>300091</v>
@@ -5568,7 +5824,7 @@
         <v>300094</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L48" s="1">
         <v>2</v>
@@ -5592,16 +5848,16 @@
         <v>3</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V48" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W48" s="3">
         <v>1.5</v>
@@ -5627,22 +5883,22 @@
         <v>100048</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C49" s="1">
         <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" t="s">
         <v>36</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G49" t="s">
-        <v>38</v>
       </c>
       <c r="H49" s="1">
         <v>300091</v>
@@ -5654,7 +5910,7 @@
         <v>300095</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L49" s="1">
         <v>3</v>
@@ -5678,16 +5934,16 @@
         <v>3</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V49" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W49" s="3">
         <v>1.5</v>
@@ -5713,22 +5969,22 @@
         <v>100049</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C50" s="1">
         <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" t="s">
         <v>36</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G50" t="s">
-        <v>38</v>
       </c>
       <c r="H50" s="1">
         <v>300091</v>
@@ -5740,7 +5996,7 @@
         <v>300096</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L50" s="1">
         <v>4</v>
@@ -5764,16 +6020,16 @@
         <v>3</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V50" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U50" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V50" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W50" s="3">
         <v>2</v>
@@ -5799,22 +6055,22 @@
         <v>100050</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C51" s="1">
         <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" t="s">
         <v>36</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G51" t="s">
-        <v>38</v>
       </c>
       <c r="H51" s="1">
         <v>300091</v>
@@ -5826,7 +6082,7 @@
         <v>300097</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L51" s="1">
         <v>5</v>
@@ -5850,16 +6106,16 @@
         <v>2</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U51" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V51" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U51" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V51" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W51" s="3">
         <v>2.5</v>
@@ -5885,22 +6141,22 @@
         <v>100051</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C52" s="1">
         <v>11</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" t="s">
         <v>36</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52" t="s">
-        <v>38</v>
       </c>
       <c r="H52" s="1">
         <v>300101</v>
@@ -5912,7 +6168,7 @@
         <v>300103</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L52" s="1">
         <v>1</v>
@@ -5936,16 +6192,16 @@
         <v>7</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V52" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W52" s="3">
         <v>1</v>
@@ -5971,22 +6227,22 @@
         <v>100052</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C53" s="1">
         <v>11</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" t="s">
         <v>36</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G53" t="s">
-        <v>38</v>
       </c>
       <c r="H53" s="1">
         <v>300101</v>
@@ -5998,7 +6254,7 @@
         <v>300104</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L53" s="1">
         <v>2</v>
@@ -6022,16 +6278,16 @@
         <v>9</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V53" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U53" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V53" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W53" s="3">
         <v>1</v>
@@ -6057,22 +6313,22 @@
         <v>100053</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C54" s="1">
         <v>11</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" t="s">
         <v>36</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G54" t="s">
-        <v>38</v>
       </c>
       <c r="H54" s="1">
         <v>300101</v>
@@ -6084,7 +6340,7 @@
         <v>300105</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L54" s="1">
         <v>3</v>
@@ -6108,16 +6364,16 @@
         <v>11</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V54" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V54" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W54" s="3">
         <v>1</v>
@@ -6143,22 +6399,22 @@
         <v>100054</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C55" s="1">
         <v>11</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" t="s">
         <v>36</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G55" t="s">
-        <v>38</v>
       </c>
       <c r="H55" s="1">
         <v>300101</v>
@@ -6170,7 +6426,7 @@
         <v>300106</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L55" s="1">
         <v>4</v>
@@ -6194,16 +6450,16 @@
         <v>13</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V55" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U55" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V55" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W55" s="3">
         <v>1</v>
@@ -6229,22 +6485,22 @@
         <v>100055</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C56" s="1">
         <v>11</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" t="s">
         <v>36</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G56" t="s">
-        <v>38</v>
       </c>
       <c r="H56" s="1">
         <v>300101</v>
@@ -6256,7 +6512,7 @@
         <v>300107</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L56" s="1">
         <v>5</v>
@@ -6280,16 +6536,16 @@
         <v>15</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U56" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V56" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U56" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V56" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W56" s="3">
         <v>2</v>
@@ -6315,22 +6571,22 @@
         <v>100056</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C57" s="1">
         <v>12</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G57" t="s">
         <v>36</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
       </c>
       <c r="H57" s="1">
         <v>300111</v>
@@ -6342,7 +6598,7 @@
         <v>300113</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L57" s="1">
         <v>1</v>
@@ -6366,16 +6622,16 @@
         <v>0</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V57" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W57" s="3">
         <v>1</v>
@@ -6401,22 +6657,22 @@
         <v>100057</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" s="1">
         <v>12</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58" t="s">
         <v>36</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G58" t="s">
-        <v>38</v>
       </c>
       <c r="H58" s="1">
         <v>300111</v>
@@ -6428,7 +6684,7 @@
         <v>300114</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L58" s="1">
         <v>2</v>
@@ -6452,16 +6708,16 @@
         <v>0</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V58" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W58" s="3">
         <v>1</v>
@@ -6487,22 +6743,22 @@
         <v>100058</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C59" s="1">
         <v>12</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G59" t="s">
         <v>36</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G59" t="s">
-        <v>38</v>
       </c>
       <c r="H59" s="1">
         <v>300111</v>
@@ -6514,7 +6770,7 @@
         <v>300115</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L59" s="1">
         <v>3</v>
@@ -6538,16 +6794,16 @@
         <v>0</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V59" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W59" s="3">
         <v>1</v>
@@ -6573,22 +6829,22 @@
         <v>100059</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C60" s="1">
         <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" t="s">
         <v>36</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G60" t="s">
-        <v>38</v>
       </c>
       <c r="H60" s="1">
         <v>300111</v>
@@ -6600,7 +6856,7 @@
         <v>300116</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L60" s="1">
         <v>4</v>
@@ -6624,16 +6880,16 @@
         <v>0</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V60" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V60" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W60" s="3">
         <v>1</v>
@@ -6659,22 +6915,22 @@
         <v>100060</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C61" s="1">
         <v>12</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G61" t="s">
         <v>36</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G61" t="s">
-        <v>38</v>
       </c>
       <c r="H61" s="1">
         <v>300111</v>
@@ -6686,7 +6942,7 @@
         <v>300117</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L61" s="1">
         <v>5</v>
@@ -6710,16 +6966,16 @@
         <v>0</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U61" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V61" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U61" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V61" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W61" s="3">
         <v>2</v>
@@ -6745,22 +7001,22 @@
         <v>100061</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C62" s="1">
         <v>13</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="G62" t="s">
         <v>36</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G62" t="s">
-        <v>38</v>
       </c>
       <c r="H62" s="1">
         <v>300121</v>
@@ -6772,7 +7028,7 @@
         <v>300123</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L62" s="1">
         <v>1</v>
@@ -6796,16 +7052,16 @@
         <v>0</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V62" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W62" s="3">
         <v>1</v>
@@ -6831,22 +7087,22 @@
         <v>100062</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C63" s="1">
         <v>13</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="G63" t="s">
         <v>36</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G63" t="s">
-        <v>38</v>
       </c>
       <c r="H63" s="1">
         <v>300121</v>
@@ -6858,7 +7114,7 @@
         <v>300124</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L63" s="1">
         <v>2</v>
@@ -6882,16 +7138,16 @@
         <v>0</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U63" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V63" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U63" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V63" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W63" s="3">
         <v>1</v>
@@ -6917,22 +7173,22 @@
         <v>100063</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C64" s="1">
         <v>13</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="G64" t="s">
         <v>36</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G64" t="s">
-        <v>38</v>
       </c>
       <c r="H64" s="1">
         <v>300121</v>
@@ -6944,7 +7200,7 @@
         <v>300125</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L64" s="1">
         <v>3</v>
@@ -6968,16 +7224,16 @@
         <v>0</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U64" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V64" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U64" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V64" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W64" s="3">
         <v>1</v>
@@ -7003,22 +7259,22 @@
         <v>100064</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C65" s="1">
         <v>13</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="G65" t="s">
         <v>36</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G65" t="s">
-        <v>38</v>
       </c>
       <c r="H65" s="1">
         <v>300121</v>
@@ -7030,7 +7286,7 @@
         <v>300126</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L65" s="1">
         <v>4</v>
@@ -7054,16 +7310,16 @@
         <v>0</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U65" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V65" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U65" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V65" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W65" s="3">
         <v>1</v>
@@ -7089,22 +7345,22 @@
         <v>100065</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="1">
         <v>13</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="G66" t="s">
         <v>36</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G66" t="s">
-        <v>38</v>
       </c>
       <c r="H66" s="1">
         <v>300121</v>
@@ -7116,7 +7372,7 @@
         <v>300127</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L66" s="1">
         <v>5</v>
@@ -7140,16 +7396,16 @@
         <v>0</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V66" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V66" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W66" s="3">
         <v>2</v>
@@ -7175,22 +7431,22 @@
         <v>100066</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C67" s="1">
         <v>14</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="G67" t="s">
         <v>36</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G67" t="s">
-        <v>38</v>
       </c>
       <c r="H67" s="1">
         <v>300131</v>
@@ -7202,7 +7458,7 @@
         <v>300133</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L67" s="1">
         <v>1</v>
@@ -7226,16 +7482,16 @@
         <v>7</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T67" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U67" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V67" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U67" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V67" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W67" s="3">
         <v>1</v>
@@ -7261,22 +7517,22 @@
         <v>100067</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="1">
         <v>14</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="G68" t="s">
         <v>36</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G68" t="s">
-        <v>38</v>
       </c>
       <c r="H68" s="1">
         <v>300131</v>
@@ -7288,7 +7544,7 @@
         <v>300134</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L68" s="1">
         <v>2</v>
@@ -7312,16 +7568,16 @@
         <v>7</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U68" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V68" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U68" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V68" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W68" s="3">
         <v>1</v>
@@ -7347,22 +7603,22 @@
         <v>100068</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C69" s="1">
         <v>14</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="G69" t="s">
         <v>36</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G69" t="s">
-        <v>38</v>
       </c>
       <c r="H69" s="1">
         <v>300131</v>
@@ -7374,7 +7630,7 @@
         <v>300135</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L69" s="1">
         <v>3</v>
@@ -7398,16 +7654,16 @@
         <v>7</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U69" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V69" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U69" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V69" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W69" s="3">
         <v>1</v>
@@ -7433,22 +7689,22 @@
         <v>100069</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="1">
         <v>14</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="G70" t="s">
         <v>36</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G70" t="s">
-        <v>38</v>
       </c>
       <c r="H70" s="1">
         <v>300131</v>
@@ -7460,7 +7716,7 @@
         <v>300136</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L70" s="1">
         <v>4</v>
@@ -7484,16 +7740,16 @@
         <v>7</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T70" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U70" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V70" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U70" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V70" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W70" s="3">
         <v>1</v>
@@ -7519,22 +7775,22 @@
         <v>100070</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="1">
         <v>14</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="G71" t="s">
         <v>36</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" t="s">
-        <v>38</v>
       </c>
       <c r="H71" s="1">
         <v>300131</v>
@@ -7546,7 +7802,7 @@
         <v>300137</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L71" s="1">
         <v>5</v>
@@ -7570,16 +7826,16 @@
         <v>7</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U71" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V71" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U71" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V71" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W71" s="3">
         <v>2</v>
@@ -7605,22 +7861,22 @@
         <v>100071</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="1">
         <v>15</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="G72" t="s">
         <v>36</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G72" t="s">
-        <v>38</v>
       </c>
       <c r="H72" s="1">
         <v>300141</v>
@@ -7632,7 +7888,7 @@
         <v>300143</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L72" s="1">
         <v>1</v>
@@ -7656,16 +7912,16 @@
         <v>7</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V72" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W72" s="3">
         <v>1</v>
@@ -7691,22 +7947,22 @@
         <v>100072</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C73" s="1">
         <v>15</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="G73" t="s">
         <v>36</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G73" t="s">
-        <v>38</v>
       </c>
       <c r="H73" s="1">
         <v>300141</v>
@@ -7718,7 +7974,7 @@
         <v>300144</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L73" s="1">
         <v>2</v>
@@ -7742,16 +7998,16 @@
         <v>10</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T73" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U73" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V73" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U73" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V73" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W73" s="3">
         <v>2</v>
@@ -7777,22 +8033,22 @@
         <v>100073</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C74" s="1">
         <v>15</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="G74" t="s">
         <v>36</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G74" t="s">
-        <v>38</v>
       </c>
       <c r="H74" s="1">
         <v>300141</v>
@@ -7804,7 +8060,7 @@
         <v>300145</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L74" s="1">
         <v>3</v>
@@ -7828,16 +8084,16 @@
         <v>13</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V74" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U74" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V74" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W74" s="3">
         <v>3</v>
@@ -7863,22 +8119,22 @@
         <v>100074</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C75" s="1">
         <v>15</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="G75" t="s">
         <v>36</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G75" t="s">
-        <v>38</v>
       </c>
       <c r="H75" s="1">
         <v>300141</v>
@@ -7890,7 +8146,7 @@
         <v>300146</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L75" s="1">
         <v>4</v>
@@ -7914,16 +8170,16 @@
         <v>16</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U75" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V75" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U75" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V75" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W75" s="3">
         <v>4</v>
@@ -7949,22 +8205,22 @@
         <v>100075</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C76" s="1">
         <v>15</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="G76" t="s">
         <v>36</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G76" t="s">
-        <v>38</v>
       </c>
       <c r="H76" s="1">
         <v>300141</v>
@@ -7976,7 +8232,7 @@
         <v>300147</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L76" s="1">
         <v>5</v>
@@ -8000,16 +8256,16 @@
         <v>19</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T76" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V76" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V76" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W76" s="3">
         <v>5</v>
@@ -8035,22 +8291,22 @@
         <v>100076</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C77" s="10">
         <v>16</v>
       </c>
       <c r="D77" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="G77" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="H77" s="10">
         <v>300151</v>
@@ -8062,7 +8318,7 @@
         <v>300153</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L77" s="10">
         <v>1</v>
@@ -8086,31 +8342,31 @@
         <v>9.5</v>
       </c>
       <c r="S77" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T77" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U77" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V77" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="U77" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="V77" s="9" t="s">
+      <c r="W77" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X77" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z77" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA77" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="W77" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X77" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y77" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z77" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA77" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="AB77" s="12">
         <v>0.5</v>
@@ -8119,13 +8375,13 @@
         <v>0</v>
       </c>
       <c r="AD77" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AE77" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AF77" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AG77" s="12">
         <v>1.5</v>
@@ -8141,22 +8397,22 @@
         <v>100077</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C78" s="10">
         <v>16</v>
       </c>
       <c r="D78" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="G78" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="H78" s="10">
         <v>300151</v>
@@ -8168,7 +8424,7 @@
         <v>300154</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L78" s="10">
         <v>2</v>
@@ -8192,31 +8448,31 @@
         <v>14.5</v>
       </c>
       <c r="S78" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T78" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U78" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V78" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="U78" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="V78" s="9" t="s">
+      <c r="W78" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X78" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z78" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA78" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="W78" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="X78" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y78" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z78" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA78" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="AB78" s="12">
         <v>0.5</v>
@@ -8225,13 +8481,13 @@
         <v>0</v>
       </c>
       <c r="AD78" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AE78" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AF78" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AG78" s="12">
         <v>1.5</v>
@@ -8239,32 +8495,32 @@
       <c r="AH78" s="12">
         <v>0</v>
       </c>
-      <c r="AI78" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ78" s="31"/>
+      <c r="AI78" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ78" s="34"/>
     </row>
     <row r="79" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>100078</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C79" s="10">
         <v>16</v>
       </c>
       <c r="D79" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="G79" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="H79" s="10">
         <v>300151</v>
@@ -8276,7 +8532,7 @@
         <v>300155</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L79" s="10">
         <v>3</v>
@@ -8300,31 +8556,31 @@
         <v>19.5</v>
       </c>
       <c r="S79" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T79" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U79" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V79" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="U79" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="V79" s="9" t="s">
+      <c r="W79" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X79" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z79" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA79" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="W79" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="X79" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y79" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z79" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA79" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="AB79" s="12">
         <v>0.5</v>
@@ -8333,13 +8589,13 @@
         <v>0</v>
       </c>
       <c r="AD79" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AE79" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AF79" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AG79" s="12">
         <v>1.5</v>
@@ -8347,32 +8603,32 @@
       <c r="AH79" s="12">
         <v>0</v>
       </c>
-      <c r="AI79" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ79" s="31"/>
+      <c r="AI79" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ79" s="34"/>
     </row>
     <row r="80" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>100079</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C80" s="10">
         <v>16</v>
       </c>
       <c r="D80" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="G80" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="H80" s="10">
         <v>300151</v>
@@ -8384,7 +8640,7 @@
         <v>300156</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L80" s="10">
         <v>4</v>
@@ -8408,31 +8664,31 @@
         <v>24.5</v>
       </c>
       <c r="S80" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T80" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U80" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V80" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="U80" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="V80" s="9" t="s">
+      <c r="W80" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="X80" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z80" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA80" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="W80" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="X80" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y80" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z80" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA80" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="AB80" s="12">
         <v>0.5</v>
@@ -8441,13 +8697,13 @@
         <v>0</v>
       </c>
       <c r="AD80" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AE80" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AF80" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AG80" s="12">
         <v>1.5</v>
@@ -8455,32 +8711,32 @@
       <c r="AH80" s="12">
         <v>0</v>
       </c>
-      <c r="AI80" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ80" s="31"/>
+      <c r="AI80" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ80" s="34"/>
     </row>
     <row r="81" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>100080</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C81" s="10">
         <v>16</v>
       </c>
       <c r="D81" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="G81" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="H81" s="10">
         <v>300151</v>
@@ -8492,7 +8748,7 @@
         <v>300157</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L81" s="10">
         <v>5</v>
@@ -8516,31 +8772,31 @@
         <v>29.5</v>
       </c>
       <c r="S81" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T81" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U81" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V81" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="U81" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="V81" s="9" t="s">
+      <c r="W81" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X81" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z81" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA81" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="W81" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="X81" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z81" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA81" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="AB81" s="12">
         <v>0.5</v>
@@ -8549,13 +8805,13 @@
         <v>0</v>
       </c>
       <c r="AD81" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AE81" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AF81" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AG81" s="12">
         <v>1.5</v>
@@ -8563,32 +8819,32 @@
       <c r="AH81" s="12">
         <v>0</v>
       </c>
-      <c r="AI81" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ81" s="31"/>
+      <c r="AI81" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ81" s="34"/>
     </row>
     <row r="82" spans="1:36" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>100081</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C82" s="1">
         <v>17</v>
       </c>
       <c r="D82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="G82" t="s">
         <v>36</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G82" t="s">
-        <v>38</v>
       </c>
       <c r="H82" s="1">
         <v>300161</v>
@@ -8600,7 +8856,7 @@
         <v>300163</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L82" s="1">
         <v>1</v>
@@ -8624,16 +8880,16 @@
         <v>3</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T82" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U82" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V82" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U82" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V82" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W82" s="3">
         <v>1</v>
@@ -8659,22 +8915,22 @@
         <v>100082</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C83" s="1">
         <v>17</v>
       </c>
       <c r="D83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="G83" t="s">
         <v>36</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G83" t="s">
-        <v>38</v>
       </c>
       <c r="H83" s="1">
         <v>300161</v>
@@ -8686,7 +8942,7 @@
         <v>300164</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L83" s="1">
         <v>2</v>
@@ -8710,16 +8966,16 @@
         <v>3</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T83" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V83" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W83" s="3">
         <v>2</v>
@@ -8745,22 +9001,22 @@
         <v>100083</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C84" s="1">
         <v>17</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="G84" t="s">
         <v>36</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G84" t="s">
-        <v>38</v>
       </c>
       <c r="H84" s="1">
         <v>300161</v>
@@ -8772,7 +9028,7 @@
         <v>300165</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L84" s="1">
         <v>3</v>
@@ -8796,16 +9052,16 @@
         <v>3</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T84" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U84" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V84" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U84" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V84" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W84" s="3">
         <v>3</v>
@@ -8831,22 +9087,22 @@
         <v>100084</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C85" s="1">
         <v>17</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="G85" t="s">
         <v>36</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G85" t="s">
-        <v>38</v>
       </c>
       <c r="H85" s="1">
         <v>300161</v>
@@ -8858,7 +9114,7 @@
         <v>300166</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L85" s="1">
         <v>4</v>
@@ -8882,16 +9138,16 @@
         <v>3</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T85" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U85" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V85" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U85" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V85" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W85" s="3">
         <v>4</v>
@@ -8917,22 +9173,22 @@
         <v>100085</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C86" s="1">
         <v>17</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="G86" t="s">
         <v>36</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G86" t="s">
-        <v>38</v>
       </c>
       <c r="H86" s="1">
         <v>300161</v>
@@ -8944,7 +9200,7 @@
         <v>300167</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L86" s="1">
         <v>5</v>
@@ -8968,16 +9224,16 @@
         <v>3</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T86" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U86" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V86" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U86" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V86" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W86" s="3">
         <v>5</v>
@@ -9003,22 +9259,22 @@
         <v>200001</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C87" s="3">
         <v>1000</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -9046,16 +9302,16 @@
         <v>3</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T87" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U87" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V87" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U87" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V87" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="W87" s="3">
         <v>2</v>
@@ -9091,7 +9347,7 @@
     <mergeCell ref="AI80:AJ80"/>
     <mergeCell ref="AI81:AJ81"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
